--- a/Excel/BossBattle.xlsx
+++ b/Excel/BossBattle.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09D6939F-5666-47D4-AFB5-84C665CBB081}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92FE2634-CBDD-45DC-8EB4-04B42AFD8691}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{A6866CF1-6843-4840-93D5-06F7C057B491}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1082" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1082" uniqueCount="15">
   <si>
     <t>stage|Int</t>
   </si>
@@ -75,7 +75,9 @@
   </si>
   <si>
     <t>bossDropId|String</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bf2010</t>
   </si>
 </sst>
 </file>
@@ -1269,9 +1271,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A78C98E-8C7B-42F7-95E8-B31297094BB8}">
   <dimension ref="A1:C27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -1582,9 +1582,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D73C3706-EA31-4372-B626-A76904A84A7F}">
   <dimension ref="A1:F536"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -1616,10 +1614,10 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D2">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E2" t="s">
         <v>10</v>
@@ -1636,10 +1634,10 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D3">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E3" t="s">
         <v>10</v>
@@ -1656,10 +1654,10 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D4">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E4" t="s">
         <v>10</v>
@@ -1676,10 +1674,10 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D5">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="E5" t="s">
         <v>10</v>
@@ -1699,7 +1697,7 @@
         <v>3</v>
       </c>
       <c r="D6">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="E6" t="s">
         <v>10</v>
@@ -1719,7 +1717,7 @@
         <v>3</v>
       </c>
       <c r="D7">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="E7" t="s">
         <v>10</v>
@@ -1739,7 +1737,7 @@
         <v>3</v>
       </c>
       <c r="D8">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="E8" t="s">
         <v>10</v>
@@ -1756,10 +1754,10 @@
         <v>8</v>
       </c>
       <c r="C9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D9">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="E9" t="s">
         <v>10</v>
@@ -1776,10 +1774,10 @@
         <v>9</v>
       </c>
       <c r="C10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D10">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="E10" t="s">
         <v>10</v>
@@ -1796,10 +1794,10 @@
         <v>10</v>
       </c>
       <c r="C11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D11">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="E11" t="s">
         <v>10</v>
@@ -1816,10 +1814,10 @@
         <v>11</v>
       </c>
       <c r="C12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D12">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="E12" t="s">
         <v>10</v>
@@ -1836,10 +1834,10 @@
         <v>12</v>
       </c>
       <c r="C13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D13">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="E13" t="s">
         <v>10</v>
@@ -1856,10 +1854,10 @@
         <v>13</v>
       </c>
       <c r="C14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D14">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="E14" t="s">
         <v>10</v>
@@ -1876,10 +1874,10 @@
         <v>14</v>
       </c>
       <c r="C15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D15">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="E15" t="s">
         <v>10</v>
@@ -1896,10 +1894,10 @@
         <v>1</v>
       </c>
       <c r="C16">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D16">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E16" t="s">
         <v>10</v>
@@ -1916,10 +1914,10 @@
         <v>2</v>
       </c>
       <c r="C17">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D17">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E17" t="s">
         <v>10</v>
@@ -1936,10 +1934,10 @@
         <v>3</v>
       </c>
       <c r="C18">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D18">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E18" t="s">
         <v>10</v>
@@ -1956,10 +1954,10 @@
         <v>4</v>
       </c>
       <c r="C19">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D19">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="E19" t="s">
         <v>10</v>
@@ -1979,7 +1977,7 @@
         <v>3</v>
       </c>
       <c r="D20">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="E20" t="s">
         <v>10</v>
@@ -1999,7 +1997,7 @@
         <v>3</v>
       </c>
       <c r="D21">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="E21" t="s">
         <v>10</v>
@@ -2019,7 +2017,7 @@
         <v>3</v>
       </c>
       <c r="D22">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="E22" t="s">
         <v>10</v>
@@ -2036,10 +2034,10 @@
         <v>8</v>
       </c>
       <c r="C23">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D23">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="E23" t="s">
         <v>10</v>
@@ -2056,10 +2054,10 @@
         <v>9</v>
       </c>
       <c r="C24">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D24">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="E24" t="s">
         <v>10</v>
@@ -2076,10 +2074,10 @@
         <v>10</v>
       </c>
       <c r="C25">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D25">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="E25" t="s">
         <v>10</v>
@@ -2096,10 +2094,10 @@
         <v>11</v>
       </c>
       <c r="C26">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D26">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="E26" t="s">
         <v>10</v>
@@ -2116,10 +2114,10 @@
         <v>12</v>
       </c>
       <c r="C27">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D27">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="E27" t="s">
         <v>10</v>
@@ -2136,10 +2134,10 @@
         <v>13</v>
       </c>
       <c r="C28">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D28">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="E28" t="s">
         <v>10</v>
@@ -2156,10 +2154,10 @@
         <v>14</v>
       </c>
       <c r="C29">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D29">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="E29" t="s">
         <v>10</v>
@@ -2176,10 +2174,10 @@
         <v>1</v>
       </c>
       <c r="C30">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D30">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E30" t="s">
         <v>10</v>
@@ -2196,10 +2194,10 @@
         <v>2</v>
       </c>
       <c r="C31">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D31">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E31" t="s">
         <v>10</v>
@@ -2216,10 +2214,10 @@
         <v>3</v>
       </c>
       <c r="C32">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D32">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E32" t="s">
         <v>10</v>
@@ -2236,10 +2234,10 @@
         <v>4</v>
       </c>
       <c r="C33">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D33">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="E33" t="s">
         <v>10</v>
@@ -2259,7 +2257,7 @@
         <v>3</v>
       </c>
       <c r="D34">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="E34" t="s">
         <v>10</v>
@@ -2279,7 +2277,7 @@
         <v>3</v>
       </c>
       <c r="D35">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="E35" t="s">
         <v>10</v>
@@ -2299,7 +2297,7 @@
         <v>3</v>
       </c>
       <c r="D36">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="E36" t="s">
         <v>10</v>
@@ -2316,10 +2314,10 @@
         <v>8</v>
       </c>
       <c r="C37">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D37">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="E37" t="s">
         <v>10</v>
@@ -2336,10 +2334,10 @@
         <v>9</v>
       </c>
       <c r="C38">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D38">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="E38" t="s">
         <v>10</v>
@@ -2356,10 +2354,10 @@
         <v>10</v>
       </c>
       <c r="C39">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D39">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="E39" t="s">
         <v>10</v>
@@ -2376,10 +2374,10 @@
         <v>11</v>
       </c>
       <c r="C40">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D40">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="E40" t="s">
         <v>10</v>
@@ -2396,10 +2394,10 @@
         <v>12</v>
       </c>
       <c r="C41">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D41">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="E41" t="s">
         <v>10</v>
@@ -2416,10 +2414,10 @@
         <v>13</v>
       </c>
       <c r="C42">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D42">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="E42" t="s">
         <v>10</v>
@@ -2436,10 +2434,10 @@
         <v>14</v>
       </c>
       <c r="C43">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D43">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="E43" t="s">
         <v>10</v>
@@ -2456,10 +2454,10 @@
         <v>1</v>
       </c>
       <c r="C44">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D44">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E44" t="s">
         <v>10</v>
@@ -2476,10 +2474,10 @@
         <v>2</v>
       </c>
       <c r="C45">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D45">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E45" t="s">
         <v>10</v>
@@ -2496,10 +2494,10 @@
         <v>3</v>
       </c>
       <c r="C46">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D46">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E46" t="s">
         <v>10</v>
@@ -2516,10 +2514,10 @@
         <v>4</v>
       </c>
       <c r="C47">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D47">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="E47" t="s">
         <v>10</v>
@@ -2539,7 +2537,7 @@
         <v>3</v>
       </c>
       <c r="D48">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="E48" t="s">
         <v>10</v>
@@ -2559,7 +2557,7 @@
         <v>3</v>
       </c>
       <c r="D49">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="E49" t="s">
         <v>10</v>
@@ -2579,7 +2577,7 @@
         <v>3</v>
       </c>
       <c r="D50">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="E50" t="s">
         <v>10</v>
@@ -2596,10 +2594,10 @@
         <v>8</v>
       </c>
       <c r="C51">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D51">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="E51" t="s">
         <v>10</v>
@@ -2616,10 +2614,10 @@
         <v>9</v>
       </c>
       <c r="C52">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D52">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="E52" t="s">
         <v>10</v>
@@ -2636,10 +2634,10 @@
         <v>10</v>
       </c>
       <c r="C53">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D53">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="E53" t="s">
         <v>10</v>
@@ -2656,10 +2654,10 @@
         <v>11</v>
       </c>
       <c r="C54">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D54">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="E54" t="s">
         <v>10</v>
@@ -2676,10 +2674,10 @@
         <v>12</v>
       </c>
       <c r="C55">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D55">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="E55" t="s">
         <v>10</v>
@@ -2696,10 +2694,10 @@
         <v>13</v>
       </c>
       <c r="C56">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D56">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="E56" t="s">
         <v>10</v>
@@ -2716,10 +2714,10 @@
         <v>14</v>
       </c>
       <c r="C57">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D57">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="E57" t="s">
         <v>10</v>
@@ -2736,13 +2734,13 @@
         <v>1</v>
       </c>
       <c r="C58">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D58">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E58" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F58" t="s">
         <v>12</v>
@@ -2756,10 +2754,10 @@
         <v>2</v>
       </c>
       <c r="C59">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D59">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E59" t="s">
         <v>10</v>
@@ -2776,10 +2774,10 @@
         <v>3</v>
       </c>
       <c r="C60">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D60">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E60" t="s">
         <v>10</v>
@@ -2796,10 +2794,10 @@
         <v>4</v>
       </c>
       <c r="C61">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D61">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="E61" t="s">
         <v>10</v>
@@ -2819,7 +2817,7 @@
         <v>3</v>
       </c>
       <c r="D62">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="E62" t="s">
         <v>10</v>
@@ -2839,7 +2837,7 @@
         <v>3</v>
       </c>
       <c r="D63">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="E63" t="s">
         <v>10</v>
@@ -2859,7 +2857,7 @@
         <v>3</v>
       </c>
       <c r="D64">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="E64" t="s">
         <v>10</v>
@@ -2876,10 +2874,10 @@
         <v>8</v>
       </c>
       <c r="C65">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D65">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="E65" t="s">
         <v>10</v>
@@ -2896,10 +2894,10 @@
         <v>9</v>
       </c>
       <c r="C66">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D66">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="E66" t="s">
         <v>10</v>
@@ -2916,10 +2914,10 @@
         <v>10</v>
       </c>
       <c r="C67">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D67">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="E67" t="s">
         <v>10</v>
@@ -2936,10 +2934,10 @@
         <v>11</v>
       </c>
       <c r="C68">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D68">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="E68" t="s">
         <v>10</v>
@@ -2956,10 +2954,10 @@
         <v>12</v>
       </c>
       <c r="C69">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D69">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="E69" t="s">
         <v>10</v>
@@ -2976,10 +2974,10 @@
         <v>13</v>
       </c>
       <c r="C70">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D70">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="E70" t="s">
         <v>10</v>
@@ -2996,10 +2994,10 @@
         <v>14</v>
       </c>
       <c r="C71">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D71">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="E71" t="s">
         <v>10</v>
@@ -3016,10 +3014,10 @@
         <v>2</v>
       </c>
       <c r="C72">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D72">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E72" t="s">
         <v>10</v>
@@ -3036,10 +3034,10 @@
         <v>3</v>
       </c>
       <c r="C73">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D73">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E73" t="s">
         <v>10</v>
@@ -3056,10 +3054,10 @@
         <v>4</v>
       </c>
       <c r="C74">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D74">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="E74" t="s">
         <v>10</v>
@@ -3079,7 +3077,7 @@
         <v>3</v>
       </c>
       <c r="D75">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="E75" t="s">
         <v>10</v>
@@ -3099,7 +3097,7 @@
         <v>3</v>
       </c>
       <c r="D76">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="E76" t="s">
         <v>10</v>
@@ -3119,7 +3117,7 @@
         <v>3</v>
       </c>
       <c r="D77">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="E77" t="s">
         <v>10</v>
@@ -3136,10 +3134,10 @@
         <v>8</v>
       </c>
       <c r="C78">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D78">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="E78" t="s">
         <v>10</v>
@@ -3156,10 +3154,10 @@
         <v>9</v>
       </c>
       <c r="C79">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D79">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="E79" t="s">
         <v>10</v>
@@ -3176,10 +3174,10 @@
         <v>10</v>
       </c>
       <c r="C80">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D80">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="E80" t="s">
         <v>10</v>
@@ -3196,10 +3194,10 @@
         <v>11</v>
       </c>
       <c r="C81">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D81">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="E81" t="s">
         <v>10</v>
@@ -3216,10 +3214,10 @@
         <v>12</v>
       </c>
       <c r="C82">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D82">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="E82" t="s">
         <v>10</v>
@@ -3236,10 +3234,10 @@
         <v>13</v>
       </c>
       <c r="C83">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D83">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="E83" t="s">
         <v>10</v>
@@ -3256,10 +3254,10 @@
         <v>14</v>
       </c>
       <c r="C84">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D84">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="E84" t="s">
         <v>10</v>
@@ -3276,10 +3274,10 @@
         <v>2</v>
       </c>
       <c r="C85">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D85">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E85" t="s">
         <v>10</v>
@@ -3296,10 +3294,10 @@
         <v>3</v>
       </c>
       <c r="C86">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D86">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E86" t="s">
         <v>10</v>
@@ -3316,10 +3314,10 @@
         <v>4</v>
       </c>
       <c r="C87">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D87">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="E87" t="s">
         <v>10</v>
@@ -3339,7 +3337,7 @@
         <v>3</v>
       </c>
       <c r="D88">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="E88" t="s">
         <v>10</v>
@@ -3359,7 +3357,7 @@
         <v>3</v>
       </c>
       <c r="D89">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="E89" t="s">
         <v>10</v>
@@ -3379,7 +3377,7 @@
         <v>3</v>
       </c>
       <c r="D90">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="E90" t="s">
         <v>10</v>
@@ -3396,10 +3394,10 @@
         <v>8</v>
       </c>
       <c r="C91">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D91">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="E91" t="s">
         <v>10</v>
@@ -3416,10 +3414,10 @@
         <v>9</v>
       </c>
       <c r="C92">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D92">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="E92" t="s">
         <v>10</v>
@@ -3436,10 +3434,10 @@
         <v>10</v>
       </c>
       <c r="C93">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D93">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="E93" t="s">
         <v>10</v>
@@ -3456,10 +3454,10 @@
         <v>11</v>
       </c>
       <c r="C94">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D94">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="E94" t="s">
         <v>10</v>
@@ -3476,10 +3474,10 @@
         <v>12</v>
       </c>
       <c r="C95">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D95">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="E95" t="s">
         <v>10</v>
@@ -3496,10 +3494,10 @@
         <v>13</v>
       </c>
       <c r="C96">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D96">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="E96" t="s">
         <v>10</v>
@@ -3516,10 +3514,10 @@
         <v>14</v>
       </c>
       <c r="C97">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D97">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="E97" t="s">
         <v>10</v>
@@ -3536,10 +3534,10 @@
         <v>2</v>
       </c>
       <c r="C98">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D98">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E98" t="s">
         <v>10</v>
@@ -3556,10 +3554,10 @@
         <v>3</v>
       </c>
       <c r="C99">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D99">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E99" t="s">
         <v>10</v>
@@ -3576,10 +3574,10 @@
         <v>4</v>
       </c>
       <c r="C100">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D100">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="E100" t="s">
         <v>10</v>
@@ -3599,7 +3597,7 @@
         <v>3</v>
       </c>
       <c r="D101">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="E101" t="s">
         <v>10</v>
@@ -3619,7 +3617,7 @@
         <v>3</v>
       </c>
       <c r="D102">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="E102" t="s">
         <v>10</v>
@@ -3639,7 +3637,7 @@
         <v>3</v>
       </c>
       <c r="D103">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="E103" t="s">
         <v>10</v>
@@ -3656,10 +3654,10 @@
         <v>8</v>
       </c>
       <c r="C104">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D104">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="E104" t="s">
         <v>10</v>
@@ -3676,10 +3674,10 @@
         <v>9</v>
       </c>
       <c r="C105">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D105">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="E105" t="s">
         <v>10</v>
@@ -3696,10 +3694,10 @@
         <v>10</v>
       </c>
       <c r="C106">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D106">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="E106" t="s">
         <v>10</v>
@@ -3716,10 +3714,10 @@
         <v>11</v>
       </c>
       <c r="C107">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D107">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="E107" t="s">
         <v>10</v>
@@ -3736,10 +3734,10 @@
         <v>12</v>
       </c>
       <c r="C108">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D108">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="E108" t="s">
         <v>10</v>
@@ -3756,10 +3754,10 @@
         <v>13</v>
       </c>
       <c r="C109">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D109">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="E109" t="s">
         <v>10</v>
@@ -3776,10 +3774,10 @@
         <v>14</v>
       </c>
       <c r="C110">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D110">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="E110" t="s">
         <v>10</v>
@@ -3796,10 +3794,10 @@
         <v>2</v>
       </c>
       <c r="C111">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D111">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E111" t="s">
         <v>10</v>
@@ -3816,10 +3814,10 @@
         <v>3</v>
       </c>
       <c r="C112">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D112">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E112" t="s">
         <v>10</v>
@@ -3836,10 +3834,10 @@
         <v>4</v>
       </c>
       <c r="C113">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D113">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="E113" t="s">
         <v>10</v>
@@ -3859,7 +3857,7 @@
         <v>3</v>
       </c>
       <c r="D114">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="E114" t="s">
         <v>10</v>
@@ -3879,7 +3877,7 @@
         <v>3</v>
       </c>
       <c r="D115">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="E115" t="s">
         <v>10</v>
@@ -3899,7 +3897,7 @@
         <v>3</v>
       </c>
       <c r="D116">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="E116" t="s">
         <v>10</v>
@@ -3916,10 +3914,10 @@
         <v>8</v>
       </c>
       <c r="C117">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D117">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="E117" t="s">
         <v>10</v>
@@ -3936,10 +3934,10 @@
         <v>9</v>
       </c>
       <c r="C118">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D118">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="E118" t="s">
         <v>10</v>
@@ -3956,10 +3954,10 @@
         <v>10</v>
       </c>
       <c r="C119">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D119">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="E119" t="s">
         <v>10</v>
@@ -3976,10 +3974,10 @@
         <v>11</v>
       </c>
       <c r="C120">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D120">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="E120" t="s">
         <v>10</v>
@@ -3996,10 +3994,10 @@
         <v>12</v>
       </c>
       <c r="C121">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D121">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="E121" t="s">
         <v>10</v>
@@ -4016,10 +4014,10 @@
         <v>13</v>
       </c>
       <c r="C122">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D122">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="E122" t="s">
         <v>10</v>
@@ -4036,10 +4034,10 @@
         <v>14</v>
       </c>
       <c r="C123">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D123">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="E123" t="s">
         <v>10</v>
@@ -4056,16 +4054,16 @@
         <v>2</v>
       </c>
       <c r="C124">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D124">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E124" t="s">
         <v>10</v>
       </c>
       <c r="F124" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.3">
@@ -4076,16 +4074,16 @@
         <v>3</v>
       </c>
       <c r="C125">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D125">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E125" t="s">
         <v>10</v>
       </c>
       <c r="F125" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.3">
@@ -4096,16 +4094,16 @@
         <v>4</v>
       </c>
       <c r="C126">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D126">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="E126" t="s">
         <v>10</v>
       </c>
       <c r="F126" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.3">
@@ -4119,13 +4117,13 @@
         <v>3</v>
       </c>
       <c r="D127">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="E127" t="s">
         <v>10</v>
       </c>
       <c r="F127" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.3">
@@ -4139,13 +4137,13 @@
         <v>3</v>
       </c>
       <c r="D128">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="E128" t="s">
         <v>10</v>
       </c>
       <c r="F128" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.3">
@@ -4159,13 +4157,13 @@
         <v>3</v>
       </c>
       <c r="D129">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="E129" t="s">
         <v>10</v>
       </c>
       <c r="F129" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.3">
@@ -4176,16 +4174,16 @@
         <v>8</v>
       </c>
       <c r="C130">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D130">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="E130" t="s">
         <v>10</v>
       </c>
       <c r="F130" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.3">
@@ -4196,16 +4194,16 @@
         <v>9</v>
       </c>
       <c r="C131">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D131">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="E131" t="s">
         <v>10</v>
       </c>
       <c r="F131" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.3">
@@ -4216,16 +4214,16 @@
         <v>10</v>
       </c>
       <c r="C132">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D132">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="E132" t="s">
         <v>10</v>
       </c>
       <c r="F132" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.3">
@@ -4236,16 +4234,16 @@
         <v>11</v>
       </c>
       <c r="C133">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D133">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="E133" t="s">
         <v>10</v>
       </c>
       <c r="F133" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.3">
@@ -4256,16 +4254,16 @@
         <v>12</v>
       </c>
       <c r="C134">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D134">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="E134" t="s">
         <v>10</v>
       </c>
       <c r="F134" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.3">
@@ -4276,16 +4274,16 @@
         <v>13</v>
       </c>
       <c r="C135">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D135">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="E135" t="s">
         <v>10</v>
       </c>
       <c r="F135" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.3">
@@ -4296,16 +4294,16 @@
         <v>14</v>
       </c>
       <c r="C136">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D136">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="E136" t="s">
         <v>10</v>
       </c>
       <c r="F136" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.3">
@@ -4316,10 +4314,10 @@
         <v>3</v>
       </c>
       <c r="C137">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D137">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E137" t="s">
         <v>10</v>
@@ -4336,10 +4334,10 @@
         <v>4</v>
       </c>
       <c r="C138">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D138">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="E138" t="s">
         <v>10</v>
@@ -4359,7 +4357,7 @@
         <v>3</v>
       </c>
       <c r="D139">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="E139" t="s">
         <v>10</v>
@@ -4379,7 +4377,7 @@
         <v>3</v>
       </c>
       <c r="D140">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="E140" t="s">
         <v>10</v>
@@ -4399,7 +4397,7 @@
         <v>3</v>
       </c>
       <c r="D141">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="E141" t="s">
         <v>10</v>
@@ -4416,10 +4414,10 @@
         <v>8</v>
       </c>
       <c r="C142">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D142">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="E142" t="s">
         <v>10</v>
@@ -4436,10 +4434,10 @@
         <v>9</v>
       </c>
       <c r="C143">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D143">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="E143" t="s">
         <v>10</v>
@@ -4456,10 +4454,10 @@
         <v>10</v>
       </c>
       <c r="C144">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D144">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="E144" t="s">
         <v>10</v>
@@ -4476,10 +4474,10 @@
         <v>11</v>
       </c>
       <c r="C145">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D145">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="E145" t="s">
         <v>10</v>
@@ -4496,10 +4494,10 @@
         <v>12</v>
       </c>
       <c r="C146">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D146">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="E146" t="s">
         <v>10</v>
@@ -4516,10 +4514,10 @@
         <v>13</v>
       </c>
       <c r="C147">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D147">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="E147" t="s">
         <v>10</v>
@@ -4536,10 +4534,10 @@
         <v>14</v>
       </c>
       <c r="C148">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D148">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="E148" t="s">
         <v>10</v>
@@ -4556,10 +4554,10 @@
         <v>3</v>
       </c>
       <c r="C149">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D149">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E149" t="s">
         <v>10</v>
@@ -4576,10 +4574,10 @@
         <v>4</v>
       </c>
       <c r="C150">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D150">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="E150" t="s">
         <v>10</v>
@@ -4599,7 +4597,7 @@
         <v>3</v>
       </c>
       <c r="D151">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="E151" t="s">
         <v>10</v>
@@ -4619,7 +4617,7 @@
         <v>3</v>
       </c>
       <c r="D152">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="E152" t="s">
         <v>10</v>
@@ -4639,7 +4637,7 @@
         <v>3</v>
       </c>
       <c r="D153">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="E153" t="s">
         <v>10</v>
@@ -4656,10 +4654,10 @@
         <v>8</v>
       </c>
       <c r="C154">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D154">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="E154" t="s">
         <v>10</v>
@@ -4676,10 +4674,10 @@
         <v>9</v>
       </c>
       <c r="C155">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D155">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="E155" t="s">
         <v>10</v>
@@ -4696,10 +4694,10 @@
         <v>10</v>
       </c>
       <c r="C156">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D156">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="E156" t="s">
         <v>10</v>
@@ -4716,10 +4714,10 @@
         <v>11</v>
       </c>
       <c r="C157">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D157">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="E157" t="s">
         <v>10</v>
@@ -4736,10 +4734,10 @@
         <v>12</v>
       </c>
       <c r="C158">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D158">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="E158" t="s">
         <v>10</v>
@@ -4756,10 +4754,10 @@
         <v>13</v>
       </c>
       <c r="C159">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D159">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="E159" t="s">
         <v>10</v>
@@ -4776,10 +4774,10 @@
         <v>14</v>
       </c>
       <c r="C160">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D160">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="E160" t="s">
         <v>10</v>
@@ -4796,10 +4794,10 @@
         <v>3</v>
       </c>
       <c r="C161">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D161">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E161" t="s">
         <v>10</v>
@@ -4816,10 +4814,10 @@
         <v>4</v>
       </c>
       <c r="C162">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D162">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="E162" t="s">
         <v>10</v>
@@ -4839,7 +4837,7 @@
         <v>3</v>
       </c>
       <c r="D163">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="E163" t="s">
         <v>10</v>
@@ -4859,7 +4857,7 @@
         <v>3</v>
       </c>
       <c r="D164">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="E164" t="s">
         <v>10</v>
@@ -4879,7 +4877,7 @@
         <v>3</v>
       </c>
       <c r="D165">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="E165" t="s">
         <v>10</v>
@@ -4896,10 +4894,10 @@
         <v>8</v>
       </c>
       <c r="C166">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D166">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="E166" t="s">
         <v>10</v>
@@ -4916,10 +4914,10 @@
         <v>9</v>
       </c>
       <c r="C167">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D167">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="E167" t="s">
         <v>10</v>
@@ -4936,10 +4934,10 @@
         <v>10</v>
       </c>
       <c r="C168">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D168">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="E168" t="s">
         <v>10</v>
@@ -4956,10 +4954,10 @@
         <v>11</v>
       </c>
       <c r="C169">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D169">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="E169" t="s">
         <v>10</v>
@@ -4976,10 +4974,10 @@
         <v>12</v>
       </c>
       <c r="C170">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D170">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="E170" t="s">
         <v>10</v>
@@ -4996,10 +4994,10 @@
         <v>13</v>
       </c>
       <c r="C171">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D171">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="E171" t="s">
         <v>10</v>
@@ -5016,10 +5014,10 @@
         <v>14</v>
       </c>
       <c r="C172">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D172">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="E172" t="s">
         <v>10</v>
@@ -5036,10 +5034,10 @@
         <v>3</v>
       </c>
       <c r="C173">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D173">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E173" t="s">
         <v>10</v>
@@ -5056,10 +5054,10 @@
         <v>4</v>
       </c>
       <c r="C174">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D174">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="E174" t="s">
         <v>10</v>
@@ -5079,7 +5077,7 @@
         <v>3</v>
       </c>
       <c r="D175">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="E175" t="s">
         <v>10</v>
@@ -5099,7 +5097,7 @@
         <v>3</v>
       </c>
       <c r="D176">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="E176" t="s">
         <v>10</v>
@@ -5119,7 +5117,7 @@
         <v>3</v>
       </c>
       <c r="D177">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="E177" t="s">
         <v>10</v>
@@ -5136,10 +5134,10 @@
         <v>8</v>
       </c>
       <c r="C178">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D178">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="E178" t="s">
         <v>10</v>
@@ -5156,10 +5154,10 @@
         <v>9</v>
       </c>
       <c r="C179">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D179">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="E179" t="s">
         <v>10</v>
@@ -5176,10 +5174,10 @@
         <v>10</v>
       </c>
       <c r="C180">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D180">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="E180" t="s">
         <v>10</v>
@@ -5196,10 +5194,10 @@
         <v>11</v>
       </c>
       <c r="C181">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D181">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="E181" t="s">
         <v>10</v>
@@ -5216,10 +5214,10 @@
         <v>12</v>
       </c>
       <c r="C182">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D182">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="E182" t="s">
         <v>10</v>
@@ -5236,10 +5234,10 @@
         <v>13</v>
       </c>
       <c r="C183">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D183">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="E183" t="s">
         <v>10</v>
@@ -5256,10 +5254,10 @@
         <v>14</v>
       </c>
       <c r="C184">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D184">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="E184" t="s">
         <v>10</v>
@@ -5276,16 +5274,16 @@
         <v>3</v>
       </c>
       <c r="C185">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D185">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E185" t="s">
         <v>10</v>
       </c>
       <c r="F185" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.3">
@@ -5296,16 +5294,16 @@
         <v>4</v>
       </c>
       <c r="C186">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D186">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="E186" t="s">
         <v>10</v>
       </c>
       <c r="F186" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.3">
@@ -5319,13 +5317,13 @@
         <v>3</v>
       </c>
       <c r="D187">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="E187" t="s">
         <v>10</v>
       </c>
       <c r="F187" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.3">
@@ -5339,13 +5337,13 @@
         <v>3</v>
       </c>
       <c r="D188">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="E188" t="s">
         <v>10</v>
       </c>
       <c r="F188" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.3">
@@ -5359,13 +5357,13 @@
         <v>3</v>
       </c>
       <c r="D189">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="E189" t="s">
         <v>10</v>
       </c>
       <c r="F189" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.3">
@@ -5376,16 +5374,16 @@
         <v>8</v>
       </c>
       <c r="C190">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D190">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="E190" t="s">
         <v>10</v>
       </c>
       <c r="F190" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.3">
@@ -5396,16 +5394,16 @@
         <v>9</v>
       </c>
       <c r="C191">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D191">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="E191" t="s">
         <v>10</v>
       </c>
       <c r="F191" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.3">
@@ -5416,16 +5414,16 @@
         <v>10</v>
       </c>
       <c r="C192">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D192">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="E192" t="s">
         <v>10</v>
       </c>
       <c r="F192" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.3">
@@ -5436,16 +5434,16 @@
         <v>11</v>
       </c>
       <c r="C193">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D193">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="E193" t="s">
         <v>10</v>
       </c>
       <c r="F193" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.3">
@@ -5456,16 +5454,16 @@
         <v>12</v>
       </c>
       <c r="C194">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D194">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="E194" t="s">
         <v>10</v>
       </c>
       <c r="F194" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.3">
@@ -5476,16 +5474,16 @@
         <v>13</v>
       </c>
       <c r="C195">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D195">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="E195" t="s">
         <v>10</v>
       </c>
       <c r="F195" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.3">
@@ -5496,16 +5494,16 @@
         <v>14</v>
       </c>
       <c r="C196">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D196">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="E196" t="s">
         <v>10</v>
       </c>
       <c r="F196" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.3">
@@ -5516,10 +5514,10 @@
         <v>4</v>
       </c>
       <c r="C197">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D197">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="E197" t="s">
         <v>10</v>
@@ -5539,7 +5537,7 @@
         <v>3</v>
       </c>
       <c r="D198">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="E198" t="s">
         <v>10</v>
@@ -5559,7 +5557,7 @@
         <v>3</v>
       </c>
       <c r="D199">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="E199" t="s">
         <v>10</v>
@@ -5579,7 +5577,7 @@
         <v>3</v>
       </c>
       <c r="D200">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="E200" t="s">
         <v>10</v>
@@ -5596,10 +5594,10 @@
         <v>8</v>
       </c>
       <c r="C201">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D201">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="E201" t="s">
         <v>10</v>
@@ -5616,10 +5614,10 @@
         <v>9</v>
       </c>
       <c r="C202">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D202">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="E202" t="s">
         <v>10</v>
@@ -5636,10 +5634,10 @@
         <v>10</v>
       </c>
       <c r="C203">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D203">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="E203" t="s">
         <v>10</v>
@@ -5656,10 +5654,10 @@
         <v>11</v>
       </c>
       <c r="C204">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D204">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="E204" t="s">
         <v>10</v>
@@ -5676,10 +5674,10 @@
         <v>12</v>
       </c>
       <c r="C205">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D205">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="E205" t="s">
         <v>10</v>
@@ -5696,10 +5694,10 @@
         <v>13</v>
       </c>
       <c r="C206">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D206">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="E206" t="s">
         <v>10</v>
@@ -5716,10 +5714,10 @@
         <v>14</v>
       </c>
       <c r="C207">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D207">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="E207" t="s">
         <v>10</v>
@@ -5736,10 +5734,10 @@
         <v>4</v>
       </c>
       <c r="C208">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D208">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="E208" t="s">
         <v>10</v>
@@ -5759,7 +5757,7 @@
         <v>3</v>
       </c>
       <c r="D209">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="E209" t="s">
         <v>10</v>
@@ -5779,7 +5777,7 @@
         <v>3</v>
       </c>
       <c r="D210">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="E210" t="s">
         <v>10</v>
@@ -5799,7 +5797,7 @@
         <v>3</v>
       </c>
       <c r="D211">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="E211" t="s">
         <v>10</v>
@@ -5816,10 +5814,10 @@
         <v>8</v>
       </c>
       <c r="C212">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D212">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="E212" t="s">
         <v>10</v>
@@ -5836,10 +5834,10 @@
         <v>9</v>
       </c>
       <c r="C213">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D213">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="E213" t="s">
         <v>10</v>
@@ -5856,10 +5854,10 @@
         <v>10</v>
       </c>
       <c r="C214">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D214">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="E214" t="s">
         <v>10</v>
@@ -5876,10 +5874,10 @@
         <v>11</v>
       </c>
       <c r="C215">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D215">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="E215" t="s">
         <v>10</v>
@@ -5896,10 +5894,10 @@
         <v>12</v>
       </c>
       <c r="C216">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D216">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="E216" t="s">
         <v>10</v>
@@ -5916,10 +5914,10 @@
         <v>13</v>
       </c>
       <c r="C217">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D217">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="E217" t="s">
         <v>10</v>
@@ -5936,10 +5934,10 @@
         <v>14</v>
       </c>
       <c r="C218">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D218">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="E218" t="s">
         <v>10</v>
@@ -5956,10 +5954,10 @@
         <v>4</v>
       </c>
       <c r="C219">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D219">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="E219" t="s">
         <v>10</v>
@@ -5979,7 +5977,7 @@
         <v>3</v>
       </c>
       <c r="D220">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="E220" t="s">
         <v>10</v>
@@ -5999,7 +5997,7 @@
         <v>3</v>
       </c>
       <c r="D221">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="E221" t="s">
         <v>10</v>
@@ -6019,7 +6017,7 @@
         <v>3</v>
       </c>
       <c r="D222">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="E222" t="s">
         <v>10</v>
@@ -6036,10 +6034,10 @@
         <v>8</v>
       </c>
       <c r="C223">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D223">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="E223" t="s">
         <v>10</v>
@@ -6056,10 +6054,10 @@
         <v>9</v>
       </c>
       <c r="C224">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D224">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="E224" t="s">
         <v>10</v>
@@ -6076,10 +6074,10 @@
         <v>10</v>
       </c>
       <c r="C225">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D225">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="E225" t="s">
         <v>10</v>
@@ -6096,10 +6094,10 @@
         <v>11</v>
       </c>
       <c r="C226">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D226">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="E226" t="s">
         <v>10</v>
@@ -6116,10 +6114,10 @@
         <v>12</v>
       </c>
       <c r="C227">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D227">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="E227" t="s">
         <v>10</v>
@@ -6136,10 +6134,10 @@
         <v>13</v>
       </c>
       <c r="C228">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D228">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="E228" t="s">
         <v>10</v>
@@ -6156,10 +6154,10 @@
         <v>14</v>
       </c>
       <c r="C229">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D229">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="E229" t="s">
         <v>10</v>
@@ -6176,10 +6174,10 @@
         <v>4</v>
       </c>
       <c r="C230">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D230">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="E230" t="s">
         <v>10</v>
@@ -6199,7 +6197,7 @@
         <v>3</v>
       </c>
       <c r="D231">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="E231" t="s">
         <v>10</v>
@@ -6219,7 +6217,7 @@
         <v>3</v>
       </c>
       <c r="D232">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="E232" t="s">
         <v>10</v>
@@ -6239,7 +6237,7 @@
         <v>3</v>
       </c>
       <c r="D233">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="E233" t="s">
         <v>10</v>
@@ -6256,10 +6254,10 @@
         <v>8</v>
       </c>
       <c r="C234">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D234">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="E234" t="s">
         <v>10</v>
@@ -6276,10 +6274,10 @@
         <v>9</v>
       </c>
       <c r="C235">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D235">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="E235" t="s">
         <v>10</v>
@@ -6296,10 +6294,10 @@
         <v>10</v>
       </c>
       <c r="C236">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D236">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="E236" t="s">
         <v>10</v>
@@ -6316,10 +6314,10 @@
         <v>11</v>
       </c>
       <c r="C237">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D237">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="E237" t="s">
         <v>10</v>
@@ -6336,10 +6334,10 @@
         <v>12</v>
       </c>
       <c r="C238">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D238">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="E238" t="s">
         <v>10</v>
@@ -6356,10 +6354,10 @@
         <v>13</v>
       </c>
       <c r="C239">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D239">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="E239" t="s">
         <v>10</v>
@@ -6376,10 +6374,10 @@
         <v>14</v>
       </c>
       <c r="C240">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D240">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="E240" t="s">
         <v>10</v>
@@ -6396,16 +6394,16 @@
         <v>4</v>
       </c>
       <c r="C241">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D241">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="E241" t="s">
         <v>10</v>
       </c>
       <c r="F241" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="242" spans="1:6" x14ac:dyDescent="0.3">
@@ -6419,13 +6417,13 @@
         <v>3</v>
       </c>
       <c r="D242">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="E242" t="s">
         <v>10</v>
       </c>
       <c r="F242" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="243" spans="1:6" x14ac:dyDescent="0.3">
@@ -6439,13 +6437,13 @@
         <v>3</v>
       </c>
       <c r="D243">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="E243" t="s">
         <v>10</v>
       </c>
       <c r="F243" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="244" spans="1:6" x14ac:dyDescent="0.3">
@@ -6459,13 +6457,13 @@
         <v>3</v>
       </c>
       <c r="D244">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="E244" t="s">
         <v>10</v>
       </c>
       <c r="F244" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="245" spans="1:6" x14ac:dyDescent="0.3">
@@ -6476,16 +6474,16 @@
         <v>8</v>
       </c>
       <c r="C245">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D245">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="E245" t="s">
         <v>10</v>
       </c>
       <c r="F245" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="246" spans="1:6" x14ac:dyDescent="0.3">
@@ -6496,16 +6494,16 @@
         <v>9</v>
       </c>
       <c r="C246">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D246">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="E246" t="s">
         <v>10</v>
       </c>
       <c r="F246" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="247" spans="1:6" x14ac:dyDescent="0.3">
@@ -6516,16 +6514,16 @@
         <v>10</v>
       </c>
       <c r="C247">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D247">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="E247" t="s">
         <v>10</v>
       </c>
       <c r="F247" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="248" spans="1:6" x14ac:dyDescent="0.3">
@@ -6536,16 +6534,16 @@
         <v>11</v>
       </c>
       <c r="C248">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D248">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="E248" t="s">
         <v>10</v>
       </c>
       <c r="F248" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="249" spans="1:6" x14ac:dyDescent="0.3">
@@ -6556,16 +6554,16 @@
         <v>12</v>
       </c>
       <c r="C249">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D249">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="E249" t="s">
         <v>10</v>
       </c>
       <c r="F249" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="250" spans="1:6" x14ac:dyDescent="0.3">
@@ -6576,16 +6574,16 @@
         <v>13</v>
       </c>
       <c r="C250">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D250">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="E250" t="s">
         <v>10</v>
       </c>
       <c r="F250" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="251" spans="1:6" x14ac:dyDescent="0.3">
@@ -6596,16 +6594,16 @@
         <v>14</v>
       </c>
       <c r="C251">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D251">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="E251" t="s">
         <v>10</v>
       </c>
       <c r="F251" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="252" spans="1:6" x14ac:dyDescent="0.3">
@@ -6619,7 +6617,7 @@
         <v>3</v>
       </c>
       <c r="D252">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="E252" t="s">
         <v>10</v>
@@ -6639,7 +6637,7 @@
         <v>3</v>
       </c>
       <c r="D253">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="E253" t="s">
         <v>10</v>
@@ -6659,7 +6657,7 @@
         <v>3</v>
       </c>
       <c r="D254">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="E254" t="s">
         <v>10</v>
@@ -6676,10 +6674,10 @@
         <v>8</v>
       </c>
       <c r="C255">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D255">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="E255" t="s">
         <v>10</v>
@@ -6696,10 +6694,10 @@
         <v>9</v>
       </c>
       <c r="C256">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D256">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="E256" t="s">
         <v>10</v>
@@ -6716,10 +6714,10 @@
         <v>10</v>
       </c>
       <c r="C257">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D257">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="E257" t="s">
         <v>10</v>
@@ -6736,10 +6734,10 @@
         <v>11</v>
       </c>
       <c r="C258">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D258">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="E258" t="s">
         <v>10</v>
@@ -6756,10 +6754,10 @@
         <v>12</v>
       </c>
       <c r="C259">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D259">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="E259" t="s">
         <v>10</v>
@@ -6776,10 +6774,10 @@
         <v>13</v>
       </c>
       <c r="C260">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D260">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="E260" t="s">
         <v>10</v>
@@ -6796,10 +6794,10 @@
         <v>14</v>
       </c>
       <c r="C261">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D261">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="E261" t="s">
         <v>10</v>
@@ -6819,7 +6817,7 @@
         <v>3</v>
       </c>
       <c r="D262">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="E262" t="s">
         <v>10</v>
@@ -6839,7 +6837,7 @@
         <v>3</v>
       </c>
       <c r="D263">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="E263" t="s">
         <v>10</v>
@@ -6859,7 +6857,7 @@
         <v>3</v>
       </c>
       <c r="D264">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="E264" t="s">
         <v>10</v>
@@ -6876,10 +6874,10 @@
         <v>8</v>
       </c>
       <c r="C265">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D265">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="E265" t="s">
         <v>10</v>
@@ -6896,10 +6894,10 @@
         <v>9</v>
       </c>
       <c r="C266">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D266">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="E266" t="s">
         <v>10</v>
@@ -6916,10 +6914,10 @@
         <v>10</v>
       </c>
       <c r="C267">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D267">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="E267" t="s">
         <v>10</v>
@@ -6936,10 +6934,10 @@
         <v>11</v>
       </c>
       <c r="C268">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D268">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="E268" t="s">
         <v>10</v>
@@ -6956,10 +6954,10 @@
         <v>12</v>
       </c>
       <c r="C269">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D269">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="E269" t="s">
         <v>10</v>
@@ -6976,10 +6974,10 @@
         <v>13</v>
       </c>
       <c r="C270">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D270">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="E270" t="s">
         <v>10</v>
@@ -6996,10 +6994,10 @@
         <v>14</v>
       </c>
       <c r="C271">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D271">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="E271" t="s">
         <v>10</v>
@@ -7019,7 +7017,7 @@
         <v>3</v>
       </c>
       <c r="D272">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="E272" t="s">
         <v>10</v>
@@ -7039,7 +7037,7 @@
         <v>3</v>
       </c>
       <c r="D273">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="E273" t="s">
         <v>10</v>
@@ -7059,7 +7057,7 @@
         <v>3</v>
       </c>
       <c r="D274">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="E274" t="s">
         <v>10</v>
@@ -7076,10 +7074,10 @@
         <v>8</v>
       </c>
       <c r="C275">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D275">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="E275" t="s">
         <v>10</v>
@@ -7096,10 +7094,10 @@
         <v>9</v>
       </c>
       <c r="C276">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D276">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="E276" t="s">
         <v>10</v>
@@ -7116,10 +7114,10 @@
         <v>10</v>
       </c>
       <c r="C277">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D277">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="E277" t="s">
         <v>10</v>
@@ -7136,10 +7134,10 @@
         <v>11</v>
       </c>
       <c r="C278">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D278">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="E278" t="s">
         <v>10</v>
@@ -7156,10 +7154,10 @@
         <v>12</v>
       </c>
       <c r="C279">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D279">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="E279" t="s">
         <v>10</v>
@@ -7176,10 +7174,10 @@
         <v>13</v>
       </c>
       <c r="C280">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D280">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="E280" t="s">
         <v>10</v>
@@ -7196,10 +7194,10 @@
         <v>14</v>
       </c>
       <c r="C281">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D281">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="E281" t="s">
         <v>10</v>
@@ -7219,7 +7217,7 @@
         <v>3</v>
       </c>
       <c r="D282">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="E282" t="s">
         <v>10</v>
@@ -7239,7 +7237,7 @@
         <v>3</v>
       </c>
       <c r="D283">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="E283" t="s">
         <v>10</v>
@@ -7259,7 +7257,7 @@
         <v>3</v>
       </c>
       <c r="D284">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="E284" t="s">
         <v>10</v>
@@ -7276,10 +7274,10 @@
         <v>8</v>
       </c>
       <c r="C285">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D285">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="E285" t="s">
         <v>10</v>
@@ -7296,10 +7294,10 @@
         <v>9</v>
       </c>
       <c r="C286">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D286">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="E286" t="s">
         <v>10</v>
@@ -7316,10 +7314,10 @@
         <v>10</v>
       </c>
       <c r="C287">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D287">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="E287" t="s">
         <v>10</v>
@@ -7336,10 +7334,10 @@
         <v>11</v>
       </c>
       <c r="C288">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D288">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="E288" t="s">
         <v>10</v>
@@ -7356,10 +7354,10 @@
         <v>12</v>
       </c>
       <c r="C289">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D289">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="E289" t="s">
         <v>10</v>
@@ -7376,10 +7374,10 @@
         <v>13</v>
       </c>
       <c r="C290">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D290">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="E290" t="s">
         <v>10</v>
@@ -7396,10 +7394,10 @@
         <v>14</v>
       </c>
       <c r="C291">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D291">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="E291" t="s">
         <v>10</v>
@@ -7419,13 +7417,13 @@
         <v>3</v>
       </c>
       <c r="D292">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="E292" t="s">
         <v>10</v>
       </c>
       <c r="F292" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="293" spans="1:6" x14ac:dyDescent="0.3">
@@ -7439,13 +7437,13 @@
         <v>3</v>
       </c>
       <c r="D293">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="E293" t="s">
         <v>10</v>
       </c>
       <c r="F293" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="294" spans="1:6" x14ac:dyDescent="0.3">
@@ -7459,13 +7457,13 @@
         <v>3</v>
       </c>
       <c r="D294">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="E294" t="s">
         <v>10</v>
       </c>
       <c r="F294" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="295" spans="1:6" x14ac:dyDescent="0.3">
@@ -7476,16 +7474,16 @@
         <v>8</v>
       </c>
       <c r="C295">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D295">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="E295" t="s">
         <v>10</v>
       </c>
       <c r="F295" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="296" spans="1:6" x14ac:dyDescent="0.3">
@@ -7496,16 +7494,16 @@
         <v>9</v>
       </c>
       <c r="C296">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D296">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="E296" t="s">
         <v>10</v>
       </c>
       <c r="F296" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="297" spans="1:6" x14ac:dyDescent="0.3">
@@ -7516,16 +7514,16 @@
         <v>10</v>
       </c>
       <c r="C297">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D297">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="E297" t="s">
         <v>10</v>
       </c>
       <c r="F297" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="298" spans="1:6" x14ac:dyDescent="0.3">
@@ -7536,16 +7534,16 @@
         <v>11</v>
       </c>
       <c r="C298">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D298">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="E298" t="s">
         <v>10</v>
       </c>
       <c r="F298" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="299" spans="1:6" x14ac:dyDescent="0.3">
@@ -7556,16 +7554,16 @@
         <v>12</v>
       </c>
       <c r="C299">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D299">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="E299" t="s">
         <v>10</v>
       </c>
       <c r="F299" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="300" spans="1:6" x14ac:dyDescent="0.3">
@@ -7576,16 +7574,16 @@
         <v>13</v>
       </c>
       <c r="C300">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D300">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="E300" t="s">
         <v>10</v>
       </c>
       <c r="F300" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="301" spans="1:6" x14ac:dyDescent="0.3">
@@ -7596,16 +7594,16 @@
         <v>14</v>
       </c>
       <c r="C301">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D301">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="E301" t="s">
         <v>10</v>
       </c>
       <c r="F301" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="302" spans="1:6" x14ac:dyDescent="0.3">
@@ -7619,7 +7617,7 @@
         <v>3</v>
       </c>
       <c r="D302">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="E302" t="s">
         <v>10</v>
@@ -7639,7 +7637,7 @@
         <v>3</v>
       </c>
       <c r="D303">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="E303" t="s">
         <v>10</v>
@@ -7656,10 +7654,10 @@
         <v>8</v>
       </c>
       <c r="C304">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D304">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="E304" t="s">
         <v>10</v>
@@ -7676,10 +7674,10 @@
         <v>9</v>
       </c>
       <c r="C305">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D305">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="E305" t="s">
         <v>10</v>
@@ -7696,10 +7694,10 @@
         <v>10</v>
       </c>
       <c r="C306">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D306">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="E306" t="s">
         <v>10</v>
@@ -7716,10 +7714,10 @@
         <v>11</v>
       </c>
       <c r="C307">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D307">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="E307" t="s">
         <v>10</v>
@@ -7736,10 +7734,10 @@
         <v>12</v>
       </c>
       <c r="C308">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D308">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="E308" t="s">
         <v>10</v>
@@ -7756,10 +7754,10 @@
         <v>13</v>
       </c>
       <c r="C309">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D309">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="E309" t="s">
         <v>10</v>
@@ -7776,10 +7774,10 @@
         <v>14</v>
       </c>
       <c r="C310">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D310">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="E310" t="s">
         <v>10</v>
@@ -7799,7 +7797,7 @@
         <v>3</v>
       </c>
       <c r="D311">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="E311" t="s">
         <v>10</v>
@@ -7819,7 +7817,7 @@
         <v>3</v>
       </c>
       <c r="D312">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="E312" t="s">
         <v>10</v>
@@ -7836,10 +7834,10 @@
         <v>8</v>
       </c>
       <c r="C313">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D313">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="E313" t="s">
         <v>10</v>
@@ -7856,10 +7854,10 @@
         <v>9</v>
       </c>
       <c r="C314">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D314">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="E314" t="s">
         <v>10</v>
@@ -7876,10 +7874,10 @@
         <v>10</v>
       </c>
       <c r="C315">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D315">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="E315" t="s">
         <v>10</v>
@@ -7896,10 +7894,10 @@
         <v>11</v>
       </c>
       <c r="C316">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D316">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="E316" t="s">
         <v>10</v>
@@ -7916,10 +7914,10 @@
         <v>12</v>
       </c>
       <c r="C317">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D317">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="E317" t="s">
         <v>10</v>
@@ -7936,10 +7934,10 @@
         <v>13</v>
       </c>
       <c r="C318">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D318">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="E318" t="s">
         <v>10</v>
@@ -7956,10 +7954,10 @@
         <v>14</v>
       </c>
       <c r="C319">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D319">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="E319" t="s">
         <v>10</v>
@@ -7979,7 +7977,7 @@
         <v>3</v>
       </c>
       <c r="D320">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="E320" t="s">
         <v>10</v>
@@ -7999,7 +7997,7 @@
         <v>3</v>
       </c>
       <c r="D321">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="E321" t="s">
         <v>10</v>
@@ -8016,10 +8014,10 @@
         <v>8</v>
       </c>
       <c r="C322">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D322">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="E322" t="s">
         <v>10</v>
@@ -8036,10 +8034,10 @@
         <v>9</v>
       </c>
       <c r="C323">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D323">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="E323" t="s">
         <v>10</v>
@@ -8056,10 +8054,10 @@
         <v>10</v>
       </c>
       <c r="C324">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D324">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="E324" t="s">
         <v>10</v>
@@ -8076,10 +8074,10 @@
         <v>11</v>
       </c>
       <c r="C325">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D325">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="E325" t="s">
         <v>10</v>
@@ -8096,10 +8094,10 @@
         <v>12</v>
       </c>
       <c r="C326">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D326">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="E326" t="s">
         <v>10</v>
@@ -8116,10 +8114,10 @@
         <v>13</v>
       </c>
       <c r="C327">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D327">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="E327" t="s">
         <v>10</v>
@@ -8136,10 +8134,10 @@
         <v>14</v>
       </c>
       <c r="C328">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D328">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="E328" t="s">
         <v>10</v>
@@ -8159,7 +8157,7 @@
         <v>3</v>
       </c>
       <c r="D329">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="E329" t="s">
         <v>10</v>
@@ -8179,7 +8177,7 @@
         <v>3</v>
       </c>
       <c r="D330">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="E330" t="s">
         <v>10</v>
@@ -8196,10 +8194,10 @@
         <v>8</v>
       </c>
       <c r="C331">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D331">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="E331" t="s">
         <v>10</v>
@@ -8216,10 +8214,10 @@
         <v>9</v>
       </c>
       <c r="C332">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D332">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="E332" t="s">
         <v>10</v>
@@ -8236,10 +8234,10 @@
         <v>10</v>
       </c>
       <c r="C333">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D333">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="E333" t="s">
         <v>10</v>
@@ -8256,10 +8254,10 @@
         <v>11</v>
       </c>
       <c r="C334">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D334">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="E334" t="s">
         <v>10</v>
@@ -8276,10 +8274,10 @@
         <v>12</v>
       </c>
       <c r="C335">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D335">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="E335" t="s">
         <v>10</v>
@@ -8296,10 +8294,10 @@
         <v>13</v>
       </c>
       <c r="C336">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D336">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="E336" t="s">
         <v>10</v>
@@ -8316,10 +8314,10 @@
         <v>14</v>
       </c>
       <c r="C337">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D337">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="E337" t="s">
         <v>10</v>
@@ -8339,13 +8337,13 @@
         <v>3</v>
       </c>
       <c r="D338">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="E338" t="s">
         <v>10</v>
       </c>
       <c r="F338" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="339" spans="1:6" x14ac:dyDescent="0.3">
@@ -8359,13 +8357,13 @@
         <v>3</v>
       </c>
       <c r="D339">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="E339" t="s">
         <v>10</v>
       </c>
       <c r="F339" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="340" spans="1:6" x14ac:dyDescent="0.3">
@@ -8376,16 +8374,16 @@
         <v>8</v>
       </c>
       <c r="C340">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D340">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="E340" t="s">
         <v>10</v>
       </c>
       <c r="F340" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="341" spans="1:6" x14ac:dyDescent="0.3">
@@ -8396,16 +8394,16 @@
         <v>9</v>
       </c>
       <c r="C341">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D341">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="E341" t="s">
         <v>10</v>
       </c>
       <c r="F341" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="342" spans="1:6" x14ac:dyDescent="0.3">
@@ -8416,16 +8414,16 @@
         <v>10</v>
       </c>
       <c r="C342">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D342">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="E342" t="s">
         <v>10</v>
       </c>
       <c r="F342" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="343" spans="1:6" x14ac:dyDescent="0.3">
@@ -8436,16 +8434,16 @@
         <v>11</v>
       </c>
       <c r="C343">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D343">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="E343" t="s">
         <v>10</v>
       </c>
       <c r="F343" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="344" spans="1:6" x14ac:dyDescent="0.3">
@@ -8456,16 +8454,16 @@
         <v>12</v>
       </c>
       <c r="C344">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D344">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="E344" t="s">
         <v>10</v>
       </c>
       <c r="F344" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="345" spans="1:6" x14ac:dyDescent="0.3">
@@ -8476,16 +8474,16 @@
         <v>13</v>
       </c>
       <c r="C345">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D345">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="E345" t="s">
         <v>10</v>
       </c>
       <c r="F345" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="346" spans="1:6" x14ac:dyDescent="0.3">
@@ -8496,16 +8494,16 @@
         <v>14</v>
       </c>
       <c r="C346">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D346">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="E346" t="s">
         <v>10</v>
       </c>
       <c r="F346" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="347" spans="1:6" x14ac:dyDescent="0.3">
@@ -8519,7 +8517,7 @@
         <v>3</v>
       </c>
       <c r="D347">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="E347" t="s">
         <v>10</v>
@@ -8536,10 +8534,10 @@
         <v>8</v>
       </c>
       <c r="C348">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D348">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="E348" t="s">
         <v>10</v>
@@ -8556,10 +8554,10 @@
         <v>9</v>
       </c>
       <c r="C349">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D349">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="E349" t="s">
         <v>10</v>
@@ -8576,10 +8574,10 @@
         <v>10</v>
       </c>
       <c r="C350">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D350">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="E350" t="s">
         <v>10</v>
@@ -8596,10 +8594,10 @@
         <v>11</v>
       </c>
       <c r="C351">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D351">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="E351" t="s">
         <v>10</v>
@@ -8616,10 +8614,10 @@
         <v>12</v>
       </c>
       <c r="C352">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D352">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="E352" t="s">
         <v>10</v>
@@ -8636,10 +8634,10 @@
         <v>13</v>
       </c>
       <c r="C353">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D353">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="E353" t="s">
         <v>10</v>
@@ -8656,10 +8654,10 @@
         <v>14</v>
       </c>
       <c r="C354">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D354">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="E354" t="s">
         <v>10</v>
@@ -8679,7 +8677,7 @@
         <v>3</v>
       </c>
       <c r="D355">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="E355" t="s">
         <v>10</v>
@@ -8696,10 +8694,10 @@
         <v>8</v>
       </c>
       <c r="C356">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D356">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="E356" t="s">
         <v>10</v>
@@ -8716,10 +8714,10 @@
         <v>9</v>
       </c>
       <c r="C357">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D357">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="E357" t="s">
         <v>10</v>
@@ -8736,10 +8734,10 @@
         <v>10</v>
       </c>
       <c r="C358">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D358">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="E358" t="s">
         <v>10</v>
@@ -8756,10 +8754,10 @@
         <v>11</v>
       </c>
       <c r="C359">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D359">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="E359" t="s">
         <v>10</v>
@@ -8776,10 +8774,10 @@
         <v>12</v>
       </c>
       <c r="C360">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D360">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="E360" t="s">
         <v>10</v>
@@ -8796,10 +8794,10 @@
         <v>13</v>
       </c>
       <c r="C361">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D361">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="E361" t="s">
         <v>10</v>
@@ -8816,10 +8814,10 @@
         <v>14</v>
       </c>
       <c r="C362">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D362">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="E362" t="s">
         <v>10</v>
@@ -8839,7 +8837,7 @@
         <v>3</v>
       </c>
       <c r="D363">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="E363" t="s">
         <v>10</v>
@@ -8856,10 +8854,10 @@
         <v>8</v>
       </c>
       <c r="C364">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D364">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="E364" t="s">
         <v>10</v>
@@ -8876,10 +8874,10 @@
         <v>9</v>
       </c>
       <c r="C365">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D365">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="E365" t="s">
         <v>10</v>
@@ -8896,10 +8894,10 @@
         <v>10</v>
       </c>
       <c r="C366">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D366">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="E366" t="s">
         <v>10</v>
@@ -8916,10 +8914,10 @@
         <v>11</v>
       </c>
       <c r="C367">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D367">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="E367" t="s">
         <v>10</v>
@@ -8936,10 +8934,10 @@
         <v>12</v>
       </c>
       <c r="C368">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D368">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="E368" t="s">
         <v>10</v>
@@ -8956,10 +8954,10 @@
         <v>13</v>
       </c>
       <c r="C369">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D369">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="E369" t="s">
         <v>10</v>
@@ -8976,10 +8974,10 @@
         <v>14</v>
       </c>
       <c r="C370">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D370">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="E370" t="s">
         <v>10</v>
@@ -8999,7 +8997,7 @@
         <v>3</v>
       </c>
       <c r="D371">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="E371" t="s">
         <v>10</v>
@@ -9016,10 +9014,10 @@
         <v>8</v>
       </c>
       <c r="C372">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D372">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="E372" t="s">
         <v>10</v>
@@ -9036,10 +9034,10 @@
         <v>9</v>
       </c>
       <c r="C373">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D373">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="E373" t="s">
         <v>10</v>
@@ -9056,10 +9054,10 @@
         <v>10</v>
       </c>
       <c r="C374">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D374">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="E374" t="s">
         <v>10</v>
@@ -9076,10 +9074,10 @@
         <v>11</v>
       </c>
       <c r="C375">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D375">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="E375" t="s">
         <v>10</v>
@@ -9096,10 +9094,10 @@
         <v>12</v>
       </c>
       <c r="C376">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D376">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="E376" t="s">
         <v>10</v>
@@ -9116,10 +9114,10 @@
         <v>13</v>
       </c>
       <c r="C377">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D377">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="E377" t="s">
         <v>10</v>
@@ -9136,10 +9134,10 @@
         <v>14</v>
       </c>
       <c r="C378">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D378">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="E378" t="s">
         <v>10</v>
@@ -9159,7 +9157,7 @@
         <v>3</v>
       </c>
       <c r="D379">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="E379" t="s">
         <v>10</v>
@@ -9176,10 +9174,10 @@
         <v>8</v>
       </c>
       <c r="C380">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D380">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="E380" t="s">
         <v>10</v>
@@ -9196,10 +9194,10 @@
         <v>9</v>
       </c>
       <c r="C381">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D381">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="E381" t="s">
         <v>10</v>
@@ -9216,10 +9214,10 @@
         <v>10</v>
       </c>
       <c r="C382">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D382">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="E382" t="s">
         <v>10</v>
@@ -9236,10 +9234,10 @@
         <v>11</v>
       </c>
       <c r="C383">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D383">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="E383" t="s">
         <v>10</v>
@@ -9256,10 +9254,10 @@
         <v>12</v>
       </c>
       <c r="C384">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D384">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="E384" t="s">
         <v>10</v>
@@ -9276,10 +9274,10 @@
         <v>13</v>
       </c>
       <c r="C385">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D385">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="E385" t="s">
         <v>10</v>
@@ -9296,10 +9294,10 @@
         <v>14</v>
       </c>
       <c r="C386">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D386">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="E386" t="s">
         <v>10</v>
@@ -9319,13 +9317,13 @@
         <v>3</v>
       </c>
       <c r="D387">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="E387" t="s">
         <v>10</v>
       </c>
       <c r="F387" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="388" spans="1:6" x14ac:dyDescent="0.3">
@@ -9336,16 +9334,16 @@
         <v>8</v>
       </c>
       <c r="C388">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D388">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="E388" t="s">
         <v>10</v>
       </c>
       <c r="F388" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="389" spans="1:6" x14ac:dyDescent="0.3">
@@ -9356,16 +9354,16 @@
         <v>9</v>
       </c>
       <c r="C389">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D389">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="E389" t="s">
         <v>10</v>
       </c>
       <c r="F389" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="390" spans="1:6" x14ac:dyDescent="0.3">
@@ -9376,16 +9374,16 @@
         <v>10</v>
       </c>
       <c r="C390">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D390">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="E390" t="s">
         <v>10</v>
       </c>
       <c r="F390" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="391" spans="1:6" x14ac:dyDescent="0.3">
@@ -9396,16 +9394,16 @@
         <v>11</v>
       </c>
       <c r="C391">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D391">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="E391" t="s">
         <v>10</v>
       </c>
       <c r="F391" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="392" spans="1:6" x14ac:dyDescent="0.3">
@@ -9416,16 +9414,16 @@
         <v>12</v>
       </c>
       <c r="C392">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D392">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="E392" t="s">
         <v>10</v>
       </c>
       <c r="F392" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="393" spans="1:6" x14ac:dyDescent="0.3">
@@ -9436,16 +9434,16 @@
         <v>13</v>
       </c>
       <c r="C393">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D393">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="E393" t="s">
         <v>10</v>
       </c>
       <c r="F393" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="394" spans="1:6" x14ac:dyDescent="0.3">
@@ -9456,16 +9454,16 @@
         <v>14</v>
       </c>
       <c r="C394">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D394">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="E394" t="s">
         <v>10</v>
       </c>
       <c r="F394" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="395" spans="1:6" x14ac:dyDescent="0.3">
@@ -9476,10 +9474,10 @@
         <v>8</v>
       </c>
       <c r="C395">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D395">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="E395" t="s">
         <v>10</v>
@@ -9496,10 +9494,10 @@
         <v>9</v>
       </c>
       <c r="C396">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D396">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="E396" t="s">
         <v>10</v>
@@ -9516,10 +9514,10 @@
         <v>10</v>
       </c>
       <c r="C397">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D397">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="E397" t="s">
         <v>10</v>
@@ -9536,10 +9534,10 @@
         <v>11</v>
       </c>
       <c r="C398">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D398">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="E398" t="s">
         <v>10</v>
@@ -9556,10 +9554,10 @@
         <v>12</v>
       </c>
       <c r="C399">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D399">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="E399" t="s">
         <v>10</v>
@@ -9576,10 +9574,10 @@
         <v>13</v>
       </c>
       <c r="C400">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D400">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="E400" t="s">
         <v>10</v>
@@ -9596,10 +9594,10 @@
         <v>14</v>
       </c>
       <c r="C401">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D401">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="E401" t="s">
         <v>10</v>
@@ -9616,10 +9614,10 @@
         <v>8</v>
       </c>
       <c r="C402">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D402">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="E402" t="s">
         <v>10</v>
@@ -9636,10 +9634,10 @@
         <v>9</v>
       </c>
       <c r="C403">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D403">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="E403" t="s">
         <v>10</v>
@@ -9656,10 +9654,10 @@
         <v>10</v>
       </c>
       <c r="C404">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D404">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="E404" t="s">
         <v>10</v>
@@ -9676,10 +9674,10 @@
         <v>11</v>
       </c>
       <c r="C405">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D405">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="E405" t="s">
         <v>10</v>
@@ -9696,10 +9694,10 @@
         <v>12</v>
       </c>
       <c r="C406">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D406">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="E406" t="s">
         <v>10</v>
@@ -9716,10 +9714,10 @@
         <v>13</v>
       </c>
       <c r="C407">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D407">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="E407" t="s">
         <v>10</v>
@@ -9736,10 +9734,10 @@
         <v>14</v>
       </c>
       <c r="C408">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D408">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="E408" t="s">
         <v>10</v>
@@ -9756,10 +9754,10 @@
         <v>8</v>
       </c>
       <c r="C409">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D409">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="E409" t="s">
         <v>10</v>
@@ -9776,10 +9774,10 @@
         <v>9</v>
       </c>
       <c r="C410">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D410">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="E410" t="s">
         <v>10</v>
@@ -9796,10 +9794,10 @@
         <v>10</v>
       </c>
       <c r="C411">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D411">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="E411" t="s">
         <v>10</v>
@@ -9816,10 +9814,10 @@
         <v>11</v>
       </c>
       <c r="C412">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D412">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="E412" t="s">
         <v>10</v>
@@ -9836,10 +9834,10 @@
         <v>12</v>
       </c>
       <c r="C413">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D413">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="E413" t="s">
         <v>10</v>
@@ -9856,10 +9854,10 @@
         <v>13</v>
       </c>
       <c r="C414">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D414">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="E414" t="s">
         <v>10</v>
@@ -9876,10 +9874,10 @@
         <v>14</v>
       </c>
       <c r="C415">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D415">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="E415" t="s">
         <v>10</v>
@@ -9896,10 +9894,10 @@
         <v>8</v>
       </c>
       <c r="C416">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D416">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="E416" t="s">
         <v>10</v>
@@ -9916,10 +9914,10 @@
         <v>9</v>
       </c>
       <c r="C417">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D417">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="E417" t="s">
         <v>10</v>
@@ -9936,10 +9934,10 @@
         <v>10</v>
       </c>
       <c r="C418">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D418">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="E418" t="s">
         <v>10</v>
@@ -9956,10 +9954,10 @@
         <v>11</v>
       </c>
       <c r="C419">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D419">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="E419" t="s">
         <v>10</v>
@@ -9976,10 +9974,10 @@
         <v>12</v>
       </c>
       <c r="C420">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D420">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="E420" t="s">
         <v>10</v>
@@ -9996,10 +9994,10 @@
         <v>13</v>
       </c>
       <c r="C421">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D421">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="E421" t="s">
         <v>10</v>
@@ -10016,10 +10014,10 @@
         <v>14</v>
       </c>
       <c r="C422">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D422">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="E422" t="s">
         <v>10</v>
@@ -10036,16 +10034,16 @@
         <v>8</v>
       </c>
       <c r="C423">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D423">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="E423" t="s">
         <v>10</v>
       </c>
       <c r="F423" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="424" spans="1:6" x14ac:dyDescent="0.3">
@@ -10056,16 +10054,16 @@
         <v>9</v>
       </c>
       <c r="C424">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D424">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="E424" t="s">
         <v>10</v>
       </c>
       <c r="F424" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="425" spans="1:6" x14ac:dyDescent="0.3">
@@ -10076,16 +10074,16 @@
         <v>10</v>
       </c>
       <c r="C425">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D425">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="E425" t="s">
         <v>10</v>
       </c>
       <c r="F425" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="426" spans="1:6" x14ac:dyDescent="0.3">
@@ -10096,16 +10094,16 @@
         <v>11</v>
       </c>
       <c r="C426">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D426">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="E426" t="s">
         <v>10</v>
       </c>
       <c r="F426" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="427" spans="1:6" x14ac:dyDescent="0.3">
@@ -10116,16 +10114,16 @@
         <v>12</v>
       </c>
       <c r="C427">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D427">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="E427" t="s">
         <v>10</v>
       </c>
       <c r="F427" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="428" spans="1:6" x14ac:dyDescent="0.3">
@@ -10136,16 +10134,16 @@
         <v>13</v>
       </c>
       <c r="C428">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D428">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="E428" t="s">
         <v>10</v>
       </c>
       <c r="F428" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="429" spans="1:6" x14ac:dyDescent="0.3">
@@ -10156,16 +10154,16 @@
         <v>14</v>
       </c>
       <c r="C429">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D429">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="E429" t="s">
         <v>10</v>
       </c>
       <c r="F429" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="430" spans="1:6" x14ac:dyDescent="0.3">
@@ -10176,10 +10174,10 @@
         <v>9</v>
       </c>
       <c r="C430">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D430">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="E430" t="s">
         <v>10</v>
@@ -10196,10 +10194,10 @@
         <v>10</v>
       </c>
       <c r="C431">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D431">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="E431" t="s">
         <v>10</v>
@@ -10216,10 +10214,10 @@
         <v>11</v>
       </c>
       <c r="C432">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D432">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="E432" t="s">
         <v>10</v>
@@ -10236,10 +10234,10 @@
         <v>12</v>
       </c>
       <c r="C433">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D433">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="E433" t="s">
         <v>10</v>
@@ -10256,10 +10254,10 @@
         <v>13</v>
       </c>
       <c r="C434">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D434">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="E434" t="s">
         <v>10</v>
@@ -10276,10 +10274,10 @@
         <v>14</v>
       </c>
       <c r="C435">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D435">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="E435" t="s">
         <v>10</v>
@@ -10296,10 +10294,10 @@
         <v>9</v>
       </c>
       <c r="C436">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D436">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="E436" t="s">
         <v>10</v>
@@ -10316,10 +10314,10 @@
         <v>10</v>
       </c>
       <c r="C437">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D437">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="E437" t="s">
         <v>10</v>
@@ -10336,10 +10334,10 @@
         <v>11</v>
       </c>
       <c r="C438">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D438">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="E438" t="s">
         <v>10</v>
@@ -10356,10 +10354,10 @@
         <v>12</v>
       </c>
       <c r="C439">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D439">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="E439" t="s">
         <v>10</v>
@@ -10376,10 +10374,10 @@
         <v>13</v>
       </c>
       <c r="C440">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D440">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="E440" t="s">
         <v>10</v>
@@ -10396,10 +10394,10 @@
         <v>14</v>
       </c>
       <c r="C441">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D441">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="E441" t="s">
         <v>10</v>
@@ -10416,10 +10414,10 @@
         <v>9</v>
       </c>
       <c r="C442">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D442">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="E442" t="s">
         <v>10</v>
@@ -10436,10 +10434,10 @@
         <v>10</v>
       </c>
       <c r="C443">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D443">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="E443" t="s">
         <v>10</v>
@@ -10456,10 +10454,10 @@
         <v>11</v>
       </c>
       <c r="C444">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D444">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="E444" t="s">
         <v>10</v>
@@ -10476,10 +10474,10 @@
         <v>12</v>
       </c>
       <c r="C445">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D445">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="E445" t="s">
         <v>10</v>
@@ -10496,10 +10494,10 @@
         <v>13</v>
       </c>
       <c r="C446">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D446">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="E446" t="s">
         <v>10</v>
@@ -10516,10 +10514,10 @@
         <v>14</v>
       </c>
       <c r="C447">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D447">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="E447" t="s">
         <v>10</v>
@@ -10536,10 +10534,10 @@
         <v>9</v>
       </c>
       <c r="C448">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D448">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="E448" t="s">
         <v>10</v>
@@ -10556,10 +10554,10 @@
         <v>10</v>
       </c>
       <c r="C449">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D449">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="E449" t="s">
         <v>10</v>
@@ -10576,10 +10574,10 @@
         <v>11</v>
       </c>
       <c r="C450">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D450">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="E450" t="s">
         <v>10</v>
@@ -10596,10 +10594,10 @@
         <v>12</v>
       </c>
       <c r="C451">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D451">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="E451" t="s">
         <v>10</v>
@@ -10616,10 +10614,10 @@
         <v>13</v>
       </c>
       <c r="C452">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D452">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="E452" t="s">
         <v>10</v>
@@ -10636,10 +10634,10 @@
         <v>14</v>
       </c>
       <c r="C453">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D453">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="E453" t="s">
         <v>10</v>
@@ -10656,16 +10654,16 @@
         <v>9</v>
       </c>
       <c r="C454">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D454">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="E454" t="s">
         <v>10</v>
       </c>
       <c r="F454" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="455" spans="1:6" x14ac:dyDescent="0.3">
@@ -10676,16 +10674,16 @@
         <v>10</v>
       </c>
       <c r="C455">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D455">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="E455" t="s">
         <v>10</v>
       </c>
       <c r="F455" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="456" spans="1:6" x14ac:dyDescent="0.3">
@@ -10696,16 +10694,16 @@
         <v>11</v>
       </c>
       <c r="C456">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D456">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="E456" t="s">
         <v>10</v>
       </c>
       <c r="F456" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="457" spans="1:6" x14ac:dyDescent="0.3">
@@ -10716,16 +10714,16 @@
         <v>12</v>
       </c>
       <c r="C457">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D457">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="E457" t="s">
         <v>10</v>
       </c>
       <c r="F457" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="458" spans="1:6" x14ac:dyDescent="0.3">
@@ -10736,16 +10734,16 @@
         <v>13</v>
       </c>
       <c r="C458">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D458">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="E458" t="s">
         <v>10</v>
       </c>
       <c r="F458" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="459" spans="1:6" x14ac:dyDescent="0.3">
@@ -10756,16 +10754,16 @@
         <v>14</v>
       </c>
       <c r="C459">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D459">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="E459" t="s">
         <v>10</v>
       </c>
       <c r="F459" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="460" spans="1:6" x14ac:dyDescent="0.3">
@@ -10776,10 +10774,10 @@
         <v>10</v>
       </c>
       <c r="C460">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D460">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="E460" t="s">
         <v>10</v>
@@ -10796,10 +10794,10 @@
         <v>11</v>
       </c>
       <c r="C461">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D461">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="E461" t="s">
         <v>10</v>
@@ -10816,10 +10814,10 @@
         <v>12</v>
       </c>
       <c r="C462">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D462">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="E462" t="s">
         <v>10</v>
@@ -10836,10 +10834,10 @@
         <v>13</v>
       </c>
       <c r="C463">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D463">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="E463" t="s">
         <v>10</v>
@@ -10856,10 +10854,10 @@
         <v>14</v>
       </c>
       <c r="C464">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D464">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="E464" t="s">
         <v>10</v>
@@ -10876,10 +10874,10 @@
         <v>10</v>
       </c>
       <c r="C465">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D465">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="E465" t="s">
         <v>10</v>
@@ -10896,10 +10894,10 @@
         <v>11</v>
       </c>
       <c r="C466">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D466">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="E466" t="s">
         <v>10</v>
@@ -10916,10 +10914,10 @@
         <v>12</v>
       </c>
       <c r="C467">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D467">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="E467" t="s">
         <v>10</v>
@@ -10936,10 +10934,10 @@
         <v>13</v>
       </c>
       <c r="C468">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D468">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="E468" t="s">
         <v>10</v>
@@ -10956,10 +10954,10 @@
         <v>14</v>
       </c>
       <c r="C469">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D469">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="E469" t="s">
         <v>10</v>
@@ -10976,10 +10974,10 @@
         <v>10</v>
       </c>
       <c r="C470">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D470">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="E470" t="s">
         <v>10</v>
@@ -10996,10 +10994,10 @@
         <v>11</v>
       </c>
       <c r="C471">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D471">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="E471" t="s">
         <v>10</v>
@@ -11016,10 +11014,10 @@
         <v>12</v>
       </c>
       <c r="C472">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D472">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="E472" t="s">
         <v>10</v>
@@ -11036,10 +11034,10 @@
         <v>13</v>
       </c>
       <c r="C473">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D473">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="E473" t="s">
         <v>10</v>
@@ -11056,10 +11054,10 @@
         <v>14</v>
       </c>
       <c r="C474">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D474">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="E474" t="s">
         <v>10</v>
@@ -11076,10 +11074,10 @@
         <v>10</v>
       </c>
       <c r="C475">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D475">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="E475" t="s">
         <v>10</v>
@@ -11096,10 +11094,10 @@
         <v>11</v>
       </c>
       <c r="C476">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D476">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="E476" t="s">
         <v>10</v>
@@ -11116,10 +11114,10 @@
         <v>12</v>
       </c>
       <c r="C477">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D477">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="E477" t="s">
         <v>10</v>
@@ -11136,10 +11134,10 @@
         <v>13</v>
       </c>
       <c r="C478">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D478">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="E478" t="s">
         <v>10</v>
@@ -11156,10 +11154,10 @@
         <v>14</v>
       </c>
       <c r="C479">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D479">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="E479" t="s">
         <v>10</v>
@@ -11176,16 +11174,16 @@
         <v>10</v>
       </c>
       <c r="C480">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D480">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="E480" t="s">
         <v>10</v>
       </c>
       <c r="F480" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="481" spans="1:6" x14ac:dyDescent="0.3">
@@ -11196,16 +11194,16 @@
         <v>11</v>
       </c>
       <c r="C481">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D481">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="E481" t="s">
         <v>10</v>
       </c>
       <c r="F481" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="482" spans="1:6" x14ac:dyDescent="0.3">
@@ -11216,16 +11214,16 @@
         <v>12</v>
       </c>
       <c r="C482">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D482">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="E482" t="s">
         <v>10</v>
       </c>
       <c r="F482" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="483" spans="1:6" x14ac:dyDescent="0.3">
@@ -11236,16 +11234,16 @@
         <v>13</v>
       </c>
       <c r="C483">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D483">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="E483" t="s">
         <v>10</v>
       </c>
       <c r="F483" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="484" spans="1:6" x14ac:dyDescent="0.3">
@@ -11256,16 +11254,16 @@
         <v>14</v>
       </c>
       <c r="C484">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D484">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="E484" t="s">
         <v>10</v>
       </c>
       <c r="F484" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="485" spans="1:6" x14ac:dyDescent="0.3">
@@ -11276,10 +11274,10 @@
         <v>11</v>
       </c>
       <c r="C485">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D485">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="E485" t="s">
         <v>10</v>
@@ -11296,10 +11294,10 @@
         <v>12</v>
       </c>
       <c r="C486">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D486">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="E486" t="s">
         <v>10</v>
@@ -11316,10 +11314,10 @@
         <v>13</v>
       </c>
       <c r="C487">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D487">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="E487" t="s">
         <v>10</v>
@@ -11336,10 +11334,10 @@
         <v>14</v>
       </c>
       <c r="C488">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D488">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="E488" t="s">
         <v>10</v>
@@ -11356,10 +11354,10 @@
         <v>11</v>
       </c>
       <c r="C489">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D489">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="E489" t="s">
         <v>10</v>
@@ -11376,10 +11374,10 @@
         <v>12</v>
       </c>
       <c r="C490">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D490">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="E490" t="s">
         <v>10</v>
@@ -11396,10 +11394,10 @@
         <v>13</v>
       </c>
       <c r="C491">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D491">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="E491" t="s">
         <v>10</v>
@@ -11416,10 +11414,10 @@
         <v>14</v>
       </c>
       <c r="C492">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D492">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="E492" t="s">
         <v>10</v>
@@ -11436,10 +11434,10 @@
         <v>11</v>
       </c>
       <c r="C493">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D493">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="E493" t="s">
         <v>10</v>
@@ -11456,10 +11454,10 @@
         <v>12</v>
       </c>
       <c r="C494">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D494">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="E494" t="s">
         <v>10</v>
@@ -11476,10 +11474,10 @@
         <v>13</v>
       </c>
       <c r="C495">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D495">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="E495" t="s">
         <v>10</v>
@@ -11496,10 +11494,10 @@
         <v>14</v>
       </c>
       <c r="C496">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D496">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="E496" t="s">
         <v>10</v>
@@ -11516,10 +11514,10 @@
         <v>11</v>
       </c>
       <c r="C497">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D497">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="E497" t="s">
         <v>10</v>
@@ -11536,10 +11534,10 @@
         <v>12</v>
       </c>
       <c r="C498">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D498">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="E498" t="s">
         <v>10</v>
@@ -11556,10 +11554,10 @@
         <v>13</v>
       </c>
       <c r="C499">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D499">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="E499" t="s">
         <v>10</v>
@@ -11576,10 +11574,10 @@
         <v>14</v>
       </c>
       <c r="C500">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D500">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="E500" t="s">
         <v>10</v>
@@ -11596,16 +11594,16 @@
         <v>11</v>
       </c>
       <c r="C501">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D501">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="E501" t="s">
         <v>10</v>
       </c>
       <c r="F501" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="502" spans="1:6" x14ac:dyDescent="0.3">
@@ -11616,16 +11614,16 @@
         <v>12</v>
       </c>
       <c r="C502">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D502">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="E502" t="s">
         <v>10</v>
       </c>
       <c r="F502" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="503" spans="1:6" x14ac:dyDescent="0.3">
@@ -11636,16 +11634,16 @@
         <v>13</v>
       </c>
       <c r="C503">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D503">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="E503" t="s">
         <v>10</v>
       </c>
       <c r="F503" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="504" spans="1:6" x14ac:dyDescent="0.3">
@@ -11656,16 +11654,16 @@
         <v>14</v>
       </c>
       <c r="C504">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D504">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="E504" t="s">
         <v>10</v>
       </c>
       <c r="F504" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="505" spans="1:6" x14ac:dyDescent="0.3">
@@ -11676,10 +11674,10 @@
         <v>12</v>
       </c>
       <c r="C505">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D505">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="E505" t="s">
         <v>10</v>
@@ -11696,10 +11694,10 @@
         <v>13</v>
       </c>
       <c r="C506">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D506">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="E506" t="s">
         <v>10</v>
@@ -11716,10 +11714,10 @@
         <v>14</v>
       </c>
       <c r="C507">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D507">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="E507" t="s">
         <v>10</v>
@@ -11736,10 +11734,10 @@
         <v>12</v>
       </c>
       <c r="C508">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D508">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="E508" t="s">
         <v>10</v>
@@ -11756,10 +11754,10 @@
         <v>13</v>
       </c>
       <c r="C509">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D509">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="E509" t="s">
         <v>10</v>
@@ -11776,10 +11774,10 @@
         <v>14</v>
       </c>
       <c r="C510">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D510">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="E510" t="s">
         <v>10</v>
@@ -11796,10 +11794,10 @@
         <v>12</v>
       </c>
       <c r="C511">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D511">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="E511" t="s">
         <v>10</v>
@@ -11816,10 +11814,10 @@
         <v>13</v>
       </c>
       <c r="C512">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D512">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="E512" t="s">
         <v>10</v>
@@ -11836,10 +11834,10 @@
         <v>14</v>
       </c>
       <c r="C513">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D513">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="E513" t="s">
         <v>10</v>
@@ -11856,10 +11854,10 @@
         <v>12</v>
       </c>
       <c r="C514">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D514">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="E514" t="s">
         <v>10</v>
@@ -11876,10 +11874,10 @@
         <v>13</v>
       </c>
       <c r="C515">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D515">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="E515" t="s">
         <v>10</v>
@@ -11896,10 +11894,10 @@
         <v>14</v>
       </c>
       <c r="C516">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D516">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="E516" t="s">
         <v>10</v>
@@ -11916,16 +11914,16 @@
         <v>12</v>
       </c>
       <c r="C517">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D517">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="E517" t="s">
         <v>10</v>
       </c>
       <c r="F517" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="518" spans="1:6" x14ac:dyDescent="0.3">
@@ -11936,16 +11934,16 @@
         <v>13</v>
       </c>
       <c r="C518">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D518">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="E518" t="s">
         <v>10</v>
       </c>
       <c r="F518" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="519" spans="1:6" x14ac:dyDescent="0.3">
@@ -11956,16 +11954,16 @@
         <v>14</v>
       </c>
       <c r="C519">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D519">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="E519" t="s">
         <v>10</v>
       </c>
       <c r="F519" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="520" spans="1:6" x14ac:dyDescent="0.3">
@@ -11976,10 +11974,10 @@
         <v>13</v>
       </c>
       <c r="C520">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D520">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="E520" t="s">
         <v>10</v>
@@ -11996,10 +11994,10 @@
         <v>14</v>
       </c>
       <c r="C521">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D521">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="E521" t="s">
         <v>10</v>
@@ -12016,10 +12014,10 @@
         <v>13</v>
       </c>
       <c r="C522">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D522">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="E522" t="s">
         <v>10</v>
@@ -12036,10 +12034,10 @@
         <v>14</v>
       </c>
       <c r="C523">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D523">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="E523" t="s">
         <v>10</v>
@@ -12056,10 +12054,10 @@
         <v>13</v>
       </c>
       <c r="C524">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D524">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="E524" t="s">
         <v>10</v>
@@ -12076,10 +12074,10 @@
         <v>14</v>
       </c>
       <c r="C525">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D525">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="E525" t="s">
         <v>10</v>
@@ -12096,10 +12094,10 @@
         <v>13</v>
       </c>
       <c r="C526">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D526">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="E526" t="s">
         <v>10</v>
@@ -12116,10 +12114,10 @@
         <v>14</v>
       </c>
       <c r="C527">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D527">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="E527" t="s">
         <v>10</v>
@@ -12136,16 +12134,16 @@
         <v>13</v>
       </c>
       <c r="C528">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D528">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="E528" t="s">
         <v>10</v>
       </c>
       <c r="F528" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="529" spans="1:6" x14ac:dyDescent="0.3">
@@ -12156,16 +12154,16 @@
         <v>14</v>
       </c>
       <c r="C529">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D529">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="E529" t="s">
         <v>10</v>
       </c>
       <c r="F529" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="530" spans="1:6" x14ac:dyDescent="0.3">
@@ -12176,10 +12174,10 @@
         <v>14</v>
       </c>
       <c r="C530">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D530">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="E530" t="s">
         <v>10</v>
@@ -12196,10 +12194,10 @@
         <v>14</v>
       </c>
       <c r="C531">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D531">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="E531" t="s">
         <v>10</v>
@@ -12216,10 +12214,10 @@
         <v>14</v>
       </c>
       <c r="C532">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D532">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="E532" t="s">
         <v>10</v>
@@ -12236,10 +12234,10 @@
         <v>14</v>
       </c>
       <c r="C533">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D533">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="E533" t="s">
         <v>10</v>
@@ -12256,10 +12254,10 @@
         <v>14</v>
       </c>
       <c r="C534">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D534">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="E534" t="s">
         <v>10</v>
@@ -12276,10 +12274,10 @@
         <v>14</v>
       </c>
       <c r="C535">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D535">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="E535" t="s">
         <v>10</v>
@@ -12296,16 +12294,16 @@
         <v>14</v>
       </c>
       <c r="C536">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D536">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="E536" t="s">
         <v>10</v>
       </c>
       <c r="F536" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/BossBattle.xlsx
+++ b/Excel/BossBattle.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92FE2634-CBDD-45DC-8EB4-04B42AFD8691}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72B485C2-F041-4296-AC7A-A3A079342AEA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{A6866CF1-6843-4840-93D5-06F7C057B491}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{A6866CF1-6843-4840-93D5-06F7C057B491}"/>
   </bookViews>
   <sheets>
     <sheet name="BossBattleTable" sheetId="2" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1082" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1082" uniqueCount="14">
   <si>
     <t>stage|Int</t>
   </si>
@@ -65,9 +65,6 @@
     <t>firstDropId|String</t>
   </si>
   <si>
-    <t>bf1010</t>
-  </si>
-  <si>
     <t>b5999</t>
   </si>
   <si>
@@ -77,7 +74,7 @@
     <t>bossDropId|String</t>
   </si>
   <si>
-    <t>bf2010</t>
+    <t>bf1000</t>
   </si>
 </sst>
 </file>
@@ -1271,7 +1268,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A78C98E-8C7B-42F7-95E8-B31297094BB8}">
   <dimension ref="A1:C27"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -1313,10 +1312,10 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C4">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -1324,10 +1323,10 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C5">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -1335,10 +1334,10 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C6">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -1346,10 +1345,10 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C7">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
@@ -1360,7 +1359,7 @@
         <v>3</v>
       </c>
       <c r="C8">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
@@ -1371,7 +1370,7 @@
         <v>4</v>
       </c>
       <c r="C9">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
@@ -1379,10 +1378,10 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C10">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
@@ -1390,10 +1389,10 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C11">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
@@ -1401,10 +1400,10 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C12">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
@@ -1415,7 +1414,7 @@
         <v>5</v>
       </c>
       <c r="C13">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
@@ -1426,7 +1425,7 @@
         <v>5</v>
       </c>
       <c r="C14">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
@@ -1437,7 +1436,7 @@
         <v>5</v>
       </c>
       <c r="C15">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
@@ -1448,7 +1447,7 @@
         <v>5</v>
       </c>
       <c r="C16">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
@@ -1459,7 +1458,7 @@
         <v>5</v>
       </c>
       <c r="C17">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
@@ -1470,7 +1469,7 @@
         <v>6</v>
       </c>
       <c r="C18">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
@@ -1481,7 +1480,7 @@
         <v>6</v>
       </c>
       <c r="C19">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
@@ -1492,7 +1491,7 @@
         <v>6</v>
       </c>
       <c r="C20">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
@@ -1503,7 +1502,7 @@
         <v>6</v>
       </c>
       <c r="C21">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
@@ -1514,7 +1513,7 @@
         <v>6</v>
       </c>
       <c r="C22">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
@@ -1525,7 +1524,7 @@
         <v>7</v>
       </c>
       <c r="C23">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
@@ -1536,7 +1535,7 @@
         <v>7</v>
       </c>
       <c r="C24">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
@@ -1547,7 +1546,7 @@
         <v>7</v>
       </c>
       <c r="C25">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
@@ -1558,7 +1557,7 @@
         <v>7</v>
       </c>
       <c r="C26">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
@@ -1569,7 +1568,7 @@
         <v>7</v>
       </c>
       <c r="C27">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>
@@ -1582,7 +1581,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D73C3706-EA31-4372-B626-A76904A84A7F}">
   <dimension ref="A1:F536"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -1603,7 +1602,7 @@
         <v>9</v>
       </c>
       <c r="F1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
@@ -1620,10 +1619,10 @@
         <v>21</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -1640,10 +1639,10 @@
         <v>23</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -1660,10 +1659,10 @@
         <v>25</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -1680,10 +1679,10 @@
         <v>27</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -1700,10 +1699,10 @@
         <v>29</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -1720,10 +1719,10 @@
         <v>32</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -1740,10 +1739,10 @@
         <v>34</v>
       </c>
       <c r="E8" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
@@ -1760,10 +1759,10 @@
         <v>36</v>
       </c>
       <c r="E9" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
@@ -1780,10 +1779,10 @@
         <v>38</v>
       </c>
       <c r="E10" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
@@ -1800,10 +1799,10 @@
         <v>40</v>
       </c>
       <c r="E11" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
@@ -1820,10 +1819,10 @@
         <v>42</v>
       </c>
       <c r="E12" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
@@ -1840,10 +1839,10 @@
         <v>44</v>
       </c>
       <c r="E13" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
@@ -1860,10 +1859,10 @@
         <v>46</v>
       </c>
       <c r="E14" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F14" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
@@ -1880,10 +1879,10 @@
         <v>48</v>
       </c>
       <c r="E15" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F15" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
@@ -1900,10 +1899,10 @@
         <v>21</v>
       </c>
       <c r="E16" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
@@ -1920,10 +1919,10 @@
         <v>23</v>
       </c>
       <c r="E17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F17" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
@@ -1940,10 +1939,10 @@
         <v>25</v>
       </c>
       <c r="E18" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F18" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
@@ -1960,10 +1959,10 @@
         <v>27</v>
       </c>
       <c r="E19" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F19" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
@@ -1980,10 +1979,10 @@
         <v>29</v>
       </c>
       <c r="E20" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F20" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
@@ -2000,10 +1999,10 @@
         <v>32</v>
       </c>
       <c r="E21" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F21" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
@@ -2020,10 +2019,10 @@
         <v>34</v>
       </c>
       <c r="E22" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F22" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
@@ -2040,10 +2039,10 @@
         <v>36</v>
       </c>
       <c r="E23" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
@@ -2060,10 +2059,10 @@
         <v>38</v>
       </c>
       <c r="E24" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F24" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
@@ -2080,10 +2079,10 @@
         <v>40</v>
       </c>
       <c r="E25" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F25" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
@@ -2100,10 +2099,10 @@
         <v>42</v>
       </c>
       <c r="E26" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F26" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
@@ -2120,10 +2119,10 @@
         <v>44</v>
       </c>
       <c r="E27" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F27" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
@@ -2140,10 +2139,10 @@
         <v>46</v>
       </c>
       <c r="E28" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F28" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
@@ -2160,10 +2159,10 @@
         <v>48</v>
       </c>
       <c r="E29" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F29" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
@@ -2180,10 +2179,10 @@
         <v>21</v>
       </c>
       <c r="E30" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F30" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
@@ -2200,10 +2199,10 @@
         <v>23</v>
       </c>
       <c r="E31" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F31" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
@@ -2220,10 +2219,10 @@
         <v>25</v>
       </c>
       <c r="E32" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F32" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
@@ -2240,10 +2239,10 @@
         <v>27</v>
       </c>
       <c r="E33" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F33" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
@@ -2260,10 +2259,10 @@
         <v>29</v>
       </c>
       <c r="E34" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F34" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
@@ -2280,10 +2279,10 @@
         <v>32</v>
       </c>
       <c r="E35" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F35" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
@@ -2300,10 +2299,10 @@
         <v>34</v>
       </c>
       <c r="E36" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F36" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
@@ -2320,10 +2319,10 @@
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F37" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
@@ -2340,10 +2339,10 @@
         <v>38</v>
       </c>
       <c r="E38" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F38" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
@@ -2360,10 +2359,10 @@
         <v>40</v>
       </c>
       <c r="E39" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F39" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
@@ -2380,10 +2379,10 @@
         <v>42</v>
       </c>
       <c r="E40" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F40" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
@@ -2400,10 +2399,10 @@
         <v>44</v>
       </c>
       <c r="E41" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F41" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
@@ -2420,10 +2419,10 @@
         <v>46</v>
       </c>
       <c r="E42" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F42" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
@@ -2440,10 +2439,10 @@
         <v>48</v>
       </c>
       <c r="E43" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F43" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
@@ -2460,10 +2459,10 @@
         <v>21</v>
       </c>
       <c r="E44" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F44" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
@@ -2480,10 +2479,10 @@
         <v>23</v>
       </c>
       <c r="E45" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F45" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
@@ -2500,10 +2499,10 @@
         <v>25</v>
       </c>
       <c r="E46" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F46" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
@@ -2520,10 +2519,10 @@
         <v>27</v>
       </c>
       <c r="E47" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F47" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
@@ -2540,10 +2539,10 @@
         <v>29</v>
       </c>
       <c r="E48" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F48" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
@@ -2560,10 +2559,10 @@
         <v>32</v>
       </c>
       <c r="E49" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F49" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
@@ -2580,10 +2579,10 @@
         <v>34</v>
       </c>
       <c r="E50" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F50" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
@@ -2600,10 +2599,10 @@
         <v>36</v>
       </c>
       <c r="E51" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F51" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
@@ -2620,10 +2619,10 @@
         <v>38</v>
       </c>
       <c r="E52" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F52" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
@@ -2640,10 +2639,10 @@
         <v>40</v>
       </c>
       <c r="E53" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F53" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
@@ -2660,10 +2659,10 @@
         <v>42</v>
       </c>
       <c r="E54" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F54" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
@@ -2680,10 +2679,10 @@
         <v>44</v>
       </c>
       <c r="E55" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F55" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
@@ -2700,10 +2699,10 @@
         <v>46</v>
       </c>
       <c r="E56" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F56" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.3">
@@ -2720,10 +2719,10 @@
         <v>48</v>
       </c>
       <c r="E57" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F57" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
@@ -2740,10 +2739,10 @@
         <v>21</v>
       </c>
       <c r="E58" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F58" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
@@ -2760,10 +2759,10 @@
         <v>23</v>
       </c>
       <c r="E59" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F59" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
@@ -2780,10 +2779,10 @@
         <v>25</v>
       </c>
       <c r="E60" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F60" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
@@ -2800,10 +2799,10 @@
         <v>27</v>
       </c>
       <c r="E61" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F61" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.3">
@@ -2820,10 +2819,10 @@
         <v>29</v>
       </c>
       <c r="E62" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F62" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
@@ -2840,10 +2839,10 @@
         <v>32</v>
       </c>
       <c r="E63" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F63" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
@@ -2860,10 +2859,10 @@
         <v>34</v>
       </c>
       <c r="E64" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F64" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.3">
@@ -2880,10 +2879,10 @@
         <v>36</v>
       </c>
       <c r="E65" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F65" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.3">
@@ -2900,10 +2899,10 @@
         <v>38</v>
       </c>
       <c r="E66" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F66" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.3">
@@ -2920,10 +2919,10 @@
         <v>40</v>
       </c>
       <c r="E67" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F67" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.3">
@@ -2940,10 +2939,10 @@
         <v>42</v>
       </c>
       <c r="E68" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F68" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.3">
@@ -2960,10 +2959,10 @@
         <v>44</v>
       </c>
       <c r="E69" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F69" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.3">
@@ -2980,10 +2979,10 @@
         <v>46</v>
       </c>
       <c r="E70" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F70" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.3">
@@ -3000,10 +2999,10 @@
         <v>48</v>
       </c>
       <c r="E71" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F71" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.3">
@@ -3020,10 +3019,10 @@
         <v>23</v>
       </c>
       <c r="E72" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F72" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.3">
@@ -3040,10 +3039,10 @@
         <v>25</v>
       </c>
       <c r="E73" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F73" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.3">
@@ -3060,10 +3059,10 @@
         <v>27</v>
       </c>
       <c r="E74" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F74" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.3">
@@ -3080,10 +3079,10 @@
         <v>29</v>
       </c>
       <c r="E75" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F75" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.3">
@@ -3100,10 +3099,10 @@
         <v>32</v>
       </c>
       <c r="E76" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F76" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.3">
@@ -3120,10 +3119,10 @@
         <v>34</v>
       </c>
       <c r="E77" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F77" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.3">
@@ -3140,10 +3139,10 @@
         <v>36</v>
       </c>
       <c r="E78" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F78" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.3">
@@ -3160,10 +3159,10 @@
         <v>38</v>
       </c>
       <c r="E79" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F79" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.3">
@@ -3180,10 +3179,10 @@
         <v>40</v>
       </c>
       <c r="E80" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F80" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.3">
@@ -3200,10 +3199,10 @@
         <v>42</v>
       </c>
       <c r="E81" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F81" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.3">
@@ -3220,10 +3219,10 @@
         <v>44</v>
       </c>
       <c r="E82" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F82" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.3">
@@ -3240,10 +3239,10 @@
         <v>46</v>
       </c>
       <c r="E83" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F83" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.3">
@@ -3260,10 +3259,10 @@
         <v>48</v>
       </c>
       <c r="E84" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F84" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.3">
@@ -3280,10 +3279,10 @@
         <v>23</v>
       </c>
       <c r="E85" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F85" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.3">
@@ -3300,10 +3299,10 @@
         <v>25</v>
       </c>
       <c r="E86" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F86" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.3">
@@ -3320,10 +3319,10 @@
         <v>27</v>
       </c>
       <c r="E87" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F87" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.3">
@@ -3340,10 +3339,10 @@
         <v>29</v>
       </c>
       <c r="E88" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F88" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.3">
@@ -3360,10 +3359,10 @@
         <v>32</v>
       </c>
       <c r="E89" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F89" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.3">
@@ -3380,10 +3379,10 @@
         <v>34</v>
       </c>
       <c r="E90" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F90" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.3">
@@ -3400,10 +3399,10 @@
         <v>36</v>
       </c>
       <c r="E91" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F91" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.3">
@@ -3420,10 +3419,10 @@
         <v>38</v>
       </c>
       <c r="E92" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F92" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.3">
@@ -3440,10 +3439,10 @@
         <v>40</v>
       </c>
       <c r="E93" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F93" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.3">
@@ -3460,10 +3459,10 @@
         <v>42</v>
       </c>
       <c r="E94" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F94" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.3">
@@ -3480,10 +3479,10 @@
         <v>44</v>
       </c>
       <c r="E95" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F95" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.3">
@@ -3500,10 +3499,10 @@
         <v>46</v>
       </c>
       <c r="E96" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F96" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.3">
@@ -3520,10 +3519,10 @@
         <v>48</v>
       </c>
       <c r="E97" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F97" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.3">
@@ -3540,10 +3539,10 @@
         <v>23</v>
       </c>
       <c r="E98" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F98" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.3">
@@ -3560,10 +3559,10 @@
         <v>25</v>
       </c>
       <c r="E99" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F99" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.3">
@@ -3580,10 +3579,10 @@
         <v>27</v>
       </c>
       <c r="E100" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F100" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.3">
@@ -3600,10 +3599,10 @@
         <v>29</v>
       </c>
       <c r="E101" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F101" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.3">
@@ -3620,10 +3619,10 @@
         <v>32</v>
       </c>
       <c r="E102" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F102" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.3">
@@ -3640,10 +3639,10 @@
         <v>34</v>
       </c>
       <c r="E103" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F103" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.3">
@@ -3660,10 +3659,10 @@
         <v>36</v>
       </c>
       <c r="E104" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F104" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.3">
@@ -3680,10 +3679,10 @@
         <v>38</v>
       </c>
       <c r="E105" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F105" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.3">
@@ -3700,10 +3699,10 @@
         <v>40</v>
       </c>
       <c r="E106" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F106" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.3">
@@ -3720,10 +3719,10 @@
         <v>42</v>
       </c>
       <c r="E107" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F107" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.3">
@@ -3740,10 +3739,10 @@
         <v>44</v>
       </c>
       <c r="E108" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F108" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.3">
@@ -3760,10 +3759,10 @@
         <v>46</v>
       </c>
       <c r="E109" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F109" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.3">
@@ -3780,10 +3779,10 @@
         <v>48</v>
       </c>
       <c r="E110" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F110" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.3">
@@ -3800,10 +3799,10 @@
         <v>23</v>
       </c>
       <c r="E111" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F111" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.3">
@@ -3820,10 +3819,10 @@
         <v>25</v>
       </c>
       <c r="E112" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F112" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.3">
@@ -3840,10 +3839,10 @@
         <v>27</v>
       </c>
       <c r="E113" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F113" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.3">
@@ -3860,10 +3859,10 @@
         <v>29</v>
       </c>
       <c r="E114" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F114" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.3">
@@ -3880,10 +3879,10 @@
         <v>32</v>
       </c>
       <c r="E115" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F115" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.3">
@@ -3900,10 +3899,10 @@
         <v>34</v>
       </c>
       <c r="E116" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F116" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.3">
@@ -3920,10 +3919,10 @@
         <v>36</v>
       </c>
       <c r="E117" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F117" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.3">
@@ -3940,10 +3939,10 @@
         <v>38</v>
       </c>
       <c r="E118" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F118" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.3">
@@ -3960,10 +3959,10 @@
         <v>40</v>
       </c>
       <c r="E119" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F119" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.3">
@@ -3980,10 +3979,10 @@
         <v>42</v>
       </c>
       <c r="E120" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F120" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.3">
@@ -4000,10 +3999,10 @@
         <v>44</v>
       </c>
       <c r="E121" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F121" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.3">
@@ -4020,10 +4019,10 @@
         <v>46</v>
       </c>
       <c r="E122" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F122" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.3">
@@ -4040,10 +4039,10 @@
         <v>48</v>
       </c>
       <c r="E123" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F123" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.3">
@@ -4060,10 +4059,10 @@
         <v>23</v>
       </c>
       <c r="E124" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F124" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.3">
@@ -4080,10 +4079,10 @@
         <v>25</v>
       </c>
       <c r="E125" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F125" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.3">
@@ -4100,10 +4099,10 @@
         <v>27</v>
       </c>
       <c r="E126" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F126" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.3">
@@ -4120,10 +4119,10 @@
         <v>29</v>
       </c>
       <c r="E127" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F127" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.3">
@@ -4140,10 +4139,10 @@
         <v>32</v>
       </c>
       <c r="E128" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F128" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.3">
@@ -4160,10 +4159,10 @@
         <v>34</v>
       </c>
       <c r="E129" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F129" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.3">
@@ -4180,10 +4179,10 @@
         <v>36</v>
       </c>
       <c r="E130" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F130" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.3">
@@ -4200,10 +4199,10 @@
         <v>38</v>
       </c>
       <c r="E131" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F131" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.3">
@@ -4220,10 +4219,10 @@
         <v>40</v>
       </c>
       <c r="E132" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F132" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.3">
@@ -4240,10 +4239,10 @@
         <v>42</v>
       </c>
       <c r="E133" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F133" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.3">
@@ -4260,10 +4259,10 @@
         <v>44</v>
       </c>
       <c r="E134" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F134" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.3">
@@ -4280,10 +4279,10 @@
         <v>46</v>
       </c>
       <c r="E135" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F135" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.3">
@@ -4300,10 +4299,10 @@
         <v>48</v>
       </c>
       <c r="E136" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F136" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.3">
@@ -4320,10 +4319,10 @@
         <v>25</v>
       </c>
       <c r="E137" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F137" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.3">
@@ -4340,10 +4339,10 @@
         <v>27</v>
       </c>
       <c r="E138" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F138" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.3">
@@ -4360,10 +4359,10 @@
         <v>29</v>
       </c>
       <c r="E139" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F139" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.3">
@@ -4380,10 +4379,10 @@
         <v>32</v>
       </c>
       <c r="E140" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F140" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.3">
@@ -4400,10 +4399,10 @@
         <v>34</v>
       </c>
       <c r="E141" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F141" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.3">
@@ -4420,10 +4419,10 @@
         <v>36</v>
       </c>
       <c r="E142" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F142" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.3">
@@ -4440,10 +4439,10 @@
         <v>38</v>
       </c>
       <c r="E143" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F143" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.3">
@@ -4460,10 +4459,10 @@
         <v>40</v>
       </c>
       <c r="E144" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F144" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.3">
@@ -4480,10 +4479,10 @@
         <v>42</v>
       </c>
       <c r="E145" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F145" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.3">
@@ -4500,10 +4499,10 @@
         <v>44</v>
       </c>
       <c r="E146" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F146" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.3">
@@ -4520,10 +4519,10 @@
         <v>46</v>
       </c>
       <c r="E147" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F147" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.3">
@@ -4540,10 +4539,10 @@
         <v>48</v>
       </c>
       <c r="E148" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F148" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.3">
@@ -4560,10 +4559,10 @@
         <v>25</v>
       </c>
       <c r="E149" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F149" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.3">
@@ -4580,10 +4579,10 @@
         <v>27</v>
       </c>
       <c r="E150" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F150" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.3">
@@ -4600,10 +4599,10 @@
         <v>29</v>
       </c>
       <c r="E151" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F151" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.3">
@@ -4620,10 +4619,10 @@
         <v>32</v>
       </c>
       <c r="E152" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F152" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.3">
@@ -4640,10 +4639,10 @@
         <v>34</v>
       </c>
       <c r="E153" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F153" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.3">
@@ -4660,10 +4659,10 @@
         <v>36</v>
       </c>
       <c r="E154" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F154" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.3">
@@ -4680,10 +4679,10 @@
         <v>38</v>
       </c>
       <c r="E155" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F155" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.3">
@@ -4700,10 +4699,10 @@
         <v>40</v>
       </c>
       <c r="E156" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F156" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.3">
@@ -4720,10 +4719,10 @@
         <v>42</v>
       </c>
       <c r="E157" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F157" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.3">
@@ -4740,10 +4739,10 @@
         <v>44</v>
       </c>
       <c r="E158" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F158" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.3">
@@ -4760,10 +4759,10 @@
         <v>46</v>
       </c>
       <c r="E159" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F159" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.3">
@@ -4780,10 +4779,10 @@
         <v>48</v>
       </c>
       <c r="E160" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F160" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.3">
@@ -4800,10 +4799,10 @@
         <v>25</v>
       </c>
       <c r="E161" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F161" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.3">
@@ -4820,10 +4819,10 @@
         <v>27</v>
       </c>
       <c r="E162" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F162" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.3">
@@ -4840,10 +4839,10 @@
         <v>29</v>
       </c>
       <c r="E163" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F163" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.3">
@@ -4860,10 +4859,10 @@
         <v>32</v>
       </c>
       <c r="E164" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F164" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.3">
@@ -4880,10 +4879,10 @@
         <v>34</v>
       </c>
       <c r="E165" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F165" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.3">
@@ -4900,10 +4899,10 @@
         <v>36</v>
       </c>
       <c r="E166" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F166" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.3">
@@ -4920,10 +4919,10 @@
         <v>38</v>
       </c>
       <c r="E167" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F167" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.3">
@@ -4940,10 +4939,10 @@
         <v>40</v>
       </c>
       <c r="E168" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F168" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.3">
@@ -4960,10 +4959,10 @@
         <v>42</v>
       </c>
       <c r="E169" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F169" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.3">
@@ -4980,10 +4979,10 @@
         <v>44</v>
       </c>
       <c r="E170" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F170" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.3">
@@ -5000,10 +4999,10 @@
         <v>46</v>
       </c>
       <c r="E171" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F171" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.3">
@@ -5020,10 +5019,10 @@
         <v>48</v>
       </c>
       <c r="E172" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F172" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.3">
@@ -5040,10 +5039,10 @@
         <v>25</v>
       </c>
       <c r="E173" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F173" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.3">
@@ -5060,10 +5059,10 @@
         <v>27</v>
       </c>
       <c r="E174" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F174" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.3">
@@ -5080,10 +5079,10 @@
         <v>29</v>
       </c>
       <c r="E175" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F175" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.3">
@@ -5100,10 +5099,10 @@
         <v>32</v>
       </c>
       <c r="E176" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F176" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.3">
@@ -5120,10 +5119,10 @@
         <v>34</v>
       </c>
       <c r="E177" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F177" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.3">
@@ -5140,10 +5139,10 @@
         <v>36</v>
       </c>
       <c r="E178" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F178" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.3">
@@ -5160,10 +5159,10 @@
         <v>38</v>
       </c>
       <c r="E179" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F179" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.3">
@@ -5180,10 +5179,10 @@
         <v>40</v>
       </c>
       <c r="E180" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F180" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.3">
@@ -5200,10 +5199,10 @@
         <v>42</v>
       </c>
       <c r="E181" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F181" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.3">
@@ -5220,10 +5219,10 @@
         <v>44</v>
       </c>
       <c r="E182" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F182" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.3">
@@ -5240,10 +5239,10 @@
         <v>46</v>
       </c>
       <c r="E183" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F183" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.3">
@@ -5260,10 +5259,10 @@
         <v>48</v>
       </c>
       <c r="E184" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F184" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.3">
@@ -5280,10 +5279,10 @@
         <v>25</v>
       </c>
       <c r="E185" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F185" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.3">
@@ -5300,10 +5299,10 @@
         <v>27</v>
       </c>
       <c r="E186" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F186" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.3">
@@ -5320,10 +5319,10 @@
         <v>29</v>
       </c>
       <c r="E187" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F187" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.3">
@@ -5340,10 +5339,10 @@
         <v>32</v>
       </c>
       <c r="E188" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F188" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.3">
@@ -5360,10 +5359,10 @@
         <v>34</v>
       </c>
       <c r="E189" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F189" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.3">
@@ -5380,10 +5379,10 @@
         <v>36</v>
       </c>
       <c r="E190" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F190" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.3">
@@ -5400,10 +5399,10 @@
         <v>38</v>
       </c>
       <c r="E191" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F191" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.3">
@@ -5420,10 +5419,10 @@
         <v>40</v>
       </c>
       <c r="E192" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F192" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.3">
@@ -5440,10 +5439,10 @@
         <v>42</v>
       </c>
       <c r="E193" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F193" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.3">
@@ -5460,10 +5459,10 @@
         <v>44</v>
       </c>
       <c r="E194" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F194" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.3">
@@ -5480,10 +5479,10 @@
         <v>46</v>
       </c>
       <c r="E195" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F195" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.3">
@@ -5500,10 +5499,10 @@
         <v>48</v>
       </c>
       <c r="E196" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F196" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.3">
@@ -5520,10 +5519,10 @@
         <v>27</v>
       </c>
       <c r="E197" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F197" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.3">
@@ -5540,10 +5539,10 @@
         <v>29</v>
       </c>
       <c r="E198" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F198" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.3">
@@ -5560,10 +5559,10 @@
         <v>32</v>
       </c>
       <c r="E199" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F199" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.3">
@@ -5580,10 +5579,10 @@
         <v>34</v>
       </c>
       <c r="E200" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F200" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.3">
@@ -5600,10 +5599,10 @@
         <v>36</v>
       </c>
       <c r="E201" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F201" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.3">
@@ -5620,10 +5619,10 @@
         <v>38</v>
       </c>
       <c r="E202" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F202" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.3">
@@ -5640,10 +5639,10 @@
         <v>40</v>
       </c>
       <c r="E203" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F203" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.3">
@@ -5660,10 +5659,10 @@
         <v>42</v>
       </c>
       <c r="E204" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F204" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.3">
@@ -5680,10 +5679,10 @@
         <v>44</v>
       </c>
       <c r="E205" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F205" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.3">
@@ -5700,10 +5699,10 @@
         <v>46</v>
       </c>
       <c r="E206" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F206" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.3">
@@ -5720,10 +5719,10 @@
         <v>48</v>
       </c>
       <c r="E207" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F207" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.3">
@@ -5740,10 +5739,10 @@
         <v>27</v>
       </c>
       <c r="E208" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F208" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.3">
@@ -5760,10 +5759,10 @@
         <v>29</v>
       </c>
       <c r="E209" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F209" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.3">
@@ -5780,10 +5779,10 @@
         <v>32</v>
       </c>
       <c r="E210" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F210" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.3">
@@ -5800,10 +5799,10 @@
         <v>34</v>
       </c>
       <c r="E211" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F211" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.3">
@@ -5820,10 +5819,10 @@
         <v>36</v>
       </c>
       <c r="E212" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F212" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.3">
@@ -5840,10 +5839,10 @@
         <v>38</v>
       </c>
       <c r="E213" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F213" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.3">
@@ -5860,10 +5859,10 @@
         <v>40</v>
       </c>
       <c r="E214" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F214" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.3">
@@ -5880,10 +5879,10 @@
         <v>42</v>
       </c>
       <c r="E215" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F215" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.3">
@@ -5900,10 +5899,10 @@
         <v>44</v>
       </c>
       <c r="E216" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F216" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.3">
@@ -5920,10 +5919,10 @@
         <v>46</v>
       </c>
       <c r="E217" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F217" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.3">
@@ -5940,10 +5939,10 @@
         <v>48</v>
       </c>
       <c r="E218" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F218" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.3">
@@ -5960,10 +5959,10 @@
         <v>27</v>
       </c>
       <c r="E219" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F219" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.3">
@@ -5980,10 +5979,10 @@
         <v>29</v>
       </c>
       <c r="E220" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F220" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.3">
@@ -6000,10 +5999,10 @@
         <v>32</v>
       </c>
       <c r="E221" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F221" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.3">
@@ -6020,10 +6019,10 @@
         <v>34</v>
       </c>
       <c r="E222" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F222" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.3">
@@ -6040,10 +6039,10 @@
         <v>36</v>
       </c>
       <c r="E223" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F223" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.3">
@@ -6060,10 +6059,10 @@
         <v>38</v>
       </c>
       <c r="E224" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F224" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.3">
@@ -6080,10 +6079,10 @@
         <v>40</v>
       </c>
       <c r="E225" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F225" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.3">
@@ -6100,10 +6099,10 @@
         <v>42</v>
       </c>
       <c r="E226" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F226" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.3">
@@ -6120,10 +6119,10 @@
         <v>44</v>
       </c>
       <c r="E227" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F227" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.3">
@@ -6140,10 +6139,10 @@
         <v>46</v>
       </c>
       <c r="E228" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F228" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.3">
@@ -6160,10 +6159,10 @@
         <v>48</v>
       </c>
       <c r="E229" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F229" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="230" spans="1:6" x14ac:dyDescent="0.3">
@@ -6180,10 +6179,10 @@
         <v>27</v>
       </c>
       <c r="E230" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F230" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="231" spans="1:6" x14ac:dyDescent="0.3">
@@ -6200,10 +6199,10 @@
         <v>29</v>
       </c>
       <c r="E231" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F231" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.3">
@@ -6220,10 +6219,10 @@
         <v>32</v>
       </c>
       <c r="E232" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F232" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="233" spans="1:6" x14ac:dyDescent="0.3">
@@ -6240,10 +6239,10 @@
         <v>34</v>
       </c>
       <c r="E233" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F233" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="234" spans="1:6" x14ac:dyDescent="0.3">
@@ -6260,10 +6259,10 @@
         <v>36</v>
       </c>
       <c r="E234" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F234" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="235" spans="1:6" x14ac:dyDescent="0.3">
@@ -6280,10 +6279,10 @@
         <v>38</v>
       </c>
       <c r="E235" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F235" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="236" spans="1:6" x14ac:dyDescent="0.3">
@@ -6300,10 +6299,10 @@
         <v>40</v>
       </c>
       <c r="E236" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F236" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="237" spans="1:6" x14ac:dyDescent="0.3">
@@ -6320,10 +6319,10 @@
         <v>42</v>
       </c>
       <c r="E237" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F237" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="238" spans="1:6" x14ac:dyDescent="0.3">
@@ -6340,10 +6339,10 @@
         <v>44</v>
       </c>
       <c r="E238" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F238" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="239" spans="1:6" x14ac:dyDescent="0.3">
@@ -6360,10 +6359,10 @@
         <v>46</v>
       </c>
       <c r="E239" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F239" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="240" spans="1:6" x14ac:dyDescent="0.3">
@@ -6380,10 +6379,10 @@
         <v>48</v>
       </c>
       <c r="E240" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F240" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="241" spans="1:6" x14ac:dyDescent="0.3">
@@ -6400,10 +6399,10 @@
         <v>27</v>
       </c>
       <c r="E241" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F241" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="242" spans="1:6" x14ac:dyDescent="0.3">
@@ -6420,10 +6419,10 @@
         <v>29</v>
       </c>
       <c r="E242" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F242" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="243" spans="1:6" x14ac:dyDescent="0.3">
@@ -6440,10 +6439,10 @@
         <v>32</v>
       </c>
       <c r="E243" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F243" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="244" spans="1:6" x14ac:dyDescent="0.3">
@@ -6460,10 +6459,10 @@
         <v>34</v>
       </c>
       <c r="E244" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F244" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="245" spans="1:6" x14ac:dyDescent="0.3">
@@ -6480,10 +6479,10 @@
         <v>36</v>
       </c>
       <c r="E245" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F245" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="246" spans="1:6" x14ac:dyDescent="0.3">
@@ -6500,10 +6499,10 @@
         <v>38</v>
       </c>
       <c r="E246" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F246" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="247" spans="1:6" x14ac:dyDescent="0.3">
@@ -6520,10 +6519,10 @@
         <v>40</v>
       </c>
       <c r="E247" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F247" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="248" spans="1:6" x14ac:dyDescent="0.3">
@@ -6540,10 +6539,10 @@
         <v>42</v>
       </c>
       <c r="E248" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F248" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="249" spans="1:6" x14ac:dyDescent="0.3">
@@ -6560,10 +6559,10 @@
         <v>44</v>
       </c>
       <c r="E249" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F249" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="250" spans="1:6" x14ac:dyDescent="0.3">
@@ -6580,10 +6579,10 @@
         <v>46</v>
       </c>
       <c r="E250" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F250" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="251" spans="1:6" x14ac:dyDescent="0.3">
@@ -6600,10 +6599,10 @@
         <v>48</v>
       </c>
       <c r="E251" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F251" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="252" spans="1:6" x14ac:dyDescent="0.3">
@@ -6620,10 +6619,10 @@
         <v>29</v>
       </c>
       <c r="E252" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F252" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="253" spans="1:6" x14ac:dyDescent="0.3">
@@ -6640,10 +6639,10 @@
         <v>32</v>
       </c>
       <c r="E253" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F253" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="254" spans="1:6" x14ac:dyDescent="0.3">
@@ -6660,10 +6659,10 @@
         <v>34</v>
       </c>
       <c r="E254" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F254" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="255" spans="1:6" x14ac:dyDescent="0.3">
@@ -6680,10 +6679,10 @@
         <v>36</v>
       </c>
       <c r="E255" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F255" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="256" spans="1:6" x14ac:dyDescent="0.3">
@@ -6700,10 +6699,10 @@
         <v>38</v>
       </c>
       <c r="E256" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F256" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="257" spans="1:6" x14ac:dyDescent="0.3">
@@ -6720,10 +6719,10 @@
         <v>40</v>
       </c>
       <c r="E257" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F257" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="258" spans="1:6" x14ac:dyDescent="0.3">
@@ -6740,10 +6739,10 @@
         <v>42</v>
       </c>
       <c r="E258" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F258" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="259" spans="1:6" x14ac:dyDescent="0.3">
@@ -6760,10 +6759,10 @@
         <v>44</v>
       </c>
       <c r="E259" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F259" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="260" spans="1:6" x14ac:dyDescent="0.3">
@@ -6780,10 +6779,10 @@
         <v>46</v>
       </c>
       <c r="E260" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F260" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="261" spans="1:6" x14ac:dyDescent="0.3">
@@ -6800,10 +6799,10 @@
         <v>48</v>
       </c>
       <c r="E261" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F261" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="262" spans="1:6" x14ac:dyDescent="0.3">
@@ -6820,10 +6819,10 @@
         <v>29</v>
       </c>
       <c r="E262" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F262" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="263" spans="1:6" x14ac:dyDescent="0.3">
@@ -6840,10 +6839,10 @@
         <v>32</v>
       </c>
       <c r="E263" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F263" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="264" spans="1:6" x14ac:dyDescent="0.3">
@@ -6860,10 +6859,10 @@
         <v>34</v>
       </c>
       <c r="E264" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F264" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="265" spans="1:6" x14ac:dyDescent="0.3">
@@ -6880,10 +6879,10 @@
         <v>36</v>
       </c>
       <c r="E265" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F265" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="266" spans="1:6" x14ac:dyDescent="0.3">
@@ -6900,10 +6899,10 @@
         <v>38</v>
       </c>
       <c r="E266" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F266" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="267" spans="1:6" x14ac:dyDescent="0.3">
@@ -6920,10 +6919,10 @@
         <v>40</v>
       </c>
       <c r="E267" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F267" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="268" spans="1:6" x14ac:dyDescent="0.3">
@@ -6940,10 +6939,10 @@
         <v>42</v>
       </c>
       <c r="E268" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F268" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="269" spans="1:6" x14ac:dyDescent="0.3">
@@ -6960,10 +6959,10 @@
         <v>44</v>
       </c>
       <c r="E269" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F269" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="270" spans="1:6" x14ac:dyDescent="0.3">
@@ -6980,10 +6979,10 @@
         <v>46</v>
       </c>
       <c r="E270" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F270" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="271" spans="1:6" x14ac:dyDescent="0.3">
@@ -7000,10 +6999,10 @@
         <v>48</v>
       </c>
       <c r="E271" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F271" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="272" spans="1:6" x14ac:dyDescent="0.3">
@@ -7020,10 +7019,10 @@
         <v>29</v>
       </c>
       <c r="E272" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F272" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="273" spans="1:6" x14ac:dyDescent="0.3">
@@ -7040,10 +7039,10 @@
         <v>32</v>
       </c>
       <c r="E273" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F273" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="274" spans="1:6" x14ac:dyDescent="0.3">
@@ -7060,10 +7059,10 @@
         <v>34</v>
       </c>
       <c r="E274" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F274" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="275" spans="1:6" x14ac:dyDescent="0.3">
@@ -7080,10 +7079,10 @@
         <v>36</v>
       </c>
       <c r="E275" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F275" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="276" spans="1:6" x14ac:dyDescent="0.3">
@@ -7100,10 +7099,10 @@
         <v>38</v>
       </c>
       <c r="E276" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F276" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="277" spans="1:6" x14ac:dyDescent="0.3">
@@ -7120,10 +7119,10 @@
         <v>40</v>
       </c>
       <c r="E277" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F277" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="278" spans="1:6" x14ac:dyDescent="0.3">
@@ -7140,10 +7139,10 @@
         <v>42</v>
       </c>
       <c r="E278" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F278" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="279" spans="1:6" x14ac:dyDescent="0.3">
@@ -7160,10 +7159,10 @@
         <v>44</v>
       </c>
       <c r="E279" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F279" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="280" spans="1:6" x14ac:dyDescent="0.3">
@@ -7180,10 +7179,10 @@
         <v>46</v>
       </c>
       <c r="E280" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F280" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="281" spans="1:6" x14ac:dyDescent="0.3">
@@ -7200,10 +7199,10 @@
         <v>48</v>
       </c>
       <c r="E281" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F281" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="282" spans="1:6" x14ac:dyDescent="0.3">
@@ -7220,10 +7219,10 @@
         <v>29</v>
       </c>
       <c r="E282" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F282" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="283" spans="1:6" x14ac:dyDescent="0.3">
@@ -7240,10 +7239,10 @@
         <v>32</v>
       </c>
       <c r="E283" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F283" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="284" spans="1:6" x14ac:dyDescent="0.3">
@@ -7260,10 +7259,10 @@
         <v>34</v>
       </c>
       <c r="E284" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F284" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="285" spans="1:6" x14ac:dyDescent="0.3">
@@ -7280,10 +7279,10 @@
         <v>36</v>
       </c>
       <c r="E285" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F285" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="286" spans="1:6" x14ac:dyDescent="0.3">
@@ -7300,10 +7299,10 @@
         <v>38</v>
       </c>
       <c r="E286" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F286" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="287" spans="1:6" x14ac:dyDescent="0.3">
@@ -7320,10 +7319,10 @@
         <v>40</v>
       </c>
       <c r="E287" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F287" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="288" spans="1:6" x14ac:dyDescent="0.3">
@@ -7340,10 +7339,10 @@
         <v>42</v>
       </c>
       <c r="E288" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F288" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="289" spans="1:6" x14ac:dyDescent="0.3">
@@ -7360,10 +7359,10 @@
         <v>44</v>
       </c>
       <c r="E289" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F289" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="290" spans="1:6" x14ac:dyDescent="0.3">
@@ -7380,10 +7379,10 @@
         <v>46</v>
       </c>
       <c r="E290" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F290" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="291" spans="1:6" x14ac:dyDescent="0.3">
@@ -7400,10 +7399,10 @@
         <v>48</v>
       </c>
       <c r="E291" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F291" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="292" spans="1:6" x14ac:dyDescent="0.3">
@@ -7420,10 +7419,10 @@
         <v>29</v>
       </c>
       <c r="E292" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F292" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="293" spans="1:6" x14ac:dyDescent="0.3">
@@ -7440,10 +7439,10 @@
         <v>32</v>
       </c>
       <c r="E293" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F293" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="294" spans="1:6" x14ac:dyDescent="0.3">
@@ -7460,10 +7459,10 @@
         <v>34</v>
       </c>
       <c r="E294" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F294" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="295" spans="1:6" x14ac:dyDescent="0.3">
@@ -7480,10 +7479,10 @@
         <v>36</v>
       </c>
       <c r="E295" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F295" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="296" spans="1:6" x14ac:dyDescent="0.3">
@@ -7500,10 +7499,10 @@
         <v>38</v>
       </c>
       <c r="E296" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F296" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="297" spans="1:6" x14ac:dyDescent="0.3">
@@ -7520,10 +7519,10 @@
         <v>40</v>
       </c>
       <c r="E297" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F297" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="298" spans="1:6" x14ac:dyDescent="0.3">
@@ -7540,10 +7539,10 @@
         <v>42</v>
       </c>
       <c r="E298" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F298" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="299" spans="1:6" x14ac:dyDescent="0.3">
@@ -7560,10 +7559,10 @@
         <v>44</v>
       </c>
       <c r="E299" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F299" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="300" spans="1:6" x14ac:dyDescent="0.3">
@@ -7580,10 +7579,10 @@
         <v>46</v>
       </c>
       <c r="E300" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F300" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="301" spans="1:6" x14ac:dyDescent="0.3">
@@ -7600,10 +7599,10 @@
         <v>48</v>
       </c>
       <c r="E301" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F301" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="302" spans="1:6" x14ac:dyDescent="0.3">
@@ -7620,10 +7619,10 @@
         <v>32</v>
       </c>
       <c r="E302" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F302" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="303" spans="1:6" x14ac:dyDescent="0.3">
@@ -7640,10 +7639,10 @@
         <v>34</v>
       </c>
       <c r="E303" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F303" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="304" spans="1:6" x14ac:dyDescent="0.3">
@@ -7660,10 +7659,10 @@
         <v>36</v>
       </c>
       <c r="E304" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F304" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="305" spans="1:6" x14ac:dyDescent="0.3">
@@ -7680,10 +7679,10 @@
         <v>38</v>
       </c>
       <c r="E305" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F305" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="306" spans="1:6" x14ac:dyDescent="0.3">
@@ -7700,10 +7699,10 @@
         <v>40</v>
       </c>
       <c r="E306" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F306" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="307" spans="1:6" x14ac:dyDescent="0.3">
@@ -7720,10 +7719,10 @@
         <v>42</v>
       </c>
       <c r="E307" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F307" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="308" spans="1:6" x14ac:dyDescent="0.3">
@@ -7740,10 +7739,10 @@
         <v>44</v>
       </c>
       <c r="E308" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F308" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="309" spans="1:6" x14ac:dyDescent="0.3">
@@ -7760,10 +7759,10 @@
         <v>46</v>
       </c>
       <c r="E309" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F309" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="310" spans="1:6" x14ac:dyDescent="0.3">
@@ -7780,10 +7779,10 @@
         <v>48</v>
       </c>
       <c r="E310" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F310" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="311" spans="1:6" x14ac:dyDescent="0.3">
@@ -7800,10 +7799,10 @@
         <v>32</v>
       </c>
       <c r="E311" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F311" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="312" spans="1:6" x14ac:dyDescent="0.3">
@@ -7820,10 +7819,10 @@
         <v>34</v>
       </c>
       <c r="E312" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F312" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="313" spans="1:6" x14ac:dyDescent="0.3">
@@ -7840,10 +7839,10 @@
         <v>36</v>
       </c>
       <c r="E313" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F313" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="314" spans="1:6" x14ac:dyDescent="0.3">
@@ -7860,10 +7859,10 @@
         <v>38</v>
       </c>
       <c r="E314" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F314" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="315" spans="1:6" x14ac:dyDescent="0.3">
@@ -7880,10 +7879,10 @@
         <v>40</v>
       </c>
       <c r="E315" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F315" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="316" spans="1:6" x14ac:dyDescent="0.3">
@@ -7900,10 +7899,10 @@
         <v>42</v>
       </c>
       <c r="E316" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F316" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="317" spans="1:6" x14ac:dyDescent="0.3">
@@ -7920,10 +7919,10 @@
         <v>44</v>
       </c>
       <c r="E317" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F317" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="318" spans="1:6" x14ac:dyDescent="0.3">
@@ -7940,10 +7939,10 @@
         <v>46</v>
       </c>
       <c r="E318" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F318" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="319" spans="1:6" x14ac:dyDescent="0.3">
@@ -7960,10 +7959,10 @@
         <v>48</v>
       </c>
       <c r="E319" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F319" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="320" spans="1:6" x14ac:dyDescent="0.3">
@@ -7980,10 +7979,10 @@
         <v>32</v>
       </c>
       <c r="E320" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F320" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="321" spans="1:6" x14ac:dyDescent="0.3">
@@ -8000,10 +7999,10 @@
         <v>34</v>
       </c>
       <c r="E321" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F321" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="322" spans="1:6" x14ac:dyDescent="0.3">
@@ -8020,10 +8019,10 @@
         <v>36</v>
       </c>
       <c r="E322" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F322" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="323" spans="1:6" x14ac:dyDescent="0.3">
@@ -8040,10 +8039,10 @@
         <v>38</v>
       </c>
       <c r="E323" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F323" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="324" spans="1:6" x14ac:dyDescent="0.3">
@@ -8060,10 +8059,10 @@
         <v>40</v>
       </c>
       <c r="E324" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F324" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="325" spans="1:6" x14ac:dyDescent="0.3">
@@ -8080,10 +8079,10 @@
         <v>42</v>
       </c>
       <c r="E325" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F325" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="326" spans="1:6" x14ac:dyDescent="0.3">
@@ -8100,10 +8099,10 @@
         <v>44</v>
       </c>
       <c r="E326" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F326" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="327" spans="1:6" x14ac:dyDescent="0.3">
@@ -8120,10 +8119,10 @@
         <v>46</v>
       </c>
       <c r="E327" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F327" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="328" spans="1:6" x14ac:dyDescent="0.3">
@@ -8140,10 +8139,10 @@
         <v>48</v>
       </c>
       <c r="E328" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F328" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="329" spans="1:6" x14ac:dyDescent="0.3">
@@ -8160,10 +8159,10 @@
         <v>32</v>
       </c>
       <c r="E329" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F329" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="330" spans="1:6" x14ac:dyDescent="0.3">
@@ -8180,10 +8179,10 @@
         <v>34</v>
       </c>
       <c r="E330" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F330" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="331" spans="1:6" x14ac:dyDescent="0.3">
@@ -8200,10 +8199,10 @@
         <v>36</v>
       </c>
       <c r="E331" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F331" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="332" spans="1:6" x14ac:dyDescent="0.3">
@@ -8220,10 +8219,10 @@
         <v>38</v>
       </c>
       <c r="E332" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F332" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="333" spans="1:6" x14ac:dyDescent="0.3">
@@ -8240,10 +8239,10 @@
         <v>40</v>
       </c>
       <c r="E333" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F333" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="334" spans="1:6" x14ac:dyDescent="0.3">
@@ -8260,10 +8259,10 @@
         <v>42</v>
       </c>
       <c r="E334" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F334" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="335" spans="1:6" x14ac:dyDescent="0.3">
@@ -8280,10 +8279,10 @@
         <v>44</v>
       </c>
       <c r="E335" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F335" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="336" spans="1:6" x14ac:dyDescent="0.3">
@@ -8300,10 +8299,10 @@
         <v>46</v>
       </c>
       <c r="E336" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F336" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="337" spans="1:6" x14ac:dyDescent="0.3">
@@ -8320,10 +8319,10 @@
         <v>48</v>
       </c>
       <c r="E337" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F337" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="338" spans="1:6" x14ac:dyDescent="0.3">
@@ -8340,10 +8339,10 @@
         <v>32</v>
       </c>
       <c r="E338" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F338" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="339" spans="1:6" x14ac:dyDescent="0.3">
@@ -8360,10 +8359,10 @@
         <v>34</v>
       </c>
       <c r="E339" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F339" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="340" spans="1:6" x14ac:dyDescent="0.3">
@@ -8380,10 +8379,10 @@
         <v>36</v>
       </c>
       <c r="E340" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F340" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="341" spans="1:6" x14ac:dyDescent="0.3">
@@ -8400,10 +8399,10 @@
         <v>38</v>
       </c>
       <c r="E341" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F341" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="342" spans="1:6" x14ac:dyDescent="0.3">
@@ -8420,10 +8419,10 @@
         <v>40</v>
       </c>
       <c r="E342" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F342" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="343" spans="1:6" x14ac:dyDescent="0.3">
@@ -8440,10 +8439,10 @@
         <v>42</v>
       </c>
       <c r="E343" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F343" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="344" spans="1:6" x14ac:dyDescent="0.3">
@@ -8460,10 +8459,10 @@
         <v>44</v>
       </c>
       <c r="E344" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F344" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="345" spans="1:6" x14ac:dyDescent="0.3">
@@ -8480,10 +8479,10 @@
         <v>46</v>
       </c>
       <c r="E345" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F345" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="346" spans="1:6" x14ac:dyDescent="0.3">
@@ -8500,10 +8499,10 @@
         <v>48</v>
       </c>
       <c r="E346" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F346" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="347" spans="1:6" x14ac:dyDescent="0.3">
@@ -8520,10 +8519,10 @@
         <v>34</v>
       </c>
       <c r="E347" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F347" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="348" spans="1:6" x14ac:dyDescent="0.3">
@@ -8540,10 +8539,10 @@
         <v>36</v>
       </c>
       <c r="E348" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F348" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="349" spans="1:6" x14ac:dyDescent="0.3">
@@ -8560,10 +8559,10 @@
         <v>38</v>
       </c>
       <c r="E349" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F349" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="350" spans="1:6" x14ac:dyDescent="0.3">
@@ -8580,10 +8579,10 @@
         <v>40</v>
       </c>
       <c r="E350" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F350" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="351" spans="1:6" x14ac:dyDescent="0.3">
@@ -8600,10 +8599,10 @@
         <v>42</v>
       </c>
       <c r="E351" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F351" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="352" spans="1:6" x14ac:dyDescent="0.3">
@@ -8620,10 +8619,10 @@
         <v>44</v>
       </c>
       <c r="E352" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F352" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="353" spans="1:6" x14ac:dyDescent="0.3">
@@ -8640,10 +8639,10 @@
         <v>46</v>
       </c>
       <c r="E353" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F353" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="354" spans="1:6" x14ac:dyDescent="0.3">
@@ -8660,10 +8659,10 @@
         <v>48</v>
       </c>
       <c r="E354" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F354" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="355" spans="1:6" x14ac:dyDescent="0.3">
@@ -8680,10 +8679,10 @@
         <v>34</v>
       </c>
       <c r="E355" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F355" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="356" spans="1:6" x14ac:dyDescent="0.3">
@@ -8700,10 +8699,10 @@
         <v>36</v>
       </c>
       <c r="E356" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F356" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="357" spans="1:6" x14ac:dyDescent="0.3">
@@ -8720,10 +8719,10 @@
         <v>38</v>
       </c>
       <c r="E357" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F357" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="358" spans="1:6" x14ac:dyDescent="0.3">
@@ -8740,10 +8739,10 @@
         <v>40</v>
       </c>
       <c r="E358" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F358" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="359" spans="1:6" x14ac:dyDescent="0.3">
@@ -8760,10 +8759,10 @@
         <v>42</v>
       </c>
       <c r="E359" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F359" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="360" spans="1:6" x14ac:dyDescent="0.3">
@@ -8780,10 +8779,10 @@
         <v>44</v>
       </c>
       <c r="E360" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F360" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="361" spans="1:6" x14ac:dyDescent="0.3">
@@ -8800,10 +8799,10 @@
         <v>46</v>
       </c>
       <c r="E361" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F361" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="362" spans="1:6" x14ac:dyDescent="0.3">
@@ -8820,10 +8819,10 @@
         <v>48</v>
       </c>
       <c r="E362" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F362" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="363" spans="1:6" x14ac:dyDescent="0.3">
@@ -8840,10 +8839,10 @@
         <v>34</v>
       </c>
       <c r="E363" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F363" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="364" spans="1:6" x14ac:dyDescent="0.3">
@@ -8860,10 +8859,10 @@
         <v>36</v>
       </c>
       <c r="E364" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F364" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="365" spans="1:6" x14ac:dyDescent="0.3">
@@ -8880,10 +8879,10 @@
         <v>38</v>
       </c>
       <c r="E365" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F365" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="366" spans="1:6" x14ac:dyDescent="0.3">
@@ -8900,10 +8899,10 @@
         <v>40</v>
       </c>
       <c r="E366" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F366" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="367" spans="1:6" x14ac:dyDescent="0.3">
@@ -8920,10 +8919,10 @@
         <v>42</v>
       </c>
       <c r="E367" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F367" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="368" spans="1:6" x14ac:dyDescent="0.3">
@@ -8940,10 +8939,10 @@
         <v>44</v>
       </c>
       <c r="E368" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F368" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="369" spans="1:6" x14ac:dyDescent="0.3">
@@ -8960,10 +8959,10 @@
         <v>46</v>
       </c>
       <c r="E369" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F369" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="370" spans="1:6" x14ac:dyDescent="0.3">
@@ -8980,10 +8979,10 @@
         <v>48</v>
       </c>
       <c r="E370" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F370" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="371" spans="1:6" x14ac:dyDescent="0.3">
@@ -9000,10 +8999,10 @@
         <v>34</v>
       </c>
       <c r="E371" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F371" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="372" spans="1:6" x14ac:dyDescent="0.3">
@@ -9020,10 +9019,10 @@
         <v>36</v>
       </c>
       <c r="E372" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F372" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="373" spans="1:6" x14ac:dyDescent="0.3">
@@ -9040,10 +9039,10 @@
         <v>38</v>
       </c>
       <c r="E373" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F373" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="374" spans="1:6" x14ac:dyDescent="0.3">
@@ -9060,10 +9059,10 @@
         <v>40</v>
       </c>
       <c r="E374" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F374" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="375" spans="1:6" x14ac:dyDescent="0.3">
@@ -9080,10 +9079,10 @@
         <v>42</v>
       </c>
       <c r="E375" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F375" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="376" spans="1:6" x14ac:dyDescent="0.3">
@@ -9100,10 +9099,10 @@
         <v>44</v>
       </c>
       <c r="E376" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F376" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="377" spans="1:6" x14ac:dyDescent="0.3">
@@ -9120,10 +9119,10 @@
         <v>46</v>
       </c>
       <c r="E377" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F377" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="378" spans="1:6" x14ac:dyDescent="0.3">
@@ -9140,10 +9139,10 @@
         <v>48</v>
       </c>
       <c r="E378" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F378" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="379" spans="1:6" x14ac:dyDescent="0.3">
@@ -9160,10 +9159,10 @@
         <v>34</v>
       </c>
       <c r="E379" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F379" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="380" spans="1:6" x14ac:dyDescent="0.3">
@@ -9180,10 +9179,10 @@
         <v>36</v>
       </c>
       <c r="E380" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F380" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="381" spans="1:6" x14ac:dyDescent="0.3">
@@ -9200,10 +9199,10 @@
         <v>38</v>
       </c>
       <c r="E381" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F381" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="382" spans="1:6" x14ac:dyDescent="0.3">
@@ -9220,10 +9219,10 @@
         <v>40</v>
       </c>
       <c r="E382" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F382" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="383" spans="1:6" x14ac:dyDescent="0.3">
@@ -9240,10 +9239,10 @@
         <v>42</v>
       </c>
       <c r="E383" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F383" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="384" spans="1:6" x14ac:dyDescent="0.3">
@@ -9260,10 +9259,10 @@
         <v>44</v>
       </c>
       <c r="E384" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F384" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="385" spans="1:6" x14ac:dyDescent="0.3">
@@ -9280,10 +9279,10 @@
         <v>46</v>
       </c>
       <c r="E385" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F385" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="386" spans="1:6" x14ac:dyDescent="0.3">
@@ -9300,10 +9299,10 @@
         <v>48</v>
       </c>
       <c r="E386" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F386" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="387" spans="1:6" x14ac:dyDescent="0.3">
@@ -9320,10 +9319,10 @@
         <v>34</v>
       </c>
       <c r="E387" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F387" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="388" spans="1:6" x14ac:dyDescent="0.3">
@@ -9340,10 +9339,10 @@
         <v>36</v>
       </c>
       <c r="E388" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F388" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="389" spans="1:6" x14ac:dyDescent="0.3">
@@ -9360,10 +9359,10 @@
         <v>38</v>
       </c>
       <c r="E389" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F389" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="390" spans="1:6" x14ac:dyDescent="0.3">
@@ -9380,10 +9379,10 @@
         <v>40</v>
       </c>
       <c r="E390" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F390" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="391" spans="1:6" x14ac:dyDescent="0.3">
@@ -9400,10 +9399,10 @@
         <v>42</v>
       </c>
       <c r="E391" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F391" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="392" spans="1:6" x14ac:dyDescent="0.3">
@@ -9420,10 +9419,10 @@
         <v>44</v>
       </c>
       <c r="E392" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F392" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="393" spans="1:6" x14ac:dyDescent="0.3">
@@ -9440,10 +9439,10 @@
         <v>46</v>
       </c>
       <c r="E393" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F393" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="394" spans="1:6" x14ac:dyDescent="0.3">
@@ -9460,10 +9459,10 @@
         <v>48</v>
       </c>
       <c r="E394" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F394" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="395" spans="1:6" x14ac:dyDescent="0.3">
@@ -9480,10 +9479,10 @@
         <v>36</v>
       </c>
       <c r="E395" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F395" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="396" spans="1:6" x14ac:dyDescent="0.3">
@@ -9500,10 +9499,10 @@
         <v>38</v>
       </c>
       <c r="E396" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F396" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="397" spans="1:6" x14ac:dyDescent="0.3">
@@ -9520,10 +9519,10 @@
         <v>40</v>
       </c>
       <c r="E397" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F397" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="398" spans="1:6" x14ac:dyDescent="0.3">
@@ -9540,10 +9539,10 @@
         <v>42</v>
       </c>
       <c r="E398" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F398" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="399" spans="1:6" x14ac:dyDescent="0.3">
@@ -9560,10 +9559,10 @@
         <v>44</v>
       </c>
       <c r="E399" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F399" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="400" spans="1:6" x14ac:dyDescent="0.3">
@@ -9580,10 +9579,10 @@
         <v>46</v>
       </c>
       <c r="E400" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F400" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="401" spans="1:6" x14ac:dyDescent="0.3">
@@ -9600,10 +9599,10 @@
         <v>48</v>
       </c>
       <c r="E401" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F401" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="402" spans="1:6" x14ac:dyDescent="0.3">
@@ -9620,10 +9619,10 @@
         <v>36</v>
       </c>
       <c r="E402" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F402" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="403" spans="1:6" x14ac:dyDescent="0.3">
@@ -9640,10 +9639,10 @@
         <v>38</v>
       </c>
       <c r="E403" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F403" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="404" spans="1:6" x14ac:dyDescent="0.3">
@@ -9660,10 +9659,10 @@
         <v>40</v>
       </c>
       <c r="E404" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F404" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="405" spans="1:6" x14ac:dyDescent="0.3">
@@ -9680,10 +9679,10 @@
         <v>42</v>
       </c>
       <c r="E405" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F405" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="406" spans="1:6" x14ac:dyDescent="0.3">
@@ -9700,10 +9699,10 @@
         <v>44</v>
       </c>
       <c r="E406" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F406" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="407" spans="1:6" x14ac:dyDescent="0.3">
@@ -9720,10 +9719,10 @@
         <v>46</v>
       </c>
       <c r="E407" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F407" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="408" spans="1:6" x14ac:dyDescent="0.3">
@@ -9740,10 +9739,10 @@
         <v>48</v>
       </c>
       <c r="E408" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F408" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="409" spans="1:6" x14ac:dyDescent="0.3">
@@ -9760,10 +9759,10 @@
         <v>36</v>
       </c>
       <c r="E409" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F409" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="410" spans="1:6" x14ac:dyDescent="0.3">
@@ -9780,10 +9779,10 @@
         <v>38</v>
       </c>
       <c r="E410" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F410" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="411" spans="1:6" x14ac:dyDescent="0.3">
@@ -9800,10 +9799,10 @@
         <v>40</v>
       </c>
       <c r="E411" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F411" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="412" spans="1:6" x14ac:dyDescent="0.3">
@@ -9820,10 +9819,10 @@
         <v>42</v>
       </c>
       <c r="E412" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F412" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="413" spans="1:6" x14ac:dyDescent="0.3">
@@ -9840,10 +9839,10 @@
         <v>44</v>
       </c>
       <c r="E413" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F413" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="414" spans="1:6" x14ac:dyDescent="0.3">
@@ -9860,10 +9859,10 @@
         <v>46</v>
       </c>
       <c r="E414" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F414" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="415" spans="1:6" x14ac:dyDescent="0.3">
@@ -9880,10 +9879,10 @@
         <v>48</v>
       </c>
       <c r="E415" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F415" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="416" spans="1:6" x14ac:dyDescent="0.3">
@@ -9900,10 +9899,10 @@
         <v>36</v>
       </c>
       <c r="E416" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F416" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="417" spans="1:6" x14ac:dyDescent="0.3">
@@ -9920,10 +9919,10 @@
         <v>38</v>
       </c>
       <c r="E417" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F417" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="418" spans="1:6" x14ac:dyDescent="0.3">
@@ -9940,10 +9939,10 @@
         <v>40</v>
       </c>
       <c r="E418" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F418" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="419" spans="1:6" x14ac:dyDescent="0.3">
@@ -9960,10 +9959,10 @@
         <v>42</v>
       </c>
       <c r="E419" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F419" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="420" spans="1:6" x14ac:dyDescent="0.3">
@@ -9980,10 +9979,10 @@
         <v>44</v>
       </c>
       <c r="E420" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F420" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="421" spans="1:6" x14ac:dyDescent="0.3">
@@ -10000,10 +9999,10 @@
         <v>46</v>
       </c>
       <c r="E421" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F421" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="422" spans="1:6" x14ac:dyDescent="0.3">
@@ -10020,10 +10019,10 @@
         <v>48</v>
       </c>
       <c r="E422" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F422" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="423" spans="1:6" x14ac:dyDescent="0.3">
@@ -10040,10 +10039,10 @@
         <v>36</v>
       </c>
       <c r="E423" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F423" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="424" spans="1:6" x14ac:dyDescent="0.3">
@@ -10060,10 +10059,10 @@
         <v>38</v>
       </c>
       <c r="E424" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F424" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="425" spans="1:6" x14ac:dyDescent="0.3">
@@ -10080,10 +10079,10 @@
         <v>40</v>
       </c>
       <c r="E425" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F425" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="426" spans="1:6" x14ac:dyDescent="0.3">
@@ -10100,10 +10099,10 @@
         <v>42</v>
       </c>
       <c r="E426" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F426" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="427" spans="1:6" x14ac:dyDescent="0.3">
@@ -10120,10 +10119,10 @@
         <v>44</v>
       </c>
       <c r="E427" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F427" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="428" spans="1:6" x14ac:dyDescent="0.3">
@@ -10140,10 +10139,10 @@
         <v>46</v>
       </c>
       <c r="E428" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F428" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="429" spans="1:6" x14ac:dyDescent="0.3">
@@ -10160,10 +10159,10 @@
         <v>48</v>
       </c>
       <c r="E429" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F429" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="430" spans="1:6" x14ac:dyDescent="0.3">
@@ -10180,10 +10179,10 @@
         <v>38</v>
       </c>
       <c r="E430" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F430" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="431" spans="1:6" x14ac:dyDescent="0.3">
@@ -10200,10 +10199,10 @@
         <v>40</v>
       </c>
       <c r="E431" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F431" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="432" spans="1:6" x14ac:dyDescent="0.3">
@@ -10220,10 +10219,10 @@
         <v>42</v>
       </c>
       <c r="E432" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F432" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="433" spans="1:6" x14ac:dyDescent="0.3">
@@ -10240,10 +10239,10 @@
         <v>44</v>
       </c>
       <c r="E433" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F433" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="434" spans="1:6" x14ac:dyDescent="0.3">
@@ -10260,10 +10259,10 @@
         <v>46</v>
       </c>
       <c r="E434" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F434" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="435" spans="1:6" x14ac:dyDescent="0.3">
@@ -10280,10 +10279,10 @@
         <v>48</v>
       </c>
       <c r="E435" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F435" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="436" spans="1:6" x14ac:dyDescent="0.3">
@@ -10300,10 +10299,10 @@
         <v>38</v>
       </c>
       <c r="E436" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F436" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="437" spans="1:6" x14ac:dyDescent="0.3">
@@ -10320,10 +10319,10 @@
         <v>40</v>
       </c>
       <c r="E437" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F437" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="438" spans="1:6" x14ac:dyDescent="0.3">
@@ -10340,10 +10339,10 @@
         <v>42</v>
       </c>
       <c r="E438" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F438" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="439" spans="1:6" x14ac:dyDescent="0.3">
@@ -10360,10 +10359,10 @@
         <v>44</v>
       </c>
       <c r="E439" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F439" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="440" spans="1:6" x14ac:dyDescent="0.3">
@@ -10380,10 +10379,10 @@
         <v>46</v>
       </c>
       <c r="E440" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F440" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="441" spans="1:6" x14ac:dyDescent="0.3">
@@ -10400,10 +10399,10 @@
         <v>48</v>
       </c>
       <c r="E441" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F441" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="442" spans="1:6" x14ac:dyDescent="0.3">
@@ -10420,10 +10419,10 @@
         <v>38</v>
       </c>
       <c r="E442" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F442" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="443" spans="1:6" x14ac:dyDescent="0.3">
@@ -10440,10 +10439,10 @@
         <v>40</v>
       </c>
       <c r="E443" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F443" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="444" spans="1:6" x14ac:dyDescent="0.3">
@@ -10460,10 +10459,10 @@
         <v>42</v>
       </c>
       <c r="E444" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F444" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="445" spans="1:6" x14ac:dyDescent="0.3">
@@ -10480,10 +10479,10 @@
         <v>44</v>
       </c>
       <c r="E445" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F445" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="446" spans="1:6" x14ac:dyDescent="0.3">
@@ -10500,10 +10499,10 @@
         <v>46</v>
       </c>
       <c r="E446" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F446" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="447" spans="1:6" x14ac:dyDescent="0.3">
@@ -10520,10 +10519,10 @@
         <v>48</v>
       </c>
       <c r="E447" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F447" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="448" spans="1:6" x14ac:dyDescent="0.3">
@@ -10540,10 +10539,10 @@
         <v>38</v>
       </c>
       <c r="E448" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F448" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="449" spans="1:6" x14ac:dyDescent="0.3">
@@ -10560,10 +10559,10 @@
         <v>40</v>
       </c>
       <c r="E449" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F449" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="450" spans="1:6" x14ac:dyDescent="0.3">
@@ -10580,10 +10579,10 @@
         <v>42</v>
       </c>
       <c r="E450" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F450" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="451" spans="1:6" x14ac:dyDescent="0.3">
@@ -10600,10 +10599,10 @@
         <v>44</v>
       </c>
       <c r="E451" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F451" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="452" spans="1:6" x14ac:dyDescent="0.3">
@@ -10620,10 +10619,10 @@
         <v>46</v>
       </c>
       <c r="E452" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F452" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="453" spans="1:6" x14ac:dyDescent="0.3">
@@ -10640,10 +10639,10 @@
         <v>48</v>
       </c>
       <c r="E453" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F453" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="454" spans="1:6" x14ac:dyDescent="0.3">
@@ -10660,10 +10659,10 @@
         <v>38</v>
       </c>
       <c r="E454" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F454" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="455" spans="1:6" x14ac:dyDescent="0.3">
@@ -10680,10 +10679,10 @@
         <v>40</v>
       </c>
       <c r="E455" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F455" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="456" spans="1:6" x14ac:dyDescent="0.3">
@@ -10700,10 +10699,10 @@
         <v>42</v>
       </c>
       <c r="E456" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F456" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="457" spans="1:6" x14ac:dyDescent="0.3">
@@ -10720,10 +10719,10 @@
         <v>44</v>
       </c>
       <c r="E457" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F457" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="458" spans="1:6" x14ac:dyDescent="0.3">
@@ -10740,10 +10739,10 @@
         <v>46</v>
       </c>
       <c r="E458" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F458" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="459" spans="1:6" x14ac:dyDescent="0.3">
@@ -10760,10 +10759,10 @@
         <v>48</v>
       </c>
       <c r="E459" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F459" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="460" spans="1:6" x14ac:dyDescent="0.3">
@@ -10780,10 +10779,10 @@
         <v>40</v>
       </c>
       <c r="E460" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F460" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="461" spans="1:6" x14ac:dyDescent="0.3">
@@ -10800,10 +10799,10 @@
         <v>42</v>
       </c>
       <c r="E461" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F461" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="462" spans="1:6" x14ac:dyDescent="0.3">
@@ -10820,10 +10819,10 @@
         <v>44</v>
       </c>
       <c r="E462" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F462" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="463" spans="1:6" x14ac:dyDescent="0.3">
@@ -10840,10 +10839,10 @@
         <v>46</v>
       </c>
       <c r="E463" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F463" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="464" spans="1:6" x14ac:dyDescent="0.3">
@@ -10860,10 +10859,10 @@
         <v>48</v>
       </c>
       <c r="E464" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F464" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="465" spans="1:6" x14ac:dyDescent="0.3">
@@ -10880,10 +10879,10 @@
         <v>40</v>
       </c>
       <c r="E465" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F465" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="466" spans="1:6" x14ac:dyDescent="0.3">
@@ -10900,10 +10899,10 @@
         <v>42</v>
       </c>
       <c r="E466" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F466" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="467" spans="1:6" x14ac:dyDescent="0.3">
@@ -10920,10 +10919,10 @@
         <v>44</v>
       </c>
       <c r="E467" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F467" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="468" spans="1:6" x14ac:dyDescent="0.3">
@@ -10940,10 +10939,10 @@
         <v>46</v>
       </c>
       <c r="E468" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F468" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="469" spans="1:6" x14ac:dyDescent="0.3">
@@ -10960,10 +10959,10 @@
         <v>48</v>
       </c>
       <c r="E469" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F469" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="470" spans="1:6" x14ac:dyDescent="0.3">
@@ -10980,10 +10979,10 @@
         <v>40</v>
       </c>
       <c r="E470" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F470" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="471" spans="1:6" x14ac:dyDescent="0.3">
@@ -11000,10 +10999,10 @@
         <v>42</v>
       </c>
       <c r="E471" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F471" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="472" spans="1:6" x14ac:dyDescent="0.3">
@@ -11020,10 +11019,10 @@
         <v>44</v>
       </c>
       <c r="E472" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F472" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="473" spans="1:6" x14ac:dyDescent="0.3">
@@ -11040,10 +11039,10 @@
         <v>46</v>
       </c>
       <c r="E473" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F473" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="474" spans="1:6" x14ac:dyDescent="0.3">
@@ -11060,10 +11059,10 @@
         <v>48</v>
       </c>
       <c r="E474" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F474" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="475" spans="1:6" x14ac:dyDescent="0.3">
@@ -11080,10 +11079,10 @@
         <v>40</v>
       </c>
       <c r="E475" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F475" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="476" spans="1:6" x14ac:dyDescent="0.3">
@@ -11100,10 +11099,10 @@
         <v>42</v>
       </c>
       <c r="E476" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F476" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="477" spans="1:6" x14ac:dyDescent="0.3">
@@ -11120,10 +11119,10 @@
         <v>44</v>
       </c>
       <c r="E477" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F477" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="478" spans="1:6" x14ac:dyDescent="0.3">
@@ -11140,10 +11139,10 @@
         <v>46</v>
       </c>
       <c r="E478" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F478" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="479" spans="1:6" x14ac:dyDescent="0.3">
@@ -11160,10 +11159,10 @@
         <v>48</v>
       </c>
       <c r="E479" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F479" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="480" spans="1:6" x14ac:dyDescent="0.3">
@@ -11180,10 +11179,10 @@
         <v>40</v>
       </c>
       <c r="E480" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F480" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="481" spans="1:6" x14ac:dyDescent="0.3">
@@ -11200,10 +11199,10 @@
         <v>42</v>
       </c>
       <c r="E481" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F481" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="482" spans="1:6" x14ac:dyDescent="0.3">
@@ -11220,10 +11219,10 @@
         <v>44</v>
       </c>
       <c r="E482" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F482" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="483" spans="1:6" x14ac:dyDescent="0.3">
@@ -11240,10 +11239,10 @@
         <v>46</v>
       </c>
       <c r="E483" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F483" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="484" spans="1:6" x14ac:dyDescent="0.3">
@@ -11260,10 +11259,10 @@
         <v>48</v>
       </c>
       <c r="E484" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F484" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="485" spans="1:6" x14ac:dyDescent="0.3">
@@ -11280,10 +11279,10 @@
         <v>42</v>
       </c>
       <c r="E485" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F485" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="486" spans="1:6" x14ac:dyDescent="0.3">
@@ -11300,10 +11299,10 @@
         <v>44</v>
       </c>
       <c r="E486" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F486" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="487" spans="1:6" x14ac:dyDescent="0.3">
@@ -11320,10 +11319,10 @@
         <v>46</v>
       </c>
       <c r="E487" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F487" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="488" spans="1:6" x14ac:dyDescent="0.3">
@@ -11340,10 +11339,10 @@
         <v>48</v>
       </c>
       <c r="E488" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F488" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="489" spans="1:6" x14ac:dyDescent="0.3">
@@ -11360,10 +11359,10 @@
         <v>42</v>
       </c>
       <c r="E489" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F489" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="490" spans="1:6" x14ac:dyDescent="0.3">
@@ -11380,10 +11379,10 @@
         <v>44</v>
       </c>
       <c r="E490" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F490" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="491" spans="1:6" x14ac:dyDescent="0.3">
@@ -11400,10 +11399,10 @@
         <v>46</v>
       </c>
       <c r="E491" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F491" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="492" spans="1:6" x14ac:dyDescent="0.3">
@@ -11420,10 +11419,10 @@
         <v>48</v>
       </c>
       <c r="E492" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F492" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="493" spans="1:6" x14ac:dyDescent="0.3">
@@ -11440,10 +11439,10 @@
         <v>42</v>
       </c>
       <c r="E493" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F493" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="494" spans="1:6" x14ac:dyDescent="0.3">
@@ -11460,10 +11459,10 @@
         <v>44</v>
       </c>
       <c r="E494" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F494" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="495" spans="1:6" x14ac:dyDescent="0.3">
@@ -11480,10 +11479,10 @@
         <v>46</v>
       </c>
       <c r="E495" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F495" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="496" spans="1:6" x14ac:dyDescent="0.3">
@@ -11500,10 +11499,10 @@
         <v>48</v>
       </c>
       <c r="E496" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F496" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="497" spans="1:6" x14ac:dyDescent="0.3">
@@ -11520,10 +11519,10 @@
         <v>42</v>
       </c>
       <c r="E497" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F497" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="498" spans="1:6" x14ac:dyDescent="0.3">
@@ -11540,10 +11539,10 @@
         <v>44</v>
       </c>
       <c r="E498" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F498" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="499" spans="1:6" x14ac:dyDescent="0.3">
@@ -11560,10 +11559,10 @@
         <v>46</v>
       </c>
       <c r="E499" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F499" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="500" spans="1:6" x14ac:dyDescent="0.3">
@@ -11580,10 +11579,10 @@
         <v>48</v>
       </c>
       <c r="E500" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F500" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="501" spans="1:6" x14ac:dyDescent="0.3">
@@ -11600,10 +11599,10 @@
         <v>42</v>
       </c>
       <c r="E501" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F501" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="502" spans="1:6" x14ac:dyDescent="0.3">
@@ -11620,10 +11619,10 @@
         <v>44</v>
       </c>
       <c r="E502" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F502" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="503" spans="1:6" x14ac:dyDescent="0.3">
@@ -11640,10 +11639,10 @@
         <v>46</v>
       </c>
       <c r="E503" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F503" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="504" spans="1:6" x14ac:dyDescent="0.3">
@@ -11660,10 +11659,10 @@
         <v>48</v>
       </c>
       <c r="E504" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F504" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="505" spans="1:6" x14ac:dyDescent="0.3">
@@ -11680,10 +11679,10 @@
         <v>44</v>
       </c>
       <c r="E505" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F505" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="506" spans="1:6" x14ac:dyDescent="0.3">
@@ -11700,10 +11699,10 @@
         <v>46</v>
       </c>
       <c r="E506" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F506" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="507" spans="1:6" x14ac:dyDescent="0.3">
@@ -11720,10 +11719,10 @@
         <v>48</v>
       </c>
       <c r="E507" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F507" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="508" spans="1:6" x14ac:dyDescent="0.3">
@@ -11740,10 +11739,10 @@
         <v>44</v>
       </c>
       <c r="E508" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F508" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="509" spans="1:6" x14ac:dyDescent="0.3">
@@ -11760,10 +11759,10 @@
         <v>46</v>
       </c>
       <c r="E509" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F509" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="510" spans="1:6" x14ac:dyDescent="0.3">
@@ -11780,10 +11779,10 @@
         <v>48</v>
       </c>
       <c r="E510" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F510" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="511" spans="1:6" x14ac:dyDescent="0.3">
@@ -11800,10 +11799,10 @@
         <v>44</v>
       </c>
       <c r="E511" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F511" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="512" spans="1:6" x14ac:dyDescent="0.3">
@@ -11820,10 +11819,10 @@
         <v>46</v>
       </c>
       <c r="E512" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F512" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="513" spans="1:6" x14ac:dyDescent="0.3">
@@ -11840,10 +11839,10 @@
         <v>48</v>
       </c>
       <c r="E513" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F513" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="514" spans="1:6" x14ac:dyDescent="0.3">
@@ -11860,10 +11859,10 @@
         <v>44</v>
       </c>
       <c r="E514" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F514" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="515" spans="1:6" x14ac:dyDescent="0.3">
@@ -11880,10 +11879,10 @@
         <v>46</v>
       </c>
       <c r="E515" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F515" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="516" spans="1:6" x14ac:dyDescent="0.3">
@@ -11900,10 +11899,10 @@
         <v>48</v>
       </c>
       <c r="E516" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F516" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="517" spans="1:6" x14ac:dyDescent="0.3">
@@ -11920,10 +11919,10 @@
         <v>44</v>
       </c>
       <c r="E517" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F517" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="518" spans="1:6" x14ac:dyDescent="0.3">
@@ -11940,10 +11939,10 @@
         <v>46</v>
       </c>
       <c r="E518" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F518" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="519" spans="1:6" x14ac:dyDescent="0.3">
@@ -11960,10 +11959,10 @@
         <v>48</v>
       </c>
       <c r="E519" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F519" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="520" spans="1:6" x14ac:dyDescent="0.3">
@@ -11980,10 +11979,10 @@
         <v>46</v>
       </c>
       <c r="E520" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F520" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="521" spans="1:6" x14ac:dyDescent="0.3">
@@ -12000,10 +11999,10 @@
         <v>48</v>
       </c>
       <c r="E521" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F521" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="522" spans="1:6" x14ac:dyDescent="0.3">
@@ -12020,10 +12019,10 @@
         <v>46</v>
       </c>
       <c r="E522" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F522" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="523" spans="1:6" x14ac:dyDescent="0.3">
@@ -12040,10 +12039,10 @@
         <v>48</v>
       </c>
       <c r="E523" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F523" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="524" spans="1:6" x14ac:dyDescent="0.3">
@@ -12060,10 +12059,10 @@
         <v>46</v>
       </c>
       <c r="E524" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F524" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="525" spans="1:6" x14ac:dyDescent="0.3">
@@ -12080,10 +12079,10 @@
         <v>48</v>
       </c>
       <c r="E525" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F525" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="526" spans="1:6" x14ac:dyDescent="0.3">
@@ -12100,10 +12099,10 @@
         <v>46</v>
       </c>
       <c r="E526" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F526" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="527" spans="1:6" x14ac:dyDescent="0.3">
@@ -12120,10 +12119,10 @@
         <v>48</v>
       </c>
       <c r="E527" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F527" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="528" spans="1:6" x14ac:dyDescent="0.3">
@@ -12140,10 +12139,10 @@
         <v>46</v>
       </c>
       <c r="E528" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F528" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="529" spans="1:6" x14ac:dyDescent="0.3">
@@ -12160,10 +12159,10 @@
         <v>48</v>
       </c>
       <c r="E529" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F529" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="530" spans="1:6" x14ac:dyDescent="0.3">
@@ -12180,10 +12179,10 @@
         <v>48</v>
       </c>
       <c r="E530" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F530" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="531" spans="1:6" x14ac:dyDescent="0.3">
@@ -12200,10 +12199,10 @@
         <v>48</v>
       </c>
       <c r="E531" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F531" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="532" spans="1:6" x14ac:dyDescent="0.3">
@@ -12220,10 +12219,10 @@
         <v>48</v>
       </c>
       <c r="E532" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F532" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="533" spans="1:6" x14ac:dyDescent="0.3">
@@ -12240,10 +12239,10 @@
         <v>48</v>
       </c>
       <c r="E533" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F533" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="534" spans="1:6" x14ac:dyDescent="0.3">
@@ -12260,10 +12259,10 @@
         <v>48</v>
       </c>
       <c r="E534" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F534" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="535" spans="1:6" x14ac:dyDescent="0.3">
@@ -12280,10 +12279,10 @@
         <v>48</v>
       </c>
       <c r="E535" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F535" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="536" spans="1:6" x14ac:dyDescent="0.3">
@@ -12300,10 +12299,10 @@
         <v>48</v>
       </c>
       <c r="E536" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F536" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/BossBattle.xlsx
+++ b/Excel/BossBattle.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72B485C2-F041-4296-AC7A-A3A079342AEA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39AF7714-C41F-484D-8044-D8F296F4A938}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{A6866CF1-6843-4840-93D5-06F7C057B491}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{A6866CF1-6843-4840-93D5-06F7C057B491}"/>
   </bookViews>
   <sheets>
     <sheet name="BossBattleTable" sheetId="2" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1082" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1082" uniqueCount="30">
   <si>
     <t>stage|Int</t>
   </si>
@@ -65,6 +65,9 @@
     <t>firstDropId|String</t>
   </si>
   <si>
+    <t>bf1010</t>
+  </si>
+  <si>
     <t>b5999</t>
   </si>
   <si>
@@ -75,6 +78,51 @@
   </si>
   <si>
     <t>bf1000</t>
+  </si>
+  <si>
+    <t>bf0001</t>
+  </si>
+  <si>
+    <t>b5999low</t>
+  </si>
+  <si>
+    <t>bf0010</t>
+  </si>
+  <si>
+    <t>bf0100</t>
+  </si>
+  <si>
+    <t>b5999mid</t>
+  </si>
+  <si>
+    <t>bf0110</t>
+  </si>
+  <si>
+    <t>bf0200</t>
+  </si>
+  <si>
+    <t>bf0210</t>
+  </si>
+  <si>
+    <t>bf1020</t>
+  </si>
+  <si>
+    <t>bf1100</t>
+  </si>
+  <si>
+    <t>bf1200</t>
+  </si>
+  <si>
+    <t>bf0300</t>
+  </si>
+  <si>
+    <t>bf2020</t>
+  </si>
+  <si>
+    <t>bf2100</t>
+  </si>
+  <si>
+    <t>bf2200</t>
   </si>
 </sst>
 </file>
@@ -1268,7 +1316,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A78C98E-8C7B-42F7-95E8-B31297094BB8}">
   <dimension ref="A1:C27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -1581,7 +1629,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D73C3706-EA31-4372-B626-A76904A84A7F}">
   <dimension ref="A1:F536"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -1602,7 +1650,7 @@
         <v>9</v>
       </c>
       <c r="F1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
@@ -1619,10 +1667,10 @@
         <v>21</v>
       </c>
       <c r="E2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -1639,10 +1687,10 @@
         <v>23</v>
       </c>
       <c r="E3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F3" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -1653,16 +1701,16 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D4">
         <v>25</v>
       </c>
       <c r="E4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F4" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -1673,16 +1721,16 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D5">
         <v>27</v>
       </c>
       <c r="E5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F5" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -1699,10 +1747,10 @@
         <v>29</v>
       </c>
       <c r="E6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F6" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -1713,16 +1761,16 @@
         <v>6</v>
       </c>
       <c r="C7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D7">
         <v>32</v>
       </c>
       <c r="E7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F7" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -1733,16 +1781,16 @@
         <v>7</v>
       </c>
       <c r="C8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D8">
         <v>34</v>
       </c>
       <c r="E8" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F8" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
@@ -1759,10 +1807,10 @@
         <v>36</v>
       </c>
       <c r="E9" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="F9" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
@@ -1779,10 +1827,10 @@
         <v>38</v>
       </c>
       <c r="E10" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="F10" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
@@ -1799,10 +1847,10 @@
         <v>40</v>
       </c>
       <c r="E11" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="F11" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
@@ -1819,10 +1867,10 @@
         <v>42</v>
       </c>
       <c r="E12" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="F12" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
@@ -1839,10 +1887,10 @@
         <v>44</v>
       </c>
       <c r="E13" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="F13" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
@@ -1859,10 +1907,10 @@
         <v>46</v>
       </c>
       <c r="E14" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="F14" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
@@ -1879,10 +1927,10 @@
         <v>48</v>
       </c>
       <c r="E15" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="F15" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
@@ -1899,10 +1947,10 @@
         <v>21</v>
       </c>
       <c r="E16" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F16" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
@@ -1919,10 +1967,10 @@
         <v>23</v>
       </c>
       <c r="E17" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F17" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
@@ -1933,16 +1981,16 @@
         <v>3</v>
       </c>
       <c r="C18">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D18">
         <v>25</v>
       </c>
       <c r="E18" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F18" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
@@ -1953,16 +2001,16 @@
         <v>4</v>
       </c>
       <c r="C19">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D19">
         <v>27</v>
       </c>
       <c r="E19" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F19" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
@@ -1979,10 +2027,10 @@
         <v>29</v>
       </c>
       <c r="E20" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F20" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
@@ -1993,16 +2041,16 @@
         <v>6</v>
       </c>
       <c r="C21">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D21">
         <v>32</v>
       </c>
       <c r="E21" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F21" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
@@ -2013,16 +2061,16 @@
         <v>7</v>
       </c>
       <c r="C22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D22">
         <v>34</v>
       </c>
       <c r="E22" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F22" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
@@ -2039,10 +2087,10 @@
         <v>36</v>
       </c>
       <c r="E23" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="F23" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
@@ -2059,10 +2107,10 @@
         <v>38</v>
       </c>
       <c r="E24" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="F24" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
@@ -2079,10 +2127,10 @@
         <v>40</v>
       </c>
       <c r="E25" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="F25" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
@@ -2099,10 +2147,10 @@
         <v>42</v>
       </c>
       <c r="E26" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="F26" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
@@ -2119,10 +2167,10 @@
         <v>44</v>
       </c>
       <c r="E27" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="F27" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
@@ -2139,10 +2187,10 @@
         <v>46</v>
       </c>
       <c r="E28" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="F28" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
@@ -2159,10 +2207,10 @@
         <v>48</v>
       </c>
       <c r="E29" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="F29" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
@@ -2179,10 +2227,10 @@
         <v>21</v>
       </c>
       <c r="E30" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F30" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
@@ -2199,10 +2247,10 @@
         <v>23</v>
       </c>
       <c r="E31" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="F31" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
@@ -2213,16 +2261,16 @@
         <v>3</v>
       </c>
       <c r="C32">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D32">
         <v>25</v>
       </c>
       <c r="E32" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F32" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
@@ -2233,16 +2281,16 @@
         <v>4</v>
       </c>
       <c r="C33">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D33">
         <v>27</v>
       </c>
       <c r="E33" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="F33" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
@@ -2259,10 +2307,10 @@
         <v>29</v>
       </c>
       <c r="E34" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="F34" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
@@ -2273,16 +2321,16 @@
         <v>6</v>
       </c>
       <c r="C35">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D35">
         <v>32</v>
       </c>
       <c r="E35" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="F35" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
@@ -2293,16 +2341,16 @@
         <v>7</v>
       </c>
       <c r="C36">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D36">
         <v>34</v>
       </c>
       <c r="E36" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F36" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
@@ -2319,10 +2367,10 @@
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F37" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
@@ -2339,10 +2387,10 @@
         <v>38</v>
       </c>
       <c r="E38" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F38" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
@@ -2359,10 +2407,10 @@
         <v>40</v>
       </c>
       <c r="E39" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="F39" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
@@ -2379,10 +2427,10 @@
         <v>42</v>
       </c>
       <c r="E40" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="F40" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
@@ -2399,10 +2447,10 @@
         <v>44</v>
       </c>
       <c r="E41" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="F41" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
@@ -2419,10 +2467,10 @@
         <v>46</v>
       </c>
       <c r="E42" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="F42" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
@@ -2439,10 +2487,10 @@
         <v>48</v>
       </c>
       <c r="E43" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="F43" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
@@ -2459,10 +2507,10 @@
         <v>21</v>
       </c>
       <c r="E44" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
@@ -2479,10 +2527,10 @@
         <v>23</v>
       </c>
       <c r="E45" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="F45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
@@ -2493,16 +2541,16 @@
         <v>3</v>
       </c>
       <c r="C46">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D46">
         <v>25</v>
       </c>
       <c r="E46" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
@@ -2513,16 +2561,16 @@
         <v>4</v>
       </c>
       <c r="C47">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D47">
         <v>27</v>
       </c>
       <c r="E47" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="F47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
@@ -2539,10 +2587,10 @@
         <v>29</v>
       </c>
       <c r="E48" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="F48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
@@ -2553,16 +2601,16 @@
         <v>6</v>
       </c>
       <c r="C49">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D49">
         <v>32</v>
       </c>
       <c r="E49" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="F49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
@@ -2573,16 +2621,16 @@
         <v>7</v>
       </c>
       <c r="C50">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D50">
         <v>34</v>
       </c>
       <c r="E50" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
@@ -2599,10 +2647,10 @@
         <v>36</v>
       </c>
       <c r="E51" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
@@ -2619,10 +2667,10 @@
         <v>38</v>
       </c>
       <c r="E52" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
@@ -2639,10 +2687,10 @@
         <v>40</v>
       </c>
       <c r="E53" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="F53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
@@ -2659,10 +2707,10 @@
         <v>42</v>
       </c>
       <c r="E54" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="F54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
@@ -2679,10 +2727,10 @@
         <v>44</v>
       </c>
       <c r="E55" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="F55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
@@ -2699,10 +2747,10 @@
         <v>46</v>
       </c>
       <c r="E56" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="F56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.3">
@@ -2719,10 +2767,10 @@
         <v>48</v>
       </c>
       <c r="E57" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="F57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
@@ -2739,10 +2787,10 @@
         <v>21</v>
       </c>
       <c r="E58" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="F58" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
@@ -2759,10 +2807,10 @@
         <v>23</v>
       </c>
       <c r="E59" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F59" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
@@ -2773,16 +2821,16 @@
         <v>3</v>
       </c>
       <c r="C60">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D60">
         <v>25</v>
       </c>
       <c r="E60" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="F60" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
@@ -2793,16 +2841,16 @@
         <v>4</v>
       </c>
       <c r="C61">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D61">
         <v>27</v>
       </c>
       <c r="E61" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="F61" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.3">
@@ -2819,10 +2867,10 @@
         <v>29</v>
       </c>
       <c r="E62" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F62" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
@@ -2833,16 +2881,16 @@
         <v>6</v>
       </c>
       <c r="C63">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D63">
         <v>32</v>
       </c>
       <c r="E63" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F63" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
@@ -2853,16 +2901,16 @@
         <v>7</v>
       </c>
       <c r="C64">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D64">
         <v>34</v>
       </c>
       <c r="E64" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F64" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.3">
@@ -2879,10 +2927,10 @@
         <v>36</v>
       </c>
       <c r="E65" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="F65" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.3">
@@ -2899,10 +2947,10 @@
         <v>38</v>
       </c>
       <c r="E66" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="F66" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.3">
@@ -2919,10 +2967,10 @@
         <v>40</v>
       </c>
       <c r="E67" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="F67" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.3">
@@ -2939,10 +2987,10 @@
         <v>42</v>
       </c>
       <c r="E68" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="F68" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.3">
@@ -2959,10 +3007,10 @@
         <v>44</v>
       </c>
       <c r="E69" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="F69" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.3">
@@ -2979,10 +3027,10 @@
         <v>46</v>
       </c>
       <c r="E70" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="F70" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.3">
@@ -2999,10 +3047,10 @@
         <v>48</v>
       </c>
       <c r="E71" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="F71" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.3">
@@ -3019,10 +3067,10 @@
         <v>23</v>
       </c>
       <c r="E72" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="F72" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.3">
@@ -3033,16 +3081,16 @@
         <v>3</v>
       </c>
       <c r="C73">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D73">
         <v>25</v>
       </c>
       <c r="E73" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F73" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.3">
@@ -3053,16 +3101,16 @@
         <v>4</v>
       </c>
       <c r="C74">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D74">
         <v>27</v>
       </c>
       <c r="E74" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="F74" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.3">
@@ -3079,10 +3127,10 @@
         <v>29</v>
       </c>
       <c r="E75" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="F75" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.3">
@@ -3093,16 +3141,16 @@
         <v>6</v>
       </c>
       <c r="C76">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D76">
         <v>32</v>
       </c>
       <c r="E76" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="F76" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.3">
@@ -3113,16 +3161,16 @@
         <v>7</v>
       </c>
       <c r="C77">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D77">
         <v>34</v>
       </c>
       <c r="E77" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F77" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.3">
@@ -3139,10 +3187,10 @@
         <v>36</v>
       </c>
       <c r="E78" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F78" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.3">
@@ -3159,10 +3207,10 @@
         <v>38</v>
       </c>
       <c r="E79" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F79" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.3">
@@ -3179,10 +3227,10 @@
         <v>40</v>
       </c>
       <c r="E80" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="F80" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.3">
@@ -3199,10 +3247,10 @@
         <v>42</v>
       </c>
       <c r="E81" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="F81" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.3">
@@ -3219,10 +3267,10 @@
         <v>44</v>
       </c>
       <c r="E82" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="F82" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.3">
@@ -3239,10 +3287,10 @@
         <v>46</v>
       </c>
       <c r="E83" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="F83" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.3">
@@ -3259,10 +3307,10 @@
         <v>48</v>
       </c>
       <c r="E84" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="F84" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.3">
@@ -3279,10 +3327,10 @@
         <v>23</v>
       </c>
       <c r="E85" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="F85" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.3">
@@ -3293,16 +3341,16 @@
         <v>3</v>
       </c>
       <c r="C86">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D86">
         <v>25</v>
       </c>
       <c r="E86" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F86" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.3">
@@ -3313,16 +3361,16 @@
         <v>4</v>
       </c>
       <c r="C87">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D87">
         <v>27</v>
       </c>
       <c r="E87" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="F87" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.3">
@@ -3339,10 +3387,10 @@
         <v>29</v>
       </c>
       <c r="E88" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="F88" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.3">
@@ -3353,16 +3401,16 @@
         <v>6</v>
       </c>
       <c r="C89">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D89">
         <v>32</v>
       </c>
       <c r="E89" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="F89" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.3">
@@ -3373,16 +3421,16 @@
         <v>7</v>
       </c>
       <c r="C90">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D90">
         <v>34</v>
       </c>
       <c r="E90" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F90" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.3">
@@ -3399,10 +3447,10 @@
         <v>36</v>
       </c>
       <c r="E91" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F91" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.3">
@@ -3419,10 +3467,10 @@
         <v>38</v>
       </c>
       <c r="E92" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F92" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.3">
@@ -3439,10 +3487,10 @@
         <v>40</v>
       </c>
       <c r="E93" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="F93" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.3">
@@ -3459,10 +3507,10 @@
         <v>42</v>
       </c>
       <c r="E94" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="F94" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.3">
@@ -3479,10 +3527,10 @@
         <v>44</v>
       </c>
       <c r="E95" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="F95" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.3">
@@ -3499,10 +3547,10 @@
         <v>46</v>
       </c>
       <c r="E96" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="F96" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.3">
@@ -3519,10 +3567,10 @@
         <v>48</v>
       </c>
       <c r="E97" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="F97" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.3">
@@ -3539,10 +3587,10 @@
         <v>23</v>
       </c>
       <c r="E98" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F98" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.3">
@@ -3553,16 +3601,16 @@
         <v>3</v>
       </c>
       <c r="C99">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D99">
         <v>25</v>
       </c>
       <c r="E99" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F99" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.3">
@@ -3573,16 +3621,16 @@
         <v>4</v>
       </c>
       <c r="C100">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D100">
         <v>27</v>
       </c>
       <c r="E100" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F100" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.3">
@@ -3599,10 +3647,10 @@
         <v>29</v>
       </c>
       <c r="E101" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F101" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.3">
@@ -3613,16 +3661,16 @@
         <v>6</v>
       </c>
       <c r="C102">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D102">
         <v>32</v>
       </c>
       <c r="E102" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F102" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.3">
@@ -3633,16 +3681,16 @@
         <v>7</v>
       </c>
       <c r="C103">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D103">
         <v>34</v>
       </c>
       <c r="E103" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F103" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.3">
@@ -3659,10 +3707,10 @@
         <v>36</v>
       </c>
       <c r="E104" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F104" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.3">
@@ -3679,10 +3727,10 @@
         <v>38</v>
       </c>
       <c r="E105" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="F105" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.3">
@@ -3699,10 +3747,10 @@
         <v>40</v>
       </c>
       <c r="E106" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="F106" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.3">
@@ -3719,10 +3767,10 @@
         <v>42</v>
       </c>
       <c r="E107" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="F107" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.3">
@@ -3739,10 +3787,10 @@
         <v>44</v>
       </c>
       <c r="E108" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="F108" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.3">
@@ -3759,10 +3807,10 @@
         <v>46</v>
       </c>
       <c r="E109" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="F109" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.3">
@@ -3779,10 +3827,10 @@
         <v>48</v>
       </c>
       <c r="E110" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="F110" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.3">
@@ -3799,10 +3847,10 @@
         <v>23</v>
       </c>
       <c r="E111" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="F111" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.3">
@@ -3813,16 +3861,16 @@
         <v>3</v>
       </c>
       <c r="C112">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D112">
         <v>25</v>
       </c>
       <c r="E112" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F112" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.3">
@@ -3833,16 +3881,16 @@
         <v>4</v>
       </c>
       <c r="C113">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D113">
         <v>27</v>
       </c>
       <c r="E113" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="F113" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.3">
@@ -3859,10 +3907,10 @@
         <v>29</v>
       </c>
       <c r="E114" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="F114" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.3">
@@ -3873,16 +3921,16 @@
         <v>6</v>
       </c>
       <c r="C115">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D115">
         <v>32</v>
       </c>
       <c r="E115" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="F115" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.3">
@@ -3893,16 +3941,16 @@
         <v>7</v>
       </c>
       <c r="C116">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D116">
         <v>34</v>
       </c>
       <c r="E116" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F116" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.3">
@@ -3919,10 +3967,10 @@
         <v>36</v>
       </c>
       <c r="E117" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F117" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.3">
@@ -3939,10 +3987,10 @@
         <v>38</v>
       </c>
       <c r="E118" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F118" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.3">
@@ -3959,10 +4007,10 @@
         <v>40</v>
       </c>
       <c r="E119" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="F119" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.3">
@@ -3979,10 +4027,10 @@
         <v>42</v>
       </c>
       <c r="E120" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="F120" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.3">
@@ -3999,10 +4047,10 @@
         <v>44</v>
       </c>
       <c r="E121" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="F121" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.3">
@@ -4019,10 +4067,10 @@
         <v>46</v>
       </c>
       <c r="E122" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="F122" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.3">
@@ -4039,10 +4087,10 @@
         <v>48</v>
       </c>
       <c r="E123" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="F123" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.3">
@@ -4059,10 +4107,10 @@
         <v>23</v>
       </c>
       <c r="E124" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F124" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.3">
@@ -4073,16 +4121,16 @@
         <v>3</v>
       </c>
       <c r="C125">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D125">
         <v>25</v>
       </c>
       <c r="E125" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="F125" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.3">
@@ -4093,16 +4141,16 @@
         <v>4</v>
       </c>
       <c r="C126">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D126">
         <v>27</v>
       </c>
       <c r="E126" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="F126" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.3">
@@ -4119,10 +4167,10 @@
         <v>29</v>
       </c>
       <c r="E127" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F127" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.3">
@@ -4133,16 +4181,16 @@
         <v>6</v>
       </c>
       <c r="C128">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D128">
         <v>32</v>
       </c>
       <c r="E128" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F128" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.3">
@@ -4153,16 +4201,16 @@
         <v>7</v>
       </c>
       <c r="C129">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D129">
         <v>34</v>
       </c>
       <c r="E129" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F129" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.3">
@@ -4179,10 +4227,10 @@
         <v>36</v>
       </c>
       <c r="E130" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="F130" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.3">
@@ -4199,10 +4247,10 @@
         <v>38</v>
       </c>
       <c r="E131" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="F131" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.3">
@@ -4219,10 +4267,10 @@
         <v>40</v>
       </c>
       <c r="E132" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="F132" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.3">
@@ -4239,10 +4287,10 @@
         <v>42</v>
       </c>
       <c r="E133" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="F133" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.3">
@@ -4259,10 +4307,10 @@
         <v>44</v>
       </c>
       <c r="E134" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="F134" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.3">
@@ -4279,10 +4327,10 @@
         <v>46</v>
       </c>
       <c r="E135" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="F135" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.3">
@@ -4299,10 +4347,10 @@
         <v>48</v>
       </c>
       <c r="E136" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="F136" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.3">
@@ -4313,16 +4361,16 @@
         <v>3</v>
       </c>
       <c r="C137">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D137">
         <v>25</v>
       </c>
       <c r="E137" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F137" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.3">
@@ -4333,16 +4381,16 @@
         <v>4</v>
       </c>
       <c r="C138">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D138">
         <v>27</v>
       </c>
       <c r="E138" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="F138" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.3">
@@ -4359,10 +4407,10 @@
         <v>29</v>
       </c>
       <c r="E139" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="F139" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.3">
@@ -4373,16 +4421,16 @@
         <v>6</v>
       </c>
       <c r="C140">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D140">
         <v>32</v>
       </c>
       <c r="E140" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="F140" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.3">
@@ -4393,16 +4441,16 @@
         <v>7</v>
       </c>
       <c r="C141">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D141">
         <v>34</v>
       </c>
       <c r="E141" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F141" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.3">
@@ -4419,10 +4467,10 @@
         <v>36</v>
       </c>
       <c r="E142" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F142" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.3">
@@ -4439,10 +4487,10 @@
         <v>38</v>
       </c>
       <c r="E143" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F143" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.3">
@@ -4459,10 +4507,10 @@
         <v>40</v>
       </c>
       <c r="E144" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="F144" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.3">
@@ -4479,10 +4527,10 @@
         <v>42</v>
       </c>
       <c r="E145" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="F145" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.3">
@@ -4499,10 +4547,10 @@
         <v>44</v>
       </c>
       <c r="E146" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="F146" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.3">
@@ -4519,10 +4567,10 @@
         <v>46</v>
       </c>
       <c r="E147" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="F147" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.3">
@@ -4539,10 +4587,10 @@
         <v>48</v>
       </c>
       <c r="E148" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="F148" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.3">
@@ -4553,16 +4601,16 @@
         <v>3</v>
       </c>
       <c r="C149">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D149">
         <v>25</v>
       </c>
       <c r="E149" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F149" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.3">
@@ -4573,16 +4621,16 @@
         <v>4</v>
       </c>
       <c r="C150">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D150">
         <v>27</v>
       </c>
       <c r="E150" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="F150" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.3">
@@ -4599,10 +4647,10 @@
         <v>29</v>
       </c>
       <c r="E151" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="F151" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.3">
@@ -4613,16 +4661,16 @@
         <v>6</v>
       </c>
       <c r="C152">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D152">
         <v>32</v>
       </c>
       <c r="E152" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="F152" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.3">
@@ -4633,16 +4681,16 @@
         <v>7</v>
       </c>
       <c r="C153">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D153">
         <v>34</v>
       </c>
       <c r="E153" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F153" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.3">
@@ -4659,10 +4707,10 @@
         <v>36</v>
       </c>
       <c r="E154" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F154" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.3">
@@ -4679,10 +4727,10 @@
         <v>38</v>
       </c>
       <c r="E155" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F155" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.3">
@@ -4699,10 +4747,10 @@
         <v>40</v>
       </c>
       <c r="E156" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="F156" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.3">
@@ -4719,10 +4767,10 @@
         <v>42</v>
       </c>
       <c r="E157" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="F157" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.3">
@@ -4739,10 +4787,10 @@
         <v>44</v>
       </c>
       <c r="E158" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="F158" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.3">
@@ -4759,10 +4807,10 @@
         <v>46</v>
       </c>
       <c r="E159" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="F159" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.3">
@@ -4779,10 +4827,10 @@
         <v>48</v>
       </c>
       <c r="E160" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="F160" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.3">
@@ -4793,16 +4841,16 @@
         <v>3</v>
       </c>
       <c r="C161">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D161">
         <v>25</v>
       </c>
       <c r="E161" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F161" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.3">
@@ -4813,16 +4861,16 @@
         <v>4</v>
       </c>
       <c r="C162">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D162">
         <v>27</v>
       </c>
       <c r="E162" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="F162" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.3">
@@ -4839,10 +4887,10 @@
         <v>29</v>
       </c>
       <c r="E163" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="F163" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.3">
@@ -4853,16 +4901,16 @@
         <v>6</v>
       </c>
       <c r="C164">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D164">
         <v>32</v>
       </c>
       <c r="E164" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="F164" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.3">
@@ -4873,16 +4921,16 @@
         <v>7</v>
       </c>
       <c r="C165">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D165">
         <v>34</v>
       </c>
       <c r="E165" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F165" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.3">
@@ -4899,10 +4947,10 @@
         <v>36</v>
       </c>
       <c r="E166" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F166" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.3">
@@ -4919,10 +4967,10 @@
         <v>38</v>
       </c>
       <c r="E167" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F167" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.3">
@@ -4939,10 +4987,10 @@
         <v>40</v>
       </c>
       <c r="E168" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="F168" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.3">
@@ -4959,10 +5007,10 @@
         <v>42</v>
       </c>
       <c r="E169" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="F169" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.3">
@@ -4979,10 +5027,10 @@
         <v>44</v>
       </c>
       <c r="E170" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="F170" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.3">
@@ -4999,10 +5047,10 @@
         <v>46</v>
       </c>
       <c r="E171" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="F171" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.3">
@@ -5019,10 +5067,10 @@
         <v>48</v>
       </c>
       <c r="E172" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="F172" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.3">
@@ -5033,16 +5081,16 @@
         <v>3</v>
       </c>
       <c r="C173">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D173">
         <v>25</v>
       </c>
       <c r="E173" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F173" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.3">
@@ -5053,16 +5101,16 @@
         <v>4</v>
       </c>
       <c r="C174">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D174">
         <v>27</v>
       </c>
       <c r="E174" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="F174" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.3">
@@ -5079,10 +5127,10 @@
         <v>29</v>
       </c>
       <c r="E175" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="F175" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.3">
@@ -5093,16 +5141,16 @@
         <v>6</v>
       </c>
       <c r="C176">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D176">
         <v>32</v>
       </c>
       <c r="E176" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="F176" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.3">
@@ -5113,16 +5161,16 @@
         <v>7</v>
       </c>
       <c r="C177">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D177">
         <v>34</v>
       </c>
       <c r="E177" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F177" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.3">
@@ -5139,10 +5187,10 @@
         <v>36</v>
       </c>
       <c r="E178" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F178" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.3">
@@ -5159,10 +5207,10 @@
         <v>38</v>
       </c>
       <c r="E179" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F179" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.3">
@@ -5179,10 +5227,10 @@
         <v>40</v>
       </c>
       <c r="E180" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="F180" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.3">
@@ -5199,10 +5247,10 @@
         <v>42</v>
       </c>
       <c r="E181" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="F181" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.3">
@@ -5219,10 +5267,10 @@
         <v>44</v>
       </c>
       <c r="E182" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="F182" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.3">
@@ -5239,10 +5287,10 @@
         <v>46</v>
       </c>
       <c r="E183" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="F183" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.3">
@@ -5259,10 +5307,10 @@
         <v>48</v>
       </c>
       <c r="E184" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="F184" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.3">
@@ -5273,16 +5321,16 @@
         <v>3</v>
       </c>
       <c r="C185">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D185">
         <v>25</v>
       </c>
       <c r="E185" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="F185" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.3">
@@ -5293,16 +5341,16 @@
         <v>4</v>
       </c>
       <c r="C186">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D186">
         <v>27</v>
       </c>
       <c r="E186" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="F186" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.3">
@@ -5319,10 +5367,10 @@
         <v>29</v>
       </c>
       <c r="E187" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F187" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.3">
@@ -5333,16 +5381,16 @@
         <v>6</v>
       </c>
       <c r="C188">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D188">
         <v>32</v>
       </c>
       <c r="E188" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F188" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.3">
@@ -5353,16 +5401,16 @@
         <v>7</v>
       </c>
       <c r="C189">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D189">
         <v>34</v>
       </c>
       <c r="E189" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F189" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.3">
@@ -5379,10 +5427,10 @@
         <v>36</v>
       </c>
       <c r="E190" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="F190" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.3">
@@ -5399,10 +5447,10 @@
         <v>38</v>
       </c>
       <c r="E191" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="F191" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.3">
@@ -5419,10 +5467,10 @@
         <v>40</v>
       </c>
       <c r="E192" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="F192" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.3">
@@ -5439,10 +5487,10 @@
         <v>42</v>
       </c>
       <c r="E193" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="F193" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.3">
@@ -5459,10 +5507,10 @@
         <v>44</v>
       </c>
       <c r="E194" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="F194" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.3">
@@ -5479,10 +5527,10 @@
         <v>46</v>
       </c>
       <c r="E195" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="F195" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.3">
@@ -5499,10 +5547,10 @@
         <v>48</v>
       </c>
       <c r="E196" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="F196" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.3">
@@ -5513,16 +5561,16 @@
         <v>4</v>
       </c>
       <c r="C197">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D197">
         <v>27</v>
       </c>
       <c r="E197" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="F197" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.3">
@@ -5539,10 +5587,10 @@
         <v>29</v>
       </c>
       <c r="E198" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="F198" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.3">
@@ -5553,16 +5601,16 @@
         <v>6</v>
       </c>
       <c r="C199">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D199">
         <v>32</v>
       </c>
       <c r="E199" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="F199" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.3">
@@ -5573,16 +5621,16 @@
         <v>7</v>
       </c>
       <c r="C200">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D200">
         <v>34</v>
       </c>
       <c r="E200" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F200" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.3">
@@ -5599,10 +5647,10 @@
         <v>36</v>
       </c>
       <c r="E201" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F201" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.3">
@@ -5619,10 +5667,10 @@
         <v>38</v>
       </c>
       <c r="E202" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F202" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.3">
@@ -5639,10 +5687,10 @@
         <v>40</v>
       </c>
       <c r="E203" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="F203" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.3">
@@ -5659,10 +5707,10 @@
         <v>42</v>
       </c>
       <c r="E204" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="F204" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.3">
@@ -5679,10 +5727,10 @@
         <v>44</v>
       </c>
       <c r="E205" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="F205" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.3">
@@ -5699,10 +5747,10 @@
         <v>46</v>
       </c>
       <c r="E206" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="F206" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.3">
@@ -5719,10 +5767,10 @@
         <v>48</v>
       </c>
       <c r="E207" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="F207" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.3">
@@ -5733,16 +5781,16 @@
         <v>4</v>
       </c>
       <c r="C208">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D208">
         <v>27</v>
       </c>
       <c r="E208" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="F208" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.3">
@@ -5759,10 +5807,10 @@
         <v>29</v>
       </c>
       <c r="E209" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="F209" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.3">
@@ -5773,16 +5821,16 @@
         <v>6</v>
       </c>
       <c r="C210">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D210">
         <v>32</v>
       </c>
       <c r="E210" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="F210" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.3">
@@ -5793,16 +5841,16 @@
         <v>7</v>
       </c>
       <c r="C211">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D211">
         <v>34</v>
       </c>
       <c r="E211" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F211" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.3">
@@ -5819,10 +5867,10 @@
         <v>36</v>
       </c>
       <c r="E212" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F212" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.3">
@@ -5839,10 +5887,10 @@
         <v>38</v>
       </c>
       <c r="E213" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F213" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.3">
@@ -5859,10 +5907,10 @@
         <v>40</v>
       </c>
       <c r="E214" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="F214" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.3">
@@ -5879,10 +5927,10 @@
         <v>42</v>
       </c>
       <c r="E215" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="F215" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.3">
@@ -5899,10 +5947,10 @@
         <v>44</v>
       </c>
       <c r="E216" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="F216" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.3">
@@ -5919,10 +5967,10 @@
         <v>46</v>
       </c>
       <c r="E217" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="F217" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.3">
@@ -5939,10 +5987,10 @@
         <v>48</v>
       </c>
       <c r="E218" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="F218" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.3">
@@ -5953,16 +6001,16 @@
         <v>4</v>
       </c>
       <c r="C219">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D219">
         <v>27</v>
       </c>
       <c r="E219" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="F219" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.3">
@@ -5979,10 +6027,10 @@
         <v>29</v>
       </c>
       <c r="E220" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="F220" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.3">
@@ -5993,16 +6041,16 @@
         <v>6</v>
       </c>
       <c r="C221">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D221">
         <v>32</v>
       </c>
       <c r="E221" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="F221" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.3">
@@ -6013,16 +6061,16 @@
         <v>7</v>
       </c>
       <c r="C222">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D222">
         <v>34</v>
       </c>
       <c r="E222" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F222" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.3">
@@ -6039,10 +6087,10 @@
         <v>36</v>
       </c>
       <c r="E223" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F223" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.3">
@@ -6059,10 +6107,10 @@
         <v>38</v>
       </c>
       <c r="E224" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F224" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.3">
@@ -6079,10 +6127,10 @@
         <v>40</v>
       </c>
       <c r="E225" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="F225" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.3">
@@ -6099,10 +6147,10 @@
         <v>42</v>
       </c>
       <c r="E226" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="F226" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.3">
@@ -6119,10 +6167,10 @@
         <v>44</v>
       </c>
       <c r="E227" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="F227" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.3">
@@ -6139,10 +6187,10 @@
         <v>46</v>
       </c>
       <c r="E228" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="F228" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.3">
@@ -6159,10 +6207,10 @@
         <v>48</v>
       </c>
       <c r="E229" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="F229" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="230" spans="1:6" x14ac:dyDescent="0.3">
@@ -6173,16 +6221,16 @@
         <v>4</v>
       </c>
       <c r="C230">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D230">
         <v>27</v>
       </c>
       <c r="E230" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="F230" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="231" spans="1:6" x14ac:dyDescent="0.3">
@@ -6199,10 +6247,10 @@
         <v>29</v>
       </c>
       <c r="E231" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="F231" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.3">
@@ -6213,16 +6261,16 @@
         <v>6</v>
       </c>
       <c r="C232">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D232">
         <v>32</v>
       </c>
       <c r="E232" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="F232" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="233" spans="1:6" x14ac:dyDescent="0.3">
@@ -6233,16 +6281,16 @@
         <v>7</v>
       </c>
       <c r="C233">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D233">
         <v>34</v>
       </c>
       <c r="E233" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F233" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="234" spans="1:6" x14ac:dyDescent="0.3">
@@ -6259,10 +6307,10 @@
         <v>36</v>
       </c>
       <c r="E234" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F234" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="235" spans="1:6" x14ac:dyDescent="0.3">
@@ -6279,10 +6327,10 @@
         <v>38</v>
       </c>
       <c r="E235" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F235" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="236" spans="1:6" x14ac:dyDescent="0.3">
@@ -6299,10 +6347,10 @@
         <v>40</v>
       </c>
       <c r="E236" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="F236" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="237" spans="1:6" x14ac:dyDescent="0.3">
@@ -6319,10 +6367,10 @@
         <v>42</v>
       </c>
       <c r="E237" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="F237" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="238" spans="1:6" x14ac:dyDescent="0.3">
@@ -6339,10 +6387,10 @@
         <v>44</v>
       </c>
       <c r="E238" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="F238" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="239" spans="1:6" x14ac:dyDescent="0.3">
@@ -6359,10 +6407,10 @@
         <v>46</v>
       </c>
       <c r="E239" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="F239" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="240" spans="1:6" x14ac:dyDescent="0.3">
@@ -6379,10 +6427,10 @@
         <v>48</v>
       </c>
       <c r="E240" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="F240" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="241" spans="1:6" x14ac:dyDescent="0.3">
@@ -6393,16 +6441,16 @@
         <v>4</v>
       </c>
       <c r="C241">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D241">
         <v>27</v>
       </c>
       <c r="E241" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="F241" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="242" spans="1:6" x14ac:dyDescent="0.3">
@@ -6419,10 +6467,10 @@
         <v>29</v>
       </c>
       <c r="E242" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F242" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="243" spans="1:6" x14ac:dyDescent="0.3">
@@ -6433,16 +6481,16 @@
         <v>6</v>
       </c>
       <c r="C243">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D243">
         <v>32</v>
       </c>
       <c r="E243" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F243" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="244" spans="1:6" x14ac:dyDescent="0.3">
@@ -6453,16 +6501,16 @@
         <v>7</v>
       </c>
       <c r="C244">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D244">
         <v>34</v>
       </c>
       <c r="E244" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F244" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="245" spans="1:6" x14ac:dyDescent="0.3">
@@ -6479,10 +6527,10 @@
         <v>36</v>
       </c>
       <c r="E245" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="F245" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="246" spans="1:6" x14ac:dyDescent="0.3">
@@ -6499,10 +6547,10 @@
         <v>38</v>
       </c>
       <c r="E246" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="F246" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="247" spans="1:6" x14ac:dyDescent="0.3">
@@ -6519,10 +6567,10 @@
         <v>40</v>
       </c>
       <c r="E247" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="F247" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="248" spans="1:6" x14ac:dyDescent="0.3">
@@ -6539,10 +6587,10 @@
         <v>42</v>
       </c>
       <c r="E248" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="F248" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="249" spans="1:6" x14ac:dyDescent="0.3">
@@ -6559,10 +6607,10 @@
         <v>44</v>
       </c>
       <c r="E249" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="F249" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="250" spans="1:6" x14ac:dyDescent="0.3">
@@ -6579,10 +6627,10 @@
         <v>46</v>
       </c>
       <c r="E250" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="F250" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="251" spans="1:6" x14ac:dyDescent="0.3">
@@ -6599,10 +6647,10 @@
         <v>48</v>
       </c>
       <c r="E251" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="F251" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="252" spans="1:6" x14ac:dyDescent="0.3">
@@ -6619,10 +6667,10 @@
         <v>29</v>
       </c>
       <c r="E252" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="F252" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="253" spans="1:6" x14ac:dyDescent="0.3">
@@ -6633,16 +6681,16 @@
         <v>6</v>
       </c>
       <c r="C253">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D253">
         <v>32</v>
       </c>
       <c r="E253" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="F253" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="254" spans="1:6" x14ac:dyDescent="0.3">
@@ -6653,16 +6701,16 @@
         <v>7</v>
       </c>
       <c r="C254">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D254">
         <v>34</v>
       </c>
       <c r="E254" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F254" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="255" spans="1:6" x14ac:dyDescent="0.3">
@@ -6679,10 +6727,10 @@
         <v>36</v>
       </c>
       <c r="E255" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F255" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="256" spans="1:6" x14ac:dyDescent="0.3">
@@ -6699,10 +6747,10 @@
         <v>38</v>
       </c>
       <c r="E256" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F256" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="257" spans="1:6" x14ac:dyDescent="0.3">
@@ -6719,10 +6767,10 @@
         <v>40</v>
       </c>
       <c r="E257" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="F257" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="258" spans="1:6" x14ac:dyDescent="0.3">
@@ -6739,10 +6787,10 @@
         <v>42</v>
       </c>
       <c r="E258" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="F258" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="259" spans="1:6" x14ac:dyDescent="0.3">
@@ -6759,10 +6807,10 @@
         <v>44</v>
       </c>
       <c r="E259" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="F259" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="260" spans="1:6" x14ac:dyDescent="0.3">
@@ -6779,10 +6827,10 @@
         <v>46</v>
       </c>
       <c r="E260" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="F260" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="261" spans="1:6" x14ac:dyDescent="0.3">
@@ -6799,10 +6847,10 @@
         <v>48</v>
       </c>
       <c r="E261" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="F261" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="262" spans="1:6" x14ac:dyDescent="0.3">
@@ -6819,10 +6867,10 @@
         <v>29</v>
       </c>
       <c r="E262" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="F262" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="263" spans="1:6" x14ac:dyDescent="0.3">
@@ -6833,16 +6881,16 @@
         <v>6</v>
       </c>
       <c r="C263">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D263">
         <v>32</v>
       </c>
       <c r="E263" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="F263" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="264" spans="1:6" x14ac:dyDescent="0.3">
@@ -6853,16 +6901,16 @@
         <v>7</v>
       </c>
       <c r="C264">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D264">
         <v>34</v>
       </c>
       <c r="E264" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F264" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="265" spans="1:6" x14ac:dyDescent="0.3">
@@ -6879,10 +6927,10 @@
         <v>36</v>
       </c>
       <c r="E265" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F265" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="266" spans="1:6" x14ac:dyDescent="0.3">
@@ -6899,10 +6947,10 @@
         <v>38</v>
       </c>
       <c r="E266" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F266" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="267" spans="1:6" x14ac:dyDescent="0.3">
@@ -6919,10 +6967,10 @@
         <v>40</v>
       </c>
       <c r="E267" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="F267" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="268" spans="1:6" x14ac:dyDescent="0.3">
@@ -6939,10 +6987,10 @@
         <v>42</v>
       </c>
       <c r="E268" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="F268" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="269" spans="1:6" x14ac:dyDescent="0.3">
@@ -6959,10 +7007,10 @@
         <v>44</v>
       </c>
       <c r="E269" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="F269" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="270" spans="1:6" x14ac:dyDescent="0.3">
@@ -6979,10 +7027,10 @@
         <v>46</v>
       </c>
       <c r="E270" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="F270" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="271" spans="1:6" x14ac:dyDescent="0.3">
@@ -6999,10 +7047,10 @@
         <v>48</v>
       </c>
       <c r="E271" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="F271" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="272" spans="1:6" x14ac:dyDescent="0.3">
@@ -7019,10 +7067,10 @@
         <v>29</v>
       </c>
       <c r="E272" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="F272" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="273" spans="1:6" x14ac:dyDescent="0.3">
@@ -7033,16 +7081,16 @@
         <v>6</v>
       </c>
       <c r="C273">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D273">
         <v>32</v>
       </c>
       <c r="E273" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="F273" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="274" spans="1:6" x14ac:dyDescent="0.3">
@@ -7053,16 +7101,16 @@
         <v>7</v>
       </c>
       <c r="C274">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D274">
         <v>34</v>
       </c>
       <c r="E274" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F274" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="275" spans="1:6" x14ac:dyDescent="0.3">
@@ -7079,10 +7127,10 @@
         <v>36</v>
       </c>
       <c r="E275" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F275" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="276" spans="1:6" x14ac:dyDescent="0.3">
@@ -7099,10 +7147,10 @@
         <v>38</v>
       </c>
       <c r="E276" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F276" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="277" spans="1:6" x14ac:dyDescent="0.3">
@@ -7119,10 +7167,10 @@
         <v>40</v>
       </c>
       <c r="E277" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="F277" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="278" spans="1:6" x14ac:dyDescent="0.3">
@@ -7139,10 +7187,10 @@
         <v>42</v>
       </c>
       <c r="E278" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="F278" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="279" spans="1:6" x14ac:dyDescent="0.3">
@@ -7159,10 +7207,10 @@
         <v>44</v>
       </c>
       <c r="E279" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="F279" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="280" spans="1:6" x14ac:dyDescent="0.3">
@@ -7179,10 +7227,10 @@
         <v>46</v>
       </c>
       <c r="E280" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="F280" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="281" spans="1:6" x14ac:dyDescent="0.3">
@@ -7199,10 +7247,10 @@
         <v>48</v>
       </c>
       <c r="E281" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="F281" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="282" spans="1:6" x14ac:dyDescent="0.3">
@@ -7219,10 +7267,10 @@
         <v>29</v>
       </c>
       <c r="E282" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="F282" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="283" spans="1:6" x14ac:dyDescent="0.3">
@@ -7233,16 +7281,16 @@
         <v>6</v>
       </c>
       <c r="C283">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D283">
         <v>32</v>
       </c>
       <c r="E283" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="F283" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="284" spans="1:6" x14ac:dyDescent="0.3">
@@ -7253,16 +7301,16 @@
         <v>7</v>
       </c>
       <c r="C284">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D284">
         <v>34</v>
       </c>
       <c r="E284" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F284" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="285" spans="1:6" x14ac:dyDescent="0.3">
@@ -7279,10 +7327,10 @@
         <v>36</v>
       </c>
       <c r="E285" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F285" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="286" spans="1:6" x14ac:dyDescent="0.3">
@@ -7299,10 +7347,10 @@
         <v>38</v>
       </c>
       <c r="E286" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F286" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="287" spans="1:6" x14ac:dyDescent="0.3">
@@ -7319,10 +7367,10 @@
         <v>40</v>
       </c>
       <c r="E287" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="F287" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="288" spans="1:6" x14ac:dyDescent="0.3">
@@ -7339,10 +7387,10 @@
         <v>42</v>
       </c>
       <c r="E288" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="F288" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="289" spans="1:6" x14ac:dyDescent="0.3">
@@ -7359,10 +7407,10 @@
         <v>44</v>
       </c>
       <c r="E289" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="F289" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="290" spans="1:6" x14ac:dyDescent="0.3">
@@ -7379,10 +7427,10 @@
         <v>46</v>
       </c>
       <c r="E290" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="F290" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="291" spans="1:6" x14ac:dyDescent="0.3">
@@ -7399,10 +7447,10 @@
         <v>48</v>
       </c>
       <c r="E291" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="F291" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="292" spans="1:6" x14ac:dyDescent="0.3">
@@ -7419,10 +7467,10 @@
         <v>29</v>
       </c>
       <c r="E292" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F292" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="293" spans="1:6" x14ac:dyDescent="0.3">
@@ -7433,16 +7481,16 @@
         <v>6</v>
       </c>
       <c r="C293">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D293">
         <v>32</v>
       </c>
       <c r="E293" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F293" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="294" spans="1:6" x14ac:dyDescent="0.3">
@@ -7453,16 +7501,16 @@
         <v>7</v>
       </c>
       <c r="C294">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D294">
         <v>34</v>
       </c>
       <c r="E294" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F294" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="295" spans="1:6" x14ac:dyDescent="0.3">
@@ -7479,10 +7527,10 @@
         <v>36</v>
       </c>
       <c r="E295" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="F295" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="296" spans="1:6" x14ac:dyDescent="0.3">
@@ -7499,10 +7547,10 @@
         <v>38</v>
       </c>
       <c r="E296" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="F296" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="297" spans="1:6" x14ac:dyDescent="0.3">
@@ -7519,10 +7567,10 @@
         <v>40</v>
       </c>
       <c r="E297" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="F297" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="298" spans="1:6" x14ac:dyDescent="0.3">
@@ -7539,10 +7587,10 @@
         <v>42</v>
       </c>
       <c r="E298" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="F298" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="299" spans="1:6" x14ac:dyDescent="0.3">
@@ -7559,10 +7607,10 @@
         <v>44</v>
       </c>
       <c r="E299" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="F299" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="300" spans="1:6" x14ac:dyDescent="0.3">
@@ -7579,10 +7627,10 @@
         <v>46</v>
       </c>
       <c r="E300" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="F300" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="301" spans="1:6" x14ac:dyDescent="0.3">
@@ -7599,10 +7647,10 @@
         <v>48</v>
       </c>
       <c r="E301" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="F301" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="302" spans="1:6" x14ac:dyDescent="0.3">
@@ -7613,16 +7661,16 @@
         <v>6</v>
       </c>
       <c r="C302">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D302">
         <v>32</v>
       </c>
       <c r="E302" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="F302" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="303" spans="1:6" x14ac:dyDescent="0.3">
@@ -7633,16 +7681,16 @@
         <v>7</v>
       </c>
       <c r="C303">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D303">
         <v>34</v>
       </c>
       <c r="E303" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F303" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="304" spans="1:6" x14ac:dyDescent="0.3">
@@ -7659,10 +7707,10 @@
         <v>36</v>
       </c>
       <c r="E304" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F304" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="305" spans="1:6" x14ac:dyDescent="0.3">
@@ -7679,10 +7727,10 @@
         <v>38</v>
       </c>
       <c r="E305" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F305" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="306" spans="1:6" x14ac:dyDescent="0.3">
@@ -7699,10 +7747,10 @@
         <v>40</v>
       </c>
       <c r="E306" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="F306" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="307" spans="1:6" x14ac:dyDescent="0.3">
@@ -7719,10 +7767,10 @@
         <v>42</v>
       </c>
       <c r="E307" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="F307" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="308" spans="1:6" x14ac:dyDescent="0.3">
@@ -7739,10 +7787,10 @@
         <v>44</v>
       </c>
       <c r="E308" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="F308" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="309" spans="1:6" x14ac:dyDescent="0.3">
@@ -7759,10 +7807,10 @@
         <v>46</v>
       </c>
       <c r="E309" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="F309" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="310" spans="1:6" x14ac:dyDescent="0.3">
@@ -7779,10 +7827,10 @@
         <v>48</v>
       </c>
       <c r="E310" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="F310" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="311" spans="1:6" x14ac:dyDescent="0.3">
@@ -7793,16 +7841,16 @@
         <v>6</v>
       </c>
       <c r="C311">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D311">
         <v>32</v>
       </c>
       <c r="E311" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="F311" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="312" spans="1:6" x14ac:dyDescent="0.3">
@@ -7813,16 +7861,16 @@
         <v>7</v>
       </c>
       <c r="C312">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D312">
         <v>34</v>
       </c>
       <c r="E312" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F312" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="313" spans="1:6" x14ac:dyDescent="0.3">
@@ -7839,10 +7887,10 @@
         <v>36</v>
       </c>
       <c r="E313" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F313" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="314" spans="1:6" x14ac:dyDescent="0.3">
@@ -7859,10 +7907,10 @@
         <v>38</v>
       </c>
       <c r="E314" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F314" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="315" spans="1:6" x14ac:dyDescent="0.3">
@@ -7879,10 +7927,10 @@
         <v>40</v>
       </c>
       <c r="E315" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="F315" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="316" spans="1:6" x14ac:dyDescent="0.3">
@@ -7899,10 +7947,10 @@
         <v>42</v>
       </c>
       <c r="E316" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="F316" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="317" spans="1:6" x14ac:dyDescent="0.3">
@@ -7919,10 +7967,10 @@
         <v>44</v>
       </c>
       <c r="E317" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="F317" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="318" spans="1:6" x14ac:dyDescent="0.3">
@@ -7939,10 +7987,10 @@
         <v>46</v>
       </c>
       <c r="E318" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="F318" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="319" spans="1:6" x14ac:dyDescent="0.3">
@@ -7959,10 +8007,10 @@
         <v>48</v>
       </c>
       <c r="E319" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="F319" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="320" spans="1:6" x14ac:dyDescent="0.3">
@@ -7973,16 +8021,16 @@
         <v>6</v>
       </c>
       <c r="C320">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D320">
         <v>32</v>
       </c>
       <c r="E320" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="F320" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
     </row>
     <row r="321" spans="1:6" x14ac:dyDescent="0.3">
@@ -7993,16 +8041,16 @@
         <v>7</v>
       </c>
       <c r="C321">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D321">
         <v>34</v>
       </c>
       <c r="E321" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F321" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
     </row>
     <row r="322" spans="1:6" x14ac:dyDescent="0.3">
@@ -8019,10 +8067,10 @@
         <v>36</v>
       </c>
       <c r="E322" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F322" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
     </row>
     <row r="323" spans="1:6" x14ac:dyDescent="0.3">
@@ -8039,10 +8087,10 @@
         <v>38</v>
       </c>
       <c r="E323" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F323" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
     </row>
     <row r="324" spans="1:6" x14ac:dyDescent="0.3">
@@ -8059,10 +8107,10 @@
         <v>40</v>
       </c>
       <c r="E324" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="F324" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
     </row>
     <row r="325" spans="1:6" x14ac:dyDescent="0.3">
@@ -8079,10 +8127,10 @@
         <v>42</v>
       </c>
       <c r="E325" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="F325" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
     </row>
     <row r="326" spans="1:6" x14ac:dyDescent="0.3">
@@ -8099,10 +8147,10 @@
         <v>44</v>
       </c>
       <c r="E326" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="F326" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
     </row>
     <row r="327" spans="1:6" x14ac:dyDescent="0.3">
@@ -8119,10 +8167,10 @@
         <v>46</v>
       </c>
       <c r="E327" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="F327" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
     </row>
     <row r="328" spans="1:6" x14ac:dyDescent="0.3">
@@ -8139,10 +8187,10 @@
         <v>48</v>
       </c>
       <c r="E328" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="F328" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
     </row>
     <row r="329" spans="1:6" x14ac:dyDescent="0.3">
@@ -8153,16 +8201,16 @@
         <v>6</v>
       </c>
       <c r="C329">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D329">
         <v>32</v>
       </c>
       <c r="E329" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="F329" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="330" spans="1:6" x14ac:dyDescent="0.3">
@@ -8173,16 +8221,16 @@
         <v>7</v>
       </c>
       <c r="C330">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D330">
         <v>34</v>
       </c>
       <c r="E330" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F330" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="331" spans="1:6" x14ac:dyDescent="0.3">
@@ -8199,10 +8247,10 @@
         <v>36</v>
       </c>
       <c r="E331" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F331" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="332" spans="1:6" x14ac:dyDescent="0.3">
@@ -8219,10 +8267,10 @@
         <v>38</v>
       </c>
       <c r="E332" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F332" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="333" spans="1:6" x14ac:dyDescent="0.3">
@@ -8239,10 +8287,10 @@
         <v>40</v>
       </c>
       <c r="E333" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="F333" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="334" spans="1:6" x14ac:dyDescent="0.3">
@@ -8259,10 +8307,10 @@
         <v>42</v>
       </c>
       <c r="E334" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="F334" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="335" spans="1:6" x14ac:dyDescent="0.3">
@@ -8279,10 +8327,10 @@
         <v>44</v>
       </c>
       <c r="E335" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="F335" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="336" spans="1:6" x14ac:dyDescent="0.3">
@@ -8299,10 +8347,10 @@
         <v>46</v>
       </c>
       <c r="E336" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="F336" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="337" spans="1:6" x14ac:dyDescent="0.3">
@@ -8319,10 +8367,10 @@
         <v>48</v>
       </c>
       <c r="E337" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="F337" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="338" spans="1:6" x14ac:dyDescent="0.3">
@@ -8333,16 +8381,16 @@
         <v>6</v>
       </c>
       <c r="C338">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D338">
         <v>32</v>
       </c>
       <c r="E338" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F338" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="339" spans="1:6" x14ac:dyDescent="0.3">
@@ -8353,16 +8401,16 @@
         <v>7</v>
       </c>
       <c r="C339">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D339">
         <v>34</v>
       </c>
       <c r="E339" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F339" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="340" spans="1:6" x14ac:dyDescent="0.3">
@@ -8379,10 +8427,10 @@
         <v>36</v>
       </c>
       <c r="E340" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="F340" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="341" spans="1:6" x14ac:dyDescent="0.3">
@@ -8399,10 +8447,10 @@
         <v>38</v>
       </c>
       <c r="E341" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="F341" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="342" spans="1:6" x14ac:dyDescent="0.3">
@@ -8419,10 +8467,10 @@
         <v>40</v>
       </c>
       <c r="E342" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="F342" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="343" spans="1:6" x14ac:dyDescent="0.3">
@@ -8439,10 +8487,10 @@
         <v>42</v>
       </c>
       <c r="E343" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="F343" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="344" spans="1:6" x14ac:dyDescent="0.3">
@@ -8459,10 +8507,10 @@
         <v>44</v>
       </c>
       <c r="E344" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="F344" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="345" spans="1:6" x14ac:dyDescent="0.3">
@@ -8479,10 +8527,10 @@
         <v>46</v>
       </c>
       <c r="E345" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="F345" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="346" spans="1:6" x14ac:dyDescent="0.3">
@@ -8499,10 +8547,10 @@
         <v>48</v>
       </c>
       <c r="E346" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="F346" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="347" spans="1:6" x14ac:dyDescent="0.3">
@@ -8513,16 +8561,16 @@
         <v>7</v>
       </c>
       <c r="C347">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D347">
         <v>34</v>
       </c>
       <c r="E347" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F347" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="348" spans="1:6" x14ac:dyDescent="0.3">
@@ -8539,10 +8587,10 @@
         <v>36</v>
       </c>
       <c r="E348" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F348" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="349" spans="1:6" x14ac:dyDescent="0.3">
@@ -8559,10 +8607,10 @@
         <v>38</v>
       </c>
       <c r="E349" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F349" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="350" spans="1:6" x14ac:dyDescent="0.3">
@@ -8579,10 +8627,10 @@
         <v>40</v>
       </c>
       <c r="E350" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="F350" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="351" spans="1:6" x14ac:dyDescent="0.3">
@@ -8599,10 +8647,10 @@
         <v>42</v>
       </c>
       <c r="E351" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="F351" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="352" spans="1:6" x14ac:dyDescent="0.3">
@@ -8619,10 +8667,10 @@
         <v>44</v>
       </c>
       <c r="E352" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="F352" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="353" spans="1:6" x14ac:dyDescent="0.3">
@@ -8639,10 +8687,10 @@
         <v>46</v>
       </c>
       <c r="E353" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="F353" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="354" spans="1:6" x14ac:dyDescent="0.3">
@@ -8659,10 +8707,10 @@
         <v>48</v>
       </c>
       <c r="E354" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="F354" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="355" spans="1:6" x14ac:dyDescent="0.3">
@@ -8673,16 +8721,16 @@
         <v>7</v>
       </c>
       <c r="C355">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D355">
         <v>34</v>
       </c>
       <c r="E355" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F355" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="356" spans="1:6" x14ac:dyDescent="0.3">
@@ -8699,10 +8747,10 @@
         <v>36</v>
       </c>
       <c r="E356" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F356" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="357" spans="1:6" x14ac:dyDescent="0.3">
@@ -8719,10 +8767,10 @@
         <v>38</v>
       </c>
       <c r="E357" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F357" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="358" spans="1:6" x14ac:dyDescent="0.3">
@@ -8739,10 +8787,10 @@
         <v>40</v>
       </c>
       <c r="E358" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="F358" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="359" spans="1:6" x14ac:dyDescent="0.3">
@@ -8759,10 +8807,10 @@
         <v>42</v>
       </c>
       <c r="E359" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="F359" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="360" spans="1:6" x14ac:dyDescent="0.3">
@@ -8779,10 +8827,10 @@
         <v>44</v>
       </c>
       <c r="E360" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="F360" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="361" spans="1:6" x14ac:dyDescent="0.3">
@@ -8799,10 +8847,10 @@
         <v>46</v>
       </c>
       <c r="E361" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="F361" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="362" spans="1:6" x14ac:dyDescent="0.3">
@@ -8819,10 +8867,10 @@
         <v>48</v>
       </c>
       <c r="E362" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="F362" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="363" spans="1:6" x14ac:dyDescent="0.3">
@@ -8833,16 +8881,16 @@
         <v>7</v>
       </c>
       <c r="C363">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D363">
         <v>34</v>
       </c>
       <c r="E363" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F363" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="364" spans="1:6" x14ac:dyDescent="0.3">
@@ -8859,10 +8907,10 @@
         <v>36</v>
       </c>
       <c r="E364" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F364" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="365" spans="1:6" x14ac:dyDescent="0.3">
@@ -8879,10 +8927,10 @@
         <v>38</v>
       </c>
       <c r="E365" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F365" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="366" spans="1:6" x14ac:dyDescent="0.3">
@@ -8899,10 +8947,10 @@
         <v>40</v>
       </c>
       <c r="E366" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="F366" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="367" spans="1:6" x14ac:dyDescent="0.3">
@@ -8919,10 +8967,10 @@
         <v>42</v>
       </c>
       <c r="E367" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="F367" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="368" spans="1:6" x14ac:dyDescent="0.3">
@@ -8939,10 +8987,10 @@
         <v>44</v>
       </c>
       <c r="E368" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="F368" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="369" spans="1:6" x14ac:dyDescent="0.3">
@@ -8959,10 +9007,10 @@
         <v>46</v>
       </c>
       <c r="E369" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="F369" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="370" spans="1:6" x14ac:dyDescent="0.3">
@@ -8979,10 +9027,10 @@
         <v>48</v>
       </c>
       <c r="E370" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="F370" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="371" spans="1:6" x14ac:dyDescent="0.3">
@@ -8993,16 +9041,16 @@
         <v>7</v>
       </c>
       <c r="C371">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D371">
         <v>34</v>
       </c>
       <c r="E371" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F371" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="372" spans="1:6" x14ac:dyDescent="0.3">
@@ -9019,10 +9067,10 @@
         <v>36</v>
       </c>
       <c r="E372" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F372" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="373" spans="1:6" x14ac:dyDescent="0.3">
@@ -9039,10 +9087,10 @@
         <v>38</v>
       </c>
       <c r="E373" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F373" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="374" spans="1:6" x14ac:dyDescent="0.3">
@@ -9059,10 +9107,10 @@
         <v>40</v>
       </c>
       <c r="E374" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="F374" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="375" spans="1:6" x14ac:dyDescent="0.3">
@@ -9079,10 +9127,10 @@
         <v>42</v>
       </c>
       <c r="E375" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="F375" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="376" spans="1:6" x14ac:dyDescent="0.3">
@@ -9099,10 +9147,10 @@
         <v>44</v>
       </c>
       <c r="E376" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="F376" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="377" spans="1:6" x14ac:dyDescent="0.3">
@@ -9119,10 +9167,10 @@
         <v>46</v>
       </c>
       <c r="E377" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="F377" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="378" spans="1:6" x14ac:dyDescent="0.3">
@@ -9139,10 +9187,10 @@
         <v>48</v>
       </c>
       <c r="E378" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="F378" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="379" spans="1:6" x14ac:dyDescent="0.3">
@@ -9153,16 +9201,16 @@
         <v>7</v>
       </c>
       <c r="C379">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D379">
         <v>34</v>
       </c>
       <c r="E379" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F379" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="380" spans="1:6" x14ac:dyDescent="0.3">
@@ -9179,10 +9227,10 @@
         <v>36</v>
       </c>
       <c r="E380" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F380" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="381" spans="1:6" x14ac:dyDescent="0.3">
@@ -9199,10 +9247,10 @@
         <v>38</v>
       </c>
       <c r="E381" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F381" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="382" spans="1:6" x14ac:dyDescent="0.3">
@@ -9219,10 +9267,10 @@
         <v>40</v>
       </c>
       <c r="E382" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="F382" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="383" spans="1:6" x14ac:dyDescent="0.3">
@@ -9239,10 +9287,10 @@
         <v>42</v>
       </c>
       <c r="E383" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="F383" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="384" spans="1:6" x14ac:dyDescent="0.3">
@@ -9259,10 +9307,10 @@
         <v>44</v>
       </c>
       <c r="E384" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="F384" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="385" spans="1:6" x14ac:dyDescent="0.3">
@@ -9279,10 +9327,10 @@
         <v>46</v>
       </c>
       <c r="E385" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="F385" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="386" spans="1:6" x14ac:dyDescent="0.3">
@@ -9299,10 +9347,10 @@
         <v>48</v>
       </c>
       <c r="E386" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="F386" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="387" spans="1:6" x14ac:dyDescent="0.3">
@@ -9313,16 +9361,16 @@
         <v>7</v>
       </c>
       <c r="C387">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D387">
         <v>34</v>
       </c>
       <c r="E387" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F387" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="388" spans="1:6" x14ac:dyDescent="0.3">
@@ -9339,10 +9387,10 @@
         <v>36</v>
       </c>
       <c r="E388" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="F388" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="389" spans="1:6" x14ac:dyDescent="0.3">
@@ -9359,10 +9407,10 @@
         <v>38</v>
       </c>
       <c r="E389" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="F389" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="390" spans="1:6" x14ac:dyDescent="0.3">
@@ -9379,10 +9427,10 @@
         <v>40</v>
       </c>
       <c r="E390" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="F390" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="391" spans="1:6" x14ac:dyDescent="0.3">
@@ -9399,10 +9447,10 @@
         <v>42</v>
       </c>
       <c r="E391" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="F391" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="392" spans="1:6" x14ac:dyDescent="0.3">
@@ -9419,10 +9467,10 @@
         <v>44</v>
       </c>
       <c r="E392" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="F392" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="393" spans="1:6" x14ac:dyDescent="0.3">
@@ -9439,10 +9487,10 @@
         <v>46</v>
       </c>
       <c r="E393" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="F393" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="394" spans="1:6" x14ac:dyDescent="0.3">
@@ -9459,10 +9507,10 @@
         <v>48</v>
       </c>
       <c r="E394" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="F394" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="395" spans="1:6" x14ac:dyDescent="0.3">
@@ -9479,10 +9527,10 @@
         <v>36</v>
       </c>
       <c r="E395" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F395" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="396" spans="1:6" x14ac:dyDescent="0.3">
@@ -9499,10 +9547,10 @@
         <v>38</v>
       </c>
       <c r="E396" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F396" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="397" spans="1:6" x14ac:dyDescent="0.3">
@@ -9519,10 +9567,10 @@
         <v>40</v>
       </c>
       <c r="E397" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="F397" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="398" spans="1:6" x14ac:dyDescent="0.3">
@@ -9539,10 +9587,10 @@
         <v>42</v>
       </c>
       <c r="E398" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="F398" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="399" spans="1:6" x14ac:dyDescent="0.3">
@@ -9559,10 +9607,10 @@
         <v>44</v>
       </c>
       <c r="E399" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="F399" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="400" spans="1:6" x14ac:dyDescent="0.3">
@@ -9579,10 +9627,10 @@
         <v>46</v>
       </c>
       <c r="E400" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="F400" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="401" spans="1:6" x14ac:dyDescent="0.3">
@@ -9599,10 +9647,10 @@
         <v>48</v>
       </c>
       <c r="E401" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="F401" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="402" spans="1:6" x14ac:dyDescent="0.3">
@@ -9619,10 +9667,10 @@
         <v>36</v>
       </c>
       <c r="E402" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F402" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="403" spans="1:6" x14ac:dyDescent="0.3">
@@ -9639,10 +9687,10 @@
         <v>38</v>
       </c>
       <c r="E403" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F403" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="404" spans="1:6" x14ac:dyDescent="0.3">
@@ -9659,10 +9707,10 @@
         <v>40</v>
       </c>
       <c r="E404" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="F404" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="405" spans="1:6" x14ac:dyDescent="0.3">
@@ -9679,10 +9727,10 @@
         <v>42</v>
       </c>
       <c r="E405" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="F405" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="406" spans="1:6" x14ac:dyDescent="0.3">
@@ -9699,10 +9747,10 @@
         <v>44</v>
       </c>
       <c r="E406" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="F406" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="407" spans="1:6" x14ac:dyDescent="0.3">
@@ -9719,10 +9767,10 @@
         <v>46</v>
       </c>
       <c r="E407" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="F407" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="408" spans="1:6" x14ac:dyDescent="0.3">
@@ -9739,10 +9787,10 @@
         <v>48</v>
       </c>
       <c r="E408" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="F408" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="409" spans="1:6" x14ac:dyDescent="0.3">
@@ -9759,10 +9807,10 @@
         <v>36</v>
       </c>
       <c r="E409" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F409" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="410" spans="1:6" x14ac:dyDescent="0.3">
@@ -9779,10 +9827,10 @@
         <v>38</v>
       </c>
       <c r="E410" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F410" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="411" spans="1:6" x14ac:dyDescent="0.3">
@@ -9799,10 +9847,10 @@
         <v>40</v>
       </c>
       <c r="E411" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="F411" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="412" spans="1:6" x14ac:dyDescent="0.3">
@@ -9819,10 +9867,10 @@
         <v>42</v>
       </c>
       <c r="E412" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="F412" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="413" spans="1:6" x14ac:dyDescent="0.3">
@@ -9839,10 +9887,10 @@
         <v>44</v>
       </c>
       <c r="E413" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="F413" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="414" spans="1:6" x14ac:dyDescent="0.3">
@@ -9859,10 +9907,10 @@
         <v>46</v>
       </c>
       <c r="E414" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="F414" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="415" spans="1:6" x14ac:dyDescent="0.3">
@@ -9879,10 +9927,10 @@
         <v>48</v>
       </c>
       <c r="E415" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="F415" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="416" spans="1:6" x14ac:dyDescent="0.3">
@@ -9899,10 +9947,10 @@
         <v>36</v>
       </c>
       <c r="E416" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F416" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="417" spans="1:6" x14ac:dyDescent="0.3">
@@ -9919,10 +9967,10 @@
         <v>38</v>
       </c>
       <c r="E417" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F417" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="418" spans="1:6" x14ac:dyDescent="0.3">
@@ -9939,10 +9987,10 @@
         <v>40</v>
       </c>
       <c r="E418" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="F418" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="419" spans="1:6" x14ac:dyDescent="0.3">
@@ -9959,10 +10007,10 @@
         <v>42</v>
       </c>
       <c r="E419" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="F419" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="420" spans="1:6" x14ac:dyDescent="0.3">
@@ -9979,10 +10027,10 @@
         <v>44</v>
       </c>
       <c r="E420" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="F420" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="421" spans="1:6" x14ac:dyDescent="0.3">
@@ -9999,10 +10047,10 @@
         <v>46</v>
       </c>
       <c r="E421" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="F421" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="422" spans="1:6" x14ac:dyDescent="0.3">
@@ -10019,10 +10067,10 @@
         <v>48</v>
       </c>
       <c r="E422" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="F422" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="423" spans="1:6" x14ac:dyDescent="0.3">
@@ -10039,10 +10087,10 @@
         <v>36</v>
       </c>
       <c r="E423" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="F423" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="424" spans="1:6" x14ac:dyDescent="0.3">
@@ -10059,10 +10107,10 @@
         <v>38</v>
       </c>
       <c r="E424" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="F424" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="425" spans="1:6" x14ac:dyDescent="0.3">
@@ -10079,10 +10127,10 @@
         <v>40</v>
       </c>
       <c r="E425" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="F425" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="426" spans="1:6" x14ac:dyDescent="0.3">
@@ -10099,10 +10147,10 @@
         <v>42</v>
       </c>
       <c r="E426" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="F426" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="427" spans="1:6" x14ac:dyDescent="0.3">
@@ -10119,10 +10167,10 @@
         <v>44</v>
       </c>
       <c r="E427" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="F427" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="428" spans="1:6" x14ac:dyDescent="0.3">
@@ -10139,10 +10187,10 @@
         <v>46</v>
       </c>
       <c r="E428" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="F428" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="429" spans="1:6" x14ac:dyDescent="0.3">
@@ -10159,10 +10207,10 @@
         <v>48</v>
       </c>
       <c r="E429" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="F429" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="430" spans="1:6" x14ac:dyDescent="0.3">
@@ -10179,10 +10227,10 @@
         <v>38</v>
       </c>
       <c r="E430" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F430" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="431" spans="1:6" x14ac:dyDescent="0.3">
@@ -10199,10 +10247,10 @@
         <v>40</v>
       </c>
       <c r="E431" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="F431" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="432" spans="1:6" x14ac:dyDescent="0.3">
@@ -10219,10 +10267,10 @@
         <v>42</v>
       </c>
       <c r="E432" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="F432" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="433" spans="1:6" x14ac:dyDescent="0.3">
@@ -10239,10 +10287,10 @@
         <v>44</v>
       </c>
       <c r="E433" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="F433" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="434" spans="1:6" x14ac:dyDescent="0.3">
@@ -10259,10 +10307,10 @@
         <v>46</v>
       </c>
       <c r="E434" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="F434" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="435" spans="1:6" x14ac:dyDescent="0.3">
@@ -10279,10 +10327,10 @@
         <v>48</v>
       </c>
       <c r="E435" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="F435" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="436" spans="1:6" x14ac:dyDescent="0.3">
@@ -10299,10 +10347,10 @@
         <v>38</v>
       </c>
       <c r="E436" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F436" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
     </row>
     <row r="437" spans="1:6" x14ac:dyDescent="0.3">
@@ -10319,10 +10367,10 @@
         <v>40</v>
       </c>
       <c r="E437" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="F437" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
     </row>
     <row r="438" spans="1:6" x14ac:dyDescent="0.3">
@@ -10339,10 +10387,10 @@
         <v>42</v>
       </c>
       <c r="E438" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="F438" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
     </row>
     <row r="439" spans="1:6" x14ac:dyDescent="0.3">
@@ -10359,10 +10407,10 @@
         <v>44</v>
       </c>
       <c r="E439" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="F439" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
     </row>
     <row r="440" spans="1:6" x14ac:dyDescent="0.3">
@@ -10379,10 +10427,10 @@
         <v>46</v>
       </c>
       <c r="E440" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="F440" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
     </row>
     <row r="441" spans="1:6" x14ac:dyDescent="0.3">
@@ -10399,10 +10447,10 @@
         <v>48</v>
       </c>
       <c r="E441" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="F441" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
     </row>
     <row r="442" spans="1:6" x14ac:dyDescent="0.3">
@@ -10419,10 +10467,10 @@
         <v>38</v>
       </c>
       <c r="E442" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F442" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="443" spans="1:6" x14ac:dyDescent="0.3">
@@ -10439,10 +10487,10 @@
         <v>40</v>
       </c>
       <c r="E443" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="F443" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="444" spans="1:6" x14ac:dyDescent="0.3">
@@ -10459,10 +10507,10 @@
         <v>42</v>
       </c>
       <c r="E444" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="F444" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="445" spans="1:6" x14ac:dyDescent="0.3">
@@ -10479,10 +10527,10 @@
         <v>44</v>
       </c>
       <c r="E445" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="F445" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="446" spans="1:6" x14ac:dyDescent="0.3">
@@ -10499,10 +10547,10 @@
         <v>46</v>
       </c>
       <c r="E446" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="F446" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="447" spans="1:6" x14ac:dyDescent="0.3">
@@ -10519,10 +10567,10 @@
         <v>48</v>
       </c>
       <c r="E447" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="F447" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="448" spans="1:6" x14ac:dyDescent="0.3">
@@ -10539,10 +10587,10 @@
         <v>38</v>
       </c>
       <c r="E448" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F448" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="449" spans="1:6" x14ac:dyDescent="0.3">
@@ -10559,10 +10607,10 @@
         <v>40</v>
       </c>
       <c r="E449" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="F449" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="450" spans="1:6" x14ac:dyDescent="0.3">
@@ -10579,10 +10627,10 @@
         <v>42</v>
       </c>
       <c r="E450" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="F450" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="451" spans="1:6" x14ac:dyDescent="0.3">
@@ -10599,10 +10647,10 @@
         <v>44</v>
       </c>
       <c r="E451" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="F451" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="452" spans="1:6" x14ac:dyDescent="0.3">
@@ -10619,10 +10667,10 @@
         <v>46</v>
       </c>
       <c r="E452" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="F452" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="453" spans="1:6" x14ac:dyDescent="0.3">
@@ -10639,10 +10687,10 @@
         <v>48</v>
       </c>
       <c r="E453" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="F453" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="454" spans="1:6" x14ac:dyDescent="0.3">
@@ -10659,10 +10707,10 @@
         <v>38</v>
       </c>
       <c r="E454" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="F454" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="455" spans="1:6" x14ac:dyDescent="0.3">
@@ -10679,10 +10727,10 @@
         <v>40</v>
       </c>
       <c r="E455" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="F455" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="456" spans="1:6" x14ac:dyDescent="0.3">
@@ -10699,10 +10747,10 @@
         <v>42</v>
       </c>
       <c r="E456" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="F456" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="457" spans="1:6" x14ac:dyDescent="0.3">
@@ -10719,10 +10767,10 @@
         <v>44</v>
       </c>
       <c r="E457" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="F457" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="458" spans="1:6" x14ac:dyDescent="0.3">
@@ -10739,10 +10787,10 @@
         <v>46</v>
       </c>
       <c r="E458" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="F458" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="459" spans="1:6" x14ac:dyDescent="0.3">
@@ -10759,10 +10807,10 @@
         <v>48</v>
       </c>
       <c r="E459" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="F459" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="460" spans="1:6" x14ac:dyDescent="0.3">
@@ -10779,10 +10827,10 @@
         <v>40</v>
       </c>
       <c r="E460" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="F460" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="461" spans="1:6" x14ac:dyDescent="0.3">
@@ -10799,10 +10847,10 @@
         <v>42</v>
       </c>
       <c r="E461" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="F461" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="462" spans="1:6" x14ac:dyDescent="0.3">
@@ -10819,10 +10867,10 @@
         <v>44</v>
       </c>
       <c r="E462" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="F462" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="463" spans="1:6" x14ac:dyDescent="0.3">
@@ -10839,10 +10887,10 @@
         <v>46</v>
       </c>
       <c r="E463" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="F463" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="464" spans="1:6" x14ac:dyDescent="0.3">
@@ -10859,10 +10907,10 @@
         <v>48</v>
       </c>
       <c r="E464" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="F464" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="465" spans="1:6" x14ac:dyDescent="0.3">
@@ -10879,10 +10927,10 @@
         <v>40</v>
       </c>
       <c r="E465" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="F465" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="466" spans="1:6" x14ac:dyDescent="0.3">
@@ -10899,10 +10947,10 @@
         <v>42</v>
       </c>
       <c r="E466" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="F466" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="467" spans="1:6" x14ac:dyDescent="0.3">
@@ -10919,10 +10967,10 @@
         <v>44</v>
       </c>
       <c r="E467" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="F467" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="468" spans="1:6" x14ac:dyDescent="0.3">
@@ -10939,10 +10987,10 @@
         <v>46</v>
       </c>
       <c r="E468" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="F468" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="469" spans="1:6" x14ac:dyDescent="0.3">
@@ -10959,10 +11007,10 @@
         <v>48</v>
       </c>
       <c r="E469" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="F469" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="470" spans="1:6" x14ac:dyDescent="0.3">
@@ -10979,10 +11027,10 @@
         <v>40</v>
       </c>
       <c r="E470" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="F470" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="471" spans="1:6" x14ac:dyDescent="0.3">
@@ -10999,10 +11047,10 @@
         <v>42</v>
       </c>
       <c r="E471" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="F471" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="472" spans="1:6" x14ac:dyDescent="0.3">
@@ -11019,10 +11067,10 @@
         <v>44</v>
       </c>
       <c r="E472" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="F472" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="473" spans="1:6" x14ac:dyDescent="0.3">
@@ -11039,10 +11087,10 @@
         <v>46</v>
       </c>
       <c r="E473" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="F473" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="474" spans="1:6" x14ac:dyDescent="0.3">
@@ -11059,10 +11107,10 @@
         <v>48</v>
       </c>
       <c r="E474" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="F474" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="475" spans="1:6" x14ac:dyDescent="0.3">
@@ -11079,10 +11127,10 @@
         <v>40</v>
       </c>
       <c r="E475" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="F475" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="476" spans="1:6" x14ac:dyDescent="0.3">
@@ -11099,10 +11147,10 @@
         <v>42</v>
       </c>
       <c r="E476" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="F476" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="477" spans="1:6" x14ac:dyDescent="0.3">
@@ -11119,10 +11167,10 @@
         <v>44</v>
       </c>
       <c r="E477" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="F477" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="478" spans="1:6" x14ac:dyDescent="0.3">
@@ -11139,10 +11187,10 @@
         <v>46</v>
       </c>
       <c r="E478" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="F478" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="479" spans="1:6" x14ac:dyDescent="0.3">
@@ -11159,10 +11207,10 @@
         <v>48</v>
       </c>
       <c r="E479" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="F479" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="480" spans="1:6" x14ac:dyDescent="0.3">
@@ -11179,10 +11227,10 @@
         <v>40</v>
       </c>
       <c r="E480" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="F480" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="481" spans="1:6" x14ac:dyDescent="0.3">
@@ -11199,10 +11247,10 @@
         <v>42</v>
       </c>
       <c r="E481" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="F481" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="482" spans="1:6" x14ac:dyDescent="0.3">
@@ -11219,10 +11267,10 @@
         <v>44</v>
       </c>
       <c r="E482" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="F482" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="483" spans="1:6" x14ac:dyDescent="0.3">
@@ -11239,10 +11287,10 @@
         <v>46</v>
       </c>
       <c r="E483" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="F483" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="484" spans="1:6" x14ac:dyDescent="0.3">
@@ -11259,10 +11307,10 @@
         <v>48</v>
       </c>
       <c r="E484" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="F484" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="485" spans="1:6" x14ac:dyDescent="0.3">
@@ -11279,10 +11327,10 @@
         <v>42</v>
       </c>
       <c r="E485" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="F485" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="486" spans="1:6" x14ac:dyDescent="0.3">
@@ -11299,10 +11347,10 @@
         <v>44</v>
       </c>
       <c r="E486" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="F486" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="487" spans="1:6" x14ac:dyDescent="0.3">
@@ -11319,10 +11367,10 @@
         <v>46</v>
       </c>
       <c r="E487" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="F487" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="488" spans="1:6" x14ac:dyDescent="0.3">
@@ -11339,10 +11387,10 @@
         <v>48</v>
       </c>
       <c r="E488" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="F488" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="489" spans="1:6" x14ac:dyDescent="0.3">
@@ -11359,10 +11407,10 @@
         <v>42</v>
       </c>
       <c r="E489" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="F489" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="490" spans="1:6" x14ac:dyDescent="0.3">
@@ -11379,10 +11427,10 @@
         <v>44</v>
       </c>
       <c r="E490" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="F490" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="491" spans="1:6" x14ac:dyDescent="0.3">
@@ -11399,10 +11447,10 @@
         <v>46</v>
       </c>
       <c r="E491" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="F491" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="492" spans="1:6" x14ac:dyDescent="0.3">
@@ -11419,10 +11467,10 @@
         <v>48</v>
       </c>
       <c r="E492" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="F492" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="493" spans="1:6" x14ac:dyDescent="0.3">
@@ -11439,10 +11487,10 @@
         <v>42</v>
       </c>
       <c r="E493" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="F493" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="494" spans="1:6" x14ac:dyDescent="0.3">
@@ -11459,10 +11507,10 @@
         <v>44</v>
       </c>
       <c r="E494" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="F494" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="495" spans="1:6" x14ac:dyDescent="0.3">
@@ -11479,10 +11527,10 @@
         <v>46</v>
       </c>
       <c r="E495" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="F495" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="496" spans="1:6" x14ac:dyDescent="0.3">
@@ -11499,10 +11547,10 @@
         <v>48</v>
       </c>
       <c r="E496" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="F496" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="497" spans="1:6" x14ac:dyDescent="0.3">
@@ -11519,10 +11567,10 @@
         <v>42</v>
       </c>
       <c r="E497" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="F497" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="498" spans="1:6" x14ac:dyDescent="0.3">
@@ -11539,10 +11587,10 @@
         <v>44</v>
       </c>
       <c r="E498" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="F498" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="499" spans="1:6" x14ac:dyDescent="0.3">
@@ -11559,10 +11607,10 @@
         <v>46</v>
       </c>
       <c r="E499" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="F499" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="500" spans="1:6" x14ac:dyDescent="0.3">
@@ -11579,10 +11627,10 @@
         <v>48</v>
       </c>
       <c r="E500" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="F500" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="501" spans="1:6" x14ac:dyDescent="0.3">
@@ -11599,10 +11647,10 @@
         <v>42</v>
       </c>
       <c r="E501" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="F501" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="502" spans="1:6" x14ac:dyDescent="0.3">
@@ -11619,10 +11667,10 @@
         <v>44</v>
       </c>
       <c r="E502" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="F502" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="503" spans="1:6" x14ac:dyDescent="0.3">
@@ -11639,10 +11687,10 @@
         <v>46</v>
       </c>
       <c r="E503" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="F503" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="504" spans="1:6" x14ac:dyDescent="0.3">
@@ -11659,10 +11707,10 @@
         <v>48</v>
       </c>
       <c r="E504" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="F504" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="505" spans="1:6" x14ac:dyDescent="0.3">
@@ -11679,10 +11727,10 @@
         <v>44</v>
       </c>
       <c r="E505" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="F505" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="506" spans="1:6" x14ac:dyDescent="0.3">
@@ -11699,10 +11747,10 @@
         <v>46</v>
       </c>
       <c r="E506" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="F506" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="507" spans="1:6" x14ac:dyDescent="0.3">
@@ -11719,10 +11767,10 @@
         <v>48</v>
       </c>
       <c r="E507" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="F507" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="508" spans="1:6" x14ac:dyDescent="0.3">
@@ -11739,10 +11787,10 @@
         <v>44</v>
       </c>
       <c r="E508" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="F508" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="509" spans="1:6" x14ac:dyDescent="0.3">
@@ -11759,10 +11807,10 @@
         <v>46</v>
       </c>
       <c r="E509" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="F509" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="510" spans="1:6" x14ac:dyDescent="0.3">
@@ -11779,10 +11827,10 @@
         <v>48</v>
       </c>
       <c r="E510" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="F510" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="511" spans="1:6" x14ac:dyDescent="0.3">
@@ -11799,10 +11847,10 @@
         <v>44</v>
       </c>
       <c r="E511" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="F511" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="512" spans="1:6" x14ac:dyDescent="0.3">
@@ -11819,10 +11867,10 @@
         <v>46</v>
       </c>
       <c r="E512" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="F512" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="513" spans="1:6" x14ac:dyDescent="0.3">
@@ -11839,10 +11887,10 @@
         <v>48</v>
       </c>
       <c r="E513" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="F513" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="514" spans="1:6" x14ac:dyDescent="0.3">
@@ -11859,10 +11907,10 @@
         <v>44</v>
       </c>
       <c r="E514" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="F514" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="515" spans="1:6" x14ac:dyDescent="0.3">
@@ -11879,10 +11927,10 @@
         <v>46</v>
       </c>
       <c r="E515" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="F515" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="516" spans="1:6" x14ac:dyDescent="0.3">
@@ -11899,10 +11947,10 @@
         <v>48</v>
       </c>
       <c r="E516" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="F516" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="517" spans="1:6" x14ac:dyDescent="0.3">
@@ -11919,10 +11967,10 @@
         <v>44</v>
       </c>
       <c r="E517" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="F517" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="518" spans="1:6" x14ac:dyDescent="0.3">
@@ -11939,10 +11987,10 @@
         <v>46</v>
       </c>
       <c r="E518" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="F518" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="519" spans="1:6" x14ac:dyDescent="0.3">
@@ -11959,10 +12007,10 @@
         <v>48</v>
       </c>
       <c r="E519" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="F519" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="520" spans="1:6" x14ac:dyDescent="0.3">
@@ -11979,10 +12027,10 @@
         <v>46</v>
       </c>
       <c r="E520" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="F520" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="521" spans="1:6" x14ac:dyDescent="0.3">
@@ -11999,10 +12047,10 @@
         <v>48</v>
       </c>
       <c r="E521" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="F521" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="522" spans="1:6" x14ac:dyDescent="0.3">
@@ -12019,10 +12067,10 @@
         <v>46</v>
       </c>
       <c r="E522" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="F522" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="523" spans="1:6" x14ac:dyDescent="0.3">
@@ -12039,10 +12087,10 @@
         <v>48</v>
       </c>
       <c r="E523" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="F523" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="524" spans="1:6" x14ac:dyDescent="0.3">
@@ -12059,10 +12107,10 @@
         <v>46</v>
       </c>
       <c r="E524" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="F524" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="525" spans="1:6" x14ac:dyDescent="0.3">
@@ -12079,10 +12127,10 @@
         <v>48</v>
       </c>
       <c r="E525" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="F525" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="526" spans="1:6" x14ac:dyDescent="0.3">
@@ -12099,10 +12147,10 @@
         <v>46</v>
       </c>
       <c r="E526" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="F526" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="527" spans="1:6" x14ac:dyDescent="0.3">
@@ -12119,10 +12167,10 @@
         <v>48</v>
       </c>
       <c r="E527" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="F527" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="528" spans="1:6" x14ac:dyDescent="0.3">
@@ -12139,10 +12187,10 @@
         <v>46</v>
       </c>
       <c r="E528" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="F528" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="529" spans="1:6" x14ac:dyDescent="0.3">
@@ -12159,10 +12207,10 @@
         <v>48</v>
       </c>
       <c r="E529" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="F529" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="530" spans="1:6" x14ac:dyDescent="0.3">
@@ -12179,10 +12227,10 @@
         <v>48</v>
       </c>
       <c r="E530" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="F530" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="531" spans="1:6" x14ac:dyDescent="0.3">
@@ -12199,10 +12247,10 @@
         <v>48</v>
       </c>
       <c r="E531" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="F531" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="532" spans="1:6" x14ac:dyDescent="0.3">
@@ -12219,10 +12267,10 @@
         <v>48</v>
       </c>
       <c r="E532" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="F532" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="533" spans="1:6" x14ac:dyDescent="0.3">
@@ -12239,10 +12287,10 @@
         <v>48</v>
       </c>
       <c r="E533" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="F533" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="534" spans="1:6" x14ac:dyDescent="0.3">
@@ -12259,10 +12307,10 @@
         <v>48</v>
       </c>
       <c r="E534" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="F534" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="535" spans="1:6" x14ac:dyDescent="0.3">
@@ -12279,10 +12327,10 @@
         <v>48</v>
       </c>
       <c r="E535" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="F535" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="536" spans="1:6" x14ac:dyDescent="0.3">
@@ -12299,10 +12347,10 @@
         <v>48</v>
       </c>
       <c r="E536" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="F536" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/BossBattle.xlsx
+++ b/Excel/BossBattle.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7F989B4-BAE4-452D-B3D9-315FBC0A47E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A491C2E-A524-4850-9E0F-6CE86D7EBA2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{A6866CF1-6843-4840-93D5-06F7C057B491}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A6866CF1-6843-4840-93D5-06F7C057B491}"/>
   </bookViews>
   <sheets>
     <sheet name="BossBattleTable" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1404" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1404" uniqueCount="30">
   <si>
     <t>stage|Int</t>
   </si>
@@ -126,10 +126,6 @@
   </si>
   <si>
     <t>bf2200</t>
-  </si>
-  <si>
-    <t>num|Int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -495,7 +491,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96BDC1D7-BB12-4303-94B5-67CA15A36A8D}">
   <dimension ref="A1:C147"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -503,7 +499,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -520,7 +516,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -531,7 +527,7 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -542,7 +538,7 @@
         <v>1</v>
       </c>
       <c r="C4">
-        <v>30</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -553,7 +549,7 @@
         <v>1</v>
       </c>
       <c r="C5">
-        <v>40</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -564,7 +560,7 @@
         <v>1</v>
       </c>
       <c r="C6">
-        <v>50</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -575,7 +571,7 @@
         <v>2</v>
       </c>
       <c r="C7">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
@@ -586,7 +582,7 @@
         <v>2</v>
       </c>
       <c r="C8">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
@@ -597,7 +593,7 @@
         <v>2</v>
       </c>
       <c r="C9">
-        <v>30</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
@@ -608,7 +604,7 @@
         <v>2</v>
       </c>
       <c r="C10">
-        <v>40</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
@@ -619,7 +615,7 @@
         <v>2</v>
       </c>
       <c r="C11">
-        <v>50</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
@@ -630,7 +626,7 @@
         <v>3</v>
       </c>
       <c r="C12">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
@@ -641,7 +637,7 @@
         <v>3</v>
       </c>
       <c r="C13">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
@@ -652,7 +648,7 @@
         <v>3</v>
       </c>
       <c r="C14">
-        <v>30</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
@@ -663,7 +659,7 @@
         <v>3</v>
       </c>
       <c r="C15">
-        <v>40</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
@@ -674,7 +670,7 @@
         <v>3</v>
       </c>
       <c r="C16">
-        <v>50</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
@@ -685,7 +681,7 @@
         <v>4</v>
       </c>
       <c r="C17">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
@@ -696,7 +692,7 @@
         <v>4</v>
       </c>
       <c r="C18">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
@@ -707,7 +703,7 @@
         <v>4</v>
       </c>
       <c r="C19">
-        <v>30</v>
+        <v>15</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
@@ -718,7 +714,7 @@
         <v>4</v>
       </c>
       <c r="C20">
-        <v>40</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
@@ -729,7 +725,7 @@
         <v>4</v>
       </c>
       <c r="C21">
-        <v>50</v>
+        <v>25</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
@@ -740,7 +736,7 @@
         <v>5</v>
       </c>
       <c r="C22">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
@@ -751,7 +747,7 @@
         <v>5</v>
       </c>
       <c r="C23">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
@@ -762,7 +758,7 @@
         <v>5</v>
       </c>
       <c r="C24">
-        <v>30</v>
+        <v>15</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
@@ -773,7 +769,7 @@
         <v>5</v>
       </c>
       <c r="C25">
-        <v>40</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
@@ -784,7 +780,7 @@
         <v>5</v>
       </c>
       <c r="C26">
-        <v>50</v>
+        <v>25</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
@@ -795,7 +791,7 @@
         <v>6</v>
       </c>
       <c r="C27">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
@@ -806,7 +802,7 @@
         <v>6</v>
       </c>
       <c r="C28">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
@@ -817,7 +813,7 @@
         <v>6</v>
       </c>
       <c r="C29">
-        <v>30</v>
+        <v>15</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
@@ -828,7 +824,7 @@
         <v>6</v>
       </c>
       <c r="C30">
-        <v>40</v>
+        <v>20</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
@@ -839,7 +835,7 @@
         <v>6</v>
       </c>
       <c r="C31">
-        <v>50</v>
+        <v>25</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
@@ -916,7 +912,7 @@
         <v>8</v>
       </c>
       <c r="C38">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
@@ -927,7 +923,7 @@
         <v>8</v>
       </c>
       <c r="C39">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
@@ -938,7 +934,7 @@
         <v>8</v>
       </c>
       <c r="C40">
-        <v>30</v>
+        <v>15</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
@@ -949,7 +945,7 @@
         <v>8</v>
       </c>
       <c r="C41">
-        <v>40</v>
+        <v>20</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
@@ -960,7 +956,7 @@
         <v>8</v>
       </c>
       <c r="C42">
-        <v>50</v>
+        <v>25</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
@@ -971,7 +967,7 @@
         <v>9</v>
       </c>
       <c r="C43">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
@@ -982,7 +978,7 @@
         <v>9</v>
       </c>
       <c r="C44">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
@@ -993,7 +989,7 @@
         <v>9</v>
       </c>
       <c r="C45">
-        <v>30</v>
+        <v>15</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
@@ -1004,7 +1000,7 @@
         <v>9</v>
       </c>
       <c r="C46">
-        <v>40</v>
+        <v>20</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
@@ -1015,7 +1011,7 @@
         <v>9</v>
       </c>
       <c r="C47">
-        <v>50</v>
+        <v>25</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
@@ -1026,7 +1022,7 @@
         <v>10</v>
       </c>
       <c r="C48">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
@@ -1037,7 +1033,7 @@
         <v>10</v>
       </c>
       <c r="C49">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
@@ -1048,7 +1044,7 @@
         <v>10</v>
       </c>
       <c r="C50">
-        <v>30</v>
+        <v>15</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
@@ -1059,7 +1055,7 @@
         <v>10</v>
       </c>
       <c r="C51">
-        <v>40</v>
+        <v>20</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
@@ -1070,7 +1066,7 @@
         <v>10</v>
       </c>
       <c r="C52">
-        <v>50</v>
+        <v>25</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
@@ -1081,7 +1077,7 @@
         <v>11</v>
       </c>
       <c r="C53">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
@@ -1092,7 +1088,7 @@
         <v>11</v>
       </c>
       <c r="C54">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
@@ -1103,7 +1099,7 @@
         <v>11</v>
       </c>
       <c r="C55">
-        <v>30</v>
+        <v>15</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
@@ -1114,7 +1110,7 @@
         <v>11</v>
       </c>
       <c r="C56">
-        <v>40</v>
+        <v>20</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
@@ -1125,7 +1121,7 @@
         <v>11</v>
       </c>
       <c r="C57">
-        <v>50</v>
+        <v>25</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
@@ -1136,7 +1132,7 @@
         <v>12</v>
       </c>
       <c r="C58">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.3">
@@ -1147,7 +1143,7 @@
         <v>12</v>
       </c>
       <c r="C59">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.3">
@@ -1158,7 +1154,7 @@
         <v>12</v>
       </c>
       <c r="C60">
-        <v>30</v>
+        <v>15</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.3">
@@ -1169,7 +1165,7 @@
         <v>12</v>
       </c>
       <c r="C61">
-        <v>40</v>
+        <v>20</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.3">
@@ -1180,7 +1176,7 @@
         <v>12</v>
       </c>
       <c r="C62">
-        <v>50</v>
+        <v>25</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.3">
@@ -1191,7 +1187,7 @@
         <v>13</v>
       </c>
       <c r="C63">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.3">
@@ -1202,7 +1198,7 @@
         <v>13</v>
       </c>
       <c r="C64">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.3">
@@ -1213,7 +1209,7 @@
         <v>13</v>
       </c>
       <c r="C65">
-        <v>30</v>
+        <v>15</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.3">
@@ -1224,7 +1220,7 @@
         <v>13</v>
       </c>
       <c r="C66">
-        <v>40</v>
+        <v>20</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.3">
@@ -1235,7 +1231,7 @@
         <v>13</v>
       </c>
       <c r="C67">
-        <v>50</v>
+        <v>25</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.3">
@@ -1320,11 +1316,10 @@
         <v>74</v>
       </c>
       <c r="B75">
-        <f>B2+14</f>
         <v>15</v>
       </c>
       <c r="C75">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.3">
@@ -1332,11 +1327,10 @@
         <v>75</v>
       </c>
       <c r="B76">
-        <f t="shared" ref="B76:B139" si="0">B3+14</f>
         <v>15</v>
       </c>
       <c r="C76">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.3">
@@ -1344,11 +1338,10 @@
         <v>76</v>
       </c>
       <c r="B77">
-        <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="C77">
-        <v>30</v>
+        <v>15</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.3">
@@ -1356,11 +1349,10 @@
         <v>77</v>
       </c>
       <c r="B78">
-        <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="C78">
-        <v>40</v>
+        <v>20</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.3">
@@ -1368,11 +1360,10 @@
         <v>78</v>
       </c>
       <c r="B79">
-        <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="C79">
-        <v>50</v>
+        <v>25</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.3">
@@ -1380,11 +1371,10 @@
         <v>79</v>
       </c>
       <c r="B80">
-        <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="C80">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.3">
@@ -1392,11 +1382,10 @@
         <v>80</v>
       </c>
       <c r="B81">
-        <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="C81">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.3">
@@ -1404,11 +1393,10 @@
         <v>81</v>
       </c>
       <c r="B82">
-        <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="C82">
-        <v>30</v>
+        <v>15</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.3">
@@ -1416,11 +1404,10 @@
         <v>82</v>
       </c>
       <c r="B83">
-        <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="C83">
-        <v>40</v>
+        <v>20</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.3">
@@ -1428,11 +1415,10 @@
         <v>83</v>
       </c>
       <c r="B84">
-        <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="C84">
-        <v>50</v>
+        <v>25</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.3">
@@ -1440,11 +1426,10 @@
         <v>84</v>
       </c>
       <c r="B85">
-        <f t="shared" si="0"/>
         <v>17</v>
       </c>
       <c r="C85">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.3">
@@ -1452,11 +1437,10 @@
         <v>85</v>
       </c>
       <c r="B86">
-        <f t="shared" si="0"/>
         <v>17</v>
       </c>
       <c r="C86">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.3">
@@ -1464,11 +1448,10 @@
         <v>86</v>
       </c>
       <c r="B87">
-        <f t="shared" si="0"/>
         <v>17</v>
       </c>
       <c r="C87">
-        <v>30</v>
+        <v>15</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.3">
@@ -1476,11 +1459,10 @@
         <v>87</v>
       </c>
       <c r="B88">
-        <f t="shared" si="0"/>
         <v>17</v>
       </c>
       <c r="C88">
-        <v>40</v>
+        <v>20</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.3">
@@ -1488,11 +1470,10 @@
         <v>88</v>
       </c>
       <c r="B89">
-        <f t="shared" si="0"/>
         <v>17</v>
       </c>
       <c r="C89">
-        <v>50</v>
+        <v>25</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.3">
@@ -1500,11 +1481,10 @@
         <v>89</v>
       </c>
       <c r="B90">
-        <f t="shared" si="0"/>
         <v>18</v>
       </c>
       <c r="C90">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.3">
@@ -1512,11 +1492,10 @@
         <v>90</v>
       </c>
       <c r="B91">
-        <f t="shared" si="0"/>
         <v>18</v>
       </c>
       <c r="C91">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.3">
@@ -1524,11 +1503,10 @@
         <v>91</v>
       </c>
       <c r="B92">
-        <f t="shared" si="0"/>
         <v>18</v>
       </c>
       <c r="C92">
-        <v>30</v>
+        <v>15</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.3">
@@ -1536,11 +1514,10 @@
         <v>92</v>
       </c>
       <c r="B93">
-        <f t="shared" si="0"/>
         <v>18</v>
       </c>
       <c r="C93">
-        <v>40</v>
+        <v>20</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.3">
@@ -1548,11 +1525,10 @@
         <v>93</v>
       </c>
       <c r="B94">
-        <f t="shared" si="0"/>
         <v>18</v>
       </c>
       <c r="C94">
-        <v>50</v>
+        <v>25</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.3">
@@ -1560,11 +1536,10 @@
         <v>94</v>
       </c>
       <c r="B95">
-        <f t="shared" si="0"/>
         <v>19</v>
       </c>
       <c r="C95">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.3">
@@ -1572,11 +1547,10 @@
         <v>95</v>
       </c>
       <c r="B96">
-        <f t="shared" si="0"/>
         <v>19</v>
       </c>
       <c r="C96">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.3">
@@ -1584,11 +1558,10 @@
         <v>96</v>
       </c>
       <c r="B97">
-        <f t="shared" si="0"/>
         <v>19</v>
       </c>
       <c r="C97">
-        <v>30</v>
+        <v>15</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.3">
@@ -1596,11 +1569,10 @@
         <v>97</v>
       </c>
       <c r="B98">
-        <f t="shared" si="0"/>
         <v>19</v>
       </c>
       <c r="C98">
-        <v>40</v>
+        <v>20</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.3">
@@ -1608,11 +1580,10 @@
         <v>98</v>
       </c>
       <c r="B99">
-        <f t="shared" si="0"/>
         <v>19</v>
       </c>
       <c r="C99">
-        <v>50</v>
+        <v>25</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.3">
@@ -1620,11 +1591,10 @@
         <v>99</v>
       </c>
       <c r="B100">
-        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="C100">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.3">
@@ -1632,11 +1602,10 @@
         <v>100</v>
       </c>
       <c r="B101">
-        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="C101">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.3">
@@ -1644,11 +1613,10 @@
         <v>101</v>
       </c>
       <c r="B102">
-        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="C102">
-        <v>30</v>
+        <v>15</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.3">
@@ -1656,11 +1624,10 @@
         <v>102</v>
       </c>
       <c r="B103">
-        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="C103">
-        <v>40</v>
+        <v>20</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.3">
@@ -1668,11 +1635,10 @@
         <v>103</v>
       </c>
       <c r="B104">
-        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="C104">
-        <v>50</v>
+        <v>25</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.3">
@@ -1680,7 +1646,6 @@
         <v>104</v>
       </c>
       <c r="B105">
-        <f t="shared" si="0"/>
         <v>21</v>
       </c>
       <c r="C105">
@@ -1692,7 +1657,6 @@
         <v>105</v>
       </c>
       <c r="B106">
-        <f t="shared" si="0"/>
         <v>21</v>
       </c>
       <c r="C106">
@@ -1704,7 +1668,6 @@
         <v>106</v>
       </c>
       <c r="B107">
-        <f t="shared" si="0"/>
         <v>21</v>
       </c>
       <c r="C107">
@@ -1716,7 +1679,6 @@
         <v>107</v>
       </c>
       <c r="B108">
-        <f t="shared" si="0"/>
         <v>21</v>
       </c>
       <c r="C108">
@@ -1728,7 +1690,6 @@
         <v>108</v>
       </c>
       <c r="B109">
-        <f t="shared" si="0"/>
         <v>21</v>
       </c>
       <c r="C109">
@@ -1740,7 +1701,6 @@
         <v>109</v>
       </c>
       <c r="B110">
-        <f t="shared" si="0"/>
         <v>21</v>
       </c>
       <c r="C110">
@@ -1752,11 +1712,10 @@
         <v>110</v>
       </c>
       <c r="B111">
-        <f t="shared" si="0"/>
         <v>22</v>
       </c>
       <c r="C111">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.3">
@@ -1764,11 +1723,10 @@
         <v>111</v>
       </c>
       <c r="B112">
-        <f t="shared" si="0"/>
         <v>22</v>
       </c>
       <c r="C112">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.3">
@@ -1776,11 +1734,10 @@
         <v>112</v>
       </c>
       <c r="B113">
-        <f t="shared" si="0"/>
         <v>22</v>
       </c>
       <c r="C113">
-        <v>30</v>
+        <v>15</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.3">
@@ -1788,11 +1745,10 @@
         <v>113</v>
       </c>
       <c r="B114">
-        <f t="shared" si="0"/>
         <v>22</v>
       </c>
       <c r="C114">
-        <v>40</v>
+        <v>20</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.3">
@@ -1800,11 +1756,10 @@
         <v>114</v>
       </c>
       <c r="B115">
-        <f t="shared" si="0"/>
         <v>22</v>
       </c>
       <c r="C115">
-        <v>50</v>
+        <v>25</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.3">
@@ -1812,11 +1767,10 @@
         <v>115</v>
       </c>
       <c r="B116">
-        <f t="shared" si="0"/>
         <v>23</v>
       </c>
       <c r="C116">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.3">
@@ -1824,11 +1778,10 @@
         <v>116</v>
       </c>
       <c r="B117">
-        <f t="shared" si="0"/>
         <v>23</v>
       </c>
       <c r="C117">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.3">
@@ -1836,11 +1789,10 @@
         <v>117</v>
       </c>
       <c r="B118">
-        <f t="shared" si="0"/>
         <v>23</v>
       </c>
       <c r="C118">
-        <v>30</v>
+        <v>15</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.3">
@@ -1848,11 +1800,10 @@
         <v>118</v>
       </c>
       <c r="B119">
-        <f t="shared" si="0"/>
         <v>23</v>
       </c>
       <c r="C119">
-        <v>40</v>
+        <v>20</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.3">
@@ -1860,11 +1811,10 @@
         <v>119</v>
       </c>
       <c r="B120">
-        <f t="shared" si="0"/>
         <v>23</v>
       </c>
       <c r="C120">
-        <v>50</v>
+        <v>25</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.3">
@@ -1872,11 +1822,10 @@
         <v>120</v>
       </c>
       <c r="B121">
-        <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="C121">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.3">
@@ -1884,11 +1833,10 @@
         <v>121</v>
       </c>
       <c r="B122">
-        <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="C122">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.3">
@@ -1896,11 +1844,10 @@
         <v>122</v>
       </c>
       <c r="B123">
-        <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="C123">
-        <v>30</v>
+        <v>15</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.3">
@@ -1908,11 +1855,10 @@
         <v>123</v>
       </c>
       <c r="B124">
-        <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="C124">
-        <v>40</v>
+        <v>20</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.3">
@@ -1920,11 +1866,10 @@
         <v>124</v>
       </c>
       <c r="B125">
-        <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="C125">
-        <v>50</v>
+        <v>25</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.3">
@@ -1932,11 +1877,10 @@
         <v>125</v>
       </c>
       <c r="B126">
-        <f t="shared" si="0"/>
         <v>25</v>
       </c>
       <c r="C126">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.3">
@@ -1944,11 +1888,10 @@
         <v>126</v>
       </c>
       <c r="B127">
-        <f t="shared" si="0"/>
         <v>25</v>
       </c>
       <c r="C127">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.3">
@@ -1956,11 +1899,10 @@
         <v>127</v>
       </c>
       <c r="B128">
-        <f t="shared" si="0"/>
         <v>25</v>
       </c>
       <c r="C128">
-        <v>30</v>
+        <v>15</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.3">
@@ -1968,11 +1910,10 @@
         <v>128</v>
       </c>
       <c r="B129">
-        <f t="shared" si="0"/>
         <v>25</v>
       </c>
       <c r="C129">
-        <v>40</v>
+        <v>20</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.3">
@@ -1980,11 +1921,10 @@
         <v>129</v>
       </c>
       <c r="B130">
-        <f t="shared" si="0"/>
         <v>25</v>
       </c>
       <c r="C130">
-        <v>50</v>
+        <v>25</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.3">
@@ -1992,11 +1932,10 @@
         <v>130</v>
       </c>
       <c r="B131">
-        <f t="shared" si="0"/>
         <v>26</v>
       </c>
       <c r="C131">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.3">
@@ -2004,11 +1943,10 @@
         <v>131</v>
       </c>
       <c r="B132">
-        <f t="shared" si="0"/>
         <v>26</v>
       </c>
       <c r="C132">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.3">
@@ -2016,11 +1954,10 @@
         <v>132</v>
       </c>
       <c r="B133">
-        <f t="shared" si="0"/>
         <v>26</v>
       </c>
       <c r="C133">
-        <v>30</v>
+        <v>15</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.3">
@@ -2028,11 +1965,10 @@
         <v>133</v>
       </c>
       <c r="B134">
-        <f t="shared" si="0"/>
         <v>26</v>
       </c>
       <c r="C134">
-        <v>40</v>
+        <v>20</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.3">
@@ -2040,11 +1976,10 @@
         <v>134</v>
       </c>
       <c r="B135">
-        <f t="shared" si="0"/>
         <v>26</v>
       </c>
       <c r="C135">
-        <v>50</v>
+        <v>25</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.3">
@@ -2052,11 +1987,10 @@
         <v>135</v>
       </c>
       <c r="B136">
-        <f t="shared" si="0"/>
         <v>27</v>
       </c>
       <c r="C136">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.3">
@@ -2064,11 +1998,10 @@
         <v>136</v>
       </c>
       <c r="B137">
-        <f t="shared" si="0"/>
         <v>27</v>
       </c>
       <c r="C137">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.3">
@@ -2076,11 +2009,10 @@
         <v>137</v>
       </c>
       <c r="B138">
-        <f t="shared" si="0"/>
         <v>27</v>
       </c>
       <c r="C138">
-        <v>30</v>
+        <v>15</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.3">
@@ -2088,11 +2020,10 @@
         <v>138</v>
       </c>
       <c r="B139">
-        <f t="shared" si="0"/>
         <v>27</v>
       </c>
       <c r="C139">
-        <v>40</v>
+        <v>20</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.3">
@@ -2100,11 +2031,10 @@
         <v>139</v>
       </c>
       <c r="B140">
-        <f t="shared" ref="B140:B147" si="1">B67+14</f>
         <v>27</v>
       </c>
       <c r="C140">
-        <v>50</v>
+        <v>25</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.3">
@@ -2112,7 +2042,6 @@
         <v>140</v>
       </c>
       <c r="B141">
-        <f t="shared" si="1"/>
         <v>28</v>
       </c>
       <c r="C141">
@@ -2124,7 +2053,6 @@
         <v>141</v>
       </c>
       <c r="B142">
-        <f t="shared" si="1"/>
         <v>28</v>
       </c>
       <c r="C142">
@@ -2136,7 +2064,6 @@
         <v>142</v>
       </c>
       <c r="B143">
-        <f t="shared" si="1"/>
         <v>28</v>
       </c>
       <c r="C143">
@@ -2148,7 +2075,6 @@
         <v>143</v>
       </c>
       <c r="B144">
-        <f t="shared" si="1"/>
         <v>28</v>
       </c>
       <c r="C144">
@@ -2160,7 +2086,6 @@
         <v>144</v>
       </c>
       <c r="B145">
-        <f t="shared" si="1"/>
         <v>28</v>
       </c>
       <c r="C145">
@@ -2172,7 +2097,6 @@
         <v>145</v>
       </c>
       <c r="B146">
-        <f t="shared" si="1"/>
         <v>28</v>
       </c>
       <c r="C146">
@@ -2184,7 +2108,6 @@
         <v>146</v>
       </c>
       <c r="B147">
-        <f t="shared" si="1"/>
         <v>28</v>
       </c>
       <c r="C147">
@@ -2514,7 +2437,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D73C3706-EA31-4372-B626-A76904A84A7F}">
   <dimension ref="A1:F697"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>

--- a/Excel/BossBattle.xlsx
+++ b/Excel/BossBattle.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A491C2E-A524-4850-9E0F-6CE86D7EBA2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A363C88-8DE3-4644-8C8C-52CEA3336F0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A6866CF1-6843-4840-93D5-06F7C057B491}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{A6866CF1-6843-4840-93D5-06F7C057B491}"/>
   </bookViews>
   <sheets>
     <sheet name="BossBattleTable" sheetId="2" r:id="rId1"/>
@@ -491,9 +491,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96BDC1D7-BB12-4303-94B5-67CA15A36A8D}">
   <dimension ref="A1:C147"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -2437,7 +2435,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D73C3706-EA31-4372-B626-A76904A84A7F}">
   <dimension ref="A1:F697"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -2474,7 +2472,7 @@
         <v>4</v>
       </c>
       <c r="D2">
-        <v>21</v>
+        <v>105</v>
       </c>
       <c r="E2" t="s">
         <v>15</v>
@@ -2494,7 +2492,7 @@
         <v>4</v>
       </c>
       <c r="D3">
-        <v>23</v>
+        <v>115</v>
       </c>
       <c r="E3" t="s">
         <v>15</v>
@@ -2514,7 +2512,7 @@
         <v>3</v>
       </c>
       <c r="D4">
-        <v>25</v>
+        <v>125</v>
       </c>
       <c r="E4" t="s">
         <v>15</v>
@@ -2534,7 +2532,7 @@
         <v>3</v>
       </c>
       <c r="D5">
-        <v>27</v>
+        <v>135</v>
       </c>
       <c r="E5" t="s">
         <v>15</v>
@@ -2554,7 +2552,7 @@
         <v>3</v>
       </c>
       <c r="D6">
-        <v>29</v>
+        <v>145</v>
       </c>
       <c r="E6" t="s">
         <v>15</v>
@@ -2574,7 +2572,7 @@
         <v>2</v>
       </c>
       <c r="D7">
-        <v>32</v>
+        <v>160</v>
       </c>
       <c r="E7" t="s">
         <v>15</v>
@@ -2594,7 +2592,7 @@
         <v>2</v>
       </c>
       <c r="D8">
-        <v>34</v>
+        <v>170</v>
       </c>
       <c r="E8" t="s">
         <v>15</v>
@@ -2614,7 +2612,7 @@
         <v>2</v>
       </c>
       <c r="D9">
-        <v>36</v>
+        <v>180</v>
       </c>
       <c r="E9" t="s">
         <v>17</v>
@@ -2634,7 +2632,7 @@
         <v>2</v>
       </c>
       <c r="D10">
-        <v>38</v>
+        <v>190</v>
       </c>
       <c r="E10" t="s">
         <v>17</v>
@@ -2654,7 +2652,7 @@
         <v>2</v>
       </c>
       <c r="D11">
-        <v>40</v>
+        <v>200</v>
       </c>
       <c r="E11" t="s">
         <v>17</v>
@@ -2674,7 +2672,7 @@
         <v>1</v>
       </c>
       <c r="D12">
-        <v>42</v>
+        <v>210</v>
       </c>
       <c r="E12" t="s">
         <v>17</v>
@@ -2694,7 +2692,7 @@
         <v>1</v>
       </c>
       <c r="D13">
-        <v>44</v>
+        <v>220</v>
       </c>
       <c r="E13" t="s">
         <v>17</v>
@@ -2714,7 +2712,7 @@
         <v>1</v>
       </c>
       <c r="D14">
-        <v>46</v>
+        <v>230</v>
       </c>
       <c r="E14" t="s">
         <v>17</v>
@@ -2734,7 +2732,7 @@
         <v>1</v>
       </c>
       <c r="D15">
-        <v>48</v>
+        <v>240</v>
       </c>
       <c r="E15" t="s">
         <v>17</v>
@@ -2754,7 +2752,7 @@
         <v>1</v>
       </c>
       <c r="D16">
-        <v>50</v>
+        <v>250</v>
       </c>
       <c r="E16" t="s">
         <v>18</v>
@@ -2774,7 +2772,7 @@
         <v>1</v>
       </c>
       <c r="D17">
-        <v>53</v>
+        <v>265</v>
       </c>
       <c r="E17" t="s">
         <v>18</v>
@@ -2794,7 +2792,7 @@
         <v>4</v>
       </c>
       <c r="D18">
-        <v>21</v>
+        <v>105</v>
       </c>
       <c r="E18" t="s">
         <v>15</v>
@@ -2814,7 +2812,7 @@
         <v>4</v>
       </c>
       <c r="D19">
-        <v>23</v>
+        <v>115</v>
       </c>
       <c r="E19" t="s">
         <v>15</v>
@@ -2834,7 +2832,7 @@
         <v>3</v>
       </c>
       <c r="D20">
-        <v>25</v>
+        <v>125</v>
       </c>
       <c r="E20" t="s">
         <v>15</v>
@@ -2854,7 +2852,7 @@
         <v>3</v>
       </c>
       <c r="D21">
-        <v>27</v>
+        <v>135</v>
       </c>
       <c r="E21" t="s">
         <v>15</v>
@@ -2874,7 +2872,7 @@
         <v>3</v>
       </c>
       <c r="D22">
-        <v>29</v>
+        <v>145</v>
       </c>
       <c r="E22" t="s">
         <v>15</v>
@@ -2894,7 +2892,7 @@
         <v>2</v>
       </c>
       <c r="D23">
-        <v>32</v>
+        <v>160</v>
       </c>
       <c r="E23" t="s">
         <v>15</v>
@@ -2914,7 +2912,7 @@
         <v>2</v>
       </c>
       <c r="D24">
-        <v>34</v>
+        <v>170</v>
       </c>
       <c r="E24" t="s">
         <v>15</v>
@@ -2934,7 +2932,7 @@
         <v>2</v>
       </c>
       <c r="D25">
-        <v>36</v>
+        <v>180</v>
       </c>
       <c r="E25" t="s">
         <v>17</v>
@@ -2954,7 +2952,7 @@
         <v>2</v>
       </c>
       <c r="D26">
-        <v>38</v>
+        <v>190</v>
       </c>
       <c r="E26" t="s">
         <v>17</v>
@@ -2974,7 +2972,7 @@
         <v>2</v>
       </c>
       <c r="D27">
-        <v>40</v>
+        <v>200</v>
       </c>
       <c r="E27" t="s">
         <v>17</v>
@@ -2994,7 +2992,7 @@
         <v>1</v>
       </c>
       <c r="D28">
-        <v>42</v>
+        <v>210</v>
       </c>
       <c r="E28" t="s">
         <v>17</v>
@@ -3014,7 +3012,7 @@
         <v>1</v>
       </c>
       <c r="D29">
-        <v>44</v>
+        <v>220</v>
       </c>
       <c r="E29" t="s">
         <v>17</v>
@@ -3034,7 +3032,7 @@
         <v>1</v>
       </c>
       <c r="D30">
-        <v>46</v>
+        <v>230</v>
       </c>
       <c r="E30" t="s">
         <v>17</v>
@@ -3054,7 +3052,7 @@
         <v>1</v>
       </c>
       <c r="D31">
-        <v>48</v>
+        <v>240</v>
       </c>
       <c r="E31" t="s">
         <v>17</v>
@@ -3074,7 +3072,7 @@
         <v>1</v>
       </c>
       <c r="D32">
-        <v>50</v>
+        <v>250</v>
       </c>
       <c r="E32" t="s">
         <v>18</v>
@@ -3094,7 +3092,7 @@
         <v>1</v>
       </c>
       <c r="D33">
-        <v>53</v>
+        <v>265</v>
       </c>
       <c r="E33" t="s">
         <v>18</v>
@@ -3114,7 +3112,7 @@
         <v>4</v>
       </c>
       <c r="D34">
-        <v>21</v>
+        <v>105</v>
       </c>
       <c r="E34" t="s">
         <v>15</v>
@@ -3134,7 +3132,7 @@
         <v>4</v>
       </c>
       <c r="D35">
-        <v>23</v>
+        <v>115</v>
       </c>
       <c r="E35" t="s">
         <v>17</v>
@@ -3154,7 +3152,7 @@
         <v>3</v>
       </c>
       <c r="D36">
-        <v>25</v>
+        <v>125</v>
       </c>
       <c r="E36" t="s">
         <v>18</v>
@@ -3174,7 +3172,7 @@
         <v>3</v>
       </c>
       <c r="D37">
-        <v>27</v>
+        <v>135</v>
       </c>
       <c r="E37" t="s">
         <v>20</v>
@@ -3194,7 +3192,7 @@
         <v>3</v>
       </c>
       <c r="D38">
-        <v>29</v>
+        <v>145</v>
       </c>
       <c r="E38" t="s">
         <v>21</v>
@@ -3214,7 +3212,7 @@
         <v>2</v>
       </c>
       <c r="D39">
-        <v>32</v>
+        <v>160</v>
       </c>
       <c r="E39" t="s">
         <v>22</v>
@@ -3234,7 +3232,7 @@
         <v>2</v>
       </c>
       <c r="D40">
-        <v>34</v>
+        <v>170</v>
       </c>
       <c r="E40" t="s">
         <v>14</v>
@@ -3254,7 +3252,7 @@
         <v>2</v>
       </c>
       <c r="D41">
-        <v>36</v>
+        <v>180</v>
       </c>
       <c r="E41" t="s">
         <v>10</v>
@@ -3274,7 +3272,7 @@
         <v>2</v>
       </c>
       <c r="D42">
-        <v>38</v>
+        <v>190</v>
       </c>
       <c r="E42" t="s">
         <v>23</v>
@@ -3294,7 +3292,7 @@
         <v>2</v>
       </c>
       <c r="D43">
-        <v>40</v>
+        <v>200</v>
       </c>
       <c r="E43" t="s">
         <v>24</v>
@@ -3314,7 +3312,7 @@
         <v>1</v>
       </c>
       <c r="D44">
-        <v>42</v>
+        <v>210</v>
       </c>
       <c r="E44" t="s">
         <v>24</v>
@@ -3334,7 +3332,7 @@
         <v>1</v>
       </c>
       <c r="D45">
-        <v>44</v>
+        <v>220</v>
       </c>
       <c r="E45" t="s">
         <v>24</v>
@@ -3354,7 +3352,7 @@
         <v>1</v>
       </c>
       <c r="D46">
-        <v>46</v>
+        <v>230</v>
       </c>
       <c r="E46" t="s">
         <v>25</v>
@@ -3374,7 +3372,7 @@
         <v>1</v>
       </c>
       <c r="D47">
-        <v>48</v>
+        <v>240</v>
       </c>
       <c r="E47" t="s">
         <v>25</v>
@@ -3394,7 +3392,7 @@
         <v>1</v>
       </c>
       <c r="D48">
-        <v>50</v>
+        <v>250</v>
       </c>
       <c r="E48" t="s">
         <v>25</v>
@@ -3414,7 +3412,7 @@
         <v>1</v>
       </c>
       <c r="D49">
-        <v>53</v>
+        <v>265</v>
       </c>
       <c r="E49" t="s">
         <v>25</v>
@@ -3434,7 +3432,7 @@
         <v>4</v>
       </c>
       <c r="D50">
-        <v>21</v>
+        <v>105</v>
       </c>
       <c r="E50" t="s">
         <v>15</v>
@@ -3454,7 +3452,7 @@
         <v>4</v>
       </c>
       <c r="D51">
-        <v>23</v>
+        <v>115</v>
       </c>
       <c r="E51" t="s">
         <v>17</v>
@@ -3474,7 +3472,7 @@
         <v>3</v>
       </c>
       <c r="D52">
-        <v>25</v>
+        <v>125</v>
       </c>
       <c r="E52" t="s">
         <v>18</v>
@@ -3494,7 +3492,7 @@
         <v>3</v>
       </c>
       <c r="D53">
-        <v>27</v>
+        <v>135</v>
       </c>
       <c r="E53" t="s">
         <v>20</v>
@@ -3514,7 +3512,7 @@
         <v>3</v>
       </c>
       <c r="D54">
-        <v>29</v>
+        <v>145</v>
       </c>
       <c r="E54" t="s">
         <v>21</v>
@@ -3534,7 +3532,7 @@
         <v>2</v>
       </c>
       <c r="D55">
-        <v>32</v>
+        <v>160</v>
       </c>
       <c r="E55" t="s">
         <v>22</v>
@@ -3554,7 +3552,7 @@
         <v>2</v>
       </c>
       <c r="D56">
-        <v>34</v>
+        <v>170</v>
       </c>
       <c r="E56" t="s">
         <v>14</v>
@@ -3574,7 +3572,7 @@
         <v>2</v>
       </c>
       <c r="D57">
-        <v>36</v>
+        <v>180</v>
       </c>
       <c r="E57" t="s">
         <v>10</v>
@@ -3594,7 +3592,7 @@
         <v>2</v>
       </c>
       <c r="D58">
-        <v>38</v>
+        <v>190</v>
       </c>
       <c r="E58" t="s">
         <v>23</v>
@@ -3614,7 +3612,7 @@
         <v>2</v>
       </c>
       <c r="D59">
-        <v>40</v>
+        <v>200</v>
       </c>
       <c r="E59" t="s">
         <v>24</v>
@@ -3634,7 +3632,7 @@
         <v>1</v>
       </c>
       <c r="D60">
-        <v>42</v>
+        <v>210</v>
       </c>
       <c r="E60" t="s">
         <v>24</v>
@@ -3654,7 +3652,7 @@
         <v>1</v>
       </c>
       <c r="D61">
-        <v>44</v>
+        <v>220</v>
       </c>
       <c r="E61" t="s">
         <v>24</v>
@@ -3674,7 +3672,7 @@
         <v>1</v>
       </c>
       <c r="D62">
-        <v>46</v>
+        <v>230</v>
       </c>
       <c r="E62" t="s">
         <v>25</v>
@@ -3694,7 +3692,7 @@
         <v>1</v>
       </c>
       <c r="D63">
-        <v>48</v>
+        <v>240</v>
       </c>
       <c r="E63" t="s">
         <v>25</v>
@@ -3714,7 +3712,7 @@
         <v>1</v>
       </c>
       <c r="D64">
-        <v>50</v>
+        <v>250</v>
       </c>
       <c r="E64" t="s">
         <v>25</v>
@@ -3734,7 +3732,7 @@
         <v>1</v>
       </c>
       <c r="D65">
-        <v>53</v>
+        <v>265</v>
       </c>
       <c r="E65" t="s">
         <v>25</v>
@@ -3754,7 +3752,7 @@
         <v>4</v>
       </c>
       <c r="D66">
-        <v>21</v>
+        <v>105</v>
       </c>
       <c r="E66" t="s">
         <v>17</v>
@@ -3774,7 +3772,7 @@
         <v>4</v>
       </c>
       <c r="D67">
-        <v>23</v>
+        <v>115</v>
       </c>
       <c r="E67" t="s">
         <v>18</v>
@@ -3794,7 +3792,7 @@
         <v>3</v>
       </c>
       <c r="D68">
-        <v>25</v>
+        <v>125</v>
       </c>
       <c r="E68" t="s">
         <v>21</v>
@@ -3814,7 +3812,7 @@
         <v>3</v>
       </c>
       <c r="D69">
-        <v>27</v>
+        <v>135</v>
       </c>
       <c r="E69" t="s">
         <v>26</v>
@@ -3834,7 +3832,7 @@
         <v>3</v>
       </c>
       <c r="D70">
-        <v>29</v>
+        <v>145</v>
       </c>
       <c r="E70" t="s">
         <v>14</v>
@@ -3854,7 +3852,7 @@
         <v>2</v>
       </c>
       <c r="D71">
-        <v>32</v>
+        <v>160</v>
       </c>
       <c r="E71" t="s">
         <v>10</v>
@@ -3874,7 +3872,7 @@
         <v>2</v>
       </c>
       <c r="D72">
-        <v>34</v>
+        <v>170</v>
       </c>
       <c r="E72" t="s">
         <v>23</v>
@@ -3894,7 +3892,7 @@
         <v>2</v>
       </c>
       <c r="D73">
-        <v>36</v>
+        <v>180</v>
       </c>
       <c r="E73" t="s">
         <v>24</v>
@@ -3914,7 +3912,7 @@
         <v>2</v>
       </c>
       <c r="D74">
-        <v>38</v>
+        <v>190</v>
       </c>
       <c r="E74" t="s">
         <v>27</v>
@@ -3934,7 +3932,7 @@
         <v>2</v>
       </c>
       <c r="D75">
-        <v>40</v>
+        <v>200</v>
       </c>
       <c r="E75" t="s">
         <v>28</v>
@@ -3954,7 +3952,7 @@
         <v>1</v>
       </c>
       <c r="D76">
-        <v>42</v>
+        <v>210</v>
       </c>
       <c r="E76" t="s">
         <v>28</v>
@@ -3974,7 +3972,7 @@
         <v>1</v>
       </c>
       <c r="D77">
-        <v>44</v>
+        <v>220</v>
       </c>
       <c r="E77" t="s">
         <v>28</v>
@@ -3994,7 +3992,7 @@
         <v>1</v>
       </c>
       <c r="D78">
-        <v>46</v>
+        <v>230</v>
       </c>
       <c r="E78" t="s">
         <v>29</v>
@@ -4014,7 +4012,7 @@
         <v>1</v>
       </c>
       <c r="D79">
-        <v>48</v>
+        <v>240</v>
       </c>
       <c r="E79" t="s">
         <v>29</v>
@@ -4034,7 +4032,7 @@
         <v>1</v>
       </c>
       <c r="D80">
-        <v>50</v>
+        <v>250</v>
       </c>
       <c r="E80" t="s">
         <v>29</v>
@@ -4054,7 +4052,7 @@
         <v>1</v>
       </c>
       <c r="D81">
-        <v>53</v>
+        <v>265</v>
       </c>
       <c r="E81" t="s">
         <v>29</v>
@@ -4074,7 +4072,7 @@
         <v>4</v>
       </c>
       <c r="D82">
-        <v>23</v>
+        <v>115</v>
       </c>
       <c r="E82" t="s">
         <v>17</v>
@@ -4094,7 +4092,7 @@
         <v>3</v>
       </c>
       <c r="D83">
-        <v>25</v>
+        <v>125</v>
       </c>
       <c r="E83" t="s">
         <v>18</v>
@@ -4114,7 +4112,7 @@
         <v>3</v>
       </c>
       <c r="D84">
-        <v>27</v>
+        <v>135</v>
       </c>
       <c r="E84" t="s">
         <v>20</v>
@@ -4134,7 +4132,7 @@
         <v>3</v>
       </c>
       <c r="D85">
-        <v>29</v>
+        <v>145</v>
       </c>
       <c r="E85" t="s">
         <v>21</v>
@@ -4154,7 +4152,7 @@
         <v>2</v>
       </c>
       <c r="D86">
-        <v>32</v>
+        <v>160</v>
       </c>
       <c r="E86" t="s">
         <v>22</v>
@@ -4174,7 +4172,7 @@
         <v>2</v>
       </c>
       <c r="D87">
-        <v>34</v>
+        <v>170</v>
       </c>
       <c r="E87" t="s">
         <v>14</v>
@@ -4194,7 +4192,7 @@
         <v>2</v>
       </c>
       <c r="D88">
-        <v>36</v>
+        <v>180</v>
       </c>
       <c r="E88" t="s">
         <v>10</v>
@@ -4214,7 +4212,7 @@
         <v>2</v>
       </c>
       <c r="D89">
-        <v>38</v>
+        <v>190</v>
       </c>
       <c r="E89" t="s">
         <v>23</v>
@@ -4234,7 +4232,7 @@
         <v>2</v>
       </c>
       <c r="D90">
-        <v>40</v>
+        <v>200</v>
       </c>
       <c r="E90" t="s">
         <v>24</v>
@@ -4254,7 +4252,7 @@
         <v>1</v>
       </c>
       <c r="D91">
-        <v>42</v>
+        <v>210</v>
       </c>
       <c r="E91" t="s">
         <v>24</v>
@@ -4274,7 +4272,7 @@
         <v>1</v>
       </c>
       <c r="D92">
-        <v>44</v>
+        <v>220</v>
       </c>
       <c r="E92" t="s">
         <v>24</v>
@@ -4294,7 +4292,7 @@
         <v>1</v>
       </c>
       <c r="D93">
-        <v>46</v>
+        <v>230</v>
       </c>
       <c r="E93" t="s">
         <v>25</v>
@@ -4314,7 +4312,7 @@
         <v>1</v>
       </c>
       <c r="D94">
-        <v>48</v>
+        <v>240</v>
       </c>
       <c r="E94" t="s">
         <v>25</v>
@@ -4334,7 +4332,7 @@
         <v>1</v>
       </c>
       <c r="D95">
-        <v>50</v>
+        <v>250</v>
       </c>
       <c r="E95" t="s">
         <v>25</v>
@@ -4354,7 +4352,7 @@
         <v>1</v>
       </c>
       <c r="D96">
-        <v>53</v>
+        <v>265</v>
       </c>
       <c r="E96" t="s">
         <v>25</v>
@@ -4374,7 +4372,7 @@
         <v>4</v>
       </c>
       <c r="D97">
-        <v>23</v>
+        <v>115</v>
       </c>
       <c r="E97" t="s">
         <v>17</v>
@@ -4394,7 +4392,7 @@
         <v>3</v>
       </c>
       <c r="D98">
-        <v>25</v>
+        <v>125</v>
       </c>
       <c r="E98" t="s">
         <v>18</v>
@@ -4414,7 +4412,7 @@
         <v>3</v>
       </c>
       <c r="D99">
-        <v>27</v>
+        <v>135</v>
       </c>
       <c r="E99" t="s">
         <v>20</v>
@@ -4434,7 +4432,7 @@
         <v>3</v>
       </c>
       <c r="D100">
-        <v>29</v>
+        <v>145</v>
       </c>
       <c r="E100" t="s">
         <v>21</v>
@@ -4454,7 +4452,7 @@
         <v>2</v>
       </c>
       <c r="D101">
-        <v>32</v>
+        <v>160</v>
       </c>
       <c r="E101" t="s">
         <v>22</v>
@@ -4474,7 +4472,7 @@
         <v>2</v>
       </c>
       <c r="D102">
-        <v>34</v>
+        <v>170</v>
       </c>
       <c r="E102" t="s">
         <v>14</v>
@@ -4494,7 +4492,7 @@
         <v>2</v>
       </c>
       <c r="D103">
-        <v>36</v>
+        <v>180</v>
       </c>
       <c r="E103" t="s">
         <v>10</v>
@@ -4514,7 +4512,7 @@
         <v>2</v>
       </c>
       <c r="D104">
-        <v>38</v>
+        <v>190</v>
       </c>
       <c r="E104" t="s">
         <v>23</v>
@@ -4534,7 +4532,7 @@
         <v>2</v>
       </c>
       <c r="D105">
-        <v>40</v>
+        <v>200</v>
       </c>
       <c r="E105" t="s">
         <v>24</v>
@@ -4554,7 +4552,7 @@
         <v>1</v>
       </c>
       <c r="D106">
-        <v>42</v>
+        <v>210</v>
       </c>
       <c r="E106" t="s">
         <v>24</v>
@@ -4574,7 +4572,7 @@
         <v>1</v>
       </c>
       <c r="D107">
-        <v>44</v>
+        <v>220</v>
       </c>
       <c r="E107" t="s">
         <v>24</v>
@@ -4594,7 +4592,7 @@
         <v>1</v>
       </c>
       <c r="D108">
-        <v>46</v>
+        <v>230</v>
       </c>
       <c r="E108" t="s">
         <v>25</v>
@@ -4614,7 +4612,7 @@
         <v>1</v>
       </c>
       <c r="D109">
-        <v>48</v>
+        <v>240</v>
       </c>
       <c r="E109" t="s">
         <v>25</v>
@@ -4634,7 +4632,7 @@
         <v>1</v>
       </c>
       <c r="D110">
-        <v>50</v>
+        <v>250</v>
       </c>
       <c r="E110" t="s">
         <v>25</v>
@@ -4654,7 +4652,7 @@
         <v>1</v>
       </c>
       <c r="D111">
-        <v>53</v>
+        <v>265</v>
       </c>
       <c r="E111" t="s">
         <v>25</v>
@@ -4674,7 +4672,7 @@
         <v>4</v>
       </c>
       <c r="D112">
-        <v>23</v>
+        <v>115</v>
       </c>
       <c r="E112" t="s">
         <v>15</v>
@@ -4694,7 +4692,7 @@
         <v>3</v>
       </c>
       <c r="D113">
-        <v>25</v>
+        <v>125</v>
       </c>
       <c r="E113" t="s">
         <v>15</v>
@@ -4714,7 +4712,7 @@
         <v>3</v>
       </c>
       <c r="D114">
-        <v>27</v>
+        <v>135</v>
       </c>
       <c r="E114" t="s">
         <v>15</v>
@@ -4734,7 +4732,7 @@
         <v>3</v>
       </c>
       <c r="D115">
-        <v>29</v>
+        <v>145</v>
       </c>
       <c r="E115" t="s">
         <v>15</v>
@@ -4754,7 +4752,7 @@
         <v>2</v>
       </c>
       <c r="D116">
-        <v>32</v>
+        <v>160</v>
       </c>
       <c r="E116" t="s">
         <v>15</v>
@@ -4774,7 +4772,7 @@
         <v>2</v>
       </c>
       <c r="D117">
-        <v>34</v>
+        <v>170</v>
       </c>
       <c r="E117" t="s">
         <v>15</v>
@@ -4794,7 +4792,7 @@
         <v>2</v>
       </c>
       <c r="D118">
-        <v>36</v>
+        <v>180</v>
       </c>
       <c r="E118" t="s">
         <v>15</v>
@@ -4814,7 +4812,7 @@
         <v>2</v>
       </c>
       <c r="D119">
-        <v>38</v>
+        <v>190</v>
       </c>
       <c r="E119" t="s">
         <v>17</v>
@@ -4834,7 +4832,7 @@
         <v>2</v>
       </c>
       <c r="D120">
-        <v>40</v>
+        <v>200</v>
       </c>
       <c r="E120" t="s">
         <v>17</v>
@@ -4854,7 +4852,7 @@
         <v>1</v>
       </c>
       <c r="D121">
-        <v>42</v>
+        <v>210</v>
       </c>
       <c r="E121" t="s">
         <v>17</v>
@@ -4874,7 +4872,7 @@
         <v>1</v>
       </c>
       <c r="D122">
-        <v>44</v>
+        <v>220</v>
       </c>
       <c r="E122" t="s">
         <v>17</v>
@@ -4894,7 +4892,7 @@
         <v>1</v>
       </c>
       <c r="D123">
-        <v>46</v>
+        <v>230</v>
       </c>
       <c r="E123" t="s">
         <v>17</v>
@@ -4914,7 +4912,7 @@
         <v>1</v>
       </c>
       <c r="D124">
-        <v>48</v>
+        <v>240</v>
       </c>
       <c r="E124" t="s">
         <v>17</v>
@@ -4934,7 +4932,7 @@
         <v>1</v>
       </c>
       <c r="D125">
-        <v>50</v>
+        <v>250</v>
       </c>
       <c r="E125" t="s">
         <v>17</v>
@@ -4954,7 +4952,7 @@
         <v>1</v>
       </c>
       <c r="D126">
-        <v>53</v>
+        <v>265</v>
       </c>
       <c r="E126" t="s">
         <v>18</v>
@@ -4974,7 +4972,7 @@
         <v>4</v>
       </c>
       <c r="D127">
-        <v>23</v>
+        <v>115</v>
       </c>
       <c r="E127" t="s">
         <v>17</v>
@@ -4994,7 +4992,7 @@
         <v>3</v>
       </c>
       <c r="D128">
-        <v>25</v>
+        <v>125</v>
       </c>
       <c r="E128" t="s">
         <v>18</v>
@@ -5014,7 +5012,7 @@
         <v>3</v>
       </c>
       <c r="D129">
-        <v>27</v>
+        <v>135</v>
       </c>
       <c r="E129" t="s">
         <v>20</v>
@@ -5034,7 +5032,7 @@
         <v>3</v>
       </c>
       <c r="D130">
-        <v>29</v>
+        <v>145</v>
       </c>
       <c r="E130" t="s">
         <v>21</v>
@@ -5054,7 +5052,7 @@
         <v>2</v>
       </c>
       <c r="D131">
-        <v>32</v>
+        <v>160</v>
       </c>
       <c r="E131" t="s">
         <v>22</v>
@@ -5074,7 +5072,7 @@
         <v>2</v>
       </c>
       <c r="D132">
-        <v>34</v>
+        <v>170</v>
       </c>
       <c r="E132" t="s">
         <v>14</v>
@@ -5094,7 +5092,7 @@
         <v>2</v>
       </c>
       <c r="D133">
-        <v>36</v>
+        <v>180</v>
       </c>
       <c r="E133" t="s">
         <v>10</v>
@@ -5114,7 +5112,7 @@
         <v>2</v>
       </c>
       <c r="D134">
-        <v>38</v>
+        <v>190</v>
       </c>
       <c r="E134" t="s">
         <v>23</v>
@@ -5134,7 +5132,7 @@
         <v>2</v>
       </c>
       <c r="D135">
-        <v>40</v>
+        <v>200</v>
       </c>
       <c r="E135" t="s">
         <v>24</v>
@@ -5154,7 +5152,7 @@
         <v>1</v>
       </c>
       <c r="D136">
-        <v>42</v>
+        <v>210</v>
       </c>
       <c r="E136" t="s">
         <v>24</v>
@@ -5174,7 +5172,7 @@
         <v>1</v>
       </c>
       <c r="D137">
-        <v>44</v>
+        <v>220</v>
       </c>
       <c r="E137" t="s">
         <v>24</v>
@@ -5194,7 +5192,7 @@
         <v>1</v>
       </c>
       <c r="D138">
-        <v>46</v>
+        <v>230</v>
       </c>
       <c r="E138" t="s">
         <v>25</v>
@@ -5214,7 +5212,7 @@
         <v>1</v>
       </c>
       <c r="D139">
-        <v>48</v>
+        <v>240</v>
       </c>
       <c r="E139" t="s">
         <v>25</v>
@@ -5234,7 +5232,7 @@
         <v>1</v>
       </c>
       <c r="D140">
-        <v>50</v>
+        <v>250</v>
       </c>
       <c r="E140" t="s">
         <v>25</v>
@@ -5254,7 +5252,7 @@
         <v>1</v>
       </c>
       <c r="D141">
-        <v>53</v>
+        <v>265</v>
       </c>
       <c r="E141" t="s">
         <v>25</v>
@@ -5274,7 +5272,7 @@
         <v>4</v>
       </c>
       <c r="D142">
-        <v>23</v>
+        <v>115</v>
       </c>
       <c r="E142" t="s">
         <v>18</v>
@@ -5294,7 +5292,7 @@
         <v>3</v>
       </c>
       <c r="D143">
-        <v>25</v>
+        <v>125</v>
       </c>
       <c r="E143" t="s">
         <v>21</v>
@@ -5314,7 +5312,7 @@
         <v>3</v>
       </c>
       <c r="D144">
-        <v>27</v>
+        <v>135</v>
       </c>
       <c r="E144" t="s">
         <v>26</v>
@@ -5334,7 +5332,7 @@
         <v>3</v>
       </c>
       <c r="D145">
-        <v>29</v>
+        <v>145</v>
       </c>
       <c r="E145" t="s">
         <v>14</v>
@@ -5354,7 +5352,7 @@
         <v>2</v>
       </c>
       <c r="D146">
-        <v>32</v>
+        <v>160</v>
       </c>
       <c r="E146" t="s">
         <v>10</v>
@@ -5374,7 +5372,7 @@
         <v>2</v>
       </c>
       <c r="D147">
-        <v>34</v>
+        <v>170</v>
       </c>
       <c r="E147" t="s">
         <v>23</v>
@@ -5394,7 +5392,7 @@
         <v>2</v>
       </c>
       <c r="D148">
-        <v>36</v>
+        <v>180</v>
       </c>
       <c r="E148" t="s">
         <v>24</v>
@@ -5414,7 +5412,7 @@
         <v>2</v>
       </c>
       <c r="D149">
-        <v>38</v>
+        <v>190</v>
       </c>
       <c r="E149" t="s">
         <v>27</v>
@@ -5434,7 +5432,7 @@
         <v>2</v>
       </c>
       <c r="D150">
-        <v>40</v>
+        <v>200</v>
       </c>
       <c r="E150" t="s">
         <v>28</v>
@@ -5454,7 +5452,7 @@
         <v>1</v>
       </c>
       <c r="D151">
-        <v>42</v>
+        <v>210</v>
       </c>
       <c r="E151" t="s">
         <v>28</v>
@@ -5474,7 +5472,7 @@
         <v>1</v>
       </c>
       <c r="D152">
-        <v>44</v>
+        <v>220</v>
       </c>
       <c r="E152" t="s">
         <v>28</v>
@@ -5494,7 +5492,7 @@
         <v>1</v>
       </c>
       <c r="D153">
-        <v>46</v>
+        <v>230</v>
       </c>
       <c r="E153" t="s">
         <v>29</v>
@@ -5514,7 +5512,7 @@
         <v>1</v>
       </c>
       <c r="D154">
-        <v>48</v>
+        <v>240</v>
       </c>
       <c r="E154" t="s">
         <v>29</v>
@@ -5534,7 +5532,7 @@
         <v>1</v>
       </c>
       <c r="D155">
-        <v>50</v>
+        <v>250</v>
       </c>
       <c r="E155" t="s">
         <v>29</v>
@@ -5554,7 +5552,7 @@
         <v>1</v>
       </c>
       <c r="D156">
-        <v>53</v>
+        <v>265</v>
       </c>
       <c r="E156" t="s">
         <v>29</v>
@@ -5574,7 +5572,7 @@
         <v>3</v>
       </c>
       <c r="D157">
-        <v>25</v>
+        <v>125</v>
       </c>
       <c r="E157" t="s">
         <v>18</v>
@@ -5594,7 +5592,7 @@
         <v>3</v>
       </c>
       <c r="D158">
-        <v>27</v>
+        <v>135</v>
       </c>
       <c r="E158" t="s">
         <v>20</v>
@@ -5614,7 +5612,7 @@
         <v>3</v>
       </c>
       <c r="D159">
-        <v>29</v>
+        <v>145</v>
       </c>
       <c r="E159" t="s">
         <v>21</v>
@@ -5634,7 +5632,7 @@
         <v>2</v>
       </c>
       <c r="D160">
-        <v>32</v>
+        <v>160</v>
       </c>
       <c r="E160" t="s">
         <v>22</v>
@@ -5654,7 +5652,7 @@
         <v>2</v>
       </c>
       <c r="D161">
-        <v>34</v>
+        <v>170</v>
       </c>
       <c r="E161" t="s">
         <v>14</v>
@@ -5674,7 +5672,7 @@
         <v>2</v>
       </c>
       <c r="D162">
-        <v>36</v>
+        <v>180</v>
       </c>
       <c r="E162" t="s">
         <v>10</v>
@@ -5694,7 +5692,7 @@
         <v>2</v>
       </c>
       <c r="D163">
-        <v>38</v>
+        <v>190</v>
       </c>
       <c r="E163" t="s">
         <v>23</v>
@@ -5714,7 +5712,7 @@
         <v>2</v>
       </c>
       <c r="D164">
-        <v>40</v>
+        <v>200</v>
       </c>
       <c r="E164" t="s">
         <v>24</v>
@@ -5734,7 +5732,7 @@
         <v>1</v>
       </c>
       <c r="D165">
-        <v>42</v>
+        <v>210</v>
       </c>
       <c r="E165" t="s">
         <v>24</v>
@@ -5754,7 +5752,7 @@
         <v>1</v>
       </c>
       <c r="D166">
-        <v>44</v>
+        <v>220</v>
       </c>
       <c r="E166" t="s">
         <v>24</v>
@@ -5774,7 +5772,7 @@
         <v>1</v>
       </c>
       <c r="D167">
-        <v>46</v>
+        <v>230</v>
       </c>
       <c r="E167" t="s">
         <v>25</v>
@@ -5794,7 +5792,7 @@
         <v>1</v>
       </c>
       <c r="D168">
-        <v>48</v>
+        <v>240</v>
       </c>
       <c r="E168" t="s">
         <v>25</v>
@@ -5814,7 +5812,7 @@
         <v>1</v>
       </c>
       <c r="D169">
-        <v>50</v>
+        <v>250</v>
       </c>
       <c r="E169" t="s">
         <v>25</v>
@@ -5834,7 +5832,7 @@
         <v>1</v>
       </c>
       <c r="D170">
-        <v>53</v>
+        <v>265</v>
       </c>
       <c r="E170" t="s">
         <v>25</v>
@@ -5854,7 +5852,7 @@
         <v>3</v>
       </c>
       <c r="D171">
-        <v>25</v>
+        <v>125</v>
       </c>
       <c r="E171" t="s">
         <v>18</v>
@@ -5874,7 +5872,7 @@
         <v>3</v>
       </c>
       <c r="D172">
-        <v>27</v>
+        <v>135</v>
       </c>
       <c r="E172" t="s">
         <v>20</v>
@@ -5894,7 +5892,7 @@
         <v>3</v>
       </c>
       <c r="D173">
-        <v>29</v>
+        <v>145</v>
       </c>
       <c r="E173" t="s">
         <v>21</v>
@@ -5914,7 +5912,7 @@
         <v>2</v>
       </c>
       <c r="D174">
-        <v>32</v>
+        <v>160</v>
       </c>
       <c r="E174" t="s">
         <v>22</v>
@@ -5934,7 +5932,7 @@
         <v>2</v>
       </c>
       <c r="D175">
-        <v>34</v>
+        <v>170</v>
       </c>
       <c r="E175" t="s">
         <v>14</v>
@@ -5954,7 +5952,7 @@
         <v>2</v>
       </c>
       <c r="D176">
-        <v>36</v>
+        <v>180</v>
       </c>
       <c r="E176" t="s">
         <v>10</v>
@@ -5974,7 +5972,7 @@
         <v>2</v>
       </c>
       <c r="D177">
-        <v>38</v>
+        <v>190</v>
       </c>
       <c r="E177" t="s">
         <v>23</v>
@@ -5994,7 +5992,7 @@
         <v>2</v>
       </c>
       <c r="D178">
-        <v>40</v>
+        <v>200</v>
       </c>
       <c r="E178" t="s">
         <v>24</v>
@@ -6014,7 +6012,7 @@
         <v>1</v>
       </c>
       <c r="D179">
-        <v>42</v>
+        <v>210</v>
       </c>
       <c r="E179" t="s">
         <v>24</v>
@@ -6034,7 +6032,7 @@
         <v>1</v>
       </c>
       <c r="D180">
-        <v>44</v>
+        <v>220</v>
       </c>
       <c r="E180" t="s">
         <v>24</v>
@@ -6054,7 +6052,7 @@
         <v>1</v>
       </c>
       <c r="D181">
-        <v>46</v>
+        <v>230</v>
       </c>
       <c r="E181" t="s">
         <v>25</v>
@@ -6074,7 +6072,7 @@
         <v>1</v>
       </c>
       <c r="D182">
-        <v>48</v>
+        <v>240</v>
       </c>
       <c r="E182" t="s">
         <v>25</v>
@@ -6094,7 +6092,7 @@
         <v>1</v>
       </c>
       <c r="D183">
-        <v>50</v>
+        <v>250</v>
       </c>
       <c r="E183" t="s">
         <v>25</v>
@@ -6114,7 +6112,7 @@
         <v>1</v>
       </c>
       <c r="D184">
-        <v>53</v>
+        <v>265</v>
       </c>
       <c r="E184" t="s">
         <v>25</v>
@@ -6134,7 +6132,7 @@
         <v>3</v>
       </c>
       <c r="D185">
-        <v>25</v>
+        <v>125</v>
       </c>
       <c r="E185" t="s">
         <v>18</v>
@@ -6154,7 +6152,7 @@
         <v>3</v>
       </c>
       <c r="D186">
-        <v>27</v>
+        <v>135</v>
       </c>
       <c r="E186" t="s">
         <v>20</v>
@@ -6174,7 +6172,7 @@
         <v>3</v>
       </c>
       <c r="D187">
-        <v>29</v>
+        <v>145</v>
       </c>
       <c r="E187" t="s">
         <v>21</v>
@@ -6194,7 +6192,7 @@
         <v>2</v>
       </c>
       <c r="D188">
-        <v>32</v>
+        <v>160</v>
       </c>
       <c r="E188" t="s">
         <v>22</v>
@@ -6214,7 +6212,7 @@
         <v>2</v>
       </c>
       <c r="D189">
-        <v>34</v>
+        <v>170</v>
       </c>
       <c r="E189" t="s">
         <v>14</v>
@@ -6234,7 +6232,7 @@
         <v>2</v>
       </c>
       <c r="D190">
-        <v>36</v>
+        <v>180</v>
       </c>
       <c r="E190" t="s">
         <v>10</v>
@@ -6254,7 +6252,7 @@
         <v>2</v>
       </c>
       <c r="D191">
-        <v>38</v>
+        <v>190</v>
       </c>
       <c r="E191" t="s">
         <v>23</v>
@@ -6274,7 +6272,7 @@
         <v>2</v>
       </c>
       <c r="D192">
-        <v>40</v>
+        <v>200</v>
       </c>
       <c r="E192" t="s">
         <v>24</v>
@@ -6294,7 +6292,7 @@
         <v>1</v>
       </c>
       <c r="D193">
-        <v>42</v>
+        <v>210</v>
       </c>
       <c r="E193" t="s">
         <v>24</v>
@@ -6314,7 +6312,7 @@
         <v>1</v>
       </c>
       <c r="D194">
-        <v>44</v>
+        <v>220</v>
       </c>
       <c r="E194" t="s">
         <v>24</v>
@@ -6334,7 +6332,7 @@
         <v>1</v>
       </c>
       <c r="D195">
-        <v>46</v>
+        <v>230</v>
       </c>
       <c r="E195" t="s">
         <v>25</v>
@@ -6354,7 +6352,7 @@
         <v>1</v>
       </c>
       <c r="D196">
-        <v>48</v>
+        <v>240</v>
       </c>
       <c r="E196" t="s">
         <v>25</v>
@@ -6374,7 +6372,7 @@
         <v>1</v>
       </c>
       <c r="D197">
-        <v>50</v>
+        <v>250</v>
       </c>
       <c r="E197" t="s">
         <v>25</v>
@@ -6394,7 +6392,7 @@
         <v>1</v>
       </c>
       <c r="D198">
-        <v>53</v>
+        <v>265</v>
       </c>
       <c r="E198" t="s">
         <v>25</v>
@@ -6414,7 +6412,7 @@
         <v>3</v>
       </c>
       <c r="D199">
-        <v>25</v>
+        <v>125</v>
       </c>
       <c r="E199" t="s">
         <v>18</v>
@@ -6434,7 +6432,7 @@
         <v>3</v>
       </c>
       <c r="D200">
-        <v>27</v>
+        <v>135</v>
       </c>
       <c r="E200" t="s">
         <v>20</v>
@@ -6454,7 +6452,7 @@
         <v>3</v>
       </c>
       <c r="D201">
-        <v>29</v>
+        <v>145</v>
       </c>
       <c r="E201" t="s">
         <v>21</v>
@@ -6474,7 +6472,7 @@
         <v>2</v>
       </c>
       <c r="D202">
-        <v>32</v>
+        <v>160</v>
       </c>
       <c r="E202" t="s">
         <v>22</v>
@@ -6494,7 +6492,7 @@
         <v>2</v>
       </c>
       <c r="D203">
-        <v>34</v>
+        <v>170</v>
       </c>
       <c r="E203" t="s">
         <v>14</v>
@@ -6514,7 +6512,7 @@
         <v>2</v>
       </c>
       <c r="D204">
-        <v>36</v>
+        <v>180</v>
       </c>
       <c r="E204" t="s">
         <v>10</v>
@@ -6534,7 +6532,7 @@
         <v>2</v>
       </c>
       <c r="D205">
-        <v>38</v>
+        <v>190</v>
       </c>
       <c r="E205" t="s">
         <v>23</v>
@@ -6554,7 +6552,7 @@
         <v>2</v>
       </c>
       <c r="D206">
-        <v>40</v>
+        <v>200</v>
       </c>
       <c r="E206" t="s">
         <v>24</v>
@@ -6574,7 +6572,7 @@
         <v>1</v>
       </c>
       <c r="D207">
-        <v>42</v>
+        <v>210</v>
       </c>
       <c r="E207" t="s">
         <v>24</v>
@@ -6594,7 +6592,7 @@
         <v>1</v>
       </c>
       <c r="D208">
-        <v>44</v>
+        <v>220</v>
       </c>
       <c r="E208" t="s">
         <v>24</v>
@@ -6614,7 +6612,7 @@
         <v>1</v>
       </c>
       <c r="D209">
-        <v>46</v>
+        <v>230</v>
       </c>
       <c r="E209" t="s">
         <v>25</v>
@@ -6634,7 +6632,7 @@
         <v>1</v>
       </c>
       <c r="D210">
-        <v>48</v>
+        <v>240</v>
       </c>
       <c r="E210" t="s">
         <v>25</v>
@@ -6654,7 +6652,7 @@
         <v>1</v>
       </c>
       <c r="D211">
-        <v>50</v>
+        <v>250</v>
       </c>
       <c r="E211" t="s">
         <v>25</v>
@@ -6674,7 +6672,7 @@
         <v>1</v>
       </c>
       <c r="D212">
-        <v>53</v>
+        <v>265</v>
       </c>
       <c r="E212" t="s">
         <v>25</v>
@@ -6694,7 +6692,7 @@
         <v>3</v>
       </c>
       <c r="D213">
-        <v>25</v>
+        <v>125</v>
       </c>
       <c r="E213" t="s">
         <v>21</v>
@@ -6714,7 +6712,7 @@
         <v>3</v>
       </c>
       <c r="D214">
-        <v>27</v>
+        <v>135</v>
       </c>
       <c r="E214" t="s">
         <v>26</v>
@@ -6734,7 +6732,7 @@
         <v>3</v>
       </c>
       <c r="D215">
-        <v>29</v>
+        <v>145</v>
       </c>
       <c r="E215" t="s">
         <v>14</v>
@@ -6754,7 +6752,7 @@
         <v>2</v>
       </c>
       <c r="D216">
-        <v>32</v>
+        <v>160</v>
       </c>
       <c r="E216" t="s">
         <v>10</v>
@@ -6774,7 +6772,7 @@
         <v>2</v>
       </c>
       <c r="D217">
-        <v>34</v>
+        <v>170</v>
       </c>
       <c r="E217" t="s">
         <v>23</v>
@@ -6794,7 +6792,7 @@
         <v>2</v>
       </c>
       <c r="D218">
-        <v>36</v>
+        <v>180</v>
       </c>
       <c r="E218" t="s">
         <v>24</v>
@@ -6814,7 +6812,7 @@
         <v>2</v>
       </c>
       <c r="D219">
-        <v>38</v>
+        <v>190</v>
       </c>
       <c r="E219" t="s">
         <v>27</v>
@@ -6834,7 +6832,7 @@
         <v>2</v>
       </c>
       <c r="D220">
-        <v>40</v>
+        <v>200</v>
       </c>
       <c r="E220" t="s">
         <v>28</v>
@@ -6854,7 +6852,7 @@
         <v>1</v>
       </c>
       <c r="D221">
-        <v>42</v>
+        <v>210</v>
       </c>
       <c r="E221" t="s">
         <v>28</v>
@@ -6874,7 +6872,7 @@
         <v>1</v>
       </c>
       <c r="D222">
-        <v>44</v>
+        <v>220</v>
       </c>
       <c r="E222" t="s">
         <v>28</v>
@@ -6894,7 +6892,7 @@
         <v>1</v>
       </c>
       <c r="D223">
-        <v>46</v>
+        <v>230</v>
       </c>
       <c r="E223" t="s">
         <v>29</v>
@@ -6914,7 +6912,7 @@
         <v>1</v>
       </c>
       <c r="D224">
-        <v>48</v>
+        <v>240</v>
       </c>
       <c r="E224" t="s">
         <v>29</v>
@@ -6934,7 +6932,7 @@
         <v>1</v>
       </c>
       <c r="D225">
-        <v>50</v>
+        <v>250</v>
       </c>
       <c r="E225" t="s">
         <v>29</v>
@@ -6954,7 +6952,7 @@
         <v>1</v>
       </c>
       <c r="D226">
-        <v>53</v>
+        <v>265</v>
       </c>
       <c r="E226" t="s">
         <v>29</v>
@@ -6974,7 +6972,7 @@
         <v>3</v>
       </c>
       <c r="D227">
-        <v>27</v>
+        <v>135</v>
       </c>
       <c r="E227" t="s">
         <v>20</v>
@@ -6994,7 +6992,7 @@
         <v>3</v>
       </c>
       <c r="D228">
-        <v>29</v>
+        <v>145</v>
       </c>
       <c r="E228" t="s">
         <v>21</v>
@@ -7014,7 +7012,7 @@
         <v>2</v>
       </c>
       <c r="D229">
-        <v>32</v>
+        <v>160</v>
       </c>
       <c r="E229" t="s">
         <v>22</v>
@@ -7034,7 +7032,7 @@
         <v>2</v>
       </c>
       <c r="D230">
-        <v>34</v>
+        <v>170</v>
       </c>
       <c r="E230" t="s">
         <v>14</v>
@@ -7054,7 +7052,7 @@
         <v>2</v>
       </c>
       <c r="D231">
-        <v>36</v>
+        <v>180</v>
       </c>
       <c r="E231" t="s">
         <v>10</v>
@@ -7074,7 +7072,7 @@
         <v>2</v>
       </c>
       <c r="D232">
-        <v>38</v>
+        <v>190</v>
       </c>
       <c r="E232" t="s">
         <v>23</v>
@@ -7094,7 +7092,7 @@
         <v>2</v>
       </c>
       <c r="D233">
-        <v>40</v>
+        <v>200</v>
       </c>
       <c r="E233" t="s">
         <v>24</v>
@@ -7114,7 +7112,7 @@
         <v>1</v>
       </c>
       <c r="D234">
-        <v>42</v>
+        <v>210</v>
       </c>
       <c r="E234" t="s">
         <v>24</v>
@@ -7134,7 +7132,7 @@
         <v>1</v>
       </c>
       <c r="D235">
-        <v>44</v>
+        <v>220</v>
       </c>
       <c r="E235" t="s">
         <v>24</v>
@@ -7154,7 +7152,7 @@
         <v>1</v>
       </c>
       <c r="D236">
-        <v>46</v>
+        <v>230</v>
       </c>
       <c r="E236" t="s">
         <v>25</v>
@@ -7174,7 +7172,7 @@
         <v>1</v>
       </c>
       <c r="D237">
-        <v>48</v>
+        <v>240</v>
       </c>
       <c r="E237" t="s">
         <v>25</v>
@@ -7194,7 +7192,7 @@
         <v>1</v>
       </c>
       <c r="D238">
-        <v>50</v>
+        <v>250</v>
       </c>
       <c r="E238" t="s">
         <v>25</v>
@@ -7214,7 +7212,7 @@
         <v>1</v>
       </c>
       <c r="D239">
-        <v>53</v>
+        <v>265</v>
       </c>
       <c r="E239" t="s">
         <v>25</v>
@@ -7234,7 +7232,7 @@
         <v>3</v>
       </c>
       <c r="D240">
-        <v>27</v>
+        <v>135</v>
       </c>
       <c r="E240" t="s">
         <v>20</v>
@@ -7254,7 +7252,7 @@
         <v>3</v>
       </c>
       <c r="D241">
-        <v>29</v>
+        <v>145</v>
       </c>
       <c r="E241" t="s">
         <v>21</v>
@@ -7274,7 +7272,7 @@
         <v>2</v>
       </c>
       <c r="D242">
-        <v>32</v>
+        <v>160</v>
       </c>
       <c r="E242" t="s">
         <v>22</v>
@@ -7294,7 +7292,7 @@
         <v>2</v>
       </c>
       <c r="D243">
-        <v>34</v>
+        <v>170</v>
       </c>
       <c r="E243" t="s">
         <v>14</v>
@@ -7314,7 +7312,7 @@
         <v>2</v>
       </c>
       <c r="D244">
-        <v>36</v>
+        <v>180</v>
       </c>
       <c r="E244" t="s">
         <v>10</v>
@@ -7334,7 +7332,7 @@
         <v>2</v>
       </c>
       <c r="D245">
-        <v>38</v>
+        <v>190</v>
       </c>
       <c r="E245" t="s">
         <v>23</v>
@@ -7354,7 +7352,7 @@
         <v>2</v>
       </c>
       <c r="D246">
-        <v>40</v>
+        <v>200</v>
       </c>
       <c r="E246" t="s">
         <v>24</v>
@@ -7374,7 +7372,7 @@
         <v>1</v>
       </c>
       <c r="D247">
-        <v>42</v>
+        <v>210</v>
       </c>
       <c r="E247" t="s">
         <v>24</v>
@@ -7394,7 +7392,7 @@
         <v>1</v>
       </c>
       <c r="D248">
-        <v>44</v>
+        <v>220</v>
       </c>
       <c r="E248" t="s">
         <v>24</v>
@@ -7414,7 +7412,7 @@
         <v>1</v>
       </c>
       <c r="D249">
-        <v>46</v>
+        <v>230</v>
       </c>
       <c r="E249" t="s">
         <v>25</v>
@@ -7434,7 +7432,7 @@
         <v>1</v>
       </c>
       <c r="D250">
-        <v>48</v>
+        <v>240</v>
       </c>
       <c r="E250" t="s">
         <v>25</v>
@@ -7454,7 +7452,7 @@
         <v>1</v>
       </c>
       <c r="D251">
-        <v>50</v>
+        <v>250</v>
       </c>
       <c r="E251" t="s">
         <v>25</v>
@@ -7474,7 +7472,7 @@
         <v>1</v>
       </c>
       <c r="D252">
-        <v>53</v>
+        <v>265</v>
       </c>
       <c r="E252" t="s">
         <v>25</v>
@@ -7494,7 +7492,7 @@
         <v>3</v>
       </c>
       <c r="D253">
-        <v>27</v>
+        <v>135</v>
       </c>
       <c r="E253" t="s">
         <v>20</v>
@@ -7514,7 +7512,7 @@
         <v>3</v>
       </c>
       <c r="D254">
-        <v>29</v>
+        <v>145</v>
       </c>
       <c r="E254" t="s">
         <v>21</v>
@@ -7534,7 +7532,7 @@
         <v>2</v>
       </c>
       <c r="D255">
-        <v>32</v>
+        <v>160</v>
       </c>
       <c r="E255" t="s">
         <v>22</v>
@@ -7554,7 +7552,7 @@
         <v>2</v>
       </c>
       <c r="D256">
-        <v>34</v>
+        <v>170</v>
       </c>
       <c r="E256" t="s">
         <v>14</v>
@@ -7574,7 +7572,7 @@
         <v>2</v>
       </c>
       <c r="D257">
-        <v>36</v>
+        <v>180</v>
       </c>
       <c r="E257" t="s">
         <v>10</v>
@@ -7594,7 +7592,7 @@
         <v>2</v>
       </c>
       <c r="D258">
-        <v>38</v>
+        <v>190</v>
       </c>
       <c r="E258" t="s">
         <v>23</v>
@@ -7614,7 +7612,7 @@
         <v>2</v>
       </c>
       <c r="D259">
-        <v>40</v>
+        <v>200</v>
       </c>
       <c r="E259" t="s">
         <v>24</v>
@@ -7634,7 +7632,7 @@
         <v>1</v>
       </c>
       <c r="D260">
-        <v>42</v>
+        <v>210</v>
       </c>
       <c r="E260" t="s">
         <v>24</v>
@@ -7654,7 +7652,7 @@
         <v>1</v>
       </c>
       <c r="D261">
-        <v>44</v>
+        <v>220</v>
       </c>
       <c r="E261" t="s">
         <v>24</v>
@@ -7674,7 +7672,7 @@
         <v>1</v>
       </c>
       <c r="D262">
-        <v>46</v>
+        <v>230</v>
       </c>
       <c r="E262" t="s">
         <v>25</v>
@@ -7694,7 +7692,7 @@
         <v>1</v>
       </c>
       <c r="D263">
-        <v>48</v>
+        <v>240</v>
       </c>
       <c r="E263" t="s">
         <v>25</v>
@@ -7714,7 +7712,7 @@
         <v>1</v>
       </c>
       <c r="D264">
-        <v>50</v>
+        <v>250</v>
       </c>
       <c r="E264" t="s">
         <v>25</v>
@@ -7734,7 +7732,7 @@
         <v>1</v>
       </c>
       <c r="D265">
-        <v>53</v>
+        <v>265</v>
       </c>
       <c r="E265" t="s">
         <v>25</v>
@@ -7754,7 +7752,7 @@
         <v>3</v>
       </c>
       <c r="D266">
-        <v>27</v>
+        <v>135</v>
       </c>
       <c r="E266" t="s">
         <v>20</v>
@@ -7774,7 +7772,7 @@
         <v>3</v>
       </c>
       <c r="D267">
-        <v>29</v>
+        <v>145</v>
       </c>
       <c r="E267" t="s">
         <v>21</v>
@@ -7794,7 +7792,7 @@
         <v>2</v>
       </c>
       <c r="D268">
-        <v>32</v>
+        <v>160</v>
       </c>
       <c r="E268" t="s">
         <v>22</v>
@@ -7814,7 +7812,7 @@
         <v>2</v>
       </c>
       <c r="D269">
-        <v>34</v>
+        <v>170</v>
       </c>
       <c r="E269" t="s">
         <v>14</v>
@@ -7834,7 +7832,7 @@
         <v>2</v>
       </c>
       <c r="D270">
-        <v>36</v>
+        <v>180</v>
       </c>
       <c r="E270" t="s">
         <v>10</v>
@@ -7854,7 +7852,7 @@
         <v>2</v>
       </c>
       <c r="D271">
-        <v>38</v>
+        <v>190</v>
       </c>
       <c r="E271" t="s">
         <v>23</v>
@@ -7874,7 +7872,7 @@
         <v>2</v>
       </c>
       <c r="D272">
-        <v>40</v>
+        <v>200</v>
       </c>
       <c r="E272" t="s">
         <v>24</v>
@@ -7894,7 +7892,7 @@
         <v>1</v>
       </c>
       <c r="D273">
-        <v>42</v>
+        <v>210</v>
       </c>
       <c r="E273" t="s">
         <v>24</v>
@@ -7914,7 +7912,7 @@
         <v>1</v>
       </c>
       <c r="D274">
-        <v>44</v>
+        <v>220</v>
       </c>
       <c r="E274" t="s">
         <v>24</v>
@@ -7934,7 +7932,7 @@
         <v>1</v>
       </c>
       <c r="D275">
-        <v>46</v>
+        <v>230</v>
       </c>
       <c r="E275" t="s">
         <v>25</v>
@@ -7954,7 +7952,7 @@
         <v>1</v>
       </c>
       <c r="D276">
-        <v>48</v>
+        <v>240</v>
       </c>
       <c r="E276" t="s">
         <v>25</v>
@@ -7974,7 +7972,7 @@
         <v>1</v>
       </c>
       <c r="D277">
-        <v>50</v>
+        <v>250</v>
       </c>
       <c r="E277" t="s">
         <v>25</v>
@@ -7994,7 +7992,7 @@
         <v>1</v>
       </c>
       <c r="D278">
-        <v>53</v>
+        <v>265</v>
       </c>
       <c r="E278" t="s">
         <v>25</v>
@@ -8014,7 +8012,7 @@
         <v>3</v>
       </c>
       <c r="D279">
-        <v>27</v>
+        <v>135</v>
       </c>
       <c r="E279" t="s">
         <v>26</v>
@@ -8034,7 +8032,7 @@
         <v>3</v>
       </c>
       <c r="D280">
-        <v>29</v>
+        <v>145</v>
       </c>
       <c r="E280" t="s">
         <v>14</v>
@@ -8054,7 +8052,7 @@
         <v>2</v>
       </c>
       <c r="D281">
-        <v>32</v>
+        <v>160</v>
       </c>
       <c r="E281" t="s">
         <v>10</v>
@@ -8074,7 +8072,7 @@
         <v>2</v>
       </c>
       <c r="D282">
-        <v>34</v>
+        <v>170</v>
       </c>
       <c r="E282" t="s">
         <v>23</v>
@@ -8094,7 +8092,7 @@
         <v>2</v>
       </c>
       <c r="D283">
-        <v>36</v>
+        <v>180</v>
       </c>
       <c r="E283" t="s">
         <v>24</v>
@@ -8114,7 +8112,7 @@
         <v>2</v>
       </c>
       <c r="D284">
-        <v>38</v>
+        <v>190</v>
       </c>
       <c r="E284" t="s">
         <v>27</v>
@@ -8134,7 +8132,7 @@
         <v>2</v>
       </c>
       <c r="D285">
-        <v>40</v>
+        <v>200</v>
       </c>
       <c r="E285" t="s">
         <v>28</v>
@@ -8154,7 +8152,7 @@
         <v>1</v>
       </c>
       <c r="D286">
-        <v>42</v>
+        <v>210</v>
       </c>
       <c r="E286" t="s">
         <v>28</v>
@@ -8174,7 +8172,7 @@
         <v>1</v>
       </c>
       <c r="D287">
-        <v>44</v>
+        <v>220</v>
       </c>
       <c r="E287" t="s">
         <v>28</v>
@@ -8194,7 +8192,7 @@
         <v>1</v>
       </c>
       <c r="D288">
-        <v>46</v>
+        <v>230</v>
       </c>
       <c r="E288" t="s">
         <v>29</v>
@@ -8214,7 +8212,7 @@
         <v>1</v>
       </c>
       <c r="D289">
-        <v>48</v>
+        <v>240</v>
       </c>
       <c r="E289" t="s">
         <v>29</v>
@@ -8234,7 +8232,7 @@
         <v>1</v>
       </c>
       <c r="D290">
-        <v>50</v>
+        <v>250</v>
       </c>
       <c r="E290" t="s">
         <v>29</v>
@@ -8254,7 +8252,7 @@
         <v>1</v>
       </c>
       <c r="D291">
-        <v>53</v>
+        <v>265</v>
       </c>
       <c r="E291" t="s">
         <v>29</v>
@@ -8274,7 +8272,7 @@
         <v>3</v>
       </c>
       <c r="D292">
-        <v>29</v>
+        <v>145</v>
       </c>
       <c r="E292" t="s">
         <v>21</v>
@@ -8294,7 +8292,7 @@
         <v>2</v>
       </c>
       <c r="D293">
-        <v>32</v>
+        <v>160</v>
       </c>
       <c r="E293" t="s">
         <v>22</v>
@@ -8314,7 +8312,7 @@
         <v>2</v>
       </c>
       <c r="D294">
-        <v>34</v>
+        <v>170</v>
       </c>
       <c r="E294" t="s">
         <v>14</v>
@@ -8334,7 +8332,7 @@
         <v>2</v>
       </c>
       <c r="D295">
-        <v>36</v>
+        <v>180</v>
       </c>
       <c r="E295" t="s">
         <v>10</v>
@@ -8354,7 +8352,7 @@
         <v>2</v>
       </c>
       <c r="D296">
-        <v>38</v>
+        <v>190</v>
       </c>
       <c r="E296" t="s">
         <v>23</v>
@@ -8374,7 +8372,7 @@
         <v>2</v>
       </c>
       <c r="D297">
-        <v>40</v>
+        <v>200</v>
       </c>
       <c r="E297" t="s">
         <v>24</v>
@@ -8394,7 +8392,7 @@
         <v>1</v>
       </c>
       <c r="D298">
-        <v>42</v>
+        <v>210</v>
       </c>
       <c r="E298" t="s">
         <v>24</v>
@@ -8414,7 +8412,7 @@
         <v>1</v>
       </c>
       <c r="D299">
-        <v>44</v>
+        <v>220</v>
       </c>
       <c r="E299" t="s">
         <v>24</v>
@@ -8434,7 +8432,7 @@
         <v>1</v>
       </c>
       <c r="D300">
-        <v>46</v>
+        <v>230</v>
       </c>
       <c r="E300" t="s">
         <v>25</v>
@@ -8454,7 +8452,7 @@
         <v>1</v>
       </c>
       <c r="D301">
-        <v>48</v>
+        <v>240</v>
       </c>
       <c r="E301" t="s">
         <v>25</v>
@@ -8474,7 +8472,7 @@
         <v>1</v>
       </c>
       <c r="D302">
-        <v>50</v>
+        <v>250</v>
       </c>
       <c r="E302" t="s">
         <v>25</v>
@@ -8494,7 +8492,7 @@
         <v>1</v>
       </c>
       <c r="D303">
-        <v>53</v>
+        <v>265</v>
       </c>
       <c r="E303" t="s">
         <v>25</v>
@@ -8514,7 +8512,7 @@
         <v>3</v>
       </c>
       <c r="D304">
-        <v>29</v>
+        <v>145</v>
       </c>
       <c r="E304" t="s">
         <v>21</v>
@@ -8534,7 +8532,7 @@
         <v>2</v>
       </c>
       <c r="D305">
-        <v>32</v>
+        <v>160</v>
       </c>
       <c r="E305" t="s">
         <v>22</v>
@@ -8554,7 +8552,7 @@
         <v>2</v>
       </c>
       <c r="D306">
-        <v>34</v>
+        <v>170</v>
       </c>
       <c r="E306" t="s">
         <v>14</v>
@@ -8574,7 +8572,7 @@
         <v>2</v>
       </c>
       <c r="D307">
-        <v>36</v>
+        <v>180</v>
       </c>
       <c r="E307" t="s">
         <v>10</v>
@@ -8594,7 +8592,7 @@
         <v>2</v>
       </c>
       <c r="D308">
-        <v>38</v>
+        <v>190</v>
       </c>
       <c r="E308" t="s">
         <v>23</v>
@@ -8614,7 +8612,7 @@
         <v>2</v>
       </c>
       <c r="D309">
-        <v>40</v>
+        <v>200</v>
       </c>
       <c r="E309" t="s">
         <v>24</v>
@@ -8634,7 +8632,7 @@
         <v>1</v>
       </c>
       <c r="D310">
-        <v>42</v>
+        <v>210</v>
       </c>
       <c r="E310" t="s">
         <v>24</v>
@@ -8654,7 +8652,7 @@
         <v>1</v>
       </c>
       <c r="D311">
-        <v>44</v>
+        <v>220</v>
       </c>
       <c r="E311" t="s">
         <v>24</v>
@@ -8674,7 +8672,7 @@
         <v>1</v>
       </c>
       <c r="D312">
-        <v>46</v>
+        <v>230</v>
       </c>
       <c r="E312" t="s">
         <v>25</v>
@@ -8694,7 +8692,7 @@
         <v>1</v>
       </c>
       <c r="D313">
-        <v>48</v>
+        <v>240</v>
       </c>
       <c r="E313" t="s">
         <v>25</v>
@@ -8714,7 +8712,7 @@
         <v>1</v>
       </c>
       <c r="D314">
-        <v>50</v>
+        <v>250</v>
       </c>
       <c r="E314" t="s">
         <v>25</v>
@@ -8734,7 +8732,7 @@
         <v>1</v>
       </c>
       <c r="D315">
-        <v>53</v>
+        <v>265</v>
       </c>
       <c r="E315" t="s">
         <v>25</v>
@@ -8754,7 +8752,7 @@
         <v>3</v>
       </c>
       <c r="D316">
-        <v>29</v>
+        <v>145</v>
       </c>
       <c r="E316" t="s">
         <v>21</v>
@@ -8774,7 +8772,7 @@
         <v>2</v>
       </c>
       <c r="D317">
-        <v>32</v>
+        <v>160</v>
       </c>
       <c r="E317" t="s">
         <v>22</v>
@@ -8794,7 +8792,7 @@
         <v>2</v>
       </c>
       <c r="D318">
-        <v>34</v>
+        <v>170</v>
       </c>
       <c r="E318" t="s">
         <v>14</v>
@@ -8814,7 +8812,7 @@
         <v>2</v>
       </c>
       <c r="D319">
-        <v>36</v>
+        <v>180</v>
       </c>
       <c r="E319" t="s">
         <v>10</v>
@@ -8834,7 +8832,7 @@
         <v>2</v>
       </c>
       <c r="D320">
-        <v>38</v>
+        <v>190</v>
       </c>
       <c r="E320" t="s">
         <v>23</v>
@@ -8854,7 +8852,7 @@
         <v>2</v>
       </c>
       <c r="D321">
-        <v>40</v>
+        <v>200</v>
       </c>
       <c r="E321" t="s">
         <v>24</v>
@@ -8874,7 +8872,7 @@
         <v>1</v>
       </c>
       <c r="D322">
-        <v>42</v>
+        <v>210</v>
       </c>
       <c r="E322" t="s">
         <v>24</v>
@@ -8894,7 +8892,7 @@
         <v>1</v>
       </c>
       <c r="D323">
-        <v>44</v>
+        <v>220</v>
       </c>
       <c r="E323" t="s">
         <v>24</v>
@@ -8914,7 +8912,7 @@
         <v>1</v>
       </c>
       <c r="D324">
-        <v>46</v>
+        <v>230</v>
       </c>
       <c r="E324" t="s">
         <v>25</v>
@@ -8934,7 +8932,7 @@
         <v>1</v>
       </c>
       <c r="D325">
-        <v>48</v>
+        <v>240</v>
       </c>
       <c r="E325" t="s">
         <v>25</v>
@@ -8954,7 +8952,7 @@
         <v>1</v>
       </c>
       <c r="D326">
-        <v>50</v>
+        <v>250</v>
       </c>
       <c r="E326" t="s">
         <v>25</v>
@@ -8974,7 +8972,7 @@
         <v>1</v>
       </c>
       <c r="D327">
-        <v>53</v>
+        <v>265</v>
       </c>
       <c r="E327" t="s">
         <v>25</v>
@@ -8994,7 +8992,7 @@
         <v>3</v>
       </c>
       <c r="D328">
-        <v>29</v>
+        <v>145</v>
       </c>
       <c r="E328" t="s">
         <v>21</v>
@@ -9014,7 +9012,7 @@
         <v>2</v>
       </c>
       <c r="D329">
-        <v>32</v>
+        <v>160</v>
       </c>
       <c r="E329" t="s">
         <v>22</v>
@@ -9034,7 +9032,7 @@
         <v>2</v>
       </c>
       <c r="D330">
-        <v>34</v>
+        <v>170</v>
       </c>
       <c r="E330" t="s">
         <v>14</v>
@@ -9054,7 +9052,7 @@
         <v>2</v>
       </c>
       <c r="D331">
-        <v>36</v>
+        <v>180</v>
       </c>
       <c r="E331" t="s">
         <v>10</v>
@@ -9074,7 +9072,7 @@
         <v>2</v>
       </c>
       <c r="D332">
-        <v>38</v>
+        <v>190</v>
       </c>
       <c r="E332" t="s">
         <v>23</v>
@@ -9094,7 +9092,7 @@
         <v>2</v>
       </c>
       <c r="D333">
-        <v>40</v>
+        <v>200</v>
       </c>
       <c r="E333" t="s">
         <v>24</v>
@@ -9114,7 +9112,7 @@
         <v>1</v>
       </c>
       <c r="D334">
-        <v>42</v>
+        <v>210</v>
       </c>
       <c r="E334" t="s">
         <v>24</v>
@@ -9134,7 +9132,7 @@
         <v>1</v>
       </c>
       <c r="D335">
-        <v>44</v>
+        <v>220</v>
       </c>
       <c r="E335" t="s">
         <v>24</v>
@@ -9154,7 +9152,7 @@
         <v>1</v>
       </c>
       <c r="D336">
-        <v>46</v>
+        <v>230</v>
       </c>
       <c r="E336" t="s">
         <v>25</v>
@@ -9174,7 +9172,7 @@
         <v>1</v>
       </c>
       <c r="D337">
-        <v>48</v>
+        <v>240</v>
       </c>
       <c r="E337" t="s">
         <v>25</v>
@@ -9194,7 +9192,7 @@
         <v>1</v>
       </c>
       <c r="D338">
-        <v>50</v>
+        <v>250</v>
       </c>
       <c r="E338" t="s">
         <v>25</v>
@@ -9214,7 +9212,7 @@
         <v>1</v>
       </c>
       <c r="D339">
-        <v>53</v>
+        <v>265</v>
       </c>
       <c r="E339" t="s">
         <v>25</v>
@@ -9234,7 +9232,7 @@
         <v>3</v>
       </c>
       <c r="D340">
-        <v>29</v>
+        <v>145</v>
       </c>
       <c r="E340" t="s">
         <v>14</v>
@@ -9254,7 +9252,7 @@
         <v>2</v>
       </c>
       <c r="D341">
-        <v>32</v>
+        <v>160</v>
       </c>
       <c r="E341" t="s">
         <v>10</v>
@@ -9274,7 +9272,7 @@
         <v>2</v>
       </c>
       <c r="D342">
-        <v>34</v>
+        <v>170</v>
       </c>
       <c r="E342" t="s">
         <v>23</v>
@@ -9294,7 +9292,7 @@
         <v>2</v>
       </c>
       <c r="D343">
-        <v>36</v>
+        <v>180</v>
       </c>
       <c r="E343" t="s">
         <v>24</v>
@@ -9314,7 +9312,7 @@
         <v>2</v>
       </c>
       <c r="D344">
-        <v>38</v>
+        <v>190</v>
       </c>
       <c r="E344" t="s">
         <v>27</v>
@@ -9334,7 +9332,7 @@
         <v>2</v>
       </c>
       <c r="D345">
-        <v>40</v>
+        <v>200</v>
       </c>
       <c r="E345" t="s">
         <v>28</v>
@@ -9354,7 +9352,7 @@
         <v>1</v>
       </c>
       <c r="D346">
-        <v>42</v>
+        <v>210</v>
       </c>
       <c r="E346" t="s">
         <v>28</v>
@@ -9374,7 +9372,7 @@
         <v>1</v>
       </c>
       <c r="D347">
-        <v>44</v>
+        <v>220</v>
       </c>
       <c r="E347" t="s">
         <v>28</v>
@@ -9394,7 +9392,7 @@
         <v>1</v>
       </c>
       <c r="D348">
-        <v>46</v>
+        <v>230</v>
       </c>
       <c r="E348" t="s">
         <v>29</v>
@@ -9414,7 +9412,7 @@
         <v>1</v>
       </c>
       <c r="D349">
-        <v>48</v>
+        <v>240</v>
       </c>
       <c r="E349" t="s">
         <v>29</v>
@@ -9434,7 +9432,7 @@
         <v>1</v>
       </c>
       <c r="D350">
-        <v>50</v>
+        <v>250</v>
       </c>
       <c r="E350" t="s">
         <v>29</v>
@@ -9454,7 +9452,7 @@
         <v>1</v>
       </c>
       <c r="D351">
-        <v>53</v>
+        <v>265</v>
       </c>
       <c r="E351" t="s">
         <v>29</v>
@@ -9474,7 +9472,7 @@
         <v>2</v>
       </c>
       <c r="D352">
-        <v>32</v>
+        <v>160</v>
       </c>
       <c r="E352" t="s">
         <v>22</v>
@@ -9494,7 +9492,7 @@
         <v>2</v>
       </c>
       <c r="D353">
-        <v>34</v>
+        <v>170</v>
       </c>
       <c r="E353" t="s">
         <v>14</v>
@@ -9514,7 +9512,7 @@
         <v>2</v>
       </c>
       <c r="D354">
-        <v>36</v>
+        <v>180</v>
       </c>
       <c r="E354" t="s">
         <v>10</v>
@@ -9534,7 +9532,7 @@
         <v>2</v>
       </c>
       <c r="D355">
-        <v>38</v>
+        <v>190</v>
       </c>
       <c r="E355" t="s">
         <v>23</v>
@@ -9554,7 +9552,7 @@
         <v>2</v>
       </c>
       <c r="D356">
-        <v>40</v>
+        <v>200</v>
       </c>
       <c r="E356" t="s">
         <v>24</v>
@@ -9574,7 +9572,7 @@
         <v>1</v>
       </c>
       <c r="D357">
-        <v>42</v>
+        <v>210</v>
       </c>
       <c r="E357" t="s">
         <v>24</v>
@@ -9594,7 +9592,7 @@
         <v>1</v>
       </c>
       <c r="D358">
-        <v>44</v>
+        <v>220</v>
       </c>
       <c r="E358" t="s">
         <v>24</v>
@@ -9614,7 +9612,7 @@
         <v>1</v>
       </c>
       <c r="D359">
-        <v>46</v>
+        <v>230</v>
       </c>
       <c r="E359" t="s">
         <v>25</v>
@@ -9634,7 +9632,7 @@
         <v>1</v>
       </c>
       <c r="D360">
-        <v>48</v>
+        <v>240</v>
       </c>
       <c r="E360" t="s">
         <v>25</v>
@@ -9654,7 +9652,7 @@
         <v>1</v>
       </c>
       <c r="D361">
-        <v>50</v>
+        <v>250</v>
       </c>
       <c r="E361" t="s">
         <v>25</v>
@@ -9674,7 +9672,7 @@
         <v>1</v>
       </c>
       <c r="D362">
-        <v>53</v>
+        <v>265</v>
       </c>
       <c r="E362" t="s">
         <v>25</v>
@@ -9694,7 +9692,7 @@
         <v>2</v>
       </c>
       <c r="D363">
-        <v>32</v>
+        <v>160</v>
       </c>
       <c r="E363" t="s">
         <v>22</v>
@@ -9714,7 +9712,7 @@
         <v>2</v>
       </c>
       <c r="D364">
-        <v>34</v>
+        <v>170</v>
       </c>
       <c r="E364" t="s">
         <v>14</v>
@@ -9734,7 +9732,7 @@
         <v>2</v>
       </c>
       <c r="D365">
-        <v>36</v>
+        <v>180</v>
       </c>
       <c r="E365" t="s">
         <v>10</v>
@@ -9754,7 +9752,7 @@
         <v>2</v>
       </c>
       <c r="D366">
-        <v>38</v>
+        <v>190</v>
       </c>
       <c r="E366" t="s">
         <v>23</v>
@@ -9774,7 +9772,7 @@
         <v>2</v>
       </c>
       <c r="D367">
-        <v>40</v>
+        <v>200</v>
       </c>
       <c r="E367" t="s">
         <v>24</v>
@@ -9794,7 +9792,7 @@
         <v>1</v>
       </c>
       <c r="D368">
-        <v>42</v>
+        <v>210</v>
       </c>
       <c r="E368" t="s">
         <v>24</v>
@@ -9814,7 +9812,7 @@
         <v>1</v>
       </c>
       <c r="D369">
-        <v>44</v>
+        <v>220</v>
       </c>
       <c r="E369" t="s">
         <v>24</v>
@@ -9834,7 +9832,7 @@
         <v>1</v>
       </c>
       <c r="D370">
-        <v>46</v>
+        <v>230</v>
       </c>
       <c r="E370" t="s">
         <v>25</v>
@@ -9854,7 +9852,7 @@
         <v>1</v>
       </c>
       <c r="D371">
-        <v>48</v>
+        <v>240</v>
       </c>
       <c r="E371" t="s">
         <v>25</v>
@@ -9874,7 +9872,7 @@
         <v>1</v>
       </c>
       <c r="D372">
-        <v>50</v>
+        <v>250</v>
       </c>
       <c r="E372" t="s">
         <v>25</v>
@@ -9894,7 +9892,7 @@
         <v>1</v>
       </c>
       <c r="D373">
-        <v>53</v>
+        <v>265</v>
       </c>
       <c r="E373" t="s">
         <v>25</v>
@@ -9914,7 +9912,7 @@
         <v>2</v>
       </c>
       <c r="D374">
-        <v>32</v>
+        <v>160</v>
       </c>
       <c r="E374" t="s">
         <v>22</v>
@@ -9934,7 +9932,7 @@
         <v>2</v>
       </c>
       <c r="D375">
-        <v>34</v>
+        <v>170</v>
       </c>
       <c r="E375" t="s">
         <v>14</v>
@@ -9954,7 +9952,7 @@
         <v>2</v>
       </c>
       <c r="D376">
-        <v>36</v>
+        <v>180</v>
       </c>
       <c r="E376" t="s">
         <v>10</v>
@@ -9974,7 +9972,7 @@
         <v>2</v>
       </c>
       <c r="D377">
-        <v>38</v>
+        <v>190</v>
       </c>
       <c r="E377" t="s">
         <v>23</v>
@@ -9994,7 +9992,7 @@
         <v>2</v>
       </c>
       <c r="D378">
-        <v>40</v>
+        <v>200</v>
       </c>
       <c r="E378" t="s">
         <v>24</v>
@@ -10014,7 +10012,7 @@
         <v>1</v>
       </c>
       <c r="D379">
-        <v>42</v>
+        <v>210</v>
       </c>
       <c r="E379" t="s">
         <v>24</v>
@@ -10034,7 +10032,7 @@
         <v>1</v>
       </c>
       <c r="D380">
-        <v>44</v>
+        <v>220</v>
       </c>
       <c r="E380" t="s">
         <v>24</v>
@@ -10054,7 +10052,7 @@
         <v>1</v>
       </c>
       <c r="D381">
-        <v>46</v>
+        <v>230</v>
       </c>
       <c r="E381" t="s">
         <v>25</v>
@@ -10074,7 +10072,7 @@
         <v>1</v>
       </c>
       <c r="D382">
-        <v>48</v>
+        <v>240</v>
       </c>
       <c r="E382" t="s">
         <v>25</v>
@@ -10094,7 +10092,7 @@
         <v>1</v>
       </c>
       <c r="D383">
-        <v>50</v>
+        <v>250</v>
       </c>
       <c r="E383" t="s">
         <v>25</v>
@@ -10114,7 +10112,7 @@
         <v>1</v>
       </c>
       <c r="D384">
-        <v>53</v>
+        <v>265</v>
       </c>
       <c r="E384" t="s">
         <v>25</v>
@@ -10134,7 +10132,7 @@
         <v>2</v>
       </c>
       <c r="D385">
-        <v>32</v>
+        <v>160</v>
       </c>
       <c r="E385" t="s">
         <v>22</v>
@@ -10154,7 +10152,7 @@
         <v>2</v>
       </c>
       <c r="D386">
-        <v>34</v>
+        <v>170</v>
       </c>
       <c r="E386" t="s">
         <v>14</v>
@@ -10174,7 +10172,7 @@
         <v>2</v>
       </c>
       <c r="D387">
-        <v>36</v>
+        <v>180</v>
       </c>
       <c r="E387" t="s">
         <v>10</v>
@@ -10194,7 +10192,7 @@
         <v>2</v>
       </c>
       <c r="D388">
-        <v>38</v>
+        <v>190</v>
       </c>
       <c r="E388" t="s">
         <v>23</v>
@@ -10214,7 +10212,7 @@
         <v>2</v>
       </c>
       <c r="D389">
-        <v>40</v>
+        <v>200</v>
       </c>
       <c r="E389" t="s">
         <v>24</v>
@@ -10234,7 +10232,7 @@
         <v>1</v>
       </c>
       <c r="D390">
-        <v>42</v>
+        <v>210</v>
       </c>
       <c r="E390" t="s">
         <v>24</v>
@@ -10254,7 +10252,7 @@
         <v>1</v>
       </c>
       <c r="D391">
-        <v>44</v>
+        <v>220</v>
       </c>
       <c r="E391" t="s">
         <v>24</v>
@@ -10274,7 +10272,7 @@
         <v>1</v>
       </c>
       <c r="D392">
-        <v>46</v>
+        <v>230</v>
       </c>
       <c r="E392" t="s">
         <v>25</v>
@@ -10294,7 +10292,7 @@
         <v>1</v>
       </c>
       <c r="D393">
-        <v>48</v>
+        <v>240</v>
       </c>
       <c r="E393" t="s">
         <v>25</v>
@@ -10314,7 +10312,7 @@
         <v>1</v>
       </c>
       <c r="D394">
-        <v>50</v>
+        <v>250</v>
       </c>
       <c r="E394" t="s">
         <v>25</v>
@@ -10334,7 +10332,7 @@
         <v>1</v>
       </c>
       <c r="D395">
-        <v>53</v>
+        <v>265</v>
       </c>
       <c r="E395" t="s">
         <v>25</v>
@@ -10354,7 +10352,7 @@
         <v>2</v>
       </c>
       <c r="D396">
-        <v>32</v>
+        <v>160</v>
       </c>
       <c r="E396" t="s">
         <v>10</v>
@@ -10374,7 +10372,7 @@
         <v>2</v>
       </c>
       <c r="D397">
-        <v>34</v>
+        <v>170</v>
       </c>
       <c r="E397" t="s">
         <v>23</v>
@@ -10394,7 +10392,7 @@
         <v>2</v>
       </c>
       <c r="D398">
-        <v>36</v>
+        <v>180</v>
       </c>
       <c r="E398" t="s">
         <v>24</v>
@@ -10414,7 +10412,7 @@
         <v>2</v>
       </c>
       <c r="D399">
-        <v>38</v>
+        <v>190</v>
       </c>
       <c r="E399" t="s">
         <v>27</v>
@@ -10434,7 +10432,7 @@
         <v>2</v>
       </c>
       <c r="D400">
-        <v>40</v>
+        <v>200</v>
       </c>
       <c r="E400" t="s">
         <v>28</v>
@@ -10454,7 +10452,7 @@
         <v>1</v>
       </c>
       <c r="D401">
-        <v>42</v>
+        <v>210</v>
       </c>
       <c r="E401" t="s">
         <v>28</v>
@@ -10474,7 +10472,7 @@
         <v>1</v>
       </c>
       <c r="D402">
-        <v>44</v>
+        <v>220</v>
       </c>
       <c r="E402" t="s">
         <v>28</v>
@@ -10494,7 +10492,7 @@
         <v>1</v>
       </c>
       <c r="D403">
-        <v>46</v>
+        <v>230</v>
       </c>
       <c r="E403" t="s">
         <v>29</v>
@@ -10514,7 +10512,7 @@
         <v>1</v>
       </c>
       <c r="D404">
-        <v>48</v>
+        <v>240</v>
       </c>
       <c r="E404" t="s">
         <v>29</v>
@@ -10534,7 +10532,7 @@
         <v>1</v>
       </c>
       <c r="D405">
-        <v>50</v>
+        <v>250</v>
       </c>
       <c r="E405" t="s">
         <v>29</v>
@@ -10554,7 +10552,7 @@
         <v>1</v>
       </c>
       <c r="D406">
-        <v>53</v>
+        <v>265</v>
       </c>
       <c r="E406" t="s">
         <v>29</v>
@@ -10574,7 +10572,7 @@
         <v>2</v>
       </c>
       <c r="D407">
-        <v>34</v>
+        <v>170</v>
       </c>
       <c r="E407" t="s">
         <v>14</v>
@@ -10594,7 +10592,7 @@
         <v>2</v>
       </c>
       <c r="D408">
-        <v>36</v>
+        <v>180</v>
       </c>
       <c r="E408" t="s">
         <v>10</v>
@@ -10614,7 +10612,7 @@
         <v>2</v>
       </c>
       <c r="D409">
-        <v>38</v>
+        <v>190</v>
       </c>
       <c r="E409" t="s">
         <v>23</v>
@@ -10634,7 +10632,7 @@
         <v>2</v>
       </c>
       <c r="D410">
-        <v>40</v>
+        <v>200</v>
       </c>
       <c r="E410" t="s">
         <v>24</v>
@@ -10654,7 +10652,7 @@
         <v>1</v>
       </c>
       <c r="D411">
-        <v>42</v>
+        <v>210</v>
       </c>
       <c r="E411" t="s">
         <v>24</v>
@@ -10674,7 +10672,7 @@
         <v>1</v>
       </c>
       <c r="D412">
-        <v>44</v>
+        <v>220</v>
       </c>
       <c r="E412" t="s">
         <v>24</v>
@@ -10694,7 +10692,7 @@
         <v>1</v>
       </c>
       <c r="D413">
-        <v>46</v>
+        <v>230</v>
       </c>
       <c r="E413" t="s">
         <v>25</v>
@@ -10714,7 +10712,7 @@
         <v>1</v>
       </c>
       <c r="D414">
-        <v>48</v>
+        <v>240</v>
       </c>
       <c r="E414" t="s">
         <v>25</v>
@@ -10734,7 +10732,7 @@
         <v>1</v>
       </c>
       <c r="D415">
-        <v>50</v>
+        <v>250</v>
       </c>
       <c r="E415" t="s">
         <v>25</v>
@@ -10754,7 +10752,7 @@
         <v>1</v>
       </c>
       <c r="D416">
-        <v>53</v>
+        <v>265</v>
       </c>
       <c r="E416" t="s">
         <v>25</v>
@@ -10774,7 +10772,7 @@
         <v>2</v>
       </c>
       <c r="D417">
-        <v>34</v>
+        <v>170</v>
       </c>
       <c r="E417" t="s">
         <v>14</v>
@@ -10794,7 +10792,7 @@
         <v>2</v>
       </c>
       <c r="D418">
-        <v>36</v>
+        <v>180</v>
       </c>
       <c r="E418" t="s">
         <v>10</v>
@@ -10814,7 +10812,7 @@
         <v>2</v>
       </c>
       <c r="D419">
-        <v>38</v>
+        <v>190</v>
       </c>
       <c r="E419" t="s">
         <v>23</v>
@@ -10834,7 +10832,7 @@
         <v>2</v>
       </c>
       <c r="D420">
-        <v>40</v>
+        <v>200</v>
       </c>
       <c r="E420" t="s">
         <v>24</v>
@@ -10854,7 +10852,7 @@
         <v>1</v>
       </c>
       <c r="D421">
-        <v>42</v>
+        <v>210</v>
       </c>
       <c r="E421" t="s">
         <v>24</v>
@@ -10874,7 +10872,7 @@
         <v>1</v>
       </c>
       <c r="D422">
-        <v>44</v>
+        <v>220</v>
       </c>
       <c r="E422" t="s">
         <v>24</v>
@@ -10894,7 +10892,7 @@
         <v>1</v>
       </c>
       <c r="D423">
-        <v>46</v>
+        <v>230</v>
       </c>
       <c r="E423" t="s">
         <v>25</v>
@@ -10914,7 +10912,7 @@
         <v>1</v>
       </c>
       <c r="D424">
-        <v>48</v>
+        <v>240</v>
       </c>
       <c r="E424" t="s">
         <v>25</v>
@@ -10934,7 +10932,7 @@
         <v>1</v>
       </c>
       <c r="D425">
-        <v>50</v>
+        <v>250</v>
       </c>
       <c r="E425" t="s">
         <v>25</v>
@@ -10954,7 +10952,7 @@
         <v>1</v>
       </c>
       <c r="D426">
-        <v>53</v>
+        <v>265</v>
       </c>
       <c r="E426" t="s">
         <v>25</v>
@@ -10974,7 +10972,7 @@
         <v>2</v>
       </c>
       <c r="D427">
-        <v>34</v>
+        <v>170</v>
       </c>
       <c r="E427" t="s">
         <v>14</v>
@@ -10994,7 +10992,7 @@
         <v>2</v>
       </c>
       <c r="D428">
-        <v>36</v>
+        <v>180</v>
       </c>
       <c r="E428" t="s">
         <v>10</v>
@@ -11014,7 +11012,7 @@
         <v>2</v>
       </c>
       <c r="D429">
-        <v>38</v>
+        <v>190</v>
       </c>
       <c r="E429" t="s">
         <v>23</v>
@@ -11034,7 +11032,7 @@
         <v>2</v>
       </c>
       <c r="D430">
-        <v>40</v>
+        <v>200</v>
       </c>
       <c r="E430" t="s">
         <v>24</v>
@@ -11054,7 +11052,7 @@
         <v>1</v>
       </c>
       <c r="D431">
-        <v>42</v>
+        <v>210</v>
       </c>
       <c r="E431" t="s">
         <v>24</v>
@@ -11074,7 +11072,7 @@
         <v>1</v>
       </c>
       <c r="D432">
-        <v>44</v>
+        <v>220</v>
       </c>
       <c r="E432" t="s">
         <v>24</v>
@@ -11094,7 +11092,7 @@
         <v>1</v>
       </c>
       <c r="D433">
-        <v>46</v>
+        <v>230</v>
       </c>
       <c r="E433" t="s">
         <v>25</v>
@@ -11114,7 +11112,7 @@
         <v>1</v>
       </c>
       <c r="D434">
-        <v>48</v>
+        <v>240</v>
       </c>
       <c r="E434" t="s">
         <v>25</v>
@@ -11134,7 +11132,7 @@
         <v>1</v>
       </c>
       <c r="D435">
-        <v>50</v>
+        <v>250</v>
       </c>
       <c r="E435" t="s">
         <v>25</v>
@@ -11154,7 +11152,7 @@
         <v>1</v>
       </c>
       <c r="D436">
-        <v>53</v>
+        <v>265</v>
       </c>
       <c r="E436" t="s">
         <v>25</v>
@@ -11174,7 +11172,7 @@
         <v>2</v>
       </c>
       <c r="D437">
-        <v>34</v>
+        <v>170</v>
       </c>
       <c r="E437" t="s">
         <v>14</v>
@@ -11194,7 +11192,7 @@
         <v>2</v>
       </c>
       <c r="D438">
-        <v>36</v>
+        <v>180</v>
       </c>
       <c r="E438" t="s">
         <v>10</v>
@@ -11214,7 +11212,7 @@
         <v>2</v>
       </c>
       <c r="D439">
-        <v>38</v>
+        <v>190</v>
       </c>
       <c r="E439" t="s">
         <v>23</v>
@@ -11234,7 +11232,7 @@
         <v>2</v>
       </c>
       <c r="D440">
-        <v>40</v>
+        <v>200</v>
       </c>
       <c r="E440" t="s">
         <v>24</v>
@@ -11254,7 +11252,7 @@
         <v>1</v>
       </c>
       <c r="D441">
-        <v>42</v>
+        <v>210</v>
       </c>
       <c r="E441" t="s">
         <v>24</v>
@@ -11274,7 +11272,7 @@
         <v>1</v>
       </c>
       <c r="D442">
-        <v>44</v>
+        <v>220</v>
       </c>
       <c r="E442" t="s">
         <v>24</v>
@@ -11294,7 +11292,7 @@
         <v>1</v>
       </c>
       <c r="D443">
-        <v>46</v>
+        <v>230</v>
       </c>
       <c r="E443" t="s">
         <v>25</v>
@@ -11314,7 +11312,7 @@
         <v>1</v>
       </c>
       <c r="D444">
-        <v>48</v>
+        <v>240</v>
       </c>
       <c r="E444" t="s">
         <v>25</v>
@@ -11334,7 +11332,7 @@
         <v>1</v>
       </c>
       <c r="D445">
-        <v>50</v>
+        <v>250</v>
       </c>
       <c r="E445" t="s">
         <v>25</v>
@@ -11354,7 +11352,7 @@
         <v>1</v>
       </c>
       <c r="D446">
-        <v>53</v>
+        <v>265</v>
       </c>
       <c r="E446" t="s">
         <v>25</v>
@@ -11374,7 +11372,7 @@
         <v>2</v>
       </c>
       <c r="D447">
-        <v>34</v>
+        <v>170</v>
       </c>
       <c r="E447" t="s">
         <v>14</v>
@@ -11394,7 +11392,7 @@
         <v>2</v>
       </c>
       <c r="D448">
-        <v>36</v>
+        <v>180</v>
       </c>
       <c r="E448" t="s">
         <v>10</v>
@@ -11414,7 +11412,7 @@
         <v>2</v>
       </c>
       <c r="D449">
-        <v>38</v>
+        <v>190</v>
       </c>
       <c r="E449" t="s">
         <v>23</v>
@@ -11434,7 +11432,7 @@
         <v>2</v>
       </c>
       <c r="D450">
-        <v>40</v>
+        <v>200</v>
       </c>
       <c r="E450" t="s">
         <v>24</v>
@@ -11454,7 +11452,7 @@
         <v>1</v>
       </c>
       <c r="D451">
-        <v>42</v>
+        <v>210</v>
       </c>
       <c r="E451" t="s">
         <v>24</v>
@@ -11474,7 +11472,7 @@
         <v>1</v>
       </c>
       <c r="D452">
-        <v>44</v>
+        <v>220</v>
       </c>
       <c r="E452" t="s">
         <v>24</v>
@@ -11494,7 +11492,7 @@
         <v>1</v>
       </c>
       <c r="D453">
-        <v>46</v>
+        <v>230</v>
       </c>
       <c r="E453" t="s">
         <v>25</v>
@@ -11514,7 +11512,7 @@
         <v>1</v>
       </c>
       <c r="D454">
-        <v>48</v>
+        <v>240</v>
       </c>
       <c r="E454" t="s">
         <v>25</v>
@@ -11534,7 +11532,7 @@
         <v>1</v>
       </c>
       <c r="D455">
-        <v>50</v>
+        <v>250</v>
       </c>
       <c r="E455" t="s">
         <v>25</v>
@@ -11554,7 +11552,7 @@
         <v>1</v>
       </c>
       <c r="D456">
-        <v>53</v>
+        <v>265</v>
       </c>
       <c r="E456" t="s">
         <v>25</v>
@@ -11574,7 +11572,7 @@
         <v>2</v>
       </c>
       <c r="D457">
-        <v>34</v>
+        <v>170</v>
       </c>
       <c r="E457" t="s">
         <v>23</v>
@@ -11594,7 +11592,7 @@
         <v>2</v>
       </c>
       <c r="D458">
-        <v>36</v>
+        <v>180</v>
       </c>
       <c r="E458" t="s">
         <v>24</v>
@@ -11614,7 +11612,7 @@
         <v>2</v>
       </c>
       <c r="D459">
-        <v>38</v>
+        <v>190</v>
       </c>
       <c r="E459" t="s">
         <v>27</v>
@@ -11634,7 +11632,7 @@
         <v>2</v>
       </c>
       <c r="D460">
-        <v>40</v>
+        <v>200</v>
       </c>
       <c r="E460" t="s">
         <v>28</v>
@@ -11654,7 +11652,7 @@
         <v>1</v>
       </c>
       <c r="D461">
-        <v>42</v>
+        <v>210</v>
       </c>
       <c r="E461" t="s">
         <v>28</v>
@@ -11674,7 +11672,7 @@
         <v>1</v>
       </c>
       <c r="D462">
-        <v>44</v>
+        <v>220</v>
       </c>
       <c r="E462" t="s">
         <v>28</v>
@@ -11694,7 +11692,7 @@
         <v>1</v>
       </c>
       <c r="D463">
-        <v>46</v>
+        <v>230</v>
       </c>
       <c r="E463" t="s">
         <v>29</v>
@@ -11714,7 +11712,7 @@
         <v>1</v>
       </c>
       <c r="D464">
-        <v>48</v>
+        <v>240</v>
       </c>
       <c r="E464" t="s">
         <v>29</v>
@@ -11734,7 +11732,7 @@
         <v>1</v>
       </c>
       <c r="D465">
-        <v>50</v>
+        <v>250</v>
       </c>
       <c r="E465" t="s">
         <v>29</v>
@@ -11754,7 +11752,7 @@
         <v>1</v>
       </c>
       <c r="D466">
-        <v>53</v>
+        <v>265</v>
       </c>
       <c r="E466" t="s">
         <v>29</v>
@@ -11774,7 +11772,7 @@
         <v>2</v>
       </c>
       <c r="D467">
-        <v>36</v>
+        <v>180</v>
       </c>
       <c r="E467" t="s">
         <v>10</v>
@@ -11794,7 +11792,7 @@
         <v>2</v>
       </c>
       <c r="D468">
-        <v>38</v>
+        <v>190</v>
       </c>
       <c r="E468" t="s">
         <v>23</v>
@@ -11814,7 +11812,7 @@
         <v>2</v>
       </c>
       <c r="D469">
-        <v>40</v>
+        <v>200</v>
       </c>
       <c r="E469" t="s">
         <v>24</v>
@@ -11834,7 +11832,7 @@
         <v>1</v>
       </c>
       <c r="D470">
-        <v>42</v>
+        <v>210</v>
       </c>
       <c r="E470" t="s">
         <v>24</v>
@@ -11854,7 +11852,7 @@
         <v>1</v>
       </c>
       <c r="D471">
-        <v>44</v>
+        <v>220</v>
       </c>
       <c r="E471" t="s">
         <v>24</v>
@@ -11874,7 +11872,7 @@
         <v>1</v>
       </c>
       <c r="D472">
-        <v>46</v>
+        <v>230</v>
       </c>
       <c r="E472" t="s">
         <v>25</v>
@@ -11894,7 +11892,7 @@
         <v>1</v>
       </c>
       <c r="D473">
-        <v>48</v>
+        <v>240</v>
       </c>
       <c r="E473" t="s">
         <v>25</v>
@@ -11914,7 +11912,7 @@
         <v>1</v>
       </c>
       <c r="D474">
-        <v>50</v>
+        <v>250</v>
       </c>
       <c r="E474" t="s">
         <v>25</v>
@@ -11934,7 +11932,7 @@
         <v>1</v>
       </c>
       <c r="D475">
-        <v>53</v>
+        <v>265</v>
       </c>
       <c r="E475" t="s">
         <v>25</v>
@@ -11954,7 +11952,7 @@
         <v>2</v>
       </c>
       <c r="D476">
-        <v>36</v>
+        <v>180</v>
       </c>
       <c r="E476" t="s">
         <v>10</v>
@@ -11974,7 +11972,7 @@
         <v>2</v>
       </c>
       <c r="D477">
-        <v>38</v>
+        <v>190</v>
       </c>
       <c r="E477" t="s">
         <v>23</v>
@@ -11994,7 +11992,7 @@
         <v>2</v>
       </c>
       <c r="D478">
-        <v>40</v>
+        <v>200</v>
       </c>
       <c r="E478" t="s">
         <v>24</v>
@@ -12014,7 +12012,7 @@
         <v>1</v>
       </c>
       <c r="D479">
-        <v>42</v>
+        <v>210</v>
       </c>
       <c r="E479" t="s">
         <v>24</v>
@@ -12034,7 +12032,7 @@
         <v>1</v>
       </c>
       <c r="D480">
-        <v>44</v>
+        <v>220</v>
       </c>
       <c r="E480" t="s">
         <v>24</v>
@@ -12054,7 +12052,7 @@
         <v>1</v>
       </c>
       <c r="D481">
-        <v>46</v>
+        <v>230</v>
       </c>
       <c r="E481" t="s">
         <v>25</v>
@@ -12074,7 +12072,7 @@
         <v>1</v>
       </c>
       <c r="D482">
-        <v>48</v>
+        <v>240</v>
       </c>
       <c r="E482" t="s">
         <v>25</v>
@@ -12094,7 +12092,7 @@
         <v>1</v>
       </c>
       <c r="D483">
-        <v>50</v>
+        <v>250</v>
       </c>
       <c r="E483" t="s">
         <v>25</v>
@@ -12114,7 +12112,7 @@
         <v>1</v>
       </c>
       <c r="D484">
-        <v>53</v>
+        <v>265</v>
       </c>
       <c r="E484" t="s">
         <v>25</v>
@@ -12134,7 +12132,7 @@
         <v>2</v>
       </c>
       <c r="D485">
-        <v>36</v>
+        <v>180</v>
       </c>
       <c r="E485" t="s">
         <v>10</v>
@@ -12154,7 +12152,7 @@
         <v>2</v>
       </c>
       <c r="D486">
-        <v>38</v>
+        <v>190</v>
       </c>
       <c r="E486" t="s">
         <v>23</v>
@@ -12174,7 +12172,7 @@
         <v>2</v>
       </c>
       <c r="D487">
-        <v>40</v>
+        <v>200</v>
       </c>
       <c r="E487" t="s">
         <v>24</v>
@@ -12194,7 +12192,7 @@
         <v>1</v>
       </c>
       <c r="D488">
-        <v>42</v>
+        <v>210</v>
       </c>
       <c r="E488" t="s">
         <v>24</v>
@@ -12214,7 +12212,7 @@
         <v>1</v>
       </c>
       <c r="D489">
-        <v>44</v>
+        <v>220</v>
       </c>
       <c r="E489" t="s">
         <v>24</v>
@@ -12234,7 +12232,7 @@
         <v>1</v>
       </c>
       <c r="D490">
-        <v>46</v>
+        <v>230</v>
       </c>
       <c r="E490" t="s">
         <v>25</v>
@@ -12254,7 +12252,7 @@
         <v>1</v>
       </c>
       <c r="D491">
-        <v>48</v>
+        <v>240</v>
       </c>
       <c r="E491" t="s">
         <v>25</v>
@@ -12274,7 +12272,7 @@
         <v>1</v>
       </c>
       <c r="D492">
-        <v>50</v>
+        <v>250</v>
       </c>
       <c r="E492" t="s">
         <v>25</v>
@@ -12294,7 +12292,7 @@
         <v>1</v>
       </c>
       <c r="D493">
-        <v>53</v>
+        <v>265</v>
       </c>
       <c r="E493" t="s">
         <v>25</v>
@@ -12314,7 +12312,7 @@
         <v>2</v>
       </c>
       <c r="D494">
-        <v>36</v>
+        <v>180</v>
       </c>
       <c r="E494" t="s">
         <v>10</v>
@@ -12334,7 +12332,7 @@
         <v>2</v>
       </c>
       <c r="D495">
-        <v>38</v>
+        <v>190</v>
       </c>
       <c r="E495" t="s">
         <v>23</v>
@@ -12354,7 +12352,7 @@
         <v>2</v>
       </c>
       <c r="D496">
-        <v>40</v>
+        <v>200</v>
       </c>
       <c r="E496" t="s">
         <v>24</v>
@@ -12374,7 +12372,7 @@
         <v>1</v>
       </c>
       <c r="D497">
-        <v>42</v>
+        <v>210</v>
       </c>
       <c r="E497" t="s">
         <v>24</v>
@@ -12394,7 +12392,7 @@
         <v>1</v>
       </c>
       <c r="D498">
-        <v>44</v>
+        <v>220</v>
       </c>
       <c r="E498" t="s">
         <v>24</v>
@@ -12414,7 +12412,7 @@
         <v>1</v>
       </c>
       <c r="D499">
-        <v>46</v>
+        <v>230</v>
       </c>
       <c r="E499" t="s">
         <v>25</v>
@@ -12434,7 +12432,7 @@
         <v>1</v>
       </c>
       <c r="D500">
-        <v>48</v>
+        <v>240</v>
       </c>
       <c r="E500" t="s">
         <v>25</v>
@@ -12454,7 +12452,7 @@
         <v>1</v>
       </c>
       <c r="D501">
-        <v>50</v>
+        <v>250</v>
       </c>
       <c r="E501" t="s">
         <v>25</v>
@@ -12474,7 +12472,7 @@
         <v>1</v>
       </c>
       <c r="D502">
-        <v>53</v>
+        <v>265</v>
       </c>
       <c r="E502" t="s">
         <v>25</v>
@@ -12494,7 +12492,7 @@
         <v>2</v>
       </c>
       <c r="D503">
-        <v>36</v>
+        <v>180</v>
       </c>
       <c r="E503" t="s">
         <v>24</v>
@@ -12514,7 +12512,7 @@
         <v>2</v>
       </c>
       <c r="D504">
-        <v>38</v>
+        <v>190</v>
       </c>
       <c r="E504" t="s">
         <v>27</v>
@@ -12534,7 +12532,7 @@
         <v>2</v>
       </c>
       <c r="D505">
-        <v>40</v>
+        <v>200</v>
       </c>
       <c r="E505" t="s">
         <v>28</v>
@@ -12554,7 +12552,7 @@
         <v>1</v>
       </c>
       <c r="D506">
-        <v>42</v>
+        <v>210</v>
       </c>
       <c r="E506" t="s">
         <v>28</v>
@@ -12574,7 +12572,7 @@
         <v>1</v>
       </c>
       <c r="D507">
-        <v>44</v>
+        <v>220</v>
       </c>
       <c r="E507" t="s">
         <v>28</v>
@@ -12594,7 +12592,7 @@
         <v>1</v>
       </c>
       <c r="D508">
-        <v>46</v>
+        <v>230</v>
       </c>
       <c r="E508" t="s">
         <v>29</v>
@@ -12614,7 +12612,7 @@
         <v>1</v>
       </c>
       <c r="D509">
-        <v>48</v>
+        <v>240</v>
       </c>
       <c r="E509" t="s">
         <v>29</v>
@@ -12634,7 +12632,7 @@
         <v>1</v>
       </c>
       <c r="D510">
-        <v>50</v>
+        <v>250</v>
       </c>
       <c r="E510" t="s">
         <v>29</v>
@@ -12654,7 +12652,7 @@
         <v>1</v>
       </c>
       <c r="D511">
-        <v>53</v>
+        <v>265</v>
       </c>
       <c r="E511" t="s">
         <v>29</v>
@@ -12674,7 +12672,7 @@
         <v>2</v>
       </c>
       <c r="D512">
-        <v>38</v>
+        <v>190</v>
       </c>
       <c r="E512" t="s">
         <v>23</v>
@@ -12694,7 +12692,7 @@
         <v>2</v>
       </c>
       <c r="D513">
-        <v>40</v>
+        <v>200</v>
       </c>
       <c r="E513" t="s">
         <v>24</v>
@@ -12714,7 +12712,7 @@
         <v>1</v>
       </c>
       <c r="D514">
-        <v>42</v>
+        <v>210</v>
       </c>
       <c r="E514" t="s">
         <v>24</v>
@@ -12734,7 +12732,7 @@
         <v>1</v>
       </c>
       <c r="D515">
-        <v>44</v>
+        <v>220</v>
       </c>
       <c r="E515" t="s">
         <v>24</v>
@@ -12754,7 +12752,7 @@
         <v>1</v>
       </c>
       <c r="D516">
-        <v>46</v>
+        <v>230</v>
       </c>
       <c r="E516" t="s">
         <v>25</v>
@@ -12774,7 +12772,7 @@
         <v>1</v>
       </c>
       <c r="D517">
-        <v>48</v>
+        <v>240</v>
       </c>
       <c r="E517" t="s">
         <v>25</v>
@@ -12794,7 +12792,7 @@
         <v>1</v>
       </c>
       <c r="D518">
-        <v>50</v>
+        <v>250</v>
       </c>
       <c r="E518" t="s">
         <v>25</v>
@@ -12814,7 +12812,7 @@
         <v>1</v>
       </c>
       <c r="D519">
-        <v>53</v>
+        <v>265</v>
       </c>
       <c r="E519" t="s">
         <v>25</v>
@@ -12834,7 +12832,7 @@
         <v>2</v>
       </c>
       <c r="D520">
-        <v>38</v>
+        <v>190</v>
       </c>
       <c r="E520" t="s">
         <v>23</v>
@@ -12854,7 +12852,7 @@
         <v>2</v>
       </c>
       <c r="D521">
-        <v>40</v>
+        <v>200</v>
       </c>
       <c r="E521" t="s">
         <v>24</v>
@@ -12874,7 +12872,7 @@
         <v>1</v>
       </c>
       <c r="D522">
-        <v>42</v>
+        <v>210</v>
       </c>
       <c r="E522" t="s">
         <v>24</v>
@@ -12894,7 +12892,7 @@
         <v>1</v>
       </c>
       <c r="D523">
-        <v>44</v>
+        <v>220</v>
       </c>
       <c r="E523" t="s">
         <v>24</v>
@@ -12914,7 +12912,7 @@
         <v>1</v>
       </c>
       <c r="D524">
-        <v>46</v>
+        <v>230</v>
       </c>
       <c r="E524" t="s">
         <v>25</v>
@@ -12934,7 +12932,7 @@
         <v>1</v>
       </c>
       <c r="D525">
-        <v>48</v>
+        <v>240</v>
       </c>
       <c r="E525" t="s">
         <v>25</v>
@@ -12954,7 +12952,7 @@
         <v>1</v>
       </c>
       <c r="D526">
-        <v>50</v>
+        <v>250</v>
       </c>
       <c r="E526" t="s">
         <v>25</v>
@@ -12974,7 +12972,7 @@
         <v>1</v>
       </c>
       <c r="D527">
-        <v>53</v>
+        <v>265</v>
       </c>
       <c r="E527" t="s">
         <v>25</v>
@@ -12994,7 +12992,7 @@
         <v>2</v>
       </c>
       <c r="D528">
-        <v>38</v>
+        <v>190</v>
       </c>
       <c r="E528" t="s">
         <v>23</v>
@@ -13014,7 +13012,7 @@
         <v>2</v>
       </c>
       <c r="D529">
-        <v>40</v>
+        <v>200</v>
       </c>
       <c r="E529" t="s">
         <v>24</v>
@@ -13034,7 +13032,7 @@
         <v>1</v>
       </c>
       <c r="D530">
-        <v>42</v>
+        <v>210</v>
       </c>
       <c r="E530" t="s">
         <v>24</v>
@@ -13054,7 +13052,7 @@
         <v>1</v>
       </c>
       <c r="D531">
-        <v>44</v>
+        <v>220</v>
       </c>
       <c r="E531" t="s">
         <v>24</v>
@@ -13074,7 +13072,7 @@
         <v>1</v>
       </c>
       <c r="D532">
-        <v>46</v>
+        <v>230</v>
       </c>
       <c r="E532" t="s">
         <v>25</v>
@@ -13094,7 +13092,7 @@
         <v>1</v>
       </c>
       <c r="D533">
-        <v>48</v>
+        <v>240</v>
       </c>
       <c r="E533" t="s">
         <v>25</v>
@@ -13114,7 +13112,7 @@
         <v>1</v>
       </c>
       <c r="D534">
-        <v>50</v>
+        <v>250</v>
       </c>
       <c r="E534" t="s">
         <v>25</v>
@@ -13134,7 +13132,7 @@
         <v>1</v>
       </c>
       <c r="D535">
-        <v>53</v>
+        <v>265</v>
       </c>
       <c r="E535" t="s">
         <v>25</v>
@@ -13154,7 +13152,7 @@
         <v>2</v>
       </c>
       <c r="D536">
-        <v>38</v>
+        <v>190</v>
       </c>
       <c r="E536" t="s">
         <v>23</v>
@@ -13174,7 +13172,7 @@
         <v>2</v>
       </c>
       <c r="D537">
-        <v>40</v>
+        <v>200</v>
       </c>
       <c r="E537" t="s">
         <v>24</v>
@@ -13194,7 +13192,7 @@
         <v>1</v>
       </c>
       <c r="D538">
-        <v>42</v>
+        <v>210</v>
       </c>
       <c r="E538" t="s">
         <v>24</v>
@@ -13214,7 +13212,7 @@
         <v>1</v>
       </c>
       <c r="D539">
-        <v>44</v>
+        <v>220</v>
       </c>
       <c r="E539" t="s">
         <v>24</v>
@@ -13234,7 +13232,7 @@
         <v>1</v>
       </c>
       <c r="D540">
-        <v>46</v>
+        <v>230</v>
       </c>
       <c r="E540" t="s">
         <v>25</v>
@@ -13254,7 +13252,7 @@
         <v>1</v>
       </c>
       <c r="D541">
-        <v>48</v>
+        <v>240</v>
       </c>
       <c r="E541" t="s">
         <v>25</v>
@@ -13274,7 +13272,7 @@
         <v>1</v>
       </c>
       <c r="D542">
-        <v>50</v>
+        <v>250</v>
       </c>
       <c r="E542" t="s">
         <v>25</v>
@@ -13294,7 +13292,7 @@
         <v>1</v>
       </c>
       <c r="D543">
-        <v>53</v>
+        <v>265</v>
       </c>
       <c r="E543" t="s">
         <v>25</v>
@@ -13314,7 +13312,7 @@
         <v>2</v>
       </c>
       <c r="D544">
-        <v>38</v>
+        <v>190</v>
       </c>
       <c r="E544" t="s">
         <v>27</v>
@@ -13334,7 +13332,7 @@
         <v>2</v>
       </c>
       <c r="D545">
-        <v>40</v>
+        <v>200</v>
       </c>
       <c r="E545" t="s">
         <v>28</v>
@@ -13354,7 +13352,7 @@
         <v>1</v>
       </c>
       <c r="D546">
-        <v>42</v>
+        <v>210</v>
       </c>
       <c r="E546" t="s">
         <v>28</v>
@@ -13374,7 +13372,7 @@
         <v>1</v>
       </c>
       <c r="D547">
-        <v>44</v>
+        <v>220</v>
       </c>
       <c r="E547" t="s">
         <v>28</v>
@@ -13394,7 +13392,7 @@
         <v>1</v>
       </c>
       <c r="D548">
-        <v>46</v>
+        <v>230</v>
       </c>
       <c r="E548" t="s">
         <v>29</v>
@@ -13414,7 +13412,7 @@
         <v>1</v>
       </c>
       <c r="D549">
-        <v>48</v>
+        <v>240</v>
       </c>
       <c r="E549" t="s">
         <v>29</v>
@@ -13434,7 +13432,7 @@
         <v>1</v>
       </c>
       <c r="D550">
-        <v>50</v>
+        <v>250</v>
       </c>
       <c r="E550" t="s">
         <v>29</v>
@@ -13454,7 +13452,7 @@
         <v>1</v>
       </c>
       <c r="D551">
-        <v>53</v>
+        <v>265</v>
       </c>
       <c r="E551" t="s">
         <v>29</v>
@@ -13474,7 +13472,7 @@
         <v>2</v>
       </c>
       <c r="D552">
-        <v>40</v>
+        <v>200</v>
       </c>
       <c r="E552" t="s">
         <v>24</v>
@@ -13494,7 +13492,7 @@
         <v>1</v>
       </c>
       <c r="D553">
-        <v>42</v>
+        <v>210</v>
       </c>
       <c r="E553" t="s">
         <v>24</v>
@@ -13514,7 +13512,7 @@
         <v>1</v>
       </c>
       <c r="D554">
-        <v>44</v>
+        <v>220</v>
       </c>
       <c r="E554" t="s">
         <v>24</v>
@@ -13534,7 +13532,7 @@
         <v>1</v>
       </c>
       <c r="D555">
-        <v>46</v>
+        <v>230</v>
       </c>
       <c r="E555" t="s">
         <v>25</v>
@@ -13554,7 +13552,7 @@
         <v>1</v>
       </c>
       <c r="D556">
-        <v>48</v>
+        <v>240</v>
       </c>
       <c r="E556" t="s">
         <v>25</v>
@@ -13574,7 +13572,7 @@
         <v>1</v>
       </c>
       <c r="D557">
-        <v>50</v>
+        <v>250</v>
       </c>
       <c r="E557" t="s">
         <v>25</v>
@@ -13594,7 +13592,7 @@
         <v>1</v>
       </c>
       <c r="D558">
-        <v>53</v>
+        <v>265</v>
       </c>
       <c r="E558" t="s">
         <v>25</v>
@@ -13614,7 +13612,7 @@
         <v>2</v>
       </c>
       <c r="D559">
-        <v>40</v>
+        <v>200</v>
       </c>
       <c r="E559" t="s">
         <v>24</v>
@@ -13634,7 +13632,7 @@
         <v>1</v>
       </c>
       <c r="D560">
-        <v>42</v>
+        <v>210</v>
       </c>
       <c r="E560" t="s">
         <v>24</v>
@@ -13654,7 +13652,7 @@
         <v>1</v>
       </c>
       <c r="D561">
-        <v>44</v>
+        <v>220</v>
       </c>
       <c r="E561" t="s">
         <v>24</v>
@@ -13674,7 +13672,7 @@
         <v>1</v>
       </c>
       <c r="D562">
-        <v>46</v>
+        <v>230</v>
       </c>
       <c r="E562" t="s">
         <v>25</v>
@@ -13694,7 +13692,7 @@
         <v>1</v>
       </c>
       <c r="D563">
-        <v>48</v>
+        <v>240</v>
       </c>
       <c r="E563" t="s">
         <v>25</v>
@@ -13714,7 +13712,7 @@
         <v>1</v>
       </c>
       <c r="D564">
-        <v>50</v>
+        <v>250</v>
       </c>
       <c r="E564" t="s">
         <v>25</v>
@@ -13734,7 +13732,7 @@
         <v>1</v>
       </c>
       <c r="D565">
-        <v>53</v>
+        <v>265</v>
       </c>
       <c r="E565" t="s">
         <v>25</v>
@@ -13754,7 +13752,7 @@
         <v>2</v>
       </c>
       <c r="D566">
-        <v>40</v>
+        <v>200</v>
       </c>
       <c r="E566" t="s">
         <v>24</v>
@@ -13774,7 +13772,7 @@
         <v>1</v>
       </c>
       <c r="D567">
-        <v>42</v>
+        <v>210</v>
       </c>
       <c r="E567" t="s">
         <v>24</v>
@@ -13794,7 +13792,7 @@
         <v>1</v>
       </c>
       <c r="D568">
-        <v>44</v>
+        <v>220</v>
       </c>
       <c r="E568" t="s">
         <v>24</v>
@@ -13814,7 +13812,7 @@
         <v>1</v>
       </c>
       <c r="D569">
-        <v>46</v>
+        <v>230</v>
       </c>
       <c r="E569" t="s">
         <v>25</v>
@@ -13834,7 +13832,7 @@
         <v>1</v>
       </c>
       <c r="D570">
-        <v>48</v>
+        <v>240</v>
       </c>
       <c r="E570" t="s">
         <v>25</v>
@@ -13854,7 +13852,7 @@
         <v>1</v>
       </c>
       <c r="D571">
-        <v>50</v>
+        <v>250</v>
       </c>
       <c r="E571" t="s">
         <v>25</v>
@@ -13874,7 +13872,7 @@
         <v>1</v>
       </c>
       <c r="D572">
-        <v>53</v>
+        <v>265</v>
       </c>
       <c r="E572" t="s">
         <v>25</v>
@@ -13894,7 +13892,7 @@
         <v>2</v>
       </c>
       <c r="D573">
-        <v>40</v>
+        <v>200</v>
       </c>
       <c r="E573" t="s">
         <v>24</v>
@@ -13914,7 +13912,7 @@
         <v>1</v>
       </c>
       <c r="D574">
-        <v>42</v>
+        <v>210</v>
       </c>
       <c r="E574" t="s">
         <v>24</v>
@@ -13934,7 +13932,7 @@
         <v>1</v>
       </c>
       <c r="D575">
-        <v>44</v>
+        <v>220</v>
       </c>
       <c r="E575" t="s">
         <v>24</v>
@@ -13954,7 +13952,7 @@
         <v>1</v>
       </c>
       <c r="D576">
-        <v>46</v>
+        <v>230</v>
       </c>
       <c r="E576" t="s">
         <v>25</v>
@@ -13974,7 +13972,7 @@
         <v>1</v>
       </c>
       <c r="D577">
-        <v>48</v>
+        <v>240</v>
       </c>
       <c r="E577" t="s">
         <v>25</v>
@@ -13994,7 +13992,7 @@
         <v>1</v>
       </c>
       <c r="D578">
-        <v>50</v>
+        <v>250</v>
       </c>
       <c r="E578" t="s">
         <v>25</v>
@@ -14014,7 +14012,7 @@
         <v>1</v>
       </c>
       <c r="D579">
-        <v>53</v>
+        <v>265</v>
       </c>
       <c r="E579" t="s">
         <v>25</v>
@@ -14034,7 +14032,7 @@
         <v>2</v>
       </c>
       <c r="D580">
-        <v>40</v>
+        <v>200</v>
       </c>
       <c r="E580" t="s">
         <v>28</v>
@@ -14054,7 +14052,7 @@
         <v>1</v>
       </c>
       <c r="D581">
-        <v>42</v>
+        <v>210</v>
       </c>
       <c r="E581" t="s">
         <v>28</v>
@@ -14074,7 +14072,7 @@
         <v>1</v>
       </c>
       <c r="D582">
-        <v>44</v>
+        <v>220</v>
       </c>
       <c r="E582" t="s">
         <v>28</v>
@@ -14094,7 +14092,7 @@
         <v>1</v>
       </c>
       <c r="D583">
-        <v>46</v>
+        <v>230</v>
       </c>
       <c r="E583" t="s">
         <v>29</v>
@@ -14114,7 +14112,7 @@
         <v>1</v>
       </c>
       <c r="D584">
-        <v>48</v>
+        <v>240</v>
       </c>
       <c r="E584" t="s">
         <v>29</v>
@@ -14134,7 +14132,7 @@
         <v>1</v>
       </c>
       <c r="D585">
-        <v>50</v>
+        <v>250</v>
       </c>
       <c r="E585" t="s">
         <v>29</v>
@@ -14154,7 +14152,7 @@
         <v>1</v>
       </c>
       <c r="D586">
-        <v>53</v>
+        <v>265</v>
       </c>
       <c r="E586" t="s">
         <v>29</v>
@@ -14174,7 +14172,7 @@
         <v>1</v>
       </c>
       <c r="D587">
-        <v>42</v>
+        <v>210</v>
       </c>
       <c r="E587" t="s">
         <v>24</v>
@@ -14194,7 +14192,7 @@
         <v>1</v>
       </c>
       <c r="D588">
-        <v>44</v>
+        <v>220</v>
       </c>
       <c r="E588" t="s">
         <v>24</v>
@@ -14214,7 +14212,7 @@
         <v>1</v>
       </c>
       <c r="D589">
-        <v>46</v>
+        <v>230</v>
       </c>
       <c r="E589" t="s">
         <v>25</v>
@@ -14234,7 +14232,7 @@
         <v>1</v>
       </c>
       <c r="D590">
-        <v>48</v>
+        <v>240</v>
       </c>
       <c r="E590" t="s">
         <v>25</v>
@@ -14254,7 +14252,7 @@
         <v>1</v>
       </c>
       <c r="D591">
-        <v>50</v>
+        <v>250</v>
       </c>
       <c r="E591" t="s">
         <v>25</v>
@@ -14274,7 +14272,7 @@
         <v>1</v>
       </c>
       <c r="D592">
-        <v>53</v>
+        <v>265</v>
       </c>
       <c r="E592" t="s">
         <v>25</v>
@@ -14294,7 +14292,7 @@
         <v>1</v>
       </c>
       <c r="D593">
-        <v>42</v>
+        <v>210</v>
       </c>
       <c r="E593" t="s">
         <v>24</v>
@@ -14314,7 +14312,7 @@
         <v>1</v>
       </c>
       <c r="D594">
-        <v>44</v>
+        <v>220</v>
       </c>
       <c r="E594" t="s">
         <v>24</v>
@@ -14334,7 +14332,7 @@
         <v>1</v>
       </c>
       <c r="D595">
-        <v>46</v>
+        <v>230</v>
       </c>
       <c r="E595" t="s">
         <v>25</v>
@@ -14354,7 +14352,7 @@
         <v>1</v>
       </c>
       <c r="D596">
-        <v>48</v>
+        <v>240</v>
       </c>
       <c r="E596" t="s">
         <v>25</v>
@@ -14374,7 +14372,7 @@
         <v>1</v>
       </c>
       <c r="D597">
-        <v>50</v>
+        <v>250</v>
       </c>
       <c r="E597" t="s">
         <v>25</v>
@@ -14394,7 +14392,7 @@
         <v>1</v>
       </c>
       <c r="D598">
-        <v>53</v>
+        <v>265</v>
       </c>
       <c r="E598" t="s">
         <v>25</v>
@@ -14414,7 +14412,7 @@
         <v>1</v>
       </c>
       <c r="D599">
-        <v>42</v>
+        <v>210</v>
       </c>
       <c r="E599" t="s">
         <v>24</v>
@@ -14434,7 +14432,7 @@
         <v>1</v>
       </c>
       <c r="D600">
-        <v>44</v>
+        <v>220</v>
       </c>
       <c r="E600" t="s">
         <v>24</v>
@@ -14454,7 +14452,7 @@
         <v>1</v>
       </c>
       <c r="D601">
-        <v>46</v>
+        <v>230</v>
       </c>
       <c r="E601" t="s">
         <v>25</v>
@@ -14474,7 +14472,7 @@
         <v>1</v>
       </c>
       <c r="D602">
-        <v>48</v>
+        <v>240</v>
       </c>
       <c r="E602" t="s">
         <v>25</v>
@@ -14494,7 +14492,7 @@
         <v>1</v>
       </c>
       <c r="D603">
-        <v>50</v>
+        <v>250</v>
       </c>
       <c r="E603" t="s">
         <v>25</v>
@@ -14514,7 +14512,7 @@
         <v>1</v>
       </c>
       <c r="D604">
-        <v>53</v>
+        <v>265</v>
       </c>
       <c r="E604" t="s">
         <v>25</v>
@@ -14534,7 +14532,7 @@
         <v>1</v>
       </c>
       <c r="D605">
-        <v>42</v>
+        <v>210</v>
       </c>
       <c r="E605" t="s">
         <v>24</v>
@@ -14554,7 +14552,7 @@
         <v>1</v>
       </c>
       <c r="D606">
-        <v>44</v>
+        <v>220</v>
       </c>
       <c r="E606" t="s">
         <v>24</v>
@@ -14574,7 +14572,7 @@
         <v>1</v>
       </c>
       <c r="D607">
-        <v>46</v>
+        <v>230</v>
       </c>
       <c r="E607" t="s">
         <v>25</v>
@@ -14594,7 +14592,7 @@
         <v>1</v>
       </c>
       <c r="D608">
-        <v>48</v>
+        <v>240</v>
       </c>
       <c r="E608" t="s">
         <v>25</v>
@@ -14614,7 +14612,7 @@
         <v>1</v>
       </c>
       <c r="D609">
-        <v>50</v>
+        <v>250</v>
       </c>
       <c r="E609" t="s">
         <v>25</v>
@@ -14634,7 +14632,7 @@
         <v>1</v>
       </c>
       <c r="D610">
-        <v>53</v>
+        <v>265</v>
       </c>
       <c r="E610" t="s">
         <v>25</v>
@@ -14654,7 +14652,7 @@
         <v>1</v>
       </c>
       <c r="D611">
-        <v>42</v>
+        <v>210</v>
       </c>
       <c r="E611" t="s">
         <v>28</v>
@@ -14674,7 +14672,7 @@
         <v>1</v>
       </c>
       <c r="D612">
-        <v>44</v>
+        <v>220</v>
       </c>
       <c r="E612" t="s">
         <v>28</v>
@@ -14694,7 +14692,7 @@
         <v>1</v>
       </c>
       <c r="D613">
-        <v>46</v>
+        <v>230</v>
       </c>
       <c r="E613" t="s">
         <v>29</v>
@@ -14714,7 +14712,7 @@
         <v>1</v>
       </c>
       <c r="D614">
-        <v>48</v>
+        <v>240</v>
       </c>
       <c r="E614" t="s">
         <v>29</v>
@@ -14734,7 +14732,7 @@
         <v>1</v>
       </c>
       <c r="D615">
-        <v>50</v>
+        <v>250</v>
       </c>
       <c r="E615" t="s">
         <v>29</v>
@@ -14754,7 +14752,7 @@
         <v>1</v>
       </c>
       <c r="D616">
-        <v>53</v>
+        <v>265</v>
       </c>
       <c r="E616" t="s">
         <v>29</v>
@@ -14774,7 +14772,7 @@
         <v>1</v>
       </c>
       <c r="D617">
-        <v>44</v>
+        <v>220</v>
       </c>
       <c r="E617" t="s">
         <v>24</v>
@@ -14794,7 +14792,7 @@
         <v>1</v>
       </c>
       <c r="D618">
-        <v>46</v>
+        <v>230</v>
       </c>
       <c r="E618" t="s">
         <v>25</v>
@@ -14814,7 +14812,7 @@
         <v>1</v>
       </c>
       <c r="D619">
-        <v>48</v>
+        <v>240</v>
       </c>
       <c r="E619" t="s">
         <v>25</v>
@@ -14834,7 +14832,7 @@
         <v>1</v>
       </c>
       <c r="D620">
-        <v>50</v>
+        <v>250</v>
       </c>
       <c r="E620" t="s">
         <v>25</v>
@@ -14854,7 +14852,7 @@
         <v>1</v>
       </c>
       <c r="D621">
-        <v>53</v>
+        <v>265</v>
       </c>
       <c r="E621" t="s">
         <v>25</v>
@@ -14874,7 +14872,7 @@
         <v>1</v>
       </c>
       <c r="D622">
-        <v>44</v>
+        <v>220</v>
       </c>
       <c r="E622" t="s">
         <v>24</v>
@@ -14894,7 +14892,7 @@
         <v>1</v>
       </c>
       <c r="D623">
-        <v>46</v>
+        <v>230</v>
       </c>
       <c r="E623" t="s">
         <v>25</v>
@@ -14914,7 +14912,7 @@
         <v>1</v>
       </c>
       <c r="D624">
-        <v>48</v>
+        <v>240</v>
       </c>
       <c r="E624" t="s">
         <v>25</v>
@@ -14934,7 +14932,7 @@
         <v>1</v>
       </c>
       <c r="D625">
-        <v>50</v>
+        <v>250</v>
       </c>
       <c r="E625" t="s">
         <v>25</v>
@@ -14954,7 +14952,7 @@
         <v>1</v>
       </c>
       <c r="D626">
-        <v>53</v>
+        <v>265</v>
       </c>
       <c r="E626" t="s">
         <v>25</v>
@@ -14974,7 +14972,7 @@
         <v>1</v>
       </c>
       <c r="D627">
-        <v>44</v>
+        <v>220</v>
       </c>
       <c r="E627" t="s">
         <v>24</v>
@@ -14994,7 +14992,7 @@
         <v>1</v>
       </c>
       <c r="D628">
-        <v>46</v>
+        <v>230</v>
       </c>
       <c r="E628" t="s">
         <v>25</v>
@@ -15014,7 +15012,7 @@
         <v>1</v>
       </c>
       <c r="D629">
-        <v>48</v>
+        <v>240</v>
       </c>
       <c r="E629" t="s">
         <v>25</v>
@@ -15034,7 +15032,7 @@
         <v>1</v>
       </c>
       <c r="D630">
-        <v>50</v>
+        <v>250</v>
       </c>
       <c r="E630" t="s">
         <v>25</v>
@@ -15054,7 +15052,7 @@
         <v>1</v>
       </c>
       <c r="D631">
-        <v>53</v>
+        <v>265</v>
       </c>
       <c r="E631" t="s">
         <v>25</v>
@@ -15074,7 +15072,7 @@
         <v>1</v>
       </c>
       <c r="D632">
-        <v>44</v>
+        <v>220</v>
       </c>
       <c r="E632" t="s">
         <v>24</v>
@@ -15094,7 +15092,7 @@
         <v>1</v>
       </c>
       <c r="D633">
-        <v>46</v>
+        <v>230</v>
       </c>
       <c r="E633" t="s">
         <v>25</v>
@@ -15114,7 +15112,7 @@
         <v>1</v>
       </c>
       <c r="D634">
-        <v>48</v>
+        <v>240</v>
       </c>
       <c r="E634" t="s">
         <v>25</v>
@@ -15134,7 +15132,7 @@
         <v>1</v>
       </c>
       <c r="D635">
-        <v>50</v>
+        <v>250</v>
       </c>
       <c r="E635" t="s">
         <v>25</v>
@@ -15154,7 +15152,7 @@
         <v>1</v>
       </c>
       <c r="D636">
-        <v>53</v>
+        <v>265</v>
       </c>
       <c r="E636" t="s">
         <v>25</v>
@@ -15174,7 +15172,7 @@
         <v>1</v>
       </c>
       <c r="D637">
-        <v>44</v>
+        <v>220</v>
       </c>
       <c r="E637" t="s">
         <v>28</v>
@@ -15194,7 +15192,7 @@
         <v>1</v>
       </c>
       <c r="D638">
-        <v>46</v>
+        <v>230</v>
       </c>
       <c r="E638" t="s">
         <v>29</v>
@@ -15214,7 +15212,7 @@
         <v>1</v>
       </c>
       <c r="D639">
-        <v>48</v>
+        <v>240</v>
       </c>
       <c r="E639" t="s">
         <v>29</v>
@@ -15234,7 +15232,7 @@
         <v>1</v>
       </c>
       <c r="D640">
-        <v>50</v>
+        <v>250</v>
       </c>
       <c r="E640" t="s">
         <v>29</v>
@@ -15254,7 +15252,7 @@
         <v>1</v>
       </c>
       <c r="D641">
-        <v>53</v>
+        <v>265</v>
       </c>
       <c r="E641" t="s">
         <v>29</v>
@@ -15274,7 +15272,7 @@
         <v>1</v>
       </c>
       <c r="D642">
-        <v>46</v>
+        <v>230</v>
       </c>
       <c r="E642" t="s">
         <v>25</v>
@@ -15294,7 +15292,7 @@
         <v>1</v>
       </c>
       <c r="D643">
-        <v>48</v>
+        <v>240</v>
       </c>
       <c r="E643" t="s">
         <v>25</v>
@@ -15314,7 +15312,7 @@
         <v>1</v>
       </c>
       <c r="D644">
-        <v>50</v>
+        <v>250</v>
       </c>
       <c r="E644" t="s">
         <v>25</v>
@@ -15334,7 +15332,7 @@
         <v>1</v>
       </c>
       <c r="D645">
-        <v>53</v>
+        <v>265</v>
       </c>
       <c r="E645" t="s">
         <v>25</v>
@@ -15354,7 +15352,7 @@
         <v>1</v>
       </c>
       <c r="D646">
-        <v>46</v>
+        <v>230</v>
       </c>
       <c r="E646" t="s">
         <v>25</v>
@@ -15374,7 +15372,7 @@
         <v>1</v>
       </c>
       <c r="D647">
-        <v>48</v>
+        <v>240</v>
       </c>
       <c r="E647" t="s">
         <v>25</v>
@@ -15394,7 +15392,7 @@
         <v>1</v>
       </c>
       <c r="D648">
-        <v>50</v>
+        <v>250</v>
       </c>
       <c r="E648" t="s">
         <v>25</v>
@@ -15414,7 +15412,7 @@
         <v>1</v>
       </c>
       <c r="D649">
-        <v>53</v>
+        <v>265</v>
       </c>
       <c r="E649" t="s">
         <v>25</v>
@@ -15434,7 +15432,7 @@
         <v>1</v>
       </c>
       <c r="D650">
-        <v>46</v>
+        <v>230</v>
       </c>
       <c r="E650" t="s">
         <v>25</v>
@@ -15454,7 +15452,7 @@
         <v>1</v>
       </c>
       <c r="D651">
-        <v>48</v>
+        <v>240</v>
       </c>
       <c r="E651" t="s">
         <v>25</v>
@@ -15474,7 +15472,7 @@
         <v>1</v>
       </c>
       <c r="D652">
-        <v>50</v>
+        <v>250</v>
       </c>
       <c r="E652" t="s">
         <v>25</v>
@@ -15494,7 +15492,7 @@
         <v>1</v>
       </c>
       <c r="D653">
-        <v>53</v>
+        <v>265</v>
       </c>
       <c r="E653" t="s">
         <v>25</v>
@@ -15514,7 +15512,7 @@
         <v>1</v>
       </c>
       <c r="D654">
-        <v>46</v>
+        <v>230</v>
       </c>
       <c r="E654" t="s">
         <v>25</v>
@@ -15534,7 +15532,7 @@
         <v>1</v>
       </c>
       <c r="D655">
-        <v>48</v>
+        <v>240</v>
       </c>
       <c r="E655" t="s">
         <v>25</v>
@@ -15554,7 +15552,7 @@
         <v>1</v>
       </c>
       <c r="D656">
-        <v>50</v>
+        <v>250</v>
       </c>
       <c r="E656" t="s">
         <v>25</v>
@@ -15574,7 +15572,7 @@
         <v>1</v>
       </c>
       <c r="D657">
-        <v>53</v>
+        <v>265</v>
       </c>
       <c r="E657" t="s">
         <v>25</v>
@@ -15594,7 +15592,7 @@
         <v>1</v>
       </c>
       <c r="D658">
-        <v>46</v>
+        <v>230</v>
       </c>
       <c r="E658" t="s">
         <v>29</v>
@@ -15614,7 +15612,7 @@
         <v>1</v>
       </c>
       <c r="D659">
-        <v>48</v>
+        <v>240</v>
       </c>
       <c r="E659" t="s">
         <v>29</v>
@@ -15634,7 +15632,7 @@
         <v>1</v>
       </c>
       <c r="D660">
-        <v>50</v>
+        <v>250</v>
       </c>
       <c r="E660" t="s">
         <v>29</v>
@@ -15654,7 +15652,7 @@
         <v>1</v>
       </c>
       <c r="D661">
-        <v>53</v>
+        <v>265</v>
       </c>
       <c r="E661" t="s">
         <v>29</v>
@@ -15674,7 +15672,7 @@
         <v>1</v>
       </c>
       <c r="D662">
-        <v>48</v>
+        <v>240</v>
       </c>
       <c r="E662" t="s">
         <v>25</v>
@@ -15694,7 +15692,7 @@
         <v>1</v>
       </c>
       <c r="D663">
-        <v>50</v>
+        <v>250</v>
       </c>
       <c r="E663" t="s">
         <v>25</v>
@@ -15714,7 +15712,7 @@
         <v>1</v>
       </c>
       <c r="D664">
-        <v>53</v>
+        <v>265</v>
       </c>
       <c r="E664" t="s">
         <v>25</v>
@@ -15734,7 +15732,7 @@
         <v>1</v>
       </c>
       <c r="D665">
-        <v>48</v>
+        <v>240</v>
       </c>
       <c r="E665" t="s">
         <v>25</v>
@@ -15754,7 +15752,7 @@
         <v>1</v>
       </c>
       <c r="D666">
-        <v>50</v>
+        <v>250</v>
       </c>
       <c r="E666" t="s">
         <v>25</v>
@@ -15774,7 +15772,7 @@
         <v>1</v>
       </c>
       <c r="D667">
-        <v>53</v>
+        <v>265</v>
       </c>
       <c r="E667" t="s">
         <v>25</v>
@@ -15794,7 +15792,7 @@
         <v>1</v>
       </c>
       <c r="D668">
-        <v>48</v>
+        <v>240</v>
       </c>
       <c r="E668" t="s">
         <v>25</v>
@@ -15814,7 +15812,7 @@
         <v>1</v>
       </c>
       <c r="D669">
-        <v>50</v>
+        <v>250</v>
       </c>
       <c r="E669" t="s">
         <v>25</v>
@@ -15834,7 +15832,7 @@
         <v>1</v>
       </c>
       <c r="D670">
-        <v>53</v>
+        <v>265</v>
       </c>
       <c r="E670" t="s">
         <v>25</v>
@@ -15854,7 +15852,7 @@
         <v>1</v>
       </c>
       <c r="D671">
-        <v>48</v>
+        <v>240</v>
       </c>
       <c r="E671" t="s">
         <v>25</v>
@@ -15874,7 +15872,7 @@
         <v>1</v>
       </c>
       <c r="D672">
-        <v>50</v>
+        <v>250</v>
       </c>
       <c r="E672" t="s">
         <v>25</v>
@@ -15894,7 +15892,7 @@
         <v>1</v>
       </c>
       <c r="D673">
-        <v>53</v>
+        <v>265</v>
       </c>
       <c r="E673" t="s">
         <v>25</v>
@@ -15914,7 +15912,7 @@
         <v>1</v>
       </c>
       <c r="D674">
-        <v>48</v>
+        <v>240</v>
       </c>
       <c r="E674" t="s">
         <v>25</v>
@@ -15934,7 +15932,7 @@
         <v>1</v>
       </c>
       <c r="D675">
-        <v>50</v>
+        <v>250</v>
       </c>
       <c r="E675" t="s">
         <v>25</v>
@@ -15954,7 +15952,7 @@
         <v>1</v>
       </c>
       <c r="D676">
-        <v>53</v>
+        <v>265</v>
       </c>
       <c r="E676" t="s">
         <v>25</v>
@@ -15974,7 +15972,7 @@
         <v>1</v>
       </c>
       <c r="D677">
-        <v>48</v>
+        <v>240</v>
       </c>
       <c r="E677" t="s">
         <v>25</v>
@@ -15994,7 +15992,7 @@
         <v>1</v>
       </c>
       <c r="D678">
-        <v>50</v>
+        <v>250</v>
       </c>
       <c r="E678" t="s">
         <v>25</v>
@@ -16014,7 +16012,7 @@
         <v>1</v>
       </c>
       <c r="D679">
-        <v>53</v>
+        <v>265</v>
       </c>
       <c r="E679" t="s">
         <v>25</v>
@@ -16034,7 +16032,7 @@
         <v>1</v>
       </c>
       <c r="D680">
-        <v>48</v>
+        <v>240</v>
       </c>
       <c r="E680" t="s">
         <v>29</v>
@@ -16054,7 +16052,7 @@
         <v>1</v>
       </c>
       <c r="D681">
-        <v>50</v>
+        <v>250</v>
       </c>
       <c r="E681" t="s">
         <v>29</v>
@@ -16074,7 +16072,7 @@
         <v>1</v>
       </c>
       <c r="D682">
-        <v>53</v>
+        <v>265</v>
       </c>
       <c r="E682" t="s">
         <v>29</v>
@@ -16094,7 +16092,7 @@
         <v>1</v>
       </c>
       <c r="D683">
-        <v>50</v>
+        <v>250</v>
       </c>
       <c r="E683" t="s">
         <v>25</v>
@@ -16114,7 +16112,7 @@
         <v>1</v>
       </c>
       <c r="D684">
-        <v>53</v>
+        <v>265</v>
       </c>
       <c r="E684" t="s">
         <v>25</v>
@@ -16134,7 +16132,7 @@
         <v>1</v>
       </c>
       <c r="D685">
-        <v>50</v>
+        <v>250</v>
       </c>
       <c r="E685" t="s">
         <v>25</v>
@@ -16154,7 +16152,7 @@
         <v>1</v>
       </c>
       <c r="D686">
-        <v>53</v>
+        <v>265</v>
       </c>
       <c r="E686" t="s">
         <v>25</v>
@@ -16174,7 +16172,7 @@
         <v>1</v>
       </c>
       <c r="D687">
-        <v>50</v>
+        <v>250</v>
       </c>
       <c r="E687" t="s">
         <v>25</v>
@@ -16194,7 +16192,7 @@
         <v>1</v>
       </c>
       <c r="D688">
-        <v>53</v>
+        <v>265</v>
       </c>
       <c r="E688" t="s">
         <v>25</v>
@@ -16214,7 +16212,7 @@
         <v>1</v>
       </c>
       <c r="D689">
-        <v>50</v>
+        <v>250</v>
       </c>
       <c r="E689" t="s">
         <v>25</v>
@@ -16234,7 +16232,7 @@
         <v>1</v>
       </c>
       <c r="D690">
-        <v>53</v>
+        <v>265</v>
       </c>
       <c r="E690" t="s">
         <v>25</v>
@@ -16254,13 +16252,13 @@
         <v>1</v>
       </c>
       <c r="D691">
-        <v>50</v>
+        <v>250</v>
       </c>
       <c r="E691" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="F691" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="692" spans="1:6" x14ac:dyDescent="0.3">
@@ -16274,13 +16272,13 @@
         <v>1</v>
       </c>
       <c r="D692">
-        <v>53</v>
+        <v>265</v>
       </c>
       <c r="E692" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="F692" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="693" spans="1:6" x14ac:dyDescent="0.3">
@@ -16294,7 +16292,7 @@
         <v>1</v>
       </c>
       <c r="D693">
-        <v>53</v>
+        <v>265</v>
       </c>
       <c r="E693" t="s">
         <v>25</v>
@@ -16314,7 +16312,7 @@
         <v>1</v>
       </c>
       <c r="D694">
-        <v>53</v>
+        <v>265</v>
       </c>
       <c r="E694" t="s">
         <v>25</v>
@@ -16334,7 +16332,7 @@
         <v>1</v>
       </c>
       <c r="D695">
-        <v>53</v>
+        <v>265</v>
       </c>
       <c r="E695" t="s">
         <v>25</v>
@@ -16354,7 +16352,7 @@
         <v>1</v>
       </c>
       <c r="D696">
-        <v>53</v>
+        <v>265</v>
       </c>
       <c r="E696" t="s">
         <v>25</v>
@@ -16374,13 +16372,13 @@
         <v>1</v>
       </c>
       <c r="D697">
-        <v>53</v>
+        <v>265</v>
       </c>
       <c r="E697" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="F697" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
